--- a/c++/PETSc_Tests/NonLinear-Verification.xlsx
+++ b/c++/PETSc_Tests/NonLinear-Verification.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyalberti/Documents/projects/Fctn_Src/c++/PETSc_Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA8670-0E0C-2F46-9A5C-8EDA49CE7BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D1989-92FE-0741-9D3D-CA0B47207AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11260" yWindow="-25940" windowWidth="25700" windowHeight="17040" xr2:uid="{A64FA9E8-8B1C-4A42-B432-8621287DF68E}"/>
+    <workbookView xWindow="-6600" yWindow="-19180" windowWidth="25700" windowHeight="17040" activeTab="1" xr2:uid="{A64FA9E8-8B1C-4A42-B432-8621287DF68E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="solution check" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="source check" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Velocity</t>
   </si>
@@ -44,12 +46,137 @@
   <si>
     <t>Analytic</t>
   </si>
+  <si>
+    <t>cell 32</t>
+  </si>
+  <si>
+    <t>cell 31</t>
+  </si>
+  <si>
+    <t>cell 30</t>
+  </si>
+  <si>
+    <t>cell 29</t>
+  </si>
+  <si>
+    <t>cell 28</t>
+  </si>
+  <si>
+    <t>cell 27</t>
+  </si>
+  <si>
+    <t>cell 26</t>
+  </si>
+  <si>
+    <t>cell 25</t>
+  </si>
+  <si>
+    <t>cell 24</t>
+  </si>
+  <si>
+    <t>cell 23</t>
+  </si>
+  <si>
+    <t>cell 22</t>
+  </si>
+  <si>
+    <t>cell 21</t>
+  </si>
+  <si>
+    <t>cell 20</t>
+  </si>
+  <si>
+    <t>cell 19</t>
+  </si>
+  <si>
+    <t>cell 18</t>
+  </si>
+  <si>
+    <t>cell 17</t>
+  </si>
+  <si>
+    <t>cell 16</t>
+  </si>
+  <si>
+    <t>cell 15</t>
+  </si>
+  <si>
+    <t>cell 14</t>
+  </si>
+  <si>
+    <t>cell 13</t>
+  </si>
+  <si>
+    <t>cell 12</t>
+  </si>
+  <si>
+    <t>cell 11</t>
+  </si>
+  <si>
+    <t>cell 10</t>
+  </si>
+  <si>
+    <t>cell 9</t>
+  </si>
+  <si>
+    <t>cell 8</t>
+  </si>
+  <si>
+    <t>cell 7</t>
+  </si>
+  <si>
+    <t>cell 6</t>
+  </si>
+  <si>
+    <t>cell 5</t>
+  </si>
+  <si>
+    <t>cell 4</t>
+  </si>
+  <si>
+    <t>cell 3</t>
+  </si>
+  <si>
+    <t>cell 2</t>
+  </si>
+  <si>
+    <t>cell 1</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>xnod</t>
+  </si>
+  <si>
+    <t>analytic integration</t>
+  </si>
+  <si>
+    <t>Computed Solution</t>
+  </si>
+  <si>
+    <t>analytic source integration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,10 +202,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -87,9 +215,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,7 +312,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$67</c:f>
+              <c:f>'solution check'!$B$4:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -367,7 +513,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$67</c:f>
+              <c:f>'solution check'!$C$4:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -605,7 +751,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$67</c:f>
+              <c:f>'solution check'!$B$4:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -806,7 +952,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$67</c:f>
+              <c:f>'solution check'!$D$4:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1044,7 +1190,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$67</c:f>
+              <c:f>'solution check'!$B$4:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1245,7 +1391,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$67</c:f>
+              <c:f>'solution check'!$E$4:$E$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1483,7 +1629,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$67</c:f>
+              <c:f>'solution check'!$B$4:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1684,7 +1830,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$67</c:f>
+              <c:f>'solution check'!$F$4:$F$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -3079,21 +3225,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8029C4AE-DF97-AD45-A5C1-A5DB9DD34D9D}">
   <dimension ref="A2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -4420,6 +4566,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
@@ -4429,33 +4600,4991 @@
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7874731F-479F-FA41-8DCA-A0579B6D12DC}">
+  <dimension ref="B1:R66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="6" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>2.2204E-16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.9999250900000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99989378200000001</v>
+      </c>
+      <c r="E3" s="10">
+        <f>(B4-B4^2)-(B3-B3^2)</f>
+        <v>3.0273437499999778E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <f>(B4^3 - 3*B4^2 - B4) - (B3^3 - 3*B3^2 - B3)</f>
+        <v>-3.4149169921874778E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <f>-(2*1) + (C3*D3)/3 + (C3*D4)/6 + (C4*D3)/6 + (C4*D4)/3</f>
+        <v>1.5299476662221423E-2</v>
+      </c>
+      <c r="I3" s="7">
+        <f>-(1*2^2) + (D3*C3^2)/4 + (D4*C3^2)/12 + (D3*C3*C4)/6 + (D4*C4*C3)/6 + (D3*C4^2)/12 + (D4*C4^2)/4</f>
+        <v>-1.6593932765531116E-2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1.5299E-2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>-1.6594000000000001E-2</v>
+      </c>
+      <c r="N3" s="9">
+        <f>(H3-K3)/K3</f>
+        <v>3.1156429925013766E-5</v>
+      </c>
+      <c r="O3" s="9">
+        <f>(I3-L3)/L3</f>
+        <v>-4.0517336919795216E-6</v>
+      </c>
+      <c r="Q3" s="10">
+        <f>SUM(H3:H4)</f>
+        <v>3.02734337478201E-2</v>
+      </c>
+      <c r="R3" s="10">
+        <f>SUM(I3:I4)</f>
+        <v>-3.4149166303960143E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.95335799</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.03937601</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="H4" s="7">
+        <f>(C4*D4) - (C3*D3)/3 - (C3*D4)/6 - (C4*D3)/6 - (C4*D4)/3</f>
+        <v>1.4973957085598677E-2</v>
+      </c>
+      <c r="I4" s="7">
+        <f>(D4*C4^2) - (D3*C3^2)/4 - (D4*C3^2)/12 - (D3*C3*C4)/6 - (D4*C4*C3)/6 - (D3*C4^2)/12 - (D4*C4^2)/4</f>
+        <v>-1.7555233538429027E-2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1.4973999999999999E-2</v>
+      </c>
+      <c r="L4" s="8">
+        <v>-1.7555000000000001E-2</v>
+      </c>
+      <c r="N4" s="9">
+        <f t="shared" ref="N4:N6" si="0">(H4-K4)/K4</f>
+        <v>-2.8659276961711219E-6</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" ref="O4:O6" si="1">(I4-L4)/L4</f>
+        <v>1.330324289523486E-5</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.95329347</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.03926074</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" ref="E5:E36" si="2">(B6-B6^2)-(B5-B5^2)</f>
+        <v>2.83203125E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:F36" si="3">(B6^3 - 3*B6^2 - B6) - (B5^3 - 3*B5^2 - B5)</f>
+        <v>-3.9825439453125E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f>-(C4*D4) + (C5*D5)/3 + (C5*D6)/6 + (C6*D5)/6 + (C6*D6)/3</f>
+        <v>1.4322924649459279E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <f>-(C4^2*D4) + (D5*C5^2)/4 + (D6*C5^2)/12 + (D5*C5*C6)/6 + (D6*C6*C5)/6 + (D5*C6^2)/12 + (D6*C6^2)/4</f>
+        <v>-1.9447316784119373E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1.4323000000000001E-2</v>
+      </c>
+      <c r="L5" s="8">
+        <v>-1.9446999999999999E-2</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" si="0"/>
+        <v>-5.2608071438854889E-6</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6289613789983187E-5</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" ref="Q5:R36" si="4">SUM(H5:H6)</f>
+        <v>2.832031576436389E-2</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="4"/>
+        <v>-3.9825441306060583E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.9071394699999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0794143700000001</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="7">
+        <f>(C6*D6) - (C5*D5)/3 - (C5*D6)/6 - (C6*D5)/6 - (C6*D6)/3</f>
+        <v>1.3997391114904612E-2</v>
+      </c>
+      <c r="I6" s="7">
+        <f>(D6*C6^2) - (D5*C5^2)/4 - (D6*C5^2)/12 - (D5*C5*C6)/6 - (D6*C6*C5)/6 - (D5*C6^2)/12 - (D6*C6^2)/4</f>
+        <v>-2.037812452194121E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.3997000000000001E-2</v>
+      </c>
+      <c r="L6" s="8">
+        <v>-2.0378E-2</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="0"/>
+        <v>2.7942766636476335E-5</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="1"/>
+        <v>6.1106065958216862E-6</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.9070844199999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0792889400000001</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ref="E7:E38" si="5">(B8-B8^2)-(B7-B7^2)</f>
+        <v>2.63671875E-2</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" ref="F7:F38" si="6">(B8^3 - 3*B8^2 - B8) - (B7^3 - 3*B7^2 - B7)</f>
+        <v>-4.5318603515625E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" ref="H7:H10" si="7">-(C6*D6) + (C7*D7)/3 + (C7*D8)/6 + (C8*D7)/6 + (C8*D8)/3</f>
+        <v>1.3346355927099762E-2</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" ref="I7:I10" si="8">-(C6^2*D6) + (D7*C7^2)/4 + (D8*C7^2)/12 + (D7*C7*C8)/6 + (D8*C8*C7)/6 + (D7*C8^2)/12 + (D8*C8^2)/4</f>
+        <v>-2.2209163963841316E-2</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.3346E-2</v>
+      </c>
+      <c r="L7" s="8">
+        <v>-2.2209E-2</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" ref="N7:N31" si="9">(H7-K7)/K7</f>
+        <v>2.6669196745244857E-5</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" ref="O7:O31" si="10">(I7-L7)/L7</f>
+        <v>7.382765604787595E-6</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" ref="Q7:R38" si="11">SUM(H7:H8)</f>
+        <v>2.6367188932577612E-2</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="11"/>
+        <v>-4.5318601031899775E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.86128513</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.1201727800000001</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="H8" s="7">
+        <f t="shared" ref="H8:H10" si="12">(C8*D8) - (C7*D7)/3 - (C7*D8)/6 - (C8*D7)/6 - (C8*D8)/3</f>
+        <v>1.302083300547785E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" ref="I8:I10" si="13">(D8*C8^2) - (D7*C7^2)/4 - (D8*C7^2)/12 - (D7*C7*C8)/6 - (D8*C8*C7)/6 - (D7*C8^2)/12 - (D8*C8^2)/4</f>
+        <v>-2.3109437068058458E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.3021E-2</v>
+      </c>
+      <c r="L8" s="8">
+        <v>-2.3109000000000001E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="9"/>
+        <v>-1.2825015140907583E-5</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="10"/>
+        <v>1.8913326342859521E-5</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.8612387699999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.1200359499999999</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" ref="E9:E40" si="14">(B10-B10^2)-(B9-B9^2)</f>
+        <v>2.44140625E-2</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" ref="F9:F40" si="15">(B10^3 - 3*B10^2 - B10) - (B9^3 - 3*B9^2 - B9)</f>
+        <v>-5.0628662109375E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H10" si="16">-(C8*D8) + (C9*D9)/3 + (C9*D10)/6 + (C10*D9)/6 + (C10*D10)/3</f>
+        <v>1.2369786686464379E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" ref="I9:I10" si="17">-(C8^2*D8) + (D9*C9^2)/4 + (D10*C9^2)/12 + (D9*C9*C10)/6 + (D10*C10*C9)/6 + (D9*C10^2)/12 + (D10*C10^2)/4</f>
+        <v>-2.4879468812962768E-2</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1.2370000000000001E-2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>-2.4878999999999998E-2</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="9"/>
+        <v>-1.7244424868368656E-5</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="10"/>
+        <v>1.8843722125889927E-5</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" ref="Q9:R40" si="18">SUM(H9:H10)</f>
+        <v>2.4414058435449082E-2</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="18"/>
+        <v>-5.0628673585308093E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.8157407400000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.16171596</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="H10" s="7">
+        <f t="shared" ref="H10" si="19">(C10*D10) - (C9*D9)/3 - (C9*D10)/6 - (C10*D9)/6 - (C10*D10)/3</f>
+        <v>1.2044271748984703E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" ref="I10" si="20">(D10*C10^2) - (D9*C9^2)/4 - (D10*C9^2)/12 - (D9*C9*C10)/6 - (D10*C10*C9)/6 - (D9*C10^2)/12 - (D10*C10^2)/4</f>
+        <v>-2.5749204772345324E-2</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.2043999999999999E-2</v>
+      </c>
+      <c r="L10" s="8">
+        <v>-2.5749000000000001E-2</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="9"/>
+        <v>2.2563017660554931E-5</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="10"/>
+        <v>7.9526329303386409E-6</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.81570242</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.1615663199999999</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ref="E11:E42" si="21">(B12-B12^2)-(B11-B11^2)</f>
+        <v>2.24609375E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:F42" si="22">(B12^3 - 3*B12^2 - B12) - (B11^3 - 3*B11^2 - B11)</f>
+        <v>-5.5755615234375E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" ref="H11:H22" si="23">-(C10*D10) + (C11*D11)/3 + (C11*D12)/6 + (C12*D11)/6 + (C12*D12)/3</f>
+        <v>1.1393228495190866E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" ref="I11:I22" si="24">-(C10^2*D10) + (D11*C11^2)/4 + (D12*C11^2)/12 + (D11*C11*C12)/6 + (D12*C12*C11)/6 + (D11*C12^2)/12 + (D12*C12^2)/4</f>
+        <v>-2.7458203242644252E-2</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1.1393E-2</v>
+      </c>
+      <c r="L11" s="8">
+        <v>-2.7458E-2</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="9"/>
+        <v>2.0055752731100656E-5</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="10"/>
+        <v>7.401946400051564E-6</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" ref="Q11:R42" si="25">SUM(H11:H12)</f>
+        <v>2.2460931180492416E-2</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="25"/>
+        <v>-5.5755640461196521E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.7704563600000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.20411662</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="H12" s="7">
+        <f t="shared" ref="H12:H22" si="26">(C12*D12) - (C11*D11)/3 - (C11*D12)/6 - (C12*D11)/6 - (C12*D12)/3</f>
+        <v>1.106770268530155E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" ref="I12:I22" si="27">(D12*C12^2) - (D11*C11^2)/4 - (D12*C11^2)/12 - (D11*C11*C12)/6 - (D12*C12*C11)/6 - (D11*C12^2)/12 - (D12*C12^2)/4</f>
+        <v>-2.8297437218552268E-2</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1.1068E-2</v>
+      </c>
+      <c r="L12" s="8">
+        <v>-2.8296999999999999E-2</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="9"/>
+        <v>-2.6862549552709479E-5</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5451056729299838E-5</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.7704255499999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.20395253</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" ref="E13:E44" si="28">(B14-B14^2)-(B13-B13^2)</f>
+        <v>2.05078125E-2</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" ref="F13:F44" si="29">(B14^3 - 3*B14^2 - B14) - (B13^3 - 3*B13^2 - B13)</f>
+        <v>-6.0699462890625E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13:H22" si="30">-(C12*D12) + (C13*D13)/3 + (C13*D14)/6 + (C14*D13)/6 + (C14*D14)/3</f>
+        <v>1.0416675001599374E-2</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" ref="I13:I22" si="31">-(C12^2*D12) + (D13*C13^2)/4 + (D14*C13^2)/12 + (D13*C13*C14)/6 + (D14*C14*C13)/6 + (D13*C14^2)/12 + (D14*C14^2)/4</f>
+        <v>-2.9945347202067651E-2</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1.0416999999999999E-2</v>
+      </c>
+      <c r="L13" s="8">
+        <v>-2.9944999999999999E-2</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="9"/>
+        <v>-3.1198848096911372E-5</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="10"/>
+        <v>1.1594659130139975E-5</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" ref="Q13:R44" si="32">SUM(H13:H14)</f>
+        <v>2.0507818305509407E-2</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="32"/>
+        <v>-6.0699441940634813E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.7253856599999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.24745661</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="H14" s="7">
+        <f t="shared" ref="H14:H22" si="33">(C14*D14) - (C13*D13)/3 - (C13*D14)/6 - (C14*D13)/6 - (C14*D14)/3</f>
+        <v>1.0091143303910033E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" ref="I14:I22" si="34">(D14*C14^2) - (D13*C13^2)/4 - (D14*C13^2)/12 - (D13*C13*C14)/6 - (D14*C14*C13)/6 - (D13*C14^2)/12 - (D14*C14^2)/4</f>
+        <v>-3.0754094738567161E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1.0090999999999999E-2</v>
+      </c>
+      <c r="L14" s="8">
+        <v>-3.0754E-2</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="9"/>
+        <v>1.4201160443327254E-5</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="10"/>
+        <v>3.0805282942506433E-6</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.7253619</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.24727619</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" ref="E15:E46" si="35">(B16-B16^2)-(B15-B15^2)</f>
+        <v>1.85546875E-2</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15:F46" si="36">(B16^3 - 3*B16^2 - B16) - (B15^3 - 3*B15^2 - B15)</f>
+        <v>-6.5460205078125E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" ref="H15:H22" si="37">-(C14*D14) + (C15*D15)/3 + (C15*D16)/6 + (C16*D15)/6 + (C16*D16)/3</f>
+        <v>9.4401037466361748E-3</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" ref="I15:I22" si="38">-(C14^2*D14) + (D15*C15^2)/4 + (D16*C15^2)/12 + (D15*C15*C16)/6 + (D16*C16*C15)/6 + (D15*C16^2)/12 + (D16*C16^2)/4</f>
+        <v>-3.2341006465157141E-2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>9.4400999999999999E-3</v>
+      </c>
+      <c r="L15" s="8">
+        <v>-3.2341000000000002E-2</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="9"/>
+        <v>3.9688522101643173E-7</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="10"/>
+        <v>1.9990591320036534E-7</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" ref="Q15:R46" si="39">SUM(H15:H16)</f>
+        <v>1.8554687039498141E-2</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="39"/>
+        <v>-6.5460217075551608E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.68048526</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.2918283100000001</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="H16" s="7">
+        <f t="shared" ref="H16:H22" si="40">(C16*D16) - (C15*D15)/3 - (C15*D16)/6 - (C16*D15)/6 - (C16*D16)/3</f>
+        <v>9.1145832928619663E-3</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" ref="I16:I22" si="41">(D16*C16^2) - (D15*C15^2)/4 - (D16*C15^2)/12 - (D15*C15*C16)/6 - (D16*C16*C15)/6 - (D15*C16^2)/12 - (D16*C16^2)/4</f>
+        <v>-3.3119210610394467E-2</v>
+      </c>
+      <c r="K16" s="8">
+        <v>9.1146000000000005E-3</v>
+      </c>
+      <c r="L16" s="8">
+        <v>-3.3119000000000003E-2</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="9"/>
+        <v>-1.8330083639594018E-6</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="10"/>
+        <v>6.3592014995811337E-6</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.68046819</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.29162939</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" ref="E17:E48" si="42">(B18-B18^2)-(B17-B17^2)</f>
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17:F48" si="43">(B18^3 - 3*B18^2 - B18) - (B17^3 - 3*B17^2 - B17)</f>
+        <v>-7.0037841796875E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:H22" si="44">-(C16*D16) + (C17*D17)/3 + (C17*D18)/6 + (C18*D17)/6 + (C18*D18)/3</f>
+        <v>8.4635373496423361E-3</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" ref="I17:I22" si="45">-(C16^2*D16) + (D17*C17^2)/4 + (D18*C17^2)/12 + (D17*C17*C18)/6 + (D18*C18*C17)/6 + (D17*C18^2)/12 + (D18*C18^2)/4</f>
+        <v>-3.4645080986471122E-2</v>
+      </c>
+      <c r="K17" s="8">
+        <v>8.4635000000000005E-3</v>
+      </c>
+      <c r="L17" s="8">
+        <v>-3.4645000000000002E-2</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="9"/>
+        <v>4.4130256200772809E-6</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="10"/>
+        <v>2.3376092111298281E-6</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" ref="Q17:R48" si="46">SUM(H17:H18)</f>
+        <v>1.6601551523796498E-2</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="46"/>
+        <v>-7.0037855446409392E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.63571428</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.33733624</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H22" si="47">(C18*D18) - (C17*D17)/3 - (C17*D18)/6 - (C18*D17)/6 - (C18*D18)/3</f>
+        <v>8.1380141741541623E-3</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" ref="I18:I22" si="48">(D18*C18^2) - (D17*C17^2)/4 - (D18*C17^2)/12 - (D17*C17*C18)/6 - (D18*C18*C17)/6 - (D17*C18^2)/12 - (D18*C18^2)/4</f>
+        <v>-3.539277445993827E-2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>8.1379999999999994E-3</v>
+      </c>
+      <c r="L18" s="8">
+        <v>-3.5393000000000001E-2</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="9"/>
+        <v>1.7417245223497901E-6</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="10"/>
+        <v>-6.3724482731324762E-6</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.6357036</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.33711629</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" ref="E19:E66" si="49">(B20-B20^2)-(B19-B19^2)</f>
+        <v>1.46484375E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" ref="F19:F66" si="50">(B20^3 - 3*B20^2 - B20) - (B19^3 - 3*B19^2 - B19)</f>
+        <v>-7.4432373046875E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" ref="H19:H22" si="51">-(C18*D18) + (C19*D19)/3 + (C19*D20)/6 + (C20*D19)/6 + (C20*D20)/3</f>
+        <v>7.4869812184147344E-3</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" ref="I19:I22" si="52">-(C18^2*D18) + (D19*C19^2)/4 + (D20*C19^2)/12 + (D19*C19*C20)/6 + (D20*C20*C19)/6 + (D19*C20^2)/12 + (D20*C20^2)/4</f>
+        <v>-3.6857604789406029E-2</v>
+      </c>
+      <c r="K19" s="8">
+        <v>7.4869999999999997E-3</v>
+      </c>
+      <c r="L19" s="8">
+        <v>-3.6858000000000002E-2</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="9"/>
+        <v>-2.5085595385768336E-6</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="10"/>
+        <v>-1.0722518692633136E-5</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" ref="Q19:R66" si="53">SUM(H19:H20)</f>
+        <v>1.4648447740387649E-2</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="53"/>
+        <v>-7.443235183266772E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.5910338100000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.3840990799999999</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="7">
+        <f t="shared" ref="H20:H22" si="54">(C20*D20) - (C19*D19)/3 - (C19*D20)/6 - (C20*D19)/6 - (C20*D20)/3</f>
+        <v>7.1614665219729146E-3</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" ref="I20:I22" si="55">(D20*C20^2) - (D19*C19^2)/4 - (D20*C19^2)/12 - (D19*C19*C20)/6 - (D20*C20*C19)/6 - (D19*C20^2)/12 - (D20*C20^2)/4</f>
+        <v>-3.7574747043261691E-2</v>
+      </c>
+      <c r="K20" s="8">
+        <v>7.1615000000000003E-3</v>
+      </c>
+      <c r="L20" s="8">
+        <v>-3.7574999999999997E-2</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="9"/>
+        <v>-4.6747227655902496E-6</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="10"/>
+        <v>-6.7320489236415646E-6</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.5910293099999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.3838551400000001</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" ref="E21:E66" si="56">(B22-B22^2)-(B21-B21^2)</f>
+        <v>1.26953125E-2</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" ref="F21:F66" si="57">(B22^3 - 3*B22^2 - B22) - (B21^3 - 3*B21^2 - B21)</f>
+        <v>-7.8643798828125E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" ref="H21:H22" si="58">-(C20*D20) + (C21*D21)/3 + (C21*D22)/6 + (C22*D21)/6 + (C22*D22)/3</f>
+        <v>6.5104141203514709E-3</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" ref="I21:I22" si="59">-(C20^2*D20) + (D21*C21^2)/4 + (D22*C21^2)/12 + (D21*C21*C22)/6 + (D22*C22*C21)/6 + (D21*C22^2)/12 + (D22*C22^2)/4</f>
+        <v>-3.8978584657596294E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>6.5104000000000004E-3</v>
+      </c>
+      <c r="L21" s="8">
+        <v>-3.8979E-2</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="9"/>
+        <v>2.1688915382382836E-6</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="10"/>
+        <v>-1.0655542823218152E-5</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" ref="Q21:R66" si="60">SUM(H21:H22)</f>
+        <v>1.2695305628753761E-2</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="60"/>
+        <v>-7.8643813330107726E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.5464065199999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.43225194</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="7">
+        <f t="shared" ref="H22" si="61">(C22*D22) - (C21*D21)/3 - (C21*D22)/6 - (C22*D21)/6 - (C22*D22)/3</f>
+        <v>6.1848915084022904E-3</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" ref="I22" si="62">(D22*C22^2) - (D21*C21^2)/4 - (D22*C21^2)/12 - (D21*C21*C22)/6 - (D22*C22*C21)/6 - (D21*C22^2)/12 - (D22*C22^2)/4</f>
+        <v>-3.9665228672511432E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>6.1849000000000001E-3</v>
+      </c>
+      <c r="L22" s="8">
+        <v>-3.9664999999999999E-2</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" si="9"/>
+        <v>-1.372956346863234E-6</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="10"/>
+        <v>5.7650954603146593E-6</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.54640804</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.4319805299999999</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" ref="E23:E66" si="63">(B24-B24^2)-(B23-B23^2)</f>
+        <v>1.07421875E-2</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" ref="F23:F66" si="64">(B24^3 - 3*B24^2 - B24) - (B23^3 - 3*B23^2 - B23)</f>
+        <v>-8.2672119140625E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" ref="H23:H66" si="65">-(C22*D22) + (C23*D23)/3 + (C23*D24)/6 + (C24*D23)/6 + (C24*D24)/3</f>
+        <v>5.5338616256365158E-3</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" ref="I23:I66" si="66">-(C22^2*D22) + (D23*C23^2)/4 + (D24*C23^2)/12 + (D23*C23*C24)/6 + (D24*C24*C23)/6 + (D23*C24^2)/12 + (D24*C24^2)/4</f>
+        <v>-4.1007978432801351E-2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>5.5338999999999996E-3</v>
+      </c>
+      <c r="L23" s="8">
+        <v>-4.1008000000000003E-2</v>
+      </c>
+      <c r="N23" s="9">
+        <f t="shared" si="9"/>
+        <v>-6.9344157797822347E-6</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="10"/>
+        <v>-5.2592661558680897E-7</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" ref="Q23:R66" si="67">SUM(H23:H24)</f>
+        <v>1.0742192373522474E-2</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="67"/>
+        <v>-8.2672103926539453E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.5017962899999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.48194928</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="7">
+        <f t="shared" ref="H24:H66" si="68">(C24*D24) - (C23*D23)/3 - (C23*D24)/6 - (C24*D23)/6 - (C24*D24)/3</f>
+        <v>5.2083307478859586E-3</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" ref="I24:I66" si="69">(D24*C24^2) - (D23*C23^2)/4 - (D24*C23^2)/12 - (D23*C23*C24)/6 - (D24*C24*C23)/6 - (D23*C24^2)/12 - (D24*C24^2)/4</f>
+        <v>-4.1664125493738102E-2</v>
+      </c>
+      <c r="K24" s="8">
+        <v>5.2082999999999999E-3</v>
+      </c>
+      <c r="L24" s="8">
+        <v>-4.1664E-2</v>
+      </c>
+      <c r="N24" s="9">
+        <f t="shared" si="9"/>
+        <v>5.9036318873171188E-6</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" si="10"/>
+        <v>3.0120424851817182E-6</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.5018037200000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.4816462800000001</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" ref="E25:E66" si="70">(B26-B26^2)-(B25-B25^2)</f>
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" ref="F25:F66" si="71">(B26^3 - 3*B26^2 - B26) - (B25^3 - 3*B25^2 - B25)</f>
+        <v>-8.6517333984375E-2</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" ref="H25:H66" si="72">-(C24*D24) + (C25*D25)/3 + (C25*D26)/6 + (C26*D25)/6 + (C26*D26)/3</f>
+        <v>4.5572944727177989E-3</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" ref="I25:I66" si="73">-(C24^2*D24) + (D25*C25^2)/4 + (D26*C25^2)/12 + (D25*C25*C26)/6 + (D26*C26*C25)/6 + (D25*C26^2)/12 + (D26*C26^2)/4</f>
+        <v>-4.2945859940837661E-2</v>
+      </c>
+      <c r="K25" s="8">
+        <v>4.5573000000000002E-3</v>
+      </c>
+      <c r="L25" s="8">
+        <v>-4.2945999999999998E-2</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="9"/>
+        <v>-1.2128414195638968E-6</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="10"/>
+        <v>-3.2612853894982411E-6</v>
+      </c>
+      <c r="Q25" s="10">
+        <f t="shared" ref="Q25:R66" si="74">SUM(H25:H26)</f>
+        <v>8.78907134465301E-3</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="74"/>
+        <v>-8.6517320664563524E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.4571678299999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.5333683300000001</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="H26" s="7">
+        <f t="shared" ref="H26:H66" si="75">(C26*D26) - (C25*D25)/3 - (C25*D26)/6 - (C26*D25)/6 - (C26*D26)/3</f>
+        <v>4.2317768719352111E-3</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" ref="I26:I66" si="76">(D26*C26^2) - (D25*C25^2)/4 - (D26*C25^2)/12 - (D25*C25*C26)/6 - (D26*C26*C25)/6 - (D25*C26^2)/12 - (D26*C26^2)/4</f>
+        <v>-4.3571460723725863E-2</v>
+      </c>
+      <c r="K26" s="8">
+        <v>4.2318E-3</v>
+      </c>
+      <c r="L26" s="8">
+        <v>-4.3570999999999999E-2</v>
+      </c>
+      <c r="N26" s="9">
+        <f t="shared" si="9"/>
+        <v>-5.4653019492521289E-6</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" si="10"/>
+        <v>1.0574091158447084E-5</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.4571811299999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.53302885</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" ref="E27:E66" si="77">(B28-B28^2)-(B27-B27^2)</f>
+        <v>6.8359375E-3</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" ref="F27:F66" si="78">(B28^3 - 3*B28^2 - B28) - (B27^3 - 3*B27^2 - B27)</f>
+        <v>-9.0179443359375E-2</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" ref="H27:H66" si="79">-(C26*D26) + (C27*D27)/3 + (C27*D28)/6 + (C28*D27)/6 + (C28*D28)/3</f>
+        <v>3.5807258889326565E-3</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" ref="I27:I66" si="80">-(C26^2*D26) + (D27*C27^2)/4 + (D28*C27^2)/12 + (D27*C27*C28)/6 + (D28*C28*C27)/6 + (D27*C28^2)/12 + (D28*C28^2)/4</f>
+        <v>-4.4792179899069362E-2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>3.5807E-3</v>
+      </c>
+      <c r="L27" s="8">
+        <v>-4.4791999999999998E-2</v>
+      </c>
+      <c r="N27" s="9">
+        <f t="shared" si="9"/>
+        <v>7.2301317218706751E-6</v>
+      </c>
+      <c r="O27" s="9">
+        <f t="shared" si="10"/>
+        <v>4.0163214271198839E-6</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" ref="Q27:R66" si="81">SUM(H27:H28)</f>
+        <v>6.8359373228936704E-3</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="81"/>
+        <v>-9.017944657074306E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.41248638</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.5867133099999999</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="H28" s="7">
+        <f t="shared" ref="H28:H66" si="82">(C28*D28) - (C27*D27)/3 - (C27*D28)/6 - (C28*D27)/6 - (C28*D28)/3</f>
+        <v>3.2552114339610139E-3</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" ref="I28:I66" si="83">(D28*C28^2) - (D27*C27^2)/4 - (D28*C27^2)/12 - (D27*C27*C28)/6 - (D28*C28*C27)/6 - (D27*C28^2)/12 - (D28*C28^2)/4</f>
+        <v>-4.5387266671673698E-2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>3.2552000000000002E-3</v>
+      </c>
+      <c r="L28" s="8">
+        <v>-4.5386999999999997E-2</v>
+      </c>
+      <c r="N28" s="9">
+        <f t="shared" si="9"/>
+        <v>3.5125218154562186E-6</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" si="10"/>
+        <v>5.8755078260633031E-6</v>
+      </c>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.4125055500000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.5863315099999999</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" ref="E29:E66" si="84">(B30-B30^2)-(B29-B29^2)</f>
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" ref="F29:F66" si="85">(B30^3 - 3*B30^2 - B30) - (B29^3 - 3*B29^2 - B29)</f>
+        <v>-9.3658447265625E-2</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" ref="H29:H66" si="86">-(C28*D28) + (C29*D29)/3 + (C29*D30)/6 + (C30*D29)/6 + (C30*D30)/3</f>
+        <v>2.604164482772009E-3</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" ref="I29:I66" si="87">-(C28^2*D28) + (D29*C29^2)/4 + (D30*C29^2)/12 + (D29*C29*C30)/6 + (D30*C30*C29)/6 + (D29*C30^2)/12 + (D30*C30^2)/4</f>
+        <v>-4.654693780843866E-2</v>
+      </c>
+      <c r="K29" s="8">
+        <v>2.6042000000000001E-3</v>
+      </c>
+      <c r="L29" s="8">
+        <v>-4.6546999999999998E-2</v>
+      </c>
+      <c r="N29" s="9">
+        <f t="shared" si="9"/>
+        <v>-1.3638440976550079E-5</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="10"/>
+        <v>-1.3361024628504177E-6</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" ref="Q29:R66" si="88">SUM(H29:H30)</f>
+        <v>4.8828155595597167E-3</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="88"/>
+        <v>-9.3658438378218634E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.3677173899999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.64222066</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="H30" s="7">
+        <f t="shared" ref="H30:H66" si="89">(C30*D30) - (C29*D29)/3 - (C29*D30)/6 - (C30*D29)/6 - (C30*D30)/3</f>
+        <v>2.2786510767877077E-3</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" ref="I30:I66" si="90">(D30*C30^2) - (D29*C29^2)/4 - (D30*C29^2)/12 - (D29*C29*C30)/6 - (D30*C30*C29)/6 - (D29*C30^2)/12 - (D30*C30^2)/4</f>
+        <v>-4.7111500569779974E-2</v>
+      </c>
+      <c r="K30" s="8">
+        <v>2.2786E-3</v>
+      </c>
+      <c r="L30" s="8">
+        <v>-4.7112000000000001E-2</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="9"/>
+        <v>2.2415863998835623E-5</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="10"/>
+        <v>-1.060091314372765E-5</v>
+      </c>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.3677424899999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.6417895</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" ref="E31:E66" si="91">(B32-B32^2)-(B31-B31^2)</f>
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" ref="F31:F66" si="92">(B32^3 - 3*B32^2 - B32) - (B31^3 - 3*B31^2 - B31)</f>
+        <v>-9.6954345703125E-2</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" ref="H31:H66" si="93">-(C30*D30) + (C31*D31)/3 + (C31*D32)/6 + (C32*D31)/6 + (C32*D32)/3</f>
+        <v>1.627593852232101E-3</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" ref="I31:I66" si="94">-(C30^2*D30) + (D31*C31^2)/4 + (D32*C31^2)/12 + (D31*C31*C32)/6 + (D32*C32*C31)/6 + (D31*C32^2)/12 + (D32*C32^2)/4</f>
+        <v>-4.8210164620064222E-2</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1.6276000000000001E-3</v>
+      </c>
+      <c r="L31" s="8">
+        <v>-4.8210000000000003E-2</v>
+      </c>
+      <c r="N31" s="9">
+        <f t="shared" si="9"/>
+        <v>-3.777198266859092E-6</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="10"/>
+        <v>3.414645596746198E-6</v>
+      </c>
+      <c r="Q31" s="10">
+        <f t="shared" ref="Q31:R66" si="95">SUM(H31:H32)</f>
+        <v>2.929673152036294E-3</v>
+      </c>
+      <c r="R31" s="10">
+        <f t="shared" si="95"/>
+        <v>-9.6954373106046376E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.3228262</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.70016547</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="H32" s="7">
+        <f t="shared" ref="H32:H66" si="96">(C32*D32) - (C31*D31)/3 - (C31*D32)/6 - (C32*D31)/6 - (C32*D32)/3</f>
+        <v>1.302079299804193E-3</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" ref="I32:I66" si="97">(D32*C32^2) - (D31*C31^2)/4 - (D32*C31^2)/12 - (D31*C31*C32)/6 - (D32*C32*C31)/6 - (D31*C32^2)/12 - (D32*C32^2)/4</f>
+        <v>-4.8744208485982154E-2</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1.3021E-3</v>
+      </c>
+      <c r="L32" s="8">
+        <v>-4.8744000000000003E-2</v>
+      </c>
+      <c r="N32" s="9">
+        <f t="shared" ref="N32:N66" si="98">(H32-K32)/K32</f>
+        <v>-1.5897546891200583E-5</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" ref="O32:O66" si="99">(I32-L32)/L32</f>
+        <v>4.2771619512534018E-6</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.32285735</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.6996764099999999</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" ref="E33:E66" si="100">(B34-B34^2)-(B33-B33^2)</f>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" ref="F33:F66" si="101">(B34^3 - 3*B34^2 - B34) - (B33^3 - 3*B33^2 - B33)</f>
+        <v>-0.100067138671875</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" ref="H33:H66" si="102">-(C32*D32) + (C33*D33)/3 + (C33*D34)/6 + (C34*D33)/6 + (C34*D34)/3</f>
+        <v>6.5104427675111154E-4</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" ref="I33:I66" si="103">-(C32^2*D32) + (D33*C33^2)/4 + (D34*C33^2)/12 + (D33*C33*C34)/6 + (D34*C34*C33)/6 + (D33*C34^2)/12 + (D34*C34^2)/4</f>
+        <v>-4.9781794406706936E-2</v>
+      </c>
+      <c r="K33" s="8">
+        <v>6.5103999999999997E-4</v>
+      </c>
+      <c r="L33" s="8">
+        <v>-4.9782E-2</v>
+      </c>
+      <c r="N33" s="9">
+        <f t="shared" si="98"/>
+        <v>6.5691065242771753E-6</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="99"/>
+        <v>-4.1298721036445465E-6</v>
+      </c>
+      <c r="Q33" s="10">
+        <f t="shared" ref="Q33:R66" si="104">SUM(H33:H34)</f>
+        <v>9.7656436414528258E-4</v>
+      </c>
+      <c r="R33" s="10">
+        <f t="shared" si="104"/>
+        <v>-0.10006714223145075</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.2777777699999999</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.7608695700000001</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="H34" s="7">
+        <f t="shared" ref="H34:H66" si="105">(C34*D34) - (C33*D33)/3 - (C33*D34)/6 - (C34*D33)/6 - (C34*D34)/3</f>
+        <v>3.2552008739417104E-4</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" ref="I34:I66" si="106">(D34*C34^2) - (D33*C33^2)/4 - (D34*C33^2)/12 - (D33*C33*C34)/6 - (D34*C34*C33)/6 - (D33*C34^2)/12 - (D34*C34^2)/4</f>
+        <v>-5.0285347824743809E-2</v>
+      </c>
+      <c r="K34" s="8">
+        <v>3.2551999999999999E-4</v>
+      </c>
+      <c r="L34" s="8">
+        <v>-5.0285000000000003E-2</v>
+      </c>
+      <c r="N34" s="9">
+        <f t="shared" si="98"/>
+        <v>2.6847558078084821E-7</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="99"/>
+        <v>6.9170675908468887E-6</v>
+      </c>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.27781513</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.7603121799999999</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" ref="E35:E66" si="107">(B36-B36^2)-(B35-B35^2)</f>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" ref="F35:F66" si="108">(B36^3 - 3*B36^2 - B36) - (B35^3 - 3*B35^2 - B35)</f>
+        <v>-0.102996826171875</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" ref="H35:H66" si="109">-(C34*D34) + (C35*D35)/3 + (C35*D36)/6 + (C36*D35)/6 + (C36*D36)/3</f>
+        <v>-3.2552062610458066E-4</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" ref="I35:I66" si="110">-(C34^2*D34) + (D35*C35^2)/4 + (D36*C35^2)/12 + (D35*C35*C36)/6 + (D36*C36*C35)/6 + (D35*C36^2)/12 + (D36*C36^2)/4</f>
+        <v>-5.1261896104414895E-2</v>
+      </c>
+      <c r="K35" s="8">
+        <v>-3.2551999999999999E-4</v>
+      </c>
+      <c r="L35" s="8">
+        <v>-5.1262000000000002E-2</v>
+      </c>
+      <c r="N35" s="9">
+        <f t="shared" si="98"/>
+        <v>1.9233981957181662E-6</v>
+      </c>
+      <c r="O35" s="9">
+        <f t="shared" si="99"/>
+        <v>-2.0267563713349452E-6</v>
+      </c>
+      <c r="Q35" s="10">
+        <f t="shared" ref="Q35:R66" si="111">SUM(H35:H36)</f>
+        <v>-9.7656192559192334E-4</v>
+      </c>
+      <c r="R35" s="10">
+        <f t="shared" si="111"/>
+        <v>-0.10299682023794832</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.2325363600000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.8247116299999999</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="H36" s="7">
+        <f t="shared" ref="H36:H66" si="112">(C36*D36) - (C35*D35)/3 - (C35*D36)/6 - (C36*D35)/6 - (C36*D36)/3</f>
+        <v>-6.5104129948734268E-4</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" ref="I36:I66" si="113">(D36*C36^2) - (D35*C35^2)/4 - (D36*C35^2)/12 - (D35*C35*C36)/6 - (D36*C36*C35)/6 - (D35*C36^2)/12 - (D36*C36^2)/4</f>
+        <v>-5.1734924133533422E-2</v>
+      </c>
+      <c r="K36" s="8">
+        <v>-6.5103999999999997E-4</v>
+      </c>
+      <c r="L36" s="8">
+        <v>-5.1735000000000003E-2</v>
+      </c>
+      <c r="N36" s="9">
+        <f t="shared" si="98"/>
+        <v>1.9960176682081018E-6</v>
+      </c>
+      <c r="O36" s="9">
+        <f t="shared" si="99"/>
+        <v>-1.4664437340523457E-6</v>
+      </c>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.2325801599999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.8240730599999999</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" ref="E37:E66" si="114">(B38-B38^2)-(B37-B37^2)</f>
+        <v>-2.9296875E-3</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" ref="F37:F66" si="115">(B38^3 - 3*B38^2 - B38) - (B37^3 - 3*B37^2 - B37)</f>
+        <v>-0.105743408203125</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" ref="H37:H66" si="116">-(C36*D36) + (C37*D37)/3 + (C37*D38)/6 + (C38*D37)/6 + (C38*D38)/3</f>
+        <v>-1.3020871402166234E-3</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" ref="I37:I66" si="117">-(C36^2*D36) + (D37*C37^2)/4 + (D38*C37^2)/12 + (D37*C37*C38)/6 + (D38*C38*C37)/6 + (D37*C38^2)/12 + (D38*C38^2)/4</f>
+        <v>-5.2650451960074229E-2</v>
+      </c>
+      <c r="K37" s="8">
+        <v>-1.3021E-3</v>
+      </c>
+      <c r="L37" s="8">
+        <v>-5.2650000000000002E-2</v>
+      </c>
+      <c r="N37" s="9">
+        <f t="shared" si="98"/>
+        <v>-9.8761872180538632E-6</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="99"/>
+        <v>8.5842369273881644E-6</v>
+      </c>
+      <c r="Q37" s="10">
+        <f t="shared" ref="Q37:R66" si="118">SUM(H37:H38)</f>
+        <v>-2.9296978513375649E-3</v>
+      </c>
+      <c r="R37" s="10">
+        <f t="shared" si="118"/>
+        <v>-0.10574342415645388</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.1870652100000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.89214014</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="H38" s="7">
+        <f t="shared" ref="H38:H66" si="119">(C38*D38) - (C37*D37)/3 - (C37*D38)/6 - (C38*D37)/6 - (C38*D38)/3</f>
+        <v>-1.6276107111209415E-3</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" ref="I38:I66" si="120">(D38*C38^2) - (D37*C37^2)/4 - (D38*C37^2)/12 - (D37*C37*C38)/6 - (D38*C38*C37)/6 - (D37*C38^2)/12 - (D38*C38^2)/4</f>
+        <v>-5.3092972196379651E-2</v>
+      </c>
+      <c r="K38" s="8">
+        <v>-1.6276000000000001E-3</v>
+      </c>
+      <c r="L38" s="8">
+        <v>-5.3093000000000001E-2</v>
+      </c>
+      <c r="N38" s="9">
+        <f t="shared" si="98"/>
+        <v>6.5809295535572739E-6</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="99"/>
+        <v>-5.2367770422628429E-7</v>
+      </c>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.1871157299999999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.8914044299999999</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" ref="E39:E66" si="121">(B40-B40^2)-(B39-B39^2)</f>
+        <v>-4.8828125E-3</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" ref="F39:F66" si="122">(B40^3 - 3*B40^2 - B40) - (B39^3 - 3*B39^2 - B39)</f>
+        <v>-0.108306884765625</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" ref="H39:H66" si="123">-(C38*D38) + (C39*D39)/3 + (C39*D40)/6 + (C40*D39)/6 + (C40*D40)/3</f>
+        <v>-2.2786380575841036E-3</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" ref="I39:I66" si="124">-(C38^2*D38) + (D39*C39^2)/4 + (D40*C39^2)/12 + (D39*C39*C40)/6 + (D40*C40*C39)/6 + (D39*C40^2)/12 + (D40*C40^2)/4</f>
+        <v>-5.3947433736887707E-2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>-2.2786E-3</v>
+      </c>
+      <c r="L39" s="8">
+        <v>-5.3947000000000002E-2</v>
+      </c>
+      <c r="N39" s="9">
+        <f t="shared" si="98"/>
+        <v>1.6702178576172127E-5</v>
+      </c>
+      <c r="O39" s="9">
+        <f t="shared" si="99"/>
+        <v>8.0400557529557792E-6</v>
+      </c>
+      <c r="Q39" s="10">
+        <f t="shared" ref="Q39:R66" si="125">SUM(H39:H40)</f>
+        <v>-4.8828001892919914E-3</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" si="125"/>
+        <v>-0.10830685942294771</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.1413262500000001</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.96368999</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="H40" s="7">
+        <f t="shared" ref="H40:H66" si="126">(C40*D40) - (C39*D39)/3 - (C39*D40)/6 - (C40*D39)/6 - (C40*D40)/3</f>
+        <v>-2.6041621317078878E-3</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" ref="I40:I66" si="127">(D40*C40^2) - (D39*C39^2)/4 - (D40*C39^2)/12 - (D39*C39*C40)/6 - (D40*C40*C39)/6 - (D39*C40^2)/12 - (D40*C40^2)/4</f>
+        <v>-5.4359425686060003E-2</v>
+      </c>
+      <c r="K40" s="8">
+        <v>-2.6042000000000001E-3</v>
+      </c>
+      <c r="L40" s="8">
+        <v>-5.4358999999999998E-2</v>
+      </c>
+      <c r="N40" s="9">
+        <f t="shared" si="98"/>
+        <v>-1.4541238043274743E-5</v>
+      </c>
+      <c r="O40" s="9">
+        <f t="shared" si="99"/>
+        <v>7.8310134477411066E-6</v>
+      </c>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.14138385</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.9628370900000001</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" ref="E41:E66" si="128">(B42-B42^2)-(B41-B41^2)</f>
+        <v>-6.8359375E-3</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" ref="F41:F66" si="129">(B42^3 - 3*B42^2 - B42) - (B41^3 - 3*B41^2 - B41)</f>
+        <v>-0.110687255859375</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" ref="H41:H66" si="130">-(C40*D40) + (C41*D41)/3 + (C41*D42)/6 + (C42*D41)/6 + (C42*D42)/3</f>
+        <v>-3.2552034811480501E-3</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" ref="I41:I66" si="131">-(C40^2*D40) + (D41*C41^2)/4 + (D42*C41^2)/12 + (D41*C41*C42)/6 + (D42*C42*C41)/6 + (D41*C42^2)/12 + (D42*C42^2)/4</f>
+        <v>-5.51528857135406E-2</v>
+      </c>
+      <c r="K41" s="8">
+        <v>-3.2552000000000002E-3</v>
+      </c>
+      <c r="L41" s="8">
+        <v>-5.5153000000000001E-2</v>
+      </c>
+      <c r="N41" s="9">
+        <f t="shared" si="98"/>
+        <v>1.0694114186358611E-6</v>
+      </c>
+      <c r="O41" s="9">
+        <f t="shared" si="99"/>
+        <v>-2.0721712218794001E-6</v>
+      </c>
+      <c r="Q41" s="10">
+        <f t="shared" ref="Q41:R66" si="132">SUM(H41:H42)</f>
+        <v>-6.8359334831544771E-3</v>
+      </c>
+      <c r="R41" s="10">
+        <f t="shared" si="132"/>
+        <v>-0.11068724574872046</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.09527972</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.0400039900000002</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="H42" s="7">
+        <f t="shared" ref="H42:H66" si="133">(C42*D42) - (C41*D41)/3 - (C41*D42)/6 - (C42*D41)/6 - (C42*D42)/3</f>
+        <v>-3.580730002006427E-3</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" ref="I42:I66" si="134">(D42*C42^2) - (D41*C41^2)/4 - (D42*C41^2)/12 - (D41*C41*C42)/6 - (D42*C42*C41)/6 - (D41*C42^2)/12 - (D42*C42^2)/4</f>
+        <v>-5.5534360035179864E-2</v>
+      </c>
+      <c r="K42" s="8">
+        <v>-3.5807E-3</v>
+      </c>
+      <c r="L42" s="8">
+        <v>-5.5534E-2</v>
+      </c>
+      <c r="N42" s="9">
+        <f t="shared" si="98"/>
+        <v>8.3788104077315395E-6</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" si="99"/>
+        <v>6.4831486992441898E-6</v>
+      </c>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.0953448299999999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.0390084599999998</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" ref="E43:E66" si="135">(B44-B44^2)-(B43-B43^2)</f>
+        <v>-8.7890625E-3</v>
+      </c>
+      <c r="F43" s="10">
+        <f t="shared" ref="F43:F66" si="136">(B44^3 - 3*B44^2 - B44) - (B43^3 - 3*B43^2 - B43)</f>
+        <v>-0.112884521484375</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" ref="H43:H66" si="137">-(C42*D42) + (C43*D43)/3 + (C43*D44)/6 + (C44*D43)/6 + (C44*D44)/3</f>
+        <v>-4.2317689006475812E-3</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" ref="I43:I66" si="138">-(C42^2*D42) + (D43*C43^2)/4 + (D44*C43^2)/12 + (D43*C43*C44)/6 + (D44*C44*C43)/6 + (D43*C44^2)/12 + (D44*C44^2)/4</f>
+        <v>-5.626678699454768E-2</v>
+      </c>
+      <c r="K43" s="8">
+        <v>-4.2318E-3</v>
+      </c>
+      <c r="L43" s="8">
+        <v>-5.6266999999999998E-2</v>
+      </c>
+      <c r="N43" s="9">
+        <f t="shared" si="98"/>
+        <v>-7.3489655510222748E-6</v>
+      </c>
+      <c r="O43" s="9">
+        <f t="shared" si="99"/>
+        <v>-3.7856194984282124E-6</v>
+      </c>
+      <c r="Q43" s="10">
+        <f t="shared" ref="Q43:R66" si="139">SUM(H43:H44)</f>
+        <v>-8.789054826333853E-3</v>
+      </c>
+      <c r="R43" s="10">
+        <f t="shared" si="139"/>
+        <v>-0.11288451415910483</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.0488838300000001</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2.1218612399999999</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="H44" s="7">
+        <f t="shared" ref="H44:H66" si="140">(C44*D44) - (C43*D43)/3 - (C43*D44)/6 - (C44*D43)/6 - (C44*D44)/3</f>
+        <v>-4.5572859256862719E-3</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" ref="I44:I66" si="141">(D44*C44^2) - (D43*C43^2)/4 - (D44*C43^2)/12 - (D43*C43*C44)/6 - (D44*C44*C43)/6 - (D43*C44^2)/12 - (D44*C44^2)/4</f>
+        <v>-5.6617727164557152E-2</v>
+      </c>
+      <c r="K44" s="8">
+        <v>-4.5573000000000002E-3</v>
+      </c>
+      <c r="L44" s="8">
+        <v>-5.6618000000000002E-2</v>
+      </c>
+      <c r="N44" s="9">
+        <f t="shared" si="98"/>
+        <v>-3.0883009080709327E-6</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" si="99"/>
+        <v>-4.8188816780775564E-6</v>
+      </c>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.0489569700000001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2.1206904299999998</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" ref="E45:E66" si="142">(B46-B46^2)-(B45-B45^2)</f>
+        <v>-1.07421875E-2</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" ref="F45:F66" si="143">(B46^3 - 3*B46^2 - B46) - (B45^3 - 3*B45^2 - B45)</f>
+        <v>-0.114898681640625</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" ref="H45:H66" si="144">-(C44*D44) + (C45*D45)/3 + (C45*D46)/6 + (C46*D45)/6 + (C46*D46)/3</f>
+        <v>-5.2083443313045708E-3</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" ref="I45:I66" si="145">-(C44^2*D44) + (D45*C45^2)/4 + (D46*C45^2)/12 + (D45*C45*C46)/6 + (D46*C46*C45)/6 + (D45*C46^2)/12 + (D46*C46^2)/4</f>
+        <v>-5.7289145001949593E-2</v>
+      </c>
+      <c r="K45" s="8">
+        <v>-5.2082999999999999E-3</v>
+      </c>
+      <c r="L45" s="8">
+        <v>-5.7289E-2</v>
+      </c>
+      <c r="N45" s="9">
+        <f t="shared" si="98"/>
+        <v>8.5116649522574329E-6</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" si="99"/>
+        <v>2.531060929554903E-6</v>
+      </c>
+      <c r="Q45" s="10">
+        <f t="shared" ref="Q45:R66" si="146">SUM(H45:H46)</f>
+        <v>-1.0742200815256453E-2</v>
+      </c>
+      <c r="R45" s="10">
+        <f t="shared" si="146"/>
+        <v>-0.11489870776514266</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.0020943499999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2.2102147799999998</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="H46" s="7">
+        <f t="shared" ref="H46:H66" si="147">(C46*D46) - (C45*D45)/3 - (C45*D46)/6 - (C46*D45)/6 - (C46*D46)/3</f>
+        <v>-5.5338564839518822E-3</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" ref="I46:I66" si="148">(D46*C46^2) - (D45*C45^2)/4 - (D46*C45^2)/12 - (D45*C45*C46)/6 - (D46*C46*C45)/6 - (D45*C46^2)/12 - (D46*C46^2)/4</f>
+        <v>-5.7609562763193067E-2</v>
+      </c>
+      <c r="K46" s="8">
+        <v>-5.5338999999999996E-3</v>
+      </c>
+      <c r="L46" s="8">
+        <v>-5.7610000000000001E-2</v>
+      </c>
+      <c r="N46" s="9">
+        <f t="shared" si="98"/>
+        <v>-7.8635407429391164E-6</v>
+      </c>
+      <c r="O46" s="9">
+        <f t="shared" si="99"/>
+        <v>-7.5895991483099827E-6</v>
+      </c>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.00217614</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.2088262300000001</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" ref="E47:E66" si="149">(B48-B48^2)-(B47-B47^2)</f>
+        <v>-1.26953125E-2</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" ref="F47:F66" si="150">(B48^3 - 3*B48^2 - B48) - (B47^3 - 3*B47^2 - B47)</f>
+        <v>-0.116729736328125</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" ref="H47:H66" si="151">-(C46*D46) + (C47*D47)/3 + (C47*D48)/6 + (C48*D47)/6 + (C48*D48)/3</f>
+        <v>-6.1848940414630516E-3</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" ref="I47:I66" si="152">-(C46^2*D46) + (D47*C47^2)/4 + (D48*C47^2)/12 + (D47*C47*C48)/6 + (D48*C48*C47)/6 + (D47*C48^2)/12 + (D48*C48^2)/4</f>
+        <v>-5.8219904552648027E-2</v>
+      </c>
+      <c r="K47" s="8">
+        <v>-6.1849000000000001E-3</v>
+      </c>
+      <c r="L47" s="8">
+        <v>-5.8220000000000001E-2</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" si="98"/>
+        <v>-9.6340069339347331E-7</v>
+      </c>
+      <c r="O47" s="9">
+        <f t="shared" si="99"/>
+        <v>-1.6394254890669297E-6</v>
+      </c>
+      <c r="Q47" s="10">
+        <f t="shared" ref="Q47:R66" si="153">SUM(H47:H48)</f>
+        <v>-1.2695309002894728E-2</v>
+      </c>
+      <c r="R47" s="10">
+        <f t="shared" si="153"/>
+        <v>-0.11672972912865687</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.954864186</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.3062425700000002</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="H48" s="7">
+        <f t="shared" ref="H48:H66" si="154">(C48*D48) - (C47*D47)/3 - (C47*D48)/6 - (C48*D47)/6 - (C48*D48)/3</f>
+        <v>-6.5104149614316764E-3</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" ref="I48:I66" si="155">(D48*C48^2) - (D47*C47^2)/4 - (D48*C47^2)/12 - (D47*C47*C48)/6 - (D48*C48*C47)/6 - (D47*C48^2)/12 - (D48*C48^2)/4</f>
+        <v>-5.850982457600884E-2</v>
+      </c>
+      <c r="K48" s="8">
+        <v>-6.5104000000000004E-3</v>
+      </c>
+      <c r="L48" s="8">
+        <v>-5.851E-2</v>
+      </c>
+      <c r="N48" s="9">
+        <f t="shared" si="98"/>
+        <v>2.2980817885274471E-6</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" si="99"/>
+        <v>-2.9981881927827337E-6</v>
+      </c>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.95495534999999998</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.3045802499999999</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" ref="E49:E66" si="156">(B50-B50^2)-(B49-B49^2)</f>
+        <v>-1.46484375E-2</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" ref="F49:F66" si="157">(B50^3 - 3*B50^2 - B50) - (B49^3 - 3*B49^2 - B49)</f>
+        <v>-0.118377685546875</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" ref="H49:H66" si="158">-(C48*D48) + (C49*D49)/3 + (C49*D50)/6 + (C50*D49)/6 + (C50*D50)/3</f>
+        <v>-7.1614597058292651E-3</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" ref="I49:I66" si="159">-(C48^2*D48) + (D49*C49^2)/4 + (D50*C49^2)/12 + (D49*C49*C50)/6 + (D50*C50*C49)/6 + (D49*C50^2)/12 + (D50*C50^2)/4</f>
+        <v>-5.9059145151789283E-2</v>
+      </c>
+      <c r="K49" s="8">
+        <v>-7.1615000000000003E-3</v>
+      </c>
+      <c r="L49" s="8">
+        <v>-5.9059E-2</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="98"/>
+        <v>-5.6264987412240951E-6</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="99"/>
+        <v>2.457742076271834E-6</v>
+      </c>
+      <c r="Q49" s="10">
+        <f t="shared" ref="Q49:R66" si="160">SUM(H49:H50)</f>
+        <v>-1.4648440223172798E-2</v>
+      </c>
+      <c r="R49" s="10">
+        <f t="shared" si="160"/>
+        <v>-0.11837768879323862</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.907142852</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2.4114173299999999</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="H50" s="7">
+        <f t="shared" ref="H50:H66" si="161">(C50*D50) - (C49*D49)/3 - (C49*D50)/6 - (C50*D49)/6 - (C50*D50)/3</f>
+        <v>-7.4869805173435333E-3</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" ref="I50:I66" si="162">(D50*C50^2) - (D49*C49^2)/4 - (D50*C49^2)/12 - (D49*C49*C50)/6 - (D50*C50*C49)/6 - (D49*C50^2)/12 - (D50*C50^2)/4</f>
+        <v>-5.9318543641449339E-2</v>
+      </c>
+      <c r="K50" s="8">
+        <v>-7.4869999999999997E-3</v>
+      </c>
+      <c r="L50" s="8">
+        <v>-5.9318999999999997E-2</v>
+      </c>
+      <c r="N50" s="9">
+        <f t="shared" si="98"/>
+        <v>-2.6021980053983131E-6</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="99"/>
+        <v>-7.6932947395823862E-6</v>
+      </c>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.90724426000000002</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2.4094060800000001</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" ref="E51:E66" si="163">(B52-B52^2)-(B51-B51^2)</f>
+        <v>-1.66015625E-2</v>
+      </c>
+      <c r="F51" s="10">
+        <f t="shared" ref="F51:F66" si="164">(B52^3 - 3*B52^2 - B52) - (B51^3 - 3*B51^2 - B51)</f>
+        <v>-0.119842529296875</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" ref="H51:H66" si="165">-(C50*D50) + (C51*D51)/3 + (C51*D52)/6 + (C52*D51)/6 + (C52*D52)/3</f>
+        <v>-8.138018133662106E-3</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" ref="I51:I66" si="166">-(C50^2*D50) + (D51*C51^2)/4 + (D52*C51^2)/12 + (D51*C51*C52)/6 + (D52*C52*C51)/6 + (D51*C52^2)/12 + (D52*C52^2)/4</f>
+        <v>-5.9806820331887722E-2</v>
+      </c>
+      <c r="K51" s="8">
+        <v>-8.1379999999999994E-3</v>
+      </c>
+      <c r="L51" s="8">
+        <v>-5.9806999999999999E-2</v>
+      </c>
+      <c r="N51" s="9">
+        <f t="shared" si="98"/>
+        <v>2.2282701040333056E-6</v>
+      </c>
+      <c r="O51" s="9">
+        <f t="shared" si="99"/>
+        <v>-3.0041318286616141E-6</v>
+      </c>
+      <c r="Q51" s="10">
+        <f t="shared" ref="Q51:R66" si="167">SUM(H51:H52)</f>
+        <v>-1.6601558838109653E-2</v>
+      </c>
+      <c r="R51" s="10">
+        <f t="shared" si="167"/>
+        <v>-0.11984252528781264</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.85887595100000003</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2.52760417</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="H52" s="7">
+        <f t="shared" ref="H52:H66" si="168">(C52*D52) - (C51*D51)/3 - (C51*D52)/6 - (C52*D51)/6 - (C52*D52)/3</f>
+        <v>-8.4635407044475475E-3</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" ref="I52:I66" si="169">(D52*C52^2) - (D51*C51^2)/4 - (D52*C51^2)/12 - (D51*C51*C52)/6 - (D52*C52*C51)/6 - (D51*C52^2)/12 - (D52*C52^2)/4</f>
+        <v>-6.0035704955924918E-2</v>
+      </c>
+      <c r="K52" s="8">
+        <v>-8.4635000000000005E-3</v>
+      </c>
+      <c r="L52" s="8">
+        <v>-6.0035999999999999E-2</v>
+      </c>
+      <c r="N52" s="9">
+        <f t="shared" si="98"/>
+        <v>4.8094107103364544E-6</v>
+      </c>
+      <c r="O52" s="9">
+        <f t="shared" si="99"/>
+        <v>-4.9144525798061341E-6</v>
+      </c>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.85898863400000003</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2.5251413299999999</v>
+      </c>
+      <c r="E53" s="10">
+        <f t="shared" ref="E53:E66" si="170">(B54-B54^2)-(B53-B53^2)</f>
+        <v>-1.85546875E-2</v>
+      </c>
+      <c r="F53" s="10">
+        <f t="shared" ref="F53:F66" si="171">(B54^3 - 3*B54^2 - B54) - (B53^3 - 3*B53^2 - B53)</f>
+        <v>-0.121124267578125</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" ref="H53:H66" si="172">-(C52*D52) + (C53*D53)/3 + (C53*D54)/6 + (C54*D53)/6 + (C54*D54)/3</f>
+        <v>-9.1145870448338107E-3</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" ref="I53:I66" si="173">-(C52^2*D52) + (D53*C53^2)/4 + (D54*C53^2)/12 + (D53*C53*C54)/6 + (D54*C54*C53)/6 + (D53*C54^2)/12 + (D54*C54^2)/4</f>
+        <v>-6.0462953006456266E-2</v>
+      </c>
+      <c r="K53" s="8">
+        <v>-9.1146000000000005E-3</v>
+      </c>
+      <c r="L53" s="8">
+        <v>-6.0463000000000003E-2</v>
+      </c>
+      <c r="N53" s="9">
+        <f t="shared" si="98"/>
+        <v>-1.421364205760082E-6</v>
+      </c>
+      <c r="O53" s="9">
+        <f t="shared" si="99"/>
+        <v>-7.7722811863353679E-7</v>
+      </c>
+      <c r="Q53" s="10">
+        <f t="shared" ref="Q53:R66" si="174">SUM(H53:H54)</f>
+        <v>-1.8554692660038619E-2</v>
+      </c>
+      <c r="R53" s="10">
+        <f t="shared" si="174"/>
+        <v>-0.12112426572351875</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.81000453500000003</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2.6571996200000001</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="H54" s="7">
+        <f t="shared" ref="H54:H66" si="175">(C54*D54) - (C53*D53)/3 - (C53*D54)/6 - (C54*D53)/6 - (C54*D54)/3</f>
+        <v>-9.440105615204808E-3</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" ref="I54:I66" si="176">(D54*C54^2) - (D53*C53^2)/4 - (D54*C53^2)/12 - (D53*C53*C54)/6 - (D54*C54*C53)/6 - (D53*C54^2)/12 - (D54*C54^2)/4</f>
+        <v>-6.0661312717062488E-2</v>
+      </c>
+      <c r="K54" s="8">
+        <v>-9.4400999999999999E-3</v>
+      </c>
+      <c r="L54" s="8">
+        <v>-6.0661E-2</v>
+      </c>
+      <c r="N54" s="9">
+        <f t="shared" si="98"/>
+        <v>5.9482471669513663E-7</v>
+      </c>
+      <c r="O54" s="9">
+        <f t="shared" si="99"/>
+        <v>5.155158379982001E-6</v>
+      </c>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.81012973600000004</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2.6541420100000002</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" ref="E55:E66" si="177">(B56-B56^2)-(B55-B55^2)</f>
+        <v>-2.05078125E-2</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" ref="F55:F66" si="178">(B56^3 - 3*B56^2 - B56) - (B55^3 - 3*B55^2 - B55)</f>
+        <v>-0.122222900390625</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" ref="H55:H66" si="179">-(C54*D54) + (C55*D55)/3 + (C55*D56)/6 + (C56*D55)/6 + (C56*D56)/3</f>
+        <v>-1.0091146755317637E-2</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" ref="I55:I66" si="180">-(C54^2*D54) + (D55*C55^2)/4 + (D56*C55^2)/12 + (D55*C55*C56)/6 + (D56*C56*C55)/6 + (D55*C56^2)/12 + (D56*C56^2)/4</f>
+        <v>-6.1027528085700444E-2</v>
+      </c>
+      <c r="K55" s="8">
+        <v>-1.0090999999999999E-2</v>
+      </c>
+      <c r="L55" s="8">
+        <v>-6.1027999999999999E-2</v>
+      </c>
+      <c r="N55" s="9">
+        <f t="shared" si="98"/>
+        <v>1.4543188746187258E-5</v>
+      </c>
+      <c r="O55" s="9">
+        <f t="shared" si="99"/>
+        <v>-7.7327505334374552E-6</v>
+      </c>
+      <c r="Q55" s="10">
+        <f t="shared" ref="Q55:R66" si="181">SUM(H55:H56)</f>
+        <v>-2.0507813786845741E-2</v>
+      </c>
+      <c r="R55" s="10">
+        <f t="shared" si="181"/>
+        <v>-0.12222290238643096</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.76046438100000002</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2.80333436</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="H56" s="7">
+        <f t="shared" ref="H56:H66" si="182">(C56*D56) - (C55*D55)/3 - (C55*D56)/6 - (C56*D55)/6 - (C56*D56)/3</f>
+        <v>-1.0416667031528104E-2</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" ref="I56:I66" si="183">(D56*C56^2) - (D55*C55^2)/4 - (D56*C55^2)/12 - (D55*C55*C56)/6 - (D56*C56*C55)/6 - (D55*C56^2)/12 - (D56*C56^2)/4</f>
+        <v>-6.1195374300730521E-2</v>
+      </c>
+      <c r="K56" s="8">
+        <v>-1.0416999999999999E-2</v>
+      </c>
+      <c r="L56" s="8">
+        <v>-6.1194999999999999E-2</v>
+      </c>
+      <c r="N56" s="9">
+        <f t="shared" si="98"/>
+        <v>-3.196395045551991E-5</v>
+      </c>
+      <c r="O56" s="9">
+        <f t="shared" si="99"/>
+        <v>6.1165247245894055E-6</v>
+      </c>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.76060360199999999</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2.7994775000000001</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" ref="E57:E66" si="184">(B58-B58^2)-(B57-B57^2)</f>
+        <v>-2.24609375E-2</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" ref="F57:F66" si="185">(B58^3 - 3*B58^2 - B58) - (B57^3 - 3*B57^2 - B57)</f>
+        <v>-0.123138427734375</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" ref="H57:H66" si="186">-(C56*D56) + (C57*D57)/3 + (C57*D58)/6 + (C58*D57)/6 + (C58*D58)/3</f>
+        <v>-1.1067707059085996E-2</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" ref="I57:I66" si="187">-(C56^2*D56) + (D57*C57^2)/4 + (D58*C57^2)/12 + (D57*C57*C58)/6 + (D58*C58*C57)/6 + (D57*C58^2)/12 + (D58*C58^2)/4</f>
+        <v>-6.1500548159136248E-2</v>
+      </c>
+      <c r="K57" s="8">
+        <v>-1.1068E-2</v>
+      </c>
+      <c r="L57" s="8">
+        <v>-6.1501E-2</v>
+      </c>
+      <c r="N57" s="9">
+        <f t="shared" si="98"/>
+        <v>-2.6467375677959521E-5</v>
+      </c>
+      <c r="O57" s="9">
+        <f t="shared" si="99"/>
+        <v>-7.3468864531009585E-6</v>
+      </c>
+      <c r="Q57" s="10">
+        <f t="shared" ref="Q57:R66" si="188">SUM(H57:H58)</f>
+        <v>-2.2460938579547562E-2</v>
+      </c>
+      <c r="R57" s="10">
+        <f t="shared" si="188"/>
+        <v>-0.12313842865316688</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.71018518200000003</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2.9701760099999999</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="H58" s="7">
+        <f t="shared" ref="H58:H66" si="189">(C58*D58) - (C57*D57)/3 - (C57*D58)/6 - (C58*D57)/6 - (C58*D58)/3</f>
+        <v>-1.1393231520461566E-2</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" ref="I58:I66" si="190">(D58*C58^2) - (D57*C57^2)/4 - (D58*C57^2)/12 - (D57*C57*C58)/6 - (D58*C58*C57)/6 - (D57*C58^2)/12 - (D58*C58^2)/4</f>
+        <v>-6.1637880494030628E-2</v>
+      </c>
+      <c r="K58" s="8">
+        <v>-1.1393E-2</v>
+      </c>
+      <c r="L58" s="8">
+        <v>-6.1637999999999998E-2</v>
+      </c>
+      <c r="N58" s="9">
+        <f t="shared" si="98"/>
+        <v>2.0321290403409833E-5</v>
+      </c>
+      <c r="O58" s="9">
+        <f t="shared" si="99"/>
+        <v>-1.9388359351436047E-6</v>
+      </c>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.71034027099999997</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2.9652197</v>
+      </c>
+      <c r="E59" s="10">
+        <f t="shared" ref="E59:E66" si="191">(B60-B60^2)-(B59-B59^2)</f>
+        <v>-2.44140625E-2</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" ref="F59:F66" si="192">(B60^3 - 3*B60^2 - B60) - (B59^3 - 3*B59^2 - B59)</f>
+        <v>-0.123870849609375</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" ref="H59:H66" si="193">-(C58*D58) + (C59*D59)/3 + (C59*D60)/6 + (C60*D59)/6 + (C60*D60)/3</f>
+        <v>-1.2044268966922234E-2</v>
+      </c>
+      <c r="I59" s="7">
+        <f t="shared" ref="I59:I66" si="194">-(C58^2*D58) + (D59*C59^2)/4 + (D60*C59^2)/12 + (D59*C59*C60)/6 + (D60*C60*C59)/6 + (D59*C60^2)/12 + (D60*C60^2)/4</f>
+        <v>-6.1882017262382072E-2</v>
+      </c>
+      <c r="K59" s="8">
+        <v>-1.2043999999999999E-2</v>
+      </c>
+      <c r="L59" s="8">
+        <v>-6.1882E-2</v>
+      </c>
+      <c r="N59" s="9">
+        <f t="shared" si="98"/>
+        <v>2.2332026090537787E-5</v>
+      </c>
+      <c r="O59" s="9">
+        <f t="shared" si="99"/>
+        <v>2.789564343814294E-7</v>
+      </c>
+      <c r="Q59" s="10">
+        <f t="shared" ref="Q59:R66" si="195">SUM(H59:H60)</f>
+        <v>-2.4414060490928424E-2</v>
+      </c>
+      <c r="R59" s="10">
+        <f t="shared" si="195"/>
+        <v>-0.12387084826961003</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.65908957499999998</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.1633954000000002</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="H60" s="7">
+        <f t="shared" ref="H60:H66" si="196">(C60*D60) - (C59*D59)/3 - (C59*D60)/6 - (C60*D59)/6 - (C60*D60)/3</f>
+        <v>-1.2369791524006191E-2</v>
+      </c>
+      <c r="I60" s="7">
+        <f t="shared" ref="I60:I66" si="197">(D60*C60^2) - (D59*C59^2)/4 - (D60*C59^2)/12 - (D59*C59*C60)/6 - (D60*C60*C59)/6 - (D59*C60^2)/12 - (D60*C60^2)/4</f>
+        <v>-6.1988831007227962E-2</v>
+      </c>
+      <c r="K60" s="8">
+        <v>-1.2370000000000001E-2</v>
+      </c>
+      <c r="L60" s="8">
+        <v>-6.1989000000000002E-2</v>
+      </c>
+      <c r="N60" s="9">
+        <f t="shared" si="98"/>
+        <v>-1.6853354390472507E-5</v>
+      </c>
+      <c r="O60" s="9">
+        <f t="shared" si="99"/>
+        <v>-2.726173547564349E-6</v>
+      </c>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.65926284899999998</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3.15688455</v>
+      </c>
+      <c r="E61" s="10">
+        <f t="shared" ref="E61:E66" si="198">(B62-B62^2)-(B61-B61^2)</f>
+        <v>-2.63671875E-2</v>
+      </c>
+      <c r="F61" s="10">
+        <f t="shared" ref="F61:F66" si="199">(B62^3 - 3*B62^2 - B62) - (B61^3 - 3*B61^2 - B61)</f>
+        <v>-0.124420166015625</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" ref="H61:H66" si="200">-(C60*D60) + (C61*D61)/3 + (C61*D62)/6 + (C62*D61)/6 + (C62*D62)/3</f>
+        <v>-1.3020835390392227E-2</v>
+      </c>
+      <c r="I61" s="7">
+        <f t="shared" ref="I61:I66" si="201">-(C60^2*D60) + (D61*C61^2)/4 + (D62*C61^2)/12 + (D61*C61*C62)/6 + (D62*C62*C61)/6 + (D61*C62^2)/12 + (D62*C62^2)/4</f>
+        <v>-6.2171937562346014E-2</v>
+      </c>
+      <c r="K61" s="8">
+        <v>-1.3021E-2</v>
+      </c>
+      <c r="L61" s="8">
+        <v>-6.2171999999999998E-2</v>
+      </c>
+      <c r="N61" s="9">
+        <f t="shared" si="98"/>
+        <v>-1.2641856061182831E-5</v>
+      </c>
+      <c r="O61" s="9">
+        <f t="shared" si="99"/>
+        <v>-1.0042728878684854E-6</v>
+      </c>
+      <c r="Q61" s="10">
+        <f t="shared" ref="Q61:R66" si="202">SUM(H61:H62)</f>
+        <v>-2.636719048237568E-2</v>
+      </c>
+      <c r="R61" s="10">
+        <f t="shared" si="202"/>
+        <v>-0.12442016713867432</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.60709202699999998</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3.3909088700000001</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="H62" s="7">
+        <f t="shared" ref="H62:H66" si="203">(C62*D62) - (C61*D61)/3 - (C61*D62)/6 - (C62*D61)/6 - (C62*D62)/3</f>
+        <v>-1.3346355091983453E-2</v>
+      </c>
+      <c r="I62" s="7">
+        <f t="shared" ref="I62:I66" si="204">(D62*C62^2) - (D61*C61^2)/4 - (D62*C61^2)/12 - (D61*C61*C62)/6 - (D62*C62*C61)/6 - (D61*C62^2)/12 - (D62*C62^2)/4</f>
+        <v>-6.2248229576328307E-2</v>
+      </c>
+      <c r="K62" s="8">
+        <v>-1.3346E-2</v>
+      </c>
+      <c r="L62" s="8">
+        <v>-6.2247999999999998E-2</v>
+      </c>
+      <c r="N62" s="9">
+        <f t="shared" si="98"/>
+        <v>2.66066224676007E-5</v>
+      </c>
+      <c r="O62" s="9">
+        <f t="shared" si="99"/>
+        <v>3.6880916384283702E-6</v>
+      </c>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.60728647599999996</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3.38212673</v>
+      </c>
+      <c r="E63" s="10">
+        <f t="shared" ref="E63:E66" si="205">(B64-B64^2)-(B63-B63^2)</f>
+        <v>-2.83203125E-2</v>
+      </c>
+      <c r="F63" s="10">
+        <f t="shared" ref="F63:F66" si="206">(B64^3 - 3*B64^2 - B64) - (B63^3 - 3*B63^2 - B63)</f>
+        <v>-0.124786376953125</v>
+      </c>
+      <c r="H63" s="7">
+        <f t="shared" ref="H63:H66" si="207">-(C62*D62) + (C63*D63)/3 + (C63*D64)/6 + (C64*D63)/6 + (C64*D64)/3</f>
+        <v>-1.3997393665403091E-2</v>
+      </c>
+      <c r="I63" s="7">
+        <f t="shared" ref="I63:I66" si="208">-(C62^2*D62) + (D63*C63^2)/4 + (D64*C63^2)/12 + (D63*C63*C64)/6 + (D64*C64*C63)/6 + (D63*C64^2)/12 + (D64*C64^2)/4</f>
+        <v>-6.2370299345989089E-2</v>
+      </c>
+      <c r="K63" s="8">
+        <v>-1.3997000000000001E-2</v>
+      </c>
+      <c r="L63" s="8">
+        <v>-6.2370000000000002E-2</v>
+      </c>
+      <c r="N63" s="9">
+        <f t="shared" si="98"/>
+        <v>2.8124984145877019E-5</v>
+      </c>
+      <c r="O63" s="9">
+        <f t="shared" si="99"/>
+        <v>4.7995188245441535E-6</v>
+      </c>
+      <c r="Q63" s="10">
+        <f t="shared" ref="Q63:R66" si="209">SUM(H63:H64)</f>
+        <v>-2.8320310063767895E-2</v>
+      </c>
+      <c r="R63" s="10">
+        <f t="shared" si="209"/>
+        <v>-0.12478637592763908</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <v>0.96875</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.55409751900000004</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3.6641085000000002</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="H64" s="7">
+        <f t="shared" ref="H64:H66" si="210">(C64*D64) - (C63*D63)/3 - (C63*D64)/6 - (C64*D63)/6 - (C64*D64)/3</f>
+        <v>-1.4322916398364804E-2</v>
+      </c>
+      <c r="I64" s="7">
+        <f t="shared" ref="I64:I66" si="211">(D64*C64^2) - (D63*C63^2)/4 - (D64*C63^2)/12 - (D63*C63*C64)/6 - (D64*C64*C63)/6 - (D63*C64^2)/12 - (D64*C64^2)/4</f>
+        <v>-6.2416076581649993E-2</v>
+      </c>
+      <c r="K64" s="8">
+        <v>-1.4323000000000001E-2</v>
+      </c>
+      <c r="L64" s="8">
+        <v>-6.2415999999999999E-2</v>
+      </c>
+      <c r="N64" s="9">
+        <f t="shared" si="98"/>
+        <v>-5.8368802063955724E-6</v>
+      </c>
+      <c r="O64" s="9">
+        <f t="shared" si="99"/>
+        <v>1.2269554279942643E-6</v>
+      </c>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <v>0.96875</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.55431714099999996</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3.6518731099999999</v>
+      </c>
+      <c r="E65" s="10">
+        <f t="shared" ref="E65:E66" si="212">(B66-B66^2)-(B65-B65^2)</f>
+        <v>-3.02734375E-2</v>
+      </c>
+      <c r="F65" s="10">
+        <f t="shared" ref="F65:F66" si="213">(B66^3 - 3*B66^2 - B66) - (B65^3 - 3*B65^2 - B65)</f>
+        <v>-0.124969482421875</v>
+      </c>
+      <c r="H65" s="7">
+        <f t="shared" ref="H65:H66" si="214">-(C64*D64) + (C65*D65)/3 + (C65*D66)/6 + (C66*D65)/6 + (C66*D66)/3</f>
+        <v>-1.4973958073677074E-2</v>
+      </c>
+      <c r="I65" s="7">
+        <f t="shared" ref="I65:I66" si="215">-(C64^2*D64) + (D65*C65^2)/4 + (D66*C65^2)/12 + (D65*C65*C66)/6 + (D66*C66*C65)/6 + (D65*C66^2)/12 + (D66*C66^2)/4</f>
+        <v>-6.2477112199750384E-2</v>
+      </c>
+      <c r="K65" s="8">
+        <v>-1.4973999999999999E-2</v>
+      </c>
+      <c r="L65" s="8">
+        <v>-6.2476999999999998E-2</v>
+      </c>
+      <c r="N65" s="9">
+        <f t="shared" si="98"/>
+        <v>-2.7999414268456483E-6</v>
+      </c>
+      <c r="O65" s="9">
+        <f t="shared" si="99"/>
+        <v>1.7958568815147843E-6</v>
+      </c>
+      <c r="Q65" s="10">
+        <f t="shared" ref="Q65:R66" si="216">SUM(H65:H66)</f>
+        <v>-3.0273435196811693E-2</v>
+      </c>
+      <c r="R65" s="10">
+        <f t="shared" si="216"/>
+        <v>-0.12496948100957558</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.499999996</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4.0000000199999999</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="H66" s="7">
+        <f t="shared" ref="H66" si="217">(C66*D66) - (C65*D65)/3 - (C65*D66)/6 - (C66*D65)/6 - (C66*D66)/3</f>
+        <v>-1.5299477123134619E-2</v>
+      </c>
+      <c r="I66" s="7">
+        <f t="shared" ref="I66" si="218">(D66*C66^2) - (D65*C65^2)/4 - (D66*C65^2)/12 - (D65*C65*C66)/6 - (D66*C66*C65)/6 - (D65*C66^2)/12 - (D66*C66^2)/4</f>
+        <v>-6.2492368809825199E-2</v>
+      </c>
+      <c r="K66" s="8">
+        <v>-1.5299E-2</v>
+      </c>
+      <c r="L66" s="8">
+        <v>-6.2491999999999999E-2</v>
+      </c>
+      <c r="N66" s="9">
+        <f t="shared" si="98"/>
+        <v>3.1186556939622454E-5</v>
+      </c>
+      <c r="O66" s="9">
+        <f t="shared" si="99"/>
+        <v>5.9017126224243822E-6</v>
+      </c>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="130">
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F652E881-8450-F14A-B749-828A12D18D83}">
+  <dimension ref="A1:L66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.2204E-16</v>
+      </c>
+      <c r="C3" s="6">
+        <f>(B4-B4^2)-(B3-B3^2)</f>
+        <v>3.0273437499999778E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <f>(B4^3 - 3*B4^2 - B4) - (B3^3 - 3*B3^2 - B3)</f>
+        <v>-3.4149169921874778E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <f>SUM(H3:H4)</f>
+        <v>3.0273000000000001E-2</v>
+      </c>
+      <c r="G3" s="6">
+        <f>SUM(I3:I4)</f>
+        <v>-3.4148999999999999E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1.5299E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>-1.6594000000000001E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <f>(F3-C3)/F3</f>
+        <v>-1.445182174798197E-5</v>
+      </c>
+      <c r="L3" s="5">
+        <f>(G3-D3)/G3</f>
+        <v>-4.9758960666243615E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8">
+        <v>1.4973999999999999E-2</v>
+      </c>
+      <c r="I4" s="8">
+        <v>-1.7555000000000001E-2</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <f>(B6-B6^2)-(B5-B5^2)</f>
+        <v>2.83203125E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <f>(B6^3 - 3*B6^2 - B6) - (B5^3 - 3*B5^2 - B5)</f>
+        <v>-3.9825439453125E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <f>SUM(H5:H6)</f>
+        <v>2.8320000000000001E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <f>SUM(I5:I6)</f>
+        <v>-3.9824999999999999E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.4323000000000001E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>-1.9446999999999999E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <f>(F5-C5)/F5</f>
+        <v>-1.1034604519723792E-5</v>
+      </c>
+      <c r="L5" s="5">
+        <f>(G5-D5)/G5</f>
+        <v>-1.1034604519791853E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8">
+        <v>1.3997000000000001E-2</v>
+      </c>
+      <c r="I6" s="8">
+        <v>-2.0378E-2</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <f>(B8-B8^2)-(B7-B7^2)</f>
+        <v>2.63671875E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <f>(B8^3 - 3*B8^2 - B8) - (B7^3 - 3*B7^2 - B7)</f>
+        <v>-4.5318603515625E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <f>SUM(H7:H8)</f>
+        <v>2.6367000000000002E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUM(I7:I8)</f>
+        <v>-4.5317999999999997E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.3346E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>-2.2209E-2</v>
+      </c>
+      <c r="K7" s="5">
+        <f>(F7-C7)/F7</f>
+        <v>-7.1111616793132618E-6</v>
+      </c>
+      <c r="L7" s="5">
+        <f>(G7-D7)/G7</f>
+        <v>-1.3317349066658419E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8">
+        <v>1.3021E-2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>-2.3109000000000001E-2</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C9" s="6">
+        <f>(B10-B10^2)-(B9-B9^2)</f>
+        <v>2.44140625E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <f>(B10^3 - 3*B10^2 - B10) - (B9^3 - 3*B9^2 - B9)</f>
+        <v>-5.0628662109375E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <f>SUM(H9:H10)</f>
+        <v>2.4413999999999998E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <f>SUM(I9:I10)</f>
+        <v>-5.0627999999999999E-2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1.2370000000000001E-2</v>
+      </c>
+      <c r="I9" s="8">
+        <v>-2.4878999999999998E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <f>(F9-C9)/F9</f>
+        <v>-2.560006553690392E-6</v>
+      </c>
+      <c r="L9" s="5">
+        <f>(G9-D9)/G9</f>
+        <v>-1.3077928715347397E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8">
+        <v>1.2043999999999999E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>-2.5749000000000001E-2</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C11" s="6">
+        <f>(B12-B12^2)-(B11-B11^2)</f>
+        <v>2.24609375E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <f>(B12^3 - 3*B12^2 - B12) - (B11^3 - 3*B11^2 - B11)</f>
+        <v>-5.5755615234375E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <f>SUM(H11:H12)</f>
+        <v>2.2461000000000002E-2</v>
+      </c>
+      <c r="G11" s="6">
+        <f>SUM(I11:I12)</f>
+        <v>-5.5754999999999999E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1.1393E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>-2.7458E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <f>(F11-C11)/F11</f>
+        <v>2.7826009528425817E-6</v>
+      </c>
+      <c r="L11" s="5">
+        <f>(G11-D11)/G11</f>
+        <v>-1.1034604519791853E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8">
+        <v>1.1068E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>-2.8296999999999999E-2</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="C13" s="6">
+        <f>(B14-B14^2)-(B13-B13^2)</f>
+        <v>2.05078125E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <f>(B14^3 - 3*B14^2 - B14) - (B13^3 - 3*B13^2 - B13)</f>
+        <v>-6.0699462890625E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <f>SUM(H13:H14)</f>
+        <v>2.0507999999999998E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <f>SUM(I13:I14)</f>
+        <v>-6.0699000000000003E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.0416999999999999E-2</v>
+      </c>
+      <c r="I13" s="8">
+        <v>-2.9944999999999999E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <f>(F13-C13)/F13</f>
+        <v>9.142773551709226E-6</v>
+      </c>
+      <c r="L13" s="5">
+        <f>(G13-D13)/G13</f>
+        <v>-7.6260008401628971E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8">
+        <v>1.0090999999999999E-2</v>
+      </c>
+      <c r="I14" s="8">
+        <v>-3.0754E-2</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C15" s="6">
+        <f>(B16-B16^2)-(B15-B15^2)</f>
+        <v>1.85546875E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <f>(B16^3 - 3*B16^2 - B16) - (B15^3 - 3*B15^2 - B15)</f>
+        <v>-6.5460205078125E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <f>SUM(H15:H16)</f>
+        <v>1.85547E-2</v>
+      </c>
+      <c r="G15" s="6">
+        <f>SUM(I15:I16)</f>
+        <v>-6.5460000000000004E-2</v>
+      </c>
+      <c r="H15" s="8">
+        <v>9.4400999999999999E-3</v>
+      </c>
+      <c r="I15" s="8">
+        <v>-3.2341000000000002E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <f>(F15-C15)/F15</f>
+        <v>6.7368375669557822E-7</v>
+      </c>
+      <c r="L15" s="5">
+        <f>(G15-D15)/G15</f>
+        <v>-3.1328769476887509E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8">
+        <v>9.1146000000000005E-3</v>
+      </c>
+      <c r="I16" s="8">
+        <v>-3.3119000000000003E-2</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="C17" s="6">
+        <f>(B18-B18^2)-(B17-B17^2)</f>
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <f>(B18^3 - 3*B18^2 - B18) - (B17^3 - 3*B17^2 - B17)</f>
+        <v>-7.0037841796875E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <f>SUM(H17:H18)</f>
+        <v>1.6601499999999998E-2</v>
+      </c>
+      <c r="G17" s="6">
+        <f>SUM(I17:I18)</f>
+        <v>-7.0038000000000003E-2</v>
+      </c>
+      <c r="H17" s="8">
+        <v>8.4635000000000005E-3</v>
+      </c>
+      <c r="I17" s="8">
+        <v>-3.4645000000000002E-2</v>
+      </c>
+      <c r="K17" s="5">
+        <f>(F17-C17)/F17</f>
+        <v>-3.7647200555249365E-6</v>
+      </c>
+      <c r="L17" s="5">
+        <f>(G17-D17)/G17</f>
+        <v>2.2588184271828341E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8">
+        <v>8.1379999999999994E-3</v>
+      </c>
+      <c r="I18" s="8">
+        <v>-3.5393000000000001E-2</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="6">
+        <f>(B20-B20^2)-(B19-B19^2)</f>
+        <v>1.46484375E-2</v>
+      </c>
+      <c r="D19" s="6">
+        <f>(B20^3 - 3*B20^2 - B20) - (B19^3 - 3*B19^2 - B19)</f>
+        <v>-7.4432373046875E-2</v>
+      </c>
+      <c r="F19" s="6">
+        <f>SUM(H19:H20)</f>
+        <v>1.46485E-2</v>
+      </c>
+      <c r="G19" s="6">
+        <f>SUM(I19:I20)</f>
+        <v>-7.4432999999999999E-2</v>
+      </c>
+      <c r="H19" s="8">
+        <v>7.4869999999999997E-3</v>
+      </c>
+      <c r="I19" s="8">
+        <v>-3.6858000000000002E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <f>(F19-C19)/F19</f>
+        <v>4.2666484623041608E-6</v>
+      </c>
+      <c r="L19" s="5">
+        <f>(G19-D19)/G19</f>
+        <v>8.4230532828068645E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8">
+        <v>7.1615000000000003E-3</v>
+      </c>
+      <c r="I20" s="8">
+        <v>-3.7574999999999997E-2</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C21" s="6">
+        <f>(B22-B22^2)-(B21-B21^2)</f>
+        <v>1.26953125E-2</v>
+      </c>
+      <c r="D21" s="6">
+        <f>(B22^3 - 3*B22^2 - B22) - (B21^3 - 3*B21^2 - B21)</f>
+        <v>-7.8643798828125E-2</v>
+      </c>
+      <c r="F21" s="6">
+        <f>SUM(H21:H22)</f>
+        <v>1.26953E-2</v>
+      </c>
+      <c r="G21" s="6">
+        <f>SUM(I21:I22)</f>
+        <v>-7.8643999999999992E-2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>6.5104000000000004E-3</v>
+      </c>
+      <c r="I21" s="8">
+        <v>-3.8979E-2</v>
+      </c>
+      <c r="K21" s="5">
+        <f>(F21-C21)/F21</f>
+        <v>-9.8461635411210809E-7</v>
+      </c>
+      <c r="L21" s="5">
+        <f>(G21-D21)/G21</f>
+        <v>2.5580066501155871E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8">
+        <v>6.1849000000000001E-3</v>
+      </c>
+      <c r="I22" s="8">
+        <v>-3.9664999999999999E-2</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C23" s="6">
+        <f>(B24-B24^2)-(B23-B23^2)</f>
+        <v>1.07421875E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <f>(B24^3 - 3*B24^2 - B24) - (B23^3 - 3*B23^2 - B23)</f>
+        <v>-8.2672119140625E-2</v>
+      </c>
+      <c r="F23" s="6">
+        <f>SUM(H23:H24)</f>
+        <v>1.07422E-2</v>
+      </c>
+      <c r="G23" s="6">
+        <f>SUM(I23:I24)</f>
+        <v>-8.2671999999999995E-2</v>
+      </c>
+      <c r="H23" s="8">
+        <v>5.5338999999999996E-3</v>
+      </c>
+      <c r="I23" s="8">
+        <v>-4.1008000000000003E-2</v>
+      </c>
+      <c r="K23" s="5">
+        <f>(F23-C23)/F23</f>
+        <v>1.1636350096218135E-6</v>
+      </c>
+      <c r="L23" s="5">
+        <f>(G23-D23)/G23</f>
+        <v>-1.4411242621989329E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8">
+        <v>5.2082999999999999E-3</v>
+      </c>
+      <c r="I24" s="8">
+        <v>-4.1664E-2</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C25" s="6">
+        <f>(B26-B26^2)-(B25-B25^2)</f>
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="D25" s="6">
+        <f>(B26^3 - 3*B26^2 - B26) - (B25^3 - 3*B25^2 - B25)</f>
+        <v>-8.6517333984375E-2</v>
+      </c>
+      <c r="F25" s="6">
+        <f>SUM(H25:H26)</f>
+        <v>8.7891000000000011E-3</v>
+      </c>
+      <c r="G25" s="6">
+        <f>SUM(I25:I26)</f>
+        <v>-8.6516999999999997E-2</v>
+      </c>
+      <c r="H25" s="8">
+        <v>4.5573000000000002E-3</v>
+      </c>
+      <c r="I25" s="8">
+        <v>-4.2945999999999998E-2</v>
+      </c>
+      <c r="K25" s="5">
+        <f>(F25-C25)/F25</f>
+        <v>4.2666484624225837E-6</v>
+      </c>
+      <c r="L25" s="5">
+        <f>(G25-D25)/G25</f>
+        <v>-3.8603323624642041E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8">
+        <v>4.2318E-3</v>
+      </c>
+      <c r="I26" s="8">
+        <v>-4.3570999999999999E-2</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C27" s="6">
+        <f>(B28-B28^2)-(B27-B27^2)</f>
+        <v>6.8359375E-3</v>
+      </c>
+      <c r="D27" s="6">
+        <f>(B28^3 - 3*B28^2 - B28) - (B27^3 - 3*B27^2 - B27)</f>
+        <v>-9.0179443359375E-2</v>
+      </c>
+      <c r="F27" s="6">
+        <f>SUM(H27:H28)</f>
+        <v>6.8359000000000007E-3</v>
+      </c>
+      <c r="G27" s="6">
+        <f>SUM(I27:I28)</f>
+        <v>-9.0178999999999995E-2</v>
+      </c>
+      <c r="H27" s="8">
+        <v>3.5807E-3</v>
+      </c>
+      <c r="I27" s="8">
+        <v>-4.4791999999999998E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <f>(F27-C27)/F27</f>
+        <v>-5.485744378844572E-6</v>
+      </c>
+      <c r="L27" s="5">
+        <f>(G27-D27)/G27</f>
+        <v>-4.9164370308467161E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8">
+        <v>3.2552000000000002E-3</v>
+      </c>
+      <c r="I28" s="8">
+        <v>-4.5386999999999997E-2</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C29" s="6">
+        <f>(B30-B30^2)-(B29-B29^2)</f>
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="D29" s="6">
+        <f>(B30^3 - 3*B30^2 - B30) - (B29^3 - 3*B29^2 - B29)</f>
+        <v>-9.3658447265625E-2</v>
+      </c>
+      <c r="F29" s="6">
+        <f>SUM(H29:H30)</f>
+        <v>4.8827999999999996E-3</v>
+      </c>
+      <c r="G29" s="6">
+        <f>SUM(I29:I30)</f>
+        <v>-9.3658999999999992E-2</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2.6042000000000001E-3</v>
+      </c>
+      <c r="I29" s="8">
+        <v>-4.6546999999999998E-2</v>
+      </c>
+      <c r="K29" s="5">
+        <f>(F29-C29)/F29</f>
+        <v>-2.560006553690392E-6</v>
+      </c>
+      <c r="L29" s="5">
+        <f>(G29-D29)/G29</f>
+        <v>5.9015617825543585E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8">
+        <v>2.2786E-3</v>
+      </c>
+      <c r="I30" s="8">
+        <v>-4.7112000000000001E-2</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C31" s="6">
+        <f>(B32-B32^2)-(B31-B31^2)</f>
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="D31" s="6">
+        <f>(B32^3 - 3*B32^2 - B32) - (B31^3 - 3*B31^2 - B31)</f>
+        <v>-9.6954345703125E-2</v>
+      </c>
+      <c r="F31" s="6">
+        <f>SUM(H31:H32)</f>
+        <v>2.9297000000000004E-3</v>
+      </c>
+      <c r="G31" s="6">
+        <f>SUM(I31:I32)</f>
+        <v>-9.6954000000000012E-2</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1.6276000000000001E-3</v>
+      </c>
+      <c r="I31" s="8">
+        <v>-4.8210000000000003E-2</v>
+      </c>
+      <c r="K31" s="5">
+        <f>(F31-C31)/F31</f>
+        <v>4.2666484624225837E-6</v>
+      </c>
+      <c r="L31" s="5">
+        <f>(G31-D31)/G31</f>
+        <v>-3.5656406645172588E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8">
+        <v>1.3021E-3</v>
+      </c>
+      <c r="I32" s="8">
+        <v>-4.8744000000000003E-2</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="C33" s="6">
+        <f>(B34-B34^2)-(B33-B33^2)</f>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="D33" s="6">
+        <f>(B34^3 - 3*B34^2 - B34) - (B33^3 - 3*B33^2 - B33)</f>
+        <v>-0.100067138671875</v>
+      </c>
+      <c r="F33" s="6">
+        <f>SUM(H33:H34)</f>
+        <v>9.7656000000000001E-4</v>
+      </c>
+      <c r="G33" s="6">
+        <f>SUM(I33:I34)</f>
+        <v>-0.100067</v>
+      </c>
+      <c r="H33" s="8">
+        <v>6.5103999999999997E-4</v>
+      </c>
+      <c r="I33" s="8">
+        <v>-4.9782E-2</v>
+      </c>
+      <c r="K33" s="5">
+        <f>(F33-C33)/F33</f>
+        <v>-2.5600065536015738E-6</v>
+      </c>
+      <c r="L33" s="5">
+        <f>(G33-D33)/G33</f>
+        <v>-1.3857902704870922E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="8">
+        <v>3.2551999999999999E-4</v>
+      </c>
+      <c r="I34" s="8">
+        <v>-5.0285000000000003E-2</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="6">
+        <f>(B36-B36^2)-(B35-B35^2)</f>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="D35" s="6">
+        <f>(B36^3 - 3*B36^2 - B36) - (B35^3 - 3*B35^2 - B35)</f>
+        <v>-0.102996826171875</v>
+      </c>
+      <c r="F35" s="6">
+        <f>SUM(H35:H36)</f>
+        <v>-9.7656000000000001E-4</v>
+      </c>
+      <c r="G35" s="6">
+        <f>SUM(I35:I36)</f>
+        <v>-0.10299700000000001</v>
+      </c>
+      <c r="H35" s="8">
+        <v>-3.2551999999999999E-4</v>
+      </c>
+      <c r="I35" s="8">
+        <v>-5.1262000000000002E-2</v>
+      </c>
+      <c r="K35" s="5">
+        <f>(F35-C35)/F35</f>
+        <v>-2.5600065536015738E-6</v>
+      </c>
+      <c r="L35" s="5">
+        <f>(G35-D35)/G35</f>
+        <v>1.6877008554153555E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8">
+        <v>-6.5103999999999997E-4</v>
+      </c>
+      <c r="I36" s="8">
+        <v>-5.1735000000000003E-2</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C37" s="6">
+        <f>(B38-B38^2)-(B37-B37^2)</f>
+        <v>-2.9296875E-3</v>
+      </c>
+      <c r="D37" s="6">
+        <f>(B38^3 - 3*B38^2 - B38) - (B37^3 - 3*B37^2 - B37)</f>
+        <v>-0.105743408203125</v>
+      </c>
+      <c r="F37" s="6">
+        <f>SUM(H37:H38)</f>
+        <v>-2.9297000000000004E-3</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SUM(I37:I38)</f>
+        <v>-0.105743</v>
+      </c>
+      <c r="H37" s="8">
+        <v>-1.3021E-3</v>
+      </c>
+      <c r="I37" s="8">
+        <v>-5.2650000000000002E-2</v>
+      </c>
+      <c r="K37" s="5">
+        <f>(F37-C37)/F37</f>
+        <v>4.2666484624225837E-6</v>
+      </c>
+      <c r="L37" s="5">
+        <f>(G37-D37)/G37</f>
+        <v>-3.8603323623912924E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="8">
+        <v>-1.6276000000000001E-3</v>
+      </c>
+      <c r="I38" s="8">
+        <v>-5.3093000000000001E-2</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="C39" s="6">
+        <f>(B40-B40^2)-(B39-B39^2)</f>
+        <v>-4.8828125E-3</v>
+      </c>
+      <c r="D39" s="6">
+        <f>(B40^3 - 3*B40^2 - B40) - (B39^3 - 3*B39^2 - B39)</f>
+        <v>-0.108306884765625</v>
+      </c>
+      <c r="F39" s="6">
+        <f>SUM(H39:H40)</f>
+        <v>-4.8827999999999996E-3</v>
+      </c>
+      <c r="G39" s="6">
+        <f>SUM(I39:I40)</f>
+        <v>-0.108306</v>
+      </c>
+      <c r="H39" s="8">
+        <v>-2.2786E-3</v>
+      </c>
+      <c r="I39" s="8">
+        <v>-5.3947000000000002E-2</v>
+      </c>
+      <c r="K39" s="5">
+        <f>(F39-C39)/F39</f>
+        <v>-2.560006553690392E-6</v>
+      </c>
+      <c r="L39" s="5">
+        <f>(G39-D39)/G39</f>
+        <v>-8.1691284416422479E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="8">
+        <v>-2.6042000000000001E-3</v>
+      </c>
+      <c r="I40" s="8">
+        <v>-5.4358999999999998E-2</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="C41" s="6">
+        <f>(B42-B42^2)-(B41-B41^2)</f>
+        <v>-6.8359375E-3</v>
+      </c>
+      <c r="D41" s="6">
+        <f>(B42^3 - 3*B42^2 - B42) - (B41^3 - 3*B41^2 - B41)</f>
+        <v>-0.110687255859375</v>
+      </c>
+      <c r="F41" s="6">
+        <f>SUM(H41:H42)</f>
+        <v>-6.8359000000000007E-3</v>
+      </c>
+      <c r="G41" s="6">
+        <f>SUM(I41:I42)</f>
+        <v>-0.11068700000000001</v>
+      </c>
+      <c r="H41" s="8">
+        <v>-3.2552000000000002E-3</v>
+      </c>
+      <c r="I41" s="8">
+        <v>-5.5153000000000001E-2</v>
+      </c>
+      <c r="K41" s="5">
+        <f>(F41-C41)/F41</f>
+        <v>-5.485744378844572E-6</v>
+      </c>
+      <c r="L41" s="5">
+        <f>(G41-D41)/G41</f>
+        <v>-2.3115575902535565E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8">
+        <v>-3.5807E-3</v>
+      </c>
+      <c r="I42" s="8">
+        <v>-5.5534E-2</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C43" s="6">
+        <f>(B44-B44^2)-(B43-B43^2)</f>
+        <v>-8.7890625E-3</v>
+      </c>
+      <c r="D43" s="6">
+        <f>(B44^3 - 3*B44^2 - B44) - (B43^3 - 3*B43^2 - B43)</f>
+        <v>-0.112884521484375</v>
+      </c>
+      <c r="F43" s="6">
+        <f>SUM(H43:H44)</f>
+        <v>-8.7891000000000011E-3</v>
+      </c>
+      <c r="G43" s="6">
+        <f>SUM(I43:I44)</f>
+        <v>-0.112885</v>
+      </c>
+      <c r="H43" s="8">
+        <v>-4.2318E-3</v>
+      </c>
+      <c r="I43" s="8">
+        <v>-5.6266999999999998E-2</v>
+      </c>
+      <c r="K43" s="5">
+        <f>(F43-C43)/F43</f>
+        <v>4.2666484624225837E-6</v>
+      </c>
+      <c r="L43" s="5">
+        <f>(G43-D43)/G43</f>
+        <v>4.2389655401446761E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8">
+        <v>-4.5573000000000002E-3</v>
+      </c>
+      <c r="I44" s="8">
+        <v>-5.6618000000000002E-2</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="C45" s="6">
+        <f>(B46-B46^2)-(B45-B45^2)</f>
+        <v>-1.07421875E-2</v>
+      </c>
+      <c r="D45" s="6">
+        <f>(B46^3 - 3*B46^2 - B46) - (B45^3 - 3*B45^2 - B45)</f>
+        <v>-0.114898681640625</v>
+      </c>
+      <c r="F45" s="6">
+        <f>SUM(H45:H46)</f>
+        <v>-1.07422E-2</v>
+      </c>
+      <c r="G45" s="6">
+        <f>SUM(I45:I46)</f>
+        <v>-0.114899</v>
+      </c>
+      <c r="H45" s="8">
+        <v>-5.2082999999999999E-3</v>
+      </c>
+      <c r="I45" s="8">
+        <v>-5.7289E-2</v>
+      </c>
+      <c r="K45" s="5">
+        <f>(F45-C45)/F45</f>
+        <v>1.1636350096218135E-6</v>
+      </c>
+      <c r="L45" s="5">
+        <f>(G45-D45)/G45</f>
+        <v>2.7707758553262563E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8">
+        <v>-5.5338999999999996E-3</v>
+      </c>
+      <c r="I46" s="8">
+        <v>-5.7610000000000001E-2</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="C47" s="6">
+        <f>(B48-B48^2)-(B47-B47^2)</f>
+        <v>-1.26953125E-2</v>
+      </c>
+      <c r="D47" s="6">
+        <f>(B48^3 - 3*B48^2 - B48) - (B47^3 - 3*B47^2 - B47)</f>
+        <v>-0.116729736328125</v>
+      </c>
+      <c r="F47" s="6">
+        <f>SUM(H47:H48)</f>
+        <v>-1.26953E-2</v>
+      </c>
+      <c r="G47" s="6">
+        <f>SUM(I47:I48)</f>
+        <v>-0.11673</v>
+      </c>
+      <c r="H47" s="8">
+        <v>-6.1849000000000001E-3</v>
+      </c>
+      <c r="I47" s="8">
+        <v>-5.8220000000000001E-2</v>
+      </c>
+      <c r="K47" s="5">
+        <f>(F47-C47)/F47</f>
+        <v>-9.8461635411210809E-7</v>
+      </c>
+      <c r="L47" s="5">
+        <f>(G47-D47)/G47</f>
+        <v>2.2588184271432052E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8">
+        <v>-6.5104000000000004E-3</v>
+      </c>
+      <c r="I48" s="8">
+        <v>-5.851E-2</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="C49" s="6">
+        <f>(B50-B50^2)-(B49-B49^2)</f>
+        <v>-1.46484375E-2</v>
+      </c>
+      <c r="D49" s="6">
+        <f>(B50^3 - 3*B50^2 - B50) - (B49^3 - 3*B49^2 - B49)</f>
+        <v>-0.118377685546875</v>
+      </c>
+      <c r="F49" s="6">
+        <f>SUM(H49:H50)</f>
+        <v>-1.46485E-2</v>
+      </c>
+      <c r="G49" s="6">
+        <f>SUM(I49:I50)</f>
+        <v>-0.118378</v>
+      </c>
+      <c r="H49" s="8">
+        <v>-7.1615000000000003E-3</v>
+      </c>
+      <c r="I49" s="8">
+        <v>-5.9059E-2</v>
+      </c>
+      <c r="K49" s="5">
+        <f>(F49-C49)/F49</f>
+        <v>4.2666484623041608E-6</v>
+      </c>
+      <c r="L49" s="5">
+        <f>(G49-D49)/G49</f>
+        <v>2.6563476743745976E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8">
+        <v>-7.4869999999999997E-3</v>
+      </c>
+      <c r="I50" s="8">
+        <v>-5.9318999999999997E-2</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C51" s="6">
+        <f>(B52-B52^2)-(B51-B51^2)</f>
+        <v>-1.66015625E-2</v>
+      </c>
+      <c r="D51" s="6">
+        <f>(B52^3 - 3*B52^2 - B52) - (B51^3 - 3*B51^2 - B51)</f>
+        <v>-0.119842529296875</v>
+      </c>
+      <c r="F51" s="6">
+        <f>SUM(H51:H52)</f>
+        <v>-1.6601499999999998E-2</v>
+      </c>
+      <c r="G51" s="6">
+        <f>SUM(I51:I52)</f>
+        <v>-0.11984300000000001</v>
+      </c>
+      <c r="H51" s="8">
+        <v>-8.1379999999999994E-3</v>
+      </c>
+      <c r="I51" s="8">
+        <v>-5.9806999999999999E-2</v>
+      </c>
+      <c r="K51" s="5">
+        <f>(F51-C51)/F51</f>
+        <v>-3.7647200555249365E-6</v>
+      </c>
+      <c r="L51" s="5">
+        <f>(G51-D51)/G51</f>
+        <v>3.927664736405786E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8">
+        <v>-8.4635000000000005E-3</v>
+      </c>
+      <c r="I52" s="8">
+        <v>-6.0035999999999999E-2</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="C53" s="6">
+        <f>(B54-B54^2)-(B53-B53^2)</f>
+        <v>-1.85546875E-2</v>
+      </c>
+      <c r="D53" s="6">
+        <f>(B54^3 - 3*B54^2 - B54) - (B53^3 - 3*B53^2 - B53)</f>
+        <v>-0.121124267578125</v>
+      </c>
+      <c r="F53" s="6">
+        <f>SUM(H53:H54)</f>
+        <v>-1.85547E-2</v>
+      </c>
+      <c r="G53" s="6">
+        <f>SUM(I53:I54)</f>
+        <v>-0.12112400000000001</v>
+      </c>
+      <c r="H53" s="8">
+        <v>-9.1146000000000005E-3</v>
+      </c>
+      <c r="I53" s="8">
+        <v>-6.0463000000000003E-2</v>
+      </c>
+      <c r="K53" s="5">
+        <f>(F53-C53)/F53</f>
+        <v>6.7368375669557822E-7</v>
+      </c>
+      <c r="L53" s="5">
+        <f>(G53-D53)/G53</f>
+        <v>-2.2091255654582411E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8">
+        <v>-9.4400999999999999E-3</v>
+      </c>
+      <c r="I54" s="8">
+        <v>-6.0661E-2</v>
+      </c>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="C55" s="6">
+        <f>(B56-B56^2)-(B55-B55^2)</f>
+        <v>-2.05078125E-2</v>
+      </c>
+      <c r="D55" s="6">
+        <f>(B56^3 - 3*B56^2 - B56) - (B55^3 - 3*B55^2 - B55)</f>
+        <v>-0.122222900390625</v>
+      </c>
+      <c r="F55" s="6">
+        <f>SUM(H55:H56)</f>
+        <v>-2.0507999999999998E-2</v>
+      </c>
+      <c r="G55" s="6">
+        <f>SUM(I55:I56)</f>
+        <v>-0.122223</v>
+      </c>
+      <c r="H55" s="8">
+        <v>-1.0090999999999999E-2</v>
+      </c>
+      <c r="I55" s="8">
+        <v>-6.1027999999999999E-2</v>
+      </c>
+      <c r="K55" s="5">
+        <f>(F55-C55)/F55</f>
+        <v>9.142773551709226E-6</v>
+      </c>
+      <c r="L55" s="5">
+        <f>(G55-D55)/G55</f>
+        <v>8.1498060920048338E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8">
+        <v>-1.0416999999999999E-2</v>
+      </c>
+      <c r="I56" s="8">
+        <v>-6.1194999999999999E-2</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="C57" s="6">
+        <f>(B58-B58^2)-(B57-B57^2)</f>
+        <v>-2.24609375E-2</v>
+      </c>
+      <c r="D57" s="6">
+        <f>(B58^3 - 3*B58^2 - B58) - (B57^3 - 3*B57^2 - B57)</f>
+        <v>-0.123138427734375</v>
+      </c>
+      <c r="F57" s="6">
+        <f>SUM(H57:H58)</f>
+        <v>-2.2461000000000002E-2</v>
+      </c>
+      <c r="G57" s="6">
+        <f>SUM(I57:I58)</f>
+        <v>-0.123139</v>
+      </c>
+      <c r="H57" s="8">
+        <v>-1.1068E-2</v>
+      </c>
+      <c r="I57" s="8">
+        <v>-6.1501E-2</v>
+      </c>
+      <c r="K57" s="5">
+        <f>(F57-C57)/F57</f>
+        <v>2.7826009528425817E-6</v>
+      </c>
+      <c r="L57" s="5">
+        <f>(G57-D57)/G57</f>
+        <v>4.6473142140057832E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8">
+        <v>-1.1393E-2</v>
+      </c>
+      <c r="I58" s="8">
+        <v>-6.1637999999999998E-2</v>
+      </c>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C59" s="6">
+        <f>(B60-B60^2)-(B59-B59^2)</f>
+        <v>-2.44140625E-2</v>
+      </c>
+      <c r="D59" s="6">
+        <f>(B60^3 - 3*B60^2 - B60) - (B59^3 - 3*B59^2 - B59)</f>
+        <v>-0.123870849609375</v>
+      </c>
+      <c r="F59" s="6">
+        <f>SUM(H59:H60)</f>
+        <v>-2.4413999999999998E-2</v>
+      </c>
+      <c r="G59" s="6">
+        <f>SUM(I59:I60)</f>
+        <v>-0.12387100000000001</v>
+      </c>
+      <c r="H59" s="8">
+        <v>-1.2043999999999999E-2</v>
+      </c>
+      <c r="I59" s="8">
+        <v>-6.1882E-2</v>
+      </c>
+      <c r="K59" s="5">
+        <f>(F59-C59)/F59</f>
+        <v>-2.560006553690392E-6</v>
+      </c>
+      <c r="L59" s="5">
+        <f>(G59-D59)/G59</f>
+        <v>1.2140906669751454E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8">
+        <v>-1.2370000000000001E-2</v>
+      </c>
+      <c r="I60" s="8">
+        <v>-6.1989000000000002E-2</v>
+      </c>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="C61" s="6">
+        <f>(B62-B62^2)-(B61-B61^2)</f>
+        <v>-2.63671875E-2</v>
+      </c>
+      <c r="D61" s="6">
+        <f>(B62^3 - 3*B62^2 - B62) - (B61^3 - 3*B61^2 - B61)</f>
+        <v>-0.124420166015625</v>
+      </c>
+      <c r="F61" s="6">
+        <f>SUM(H61:H62)</f>
+        <v>-2.6367000000000002E-2</v>
+      </c>
+      <c r="G61" s="6">
+        <f>SUM(I61:I62)</f>
+        <v>-0.12442</v>
+      </c>
+      <c r="H61" s="8">
+        <v>-1.3021E-2</v>
+      </c>
+      <c r="I61" s="8">
+        <v>-6.2171999999999998E-2</v>
+      </c>
+      <c r="K61" s="5">
+        <f>(F61-C61)/F61</f>
+        <v>-7.1111616793132618E-6</v>
+      </c>
+      <c r="L61" s="5">
+        <f>(G61-D61)/G61</f>
+        <v>-1.3343162272720178E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="8">
+        <v>-1.3346E-2</v>
+      </c>
+      <c r="I62" s="8">
+        <v>-6.2247999999999998E-2</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="C63" s="6">
+        <f>(B64-B64^2)-(B63-B63^2)</f>
+        <v>-2.83203125E-2</v>
+      </c>
+      <c r="D63" s="6">
+        <f>(B64^3 - 3*B64^2 - B64) - (B63^3 - 3*B63^2 - B63)</f>
+        <v>-0.124786376953125</v>
+      </c>
+      <c r="F63" s="6">
+        <f>SUM(H63:H64)</f>
+        <v>-2.8320000000000001E-2</v>
+      </c>
+      <c r="G63" s="6">
+        <f>SUM(I63:I64)</f>
+        <v>-0.12478600000000001</v>
+      </c>
+      <c r="H63" s="8">
+        <v>-1.3997000000000001E-2</v>
+      </c>
+      <c r="I63" s="8">
+        <v>-6.2370000000000002E-2</v>
+      </c>
+      <c r="K63" s="5">
+        <f>(F63-C63)/F63</f>
+        <v>-1.1034604519723792E-5</v>
+      </c>
+      <c r="L63" s="5">
+        <f>(G63-D63)/G63</f>
+        <v>-3.0207966037213663E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="1">
+        <v>0.96875</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8">
+        <v>-1.4323000000000001E-2</v>
+      </c>
+      <c r="I64" s="8">
+        <v>-6.2415999999999999E-2</v>
+      </c>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.96875</v>
+      </c>
+      <c r="C65" s="6">
+        <f>(B66-B66^2)-(B65-B65^2)</f>
+        <v>-3.02734375E-2</v>
+      </c>
+      <c r="D65" s="6">
+        <f>(B66^3 - 3*B66^2 - B66) - (B65^3 - 3*B65^2 - B65)</f>
+        <v>-0.124969482421875</v>
+      </c>
+      <c r="F65" s="6">
+        <f>SUM(H65:H66)</f>
+        <v>-3.0273000000000001E-2</v>
+      </c>
+      <c r="G65" s="6">
+        <f>SUM(I65:I66)</f>
+        <v>-0.124969</v>
+      </c>
+      <c r="H65" s="8">
+        <v>-1.4973999999999999E-2</v>
+      </c>
+      <c r="I65" s="8">
+        <v>-6.2476999999999998E-2</v>
+      </c>
+      <c r="K65" s="5">
+        <f>(F65-C65)/F65</f>
+        <v>-1.4451821755316711E-5</v>
+      </c>
+      <c r="L65" s="5">
+        <f>(G65-D65)/G65</f>
+        <v>-3.8603323624518654E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8">
+        <v>-1.5299E-2</v>
+      </c>
+      <c r="I66" s="8">
+        <v>-6.2491999999999999E-2</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="225">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/c++/PETSc_Tests/NonLinear-Verification.xlsx
+++ b/c++/PETSc_Tests/NonLinear-Verification.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyalberti/Documents/projects/Fctn_Src/c++/PETSc_Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C7A46C-627A-4641-A701-679105FB2FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBA8BD-079D-5F46-9A78-1CA2AB73A25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11360" yWindow="-17540" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{A64FA9E8-8B1C-4A42-B432-8621287DF68E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="10780" xr2:uid="{A64FA9E8-8B1C-4A42-B432-8621287DF68E}"/>
   </bookViews>
   <sheets>
-    <sheet name="solution check" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Discretization Residual Check" sheetId="5" r:id="rId1"/>
+    <sheet name="Linear Test" sheetId="1" r:id="rId2"/>
     <sheet name="Quadratic Test" sheetId="4" r:id="rId3"/>
     <sheet name="source check" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Velocity</t>
   </si>
@@ -156,16 +156,43 @@
     <t>analytic integration</t>
   </si>
   <si>
-    <t>Computed Solution</t>
-  </si>
-  <si>
-    <t>analytic source integration</t>
-  </si>
-  <si>
     <t>numerical</t>
   </si>
   <si>
     <t>analytic</t>
+  </si>
+  <si>
+    <t>Linear Solution</t>
+  </si>
+  <si>
+    <t>LHS</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>Discretized Mass Equation</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Momentum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Difference </t>
+  </si>
+  <si>
+    <t>Discretized Momentum Equation</t>
+  </si>
+  <si>
+    <t>Elem Num</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -176,7 +203,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,11 +235,29 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -213,31 +266,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -319,7 +416,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'solution check'!$B$4:$B$67</c:f>
+              <c:f>'Linear Test'!$B$4:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -520,7 +617,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'solution check'!$C$4:$C$67</c:f>
+              <c:f>'Linear Test'!$C$4:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -758,7 +855,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'solution check'!$B$4:$B$67</c:f>
+              <c:f>'Linear Test'!$B$4:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -959,7 +1056,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'solution check'!$D$4:$D$67</c:f>
+              <c:f>'Linear Test'!$D$4:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1197,7 +1294,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'solution check'!$B$4:$B$67</c:f>
+              <c:f>'Linear Test'!$B$4:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1398,7 +1495,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'solution check'!$E$4:$E$67</c:f>
+              <c:f>'Linear Test'!$E$4:$E$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1636,7 +1733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'solution check'!$B$4:$B$67</c:f>
+              <c:f>'Linear Test'!$B$4:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1837,7 +1934,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'solution check'!$F$4:$F$67</c:f>
+              <c:f>'Linear Test'!$F$4:$F$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
@@ -6692,6 +6789,2638 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093178E4-741C-674E-A689-926BF29800FC}">
+  <dimension ref="A2:P67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2.2204E-16</v>
+      </c>
+      <c r="C4" s="9">
+        <f>1+B4</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D4" s="9">
+        <f>2-B4</f>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11">
+        <f>(D4*C4)/3 + (D4*C5)/6 + (D5*C4)/6 + (D5*C5)/3</f>
+        <v>2.0152994791666665</v>
+      </c>
+      <c r="G4" s="11">
+        <f>C4*D4  + M4</f>
+        <v>2.0152990000000002</v>
+      </c>
+      <c r="H4" s="18">
+        <f>F4-G4</f>
+        <v>4.7916666634506555E-7</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="9">
+        <f>(C4*D4^2)/4 + (C5*D4^2)/12 + (C4*D4*D5)/6 + (C5*D4*D5)/6 + (C4*D5^2)/12 + (C5*D5^2)/4</f>
+        <v>3.9990310668945312</v>
+      </c>
+      <c r="K4" s="12">
+        <f>C4*D4^2 + N4</f>
+        <v>3.983406</v>
+      </c>
+      <c r="L4" s="12">
+        <f>J4-K4</f>
+        <v>1.5625066894531248E-2</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1.5299E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-1.6594000000000001E-2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="13">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C5" s="14">
+        <f t="shared" ref="C5:C67" si="0">1+B5</f>
+        <v>1.03125</v>
+      </c>
+      <c r="D5" s="14">
+        <f>2-B5</f>
+        <v>1.96875</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16">
+        <f>-(D4*C4)/3 - (D4*C5)/6 - (D5*C4)/6 - (D5*C5)/3 + D5*C5</f>
+        <v>1.4973958333333481E-2</v>
+      </c>
+      <c r="G5" s="16">
+        <f>M5</f>
+        <v>1.4973999999999999E-2</v>
+      </c>
+      <c r="H5" s="19">
+        <f>F5-G5</f>
+        <v>-4.1666666518100359E-8</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="14">
+        <f>-(C4*D4^2)/4 - (C5*D4^2)/12 - (C4*D4*D5)/6 - (C5*D4*D5)/6 - (C4*D5^2)/12 - (C5*D5^2)/4 + C5*D5^2</f>
+        <v>-1.93023681640625E-3</v>
+      </c>
+      <c r="K5" s="17">
+        <f>N5</f>
+        <v>-1.7555000000000001E-2</v>
+      </c>
+      <c r="L5" s="17">
+        <f>J5-K5</f>
+        <v>1.5624763183593751E-2</v>
+      </c>
+      <c r="M5" s="17">
+        <v>1.4973999999999999E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>-1.7555000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C6" s="24">
+        <f t="shared" si="0"/>
+        <v>1.03125</v>
+      </c>
+      <c r="D6" s="24">
+        <f>2-B6</f>
+        <v>1.96875</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26">
+        <f>(D6*C6)/3 + (D6*C7)/6 + (D7*C6)/6 + (D7*C7)/3</f>
+        <v>2.0445963541666665</v>
+      </c>
+      <c r="G6" s="11">
+        <f>C6*D6  + M6</f>
+        <v>2.0445964375000001</v>
+      </c>
+      <c r="H6" s="18">
+        <f>F6-G6</f>
+        <v>-8.3333333567026102E-8</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="9">
+        <f>(C6*D6^2)/4 + (C7*D7^2)/12 + (C6*D6*D7)/6 + (C7*D6*D7)/6 + (C6*D7^2)/12 + (C7*D7^2)/4</f>
+        <v>3.9824701944986982</v>
+      </c>
+      <c r="K6" s="12">
+        <f>C6*D6^2 + N6</f>
+        <v>3.977653830078125</v>
+      </c>
+      <c r="L6" s="12">
+        <f>J6-K6</f>
+        <v>4.8163644205732048E-3</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1.4323000000000001E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-1.9446999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0625</v>
+      </c>
+      <c r="D7" s="14">
+        <f>2-B7</f>
+        <v>1.9375</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16">
+        <f>-(D6*C6)/3 - (D6*C7)/6 - (D7*C6)/6 - (D7*C7)/3 + D7*C7</f>
+        <v>1.3997395833333481E-2</v>
+      </c>
+      <c r="G7" s="16">
+        <f>M7</f>
+        <v>1.3997000000000001E-2</v>
+      </c>
+      <c r="H7" s="19">
+        <f>F7-G7</f>
+        <v>3.9583333348060246E-7</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="14">
+        <f>-(C6*D6^2)/4 - (C7*D7^2)/12 - (C6*D6*D7)/6 - (C7*D6*D7)/6 - (C6*D7^2)/12 - (C7*D7^2)/4 + C7*D7^2</f>
+        <v>6.0551961263017873E-3</v>
+      </c>
+      <c r="K7" s="17">
+        <f>N7</f>
+        <v>-2.0378E-2</v>
+      </c>
+      <c r="L7" s="17">
+        <f>J7-K7</f>
+        <v>2.6433196126301788E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1.3997000000000001E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>-2.0378E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0625</v>
+      </c>
+      <c r="D8" s="9">
+        <f>2-B8</f>
+        <v>1.9375</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11">
+        <f>(D8*C8)/3 + (D8*C9)/6 + (D9*C8)/6 + (D9*C9)/3</f>
+        <v>2.0719401041666665</v>
+      </c>
+      <c r="G8" s="11">
+        <f>C8*D8  + M8</f>
+        <v>2.0719397499999999</v>
+      </c>
+      <c r="H8" s="18">
+        <f>F8-G8</f>
+        <v>3.5416666666066021E-7</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="9">
+        <f>(C8*D8^2)/4 + (C9*D9^2)/12 + (C8*D8*D9)/6 + (C9*D8*D9)/6 + (C8*D9^2)/12 + (C9*D9^2)/4</f>
+        <v>3.9709930419921875</v>
+      </c>
+      <c r="K8" s="12">
+        <f>C8*D8^2 + N8</f>
+        <v>3.9663163906249999</v>
+      </c>
+      <c r="L8" s="12">
+        <f>J8-K8</f>
+        <v>4.6766513671876453E-3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.3346E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>-2.2209E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="13">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" si="0"/>
+        <v>1.09375</v>
+      </c>
+      <c r="D9" s="14">
+        <f>2-B9</f>
+        <v>1.90625</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16">
+        <f>-(D8*C8)/3 - (D8*C9)/6 - (D9*C8)/6 - (D9*C9)/3 + D9*C9</f>
+        <v>1.3020833333333481E-2</v>
+      </c>
+      <c r="G9" s="16">
+        <f>M9</f>
+        <v>1.3021E-2</v>
+      </c>
+      <c r="H9" s="19">
+        <f>F9-G9</f>
+        <v>-1.6666666651822537E-7</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="14">
+        <f>-(C8*D8^2)/4 - (C9*D9^2)/12 - (C8*D8*D9)/6 - (C9*D8*D9)/6 - (C8*D9^2)/12 - (C9*D9^2)/4 + C9*D9^2</f>
+        <v>3.4637451171875E-3</v>
+      </c>
+      <c r="K9" s="17">
+        <f>N9</f>
+        <v>-2.3109000000000001E-2</v>
+      </c>
+      <c r="L9" s="17">
+        <f>J9-K9</f>
+        <v>2.6572745117187501E-2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1.3021E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-2.3109000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.09375</v>
+      </c>
+      <c r="D10" s="9">
+        <f>2-B10</f>
+        <v>1.90625</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11">
+        <f>(D10*C10)/3 + (D10*C11)/6 + (D11*C10)/6 + (D11*C11)/3</f>
+        <v>2.0973307291666665</v>
+      </c>
+      <c r="G10" s="11">
+        <f>C10*D10  + M10</f>
+        <v>2.0973309375000002</v>
+      </c>
+      <c r="H10" s="18">
+        <f>F10-G10</f>
+        <v>-2.0833333369552065E-7</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="9">
+        <f>(C10*D10^2)/4 + (C11*D11^2)/12 + (C10*D10*D11)/6 + (C11*D10*D11)/6 + (C10*D11^2)/12 + (C11*D11^2)/4</f>
+        <v>3.9541244506835938</v>
+      </c>
+      <c r="K10" s="12">
+        <f>C10*D10^2 + N10</f>
+        <v>3.9495777871093751</v>
+      </c>
+      <c r="L10" s="12">
+        <f>J10-K10</f>
+        <v>4.5466635742186234E-3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1.2370000000000001E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-2.4878999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="D11" s="14">
+        <f>2-B11</f>
+        <v>1.875</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16">
+        <f>-(D10*C10)/3 - (D10*C11)/6 - (D11*C10)/6 - (D11*C11)/3 + D11*C11</f>
+        <v>1.2044270833333481E-2</v>
+      </c>
+      <c r="G11" s="16">
+        <f>M11</f>
+        <v>1.2043999999999999E-2</v>
+      </c>
+      <c r="H11" s="19">
+        <f>F11-G11</f>
+        <v>2.7083333348221217E-7</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="14">
+        <f>-(C10*D10^2)/4 - (C11*D11^2)/12 - (C10*D10*D11)/6 - (C11*D10*D11)/6 - (C10*D11^2)/12 - (C11*D11^2)/4 + C11*D11^2</f>
+        <v>9.5367431640625E-4</v>
+      </c>
+      <c r="K11" s="17">
+        <f>N11</f>
+        <v>-2.5749000000000001E-2</v>
+      </c>
+      <c r="L11" s="17">
+        <f>J11-K11</f>
+        <v>2.6702674316406251E-2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1.2043999999999999E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-2.5749000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="D12" s="9">
+        <f>2-B12</f>
+        <v>1.875</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11">
+        <f>(D12*C12)/3 + (D12*C13)/6 + (D13*C12)/6 + (D13*C13)/3</f>
+        <v>2.1207682291666665</v>
+      </c>
+      <c r="G12" s="11">
+        <f>C12*D12  + M12</f>
+        <v>2.120768</v>
+      </c>
+      <c r="H12" s="18">
+        <f>F12-G12</f>
+        <v>2.2916666653216566E-7</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="9">
+        <f>(C12*D12^2)/4 + (C13*D13^2)/12 + (C12*D12*D13)/6 + (C13*D12*D13)/6 + (C12*D13^2)/12 + (C13*D13^2)/4</f>
+        <v>3.932047526041667</v>
+      </c>
+      <c r="K12" s="12">
+        <f>C12*D12^2 + N12</f>
+        <v>3.9276201249999998</v>
+      </c>
+      <c r="L12" s="12">
+        <f>J12-K12</f>
+        <v>4.4274010416671672E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.1393E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-2.7458E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="13">
+        <v>0.15625</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="0"/>
+        <v>1.15625</v>
+      </c>
+      <c r="D13" s="14">
+        <f>2-B13</f>
+        <v>1.84375</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16">
+        <f>-(D12*C12)/3 - (D12*C13)/6 - (D13*C12)/6 - (D13*C13)/3 + D13*C13</f>
+        <v>1.1067708333333481E-2</v>
+      </c>
+      <c r="G13" s="16">
+        <f>M13</f>
+        <v>1.1068E-2</v>
+      </c>
+      <c r="H13" s="19">
+        <f>F13-G13</f>
+        <v>-2.9166666651835038E-7</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="14">
+        <f>-(C12*D12^2)/4 - (C13*D13^2)/12 - (C12*D12*D13)/6 - (C13*D12*D13)/6 - (C12*D13^2)/12 - (C13*D13^2)/4 + C13*D13^2</f>
+        <v>-1.4750162760419627E-3</v>
+      </c>
+      <c r="K13" s="17">
+        <f>N13</f>
+        <v>-2.8296999999999999E-2</v>
+      </c>
+      <c r="L13" s="17">
+        <f>J13-K13</f>
+        <v>2.6821983723958037E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.1068E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>-2.8296999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.15625</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>1.15625</v>
+      </c>
+      <c r="D14" s="9">
+        <f>2-B14</f>
+        <v>1.84375</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11">
+        <f>(D14*C14)/3 + (D14*C15)/6 + (D15*C14)/6 + (D15*C15)/3</f>
+        <v>2.1422526041666665</v>
+      </c>
+      <c r="G14" s="11">
+        <f>C14*D14  + M14</f>
+        <v>2.1422529374999999</v>
+      </c>
+      <c r="H14" s="18">
+        <f>F14-G14</f>
+        <v>-3.3333333337992599E-7</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="9">
+        <f>(C14*D14^2)/4 + (C15*D15^2)/12 + (C14*D14*D15)/6 + (C15*D14*D15)/6 + (C14*D15^2)/12 + (C15*D15^2)/4</f>
+        <v>3.9049453735351562</v>
+      </c>
+      <c r="K14" s="12">
+        <f>C14*D14^2 + N14</f>
+        <v>3.9006275097656249</v>
+      </c>
+      <c r="L14" s="12">
+        <f>J14-K14</f>
+        <v>4.3178637695313604E-3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.0416999999999999E-2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-2.9944999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="13">
+        <v>0.1875</v>
+      </c>
+      <c r="C15" s="14">
+        <f t="shared" si="0"/>
+        <v>1.1875</v>
+      </c>
+      <c r="D15" s="14">
+        <f>2-B15</f>
+        <v>1.8125</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16">
+        <f>-(D14*C14)/3 - (D14*C15)/6 - (D15*C14)/6 - (D15*C15)/3 + D15*C15</f>
+        <v>1.0091145833333481E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <f>M15</f>
+        <v>1.0090999999999999E-2</v>
+      </c>
+      <c r="H15" s="19">
+        <f>F15-G15</f>
+        <v>1.4583333348208716E-7</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="14">
+        <f>-(C14*D14^2)/4 - (C15*D15^2)/12 - (C14*D14*D15)/6 - (C15*D14*D15)/6 - (C14*D15^2)/12 - (C15*D15^2)/4 + C15*D15^2</f>
+        <v>-3.82232666015625E-3</v>
+      </c>
+      <c r="K15" s="17">
+        <f>N15</f>
+        <v>-3.0754E-2</v>
+      </c>
+      <c r="L15" s="17">
+        <f>J15-K15</f>
+        <v>2.693167333984375E-2</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.0090999999999999E-2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-3.0754E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1875</v>
+      </c>
+      <c r="D16" s="9">
+        <f>2-B16</f>
+        <v>1.8125</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11">
+        <f>(D16*C16)/3 + (D16*C17)/6 + (D17*C16)/6 + (D17*C17)/3</f>
+        <v>2.1617838541666665</v>
+      </c>
+      <c r="G16" s="11">
+        <f>C16*D16  + M16</f>
+        <v>2.16178385</v>
+      </c>
+      <c r="H16" s="18">
+        <f>F16-G16</f>
+        <v>4.1666665673290026E-9</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="9">
+        <f>(C16*D16^2)/4 + (C17*D17^2)/12 + (C16*D16*D17)/6 + (C17*D16*D17)/6 + (C16*D17^2)/12 + (C17*D17^2)/4</f>
+        <v>3.8730010986328125</v>
+      </c>
+      <c r="K16" s="12">
+        <f>C16*D16^2 + N16</f>
+        <v>3.8687820468749998</v>
+      </c>
+      <c r="L16" s="12">
+        <f>J16-K16</f>
+        <v>4.2190517578126752E-3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>9.4400999999999999E-3</v>
+      </c>
+      <c r="N16" s="3">
+        <v>-3.2341000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="13">
+        <v>0.21875</v>
+      </c>
+      <c r="C17" s="14">
+        <f t="shared" si="0"/>
+        <v>1.21875</v>
+      </c>
+      <c r="D17" s="14">
+        <f>2-B17</f>
+        <v>1.78125</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16">
+        <f>-(D16*C16)/3 - (D16*C17)/6 - (D17*C16)/6 - (D17*C17)/3 + D17*C17</f>
+        <v>9.1145833333334814E-3</v>
+      </c>
+      <c r="G17" s="16">
+        <f>M17</f>
+        <v>9.1146000000000005E-3</v>
+      </c>
+      <c r="H17" s="19">
+        <f>F17-G17</f>
+        <v>-1.6666666519116191E-8</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="14">
+        <f>-(C16*D16^2)/4 - (C17*D17^2)/12 - (C16*D16*D17)/6 - (C17*D16*D17)/6 - (C16*D17^2)/12 - (C17*D17^2)/4 + C17*D17^2</f>
+        <v>-6.0882568359375E-3</v>
+      </c>
+      <c r="K17" s="17">
+        <f>N17</f>
+        <v>-3.3119000000000003E-2</v>
+      </c>
+      <c r="L17" s="17">
+        <f>J17-K17</f>
+        <v>2.7030743164062503E-2</v>
+      </c>
+      <c r="M17" s="3">
+        <v>9.1146000000000005E-3</v>
+      </c>
+      <c r="N17" s="3">
+        <v>-3.3119000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>8</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.21875</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" si="0"/>
+        <v>1.21875</v>
+      </c>
+      <c r="D18" s="9">
+        <f>2-B18</f>
+        <v>1.78125</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11">
+        <f>(D18*C18)/3 + (D18*C19)/6 + (D19*C18)/6 + (D19*C19)/3</f>
+        <v>2.1793619791666665</v>
+      </c>
+      <c r="G18" s="11">
+        <f>C18*D18  + M18</f>
+        <v>2.1793619375</v>
+      </c>
+      <c r="H18" s="18">
+        <f>F18-G18</f>
+        <v>4.1666666561468446E-8</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="9">
+        <f>(C18*D18^2)/4 + (C19*D19^2)/12 + (C18*D18*D19)/6 + (C19*D18*D19)/6 + (C18*D19^2)/12 + (C19*D19^2)/4</f>
+        <v>3.8363978068033857</v>
+      </c>
+      <c r="K18" s="12">
+        <f>C18*D18^2 + N18</f>
+        <v>3.8322678417968752</v>
+      </c>
+      <c r="L18" s="12">
+        <f>J18-K18</f>
+        <v>4.1299650065105276E-3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>8.4635000000000005E-3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-3.4645000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="14">
+        <f>2-B19</f>
+        <v>1.75</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16">
+        <f>-(D18*C18)/3 - (D18*C19)/6 - (D19*C18)/6 - (D19*C19)/3 + D19*C19</f>
+        <v>8.1380208333334814E-3</v>
+      </c>
+      <c r="G19" s="16">
+        <f>M19</f>
+        <v>8.1379999999999994E-3</v>
+      </c>
+      <c r="H19" s="19">
+        <f>F19-G19</f>
+        <v>2.0833333481962146E-8</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="14">
+        <f>-(C18*D18^2)/4 - (C19*D19^2)/12 - (C18*D18*D19)/6 - (C19*D18*D19)/6 - (C18*D19^2)/12 - (C19*D19^2)/4 + C19*D19^2</f>
+        <v>-8.2728068033857127E-3</v>
+      </c>
+      <c r="K19" s="17">
+        <f>N19</f>
+        <v>-3.5393000000000001E-2</v>
+      </c>
+      <c r="L19" s="17">
+        <f>J19-K19</f>
+        <v>2.7120193196614288E-2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>8.1379999999999994E-3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>-3.5393000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="9">
+        <f>2-B20</f>
+        <v>1.75</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11">
+        <f>(D20*C20)/3 + (D20*C21)/6 + (D21*C20)/6 + (D21*C21)/3</f>
+        <v>2.1949869791666665</v>
+      </c>
+      <c r="G20" s="11">
+        <f>C20*D20  + M20</f>
+        <v>2.1949869999999998</v>
+      </c>
+      <c r="H20" s="18">
+        <f>F20-G20</f>
+        <v>-2.0833333280734223E-8</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="9">
+        <f>(C20*D20^2)/4 + (C21*D21^2)/12 + (C20*D20*D21)/6 + (C21*D20*D21)/6 + (C20*D21^2)/12 + (C21*D21^2)/4</f>
+        <v>3.795318603515625</v>
+      </c>
+      <c r="K20" s="12">
+        <f>C20*D20^2 + N20</f>
+        <v>3.7912669999999999</v>
+      </c>
+      <c r="L20" s="12">
+        <f>J20-K20</f>
+        <v>4.0516035156250574E-3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>7.4869999999999997E-3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-3.6858000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="13">
+        <v>0.28125</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="0"/>
+        <v>1.28125</v>
+      </c>
+      <c r="D21" s="14">
+        <f>2-B21</f>
+        <v>1.71875</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16">
+        <f>-(D20*C20)/3 - (D20*C21)/6 - (D21*C20)/6 - (D21*C21)/3 + D21*C21</f>
+        <v>7.1614583333334814E-3</v>
+      </c>
+      <c r="G21" s="16">
+        <f>M21</f>
+        <v>7.1615000000000003E-3</v>
+      </c>
+      <c r="H21" s="19">
+        <f>F21-G21</f>
+        <v>-4.1666666518967721E-8</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="14">
+        <f>-(C20*D20^2)/4 - (C21*D21^2)/12 - (C20*D20*D21)/6 - (C21*D20*D21)/6 - (C20*D21^2)/12 - (C21*D21^2)/4 + C21*D21^2</f>
+        <v>-1.03759765625E-2</v>
+      </c>
+      <c r="K21" s="17">
+        <f>N21</f>
+        <v>-3.7574999999999997E-2</v>
+      </c>
+      <c r="L21" s="17">
+        <f>J21-K21</f>
+        <v>2.7199023437499997E-2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>7.1615000000000003E-3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-3.7574999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>10</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.28125</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="0"/>
+        <v>1.28125</v>
+      </c>
+      <c r="D22" s="9">
+        <f>2-B22</f>
+        <v>1.71875</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11">
+        <f>(D22*C22)/3 + (D22*C23)/6 + (D23*C22)/6 + (D23*C23)/3</f>
+        <v>2.2086588541666665</v>
+      </c>
+      <c r="G22" s="11">
+        <f>C22*D22  + M22</f>
+        <v>2.2086588374999998</v>
+      </c>
+      <c r="H22" s="18">
+        <f>F22-G22</f>
+        <v>1.666666671340522E-8</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="9">
+        <f>(C22*D22^2)/4 + (C23*D23^2)/12 + (C22*D22*D23)/6 + (C23*D22*D23)/6 + (C22*D23^2)/12 + (C23*D23^2)/4</f>
+        <v>3.7499465942382812</v>
+      </c>
+      <c r="K22" s="12">
+        <f>C22*D22^2 + N22</f>
+        <v>3.7459636269531251</v>
+      </c>
+      <c r="L22" s="12">
+        <f>J22-K22</f>
+        <v>3.9829672851561249E-3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6.5104000000000004E-3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>-3.8979E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="13">
+        <v>0.3125</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="0"/>
+        <v>1.3125</v>
+      </c>
+      <c r="D23" s="14">
+        <f>2-B23</f>
+        <v>1.6875</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16">
+        <f>-(D22*C22)/3 - (D22*C23)/6 - (D23*C22)/6 - (D23*C23)/3 + D23*C23</f>
+        <v>6.1848958333334814E-3</v>
+      </c>
+      <c r="G23" s="16">
+        <f>M23</f>
+        <v>6.1849000000000001E-3</v>
+      </c>
+      <c r="H23" s="19">
+        <f>F23-G23</f>
+        <v>-4.1666665187567453E-9</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="14">
+        <f>-(C22*D22^2)/4 - (C23*D23^2)/12 - (C22*D22*D23)/6 - (C23*D22*D23)/6 - (C22*D23^2)/12 - (C23*D23^2)/4 + C23*D23^2</f>
+        <v>-1.239776611328125E-2</v>
+      </c>
+      <c r="K23" s="17">
+        <f>N23</f>
+        <v>-3.9664999999999999E-2</v>
+      </c>
+      <c r="L23" s="17">
+        <f>J23-K23</f>
+        <v>2.7267233886718749E-2</v>
+      </c>
+      <c r="M23" s="3">
+        <v>6.1849000000000001E-3</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-3.9664999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.3125</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3125</v>
+      </c>
+      <c r="D24" s="9">
+        <f>2-B24</f>
+        <v>1.6875</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11">
+        <f>(D24*C24)/3 + (D24*C25)/6 + (D25*C24)/6 + (D25*C25)/3</f>
+        <v>2.2203776041666665</v>
+      </c>
+      <c r="G24" s="11">
+        <f>C24*D24  + M24</f>
+        <v>2.2203776500000001</v>
+      </c>
+      <c r="H24" s="18">
+        <f>F24-G24</f>
+        <v>-4.5833333572886659E-8</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="9">
+        <f>(C24*D24^2)/4 + (C25*D25^2)/12 + (C24*D24*D25)/6 + (C25*D24*D25)/6 + (C24*D25^2)/12 + (C25*D25^2)/4</f>
+        <v>3.7004648844401045</v>
+      </c>
+      <c r="K24" s="12">
+        <f>C24*D24^2 + N24</f>
+        <v>3.6965408281249998</v>
+      </c>
+      <c r="L24" s="12">
+        <f>J24-K24</f>
+        <v>3.9240563151046182E-3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5.5338999999999996E-3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-4.1008000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="13">
+        <v>0.34375</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="0"/>
+        <v>1.34375</v>
+      </c>
+      <c r="D25" s="14">
+        <f>2-B25</f>
+        <v>1.65625</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16">
+        <f>-(D24*C24)/3 - (D24*C25)/6 - (D25*C24)/6 - (D25*C25)/3 + D25*C25</f>
+        <v>5.2083333333334814E-3</v>
+      </c>
+      <c r="G25" s="16">
+        <f>M25</f>
+        <v>5.2082999999999999E-3</v>
+      </c>
+      <c r="H25" s="19">
+        <f>F25-G25</f>
+        <v>3.333333348145423E-8</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="14">
+        <f>-(C24*D24^2)/4 - (C25*D25^2)/12 - (C24*D24*D25)/6 - (C25*D24*D25)/6 - (C24*D25^2)/12 - (C25*D25^2)/4 + C25*D25^2</f>
+        <v>-1.4338175455729463E-2</v>
+      </c>
+      <c r="K25" s="17">
+        <f>N25</f>
+        <v>-4.1664E-2</v>
+      </c>
+      <c r="L25" s="17">
+        <f>J25-K25</f>
+        <v>2.7325824544270537E-2</v>
+      </c>
+      <c r="M25" s="3">
+        <v>5.2082999999999999E-3</v>
+      </c>
+      <c r="N25" s="3">
+        <v>-4.1664E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
+        <v>12</v>
+      </c>
+      <c r="B26" s="23">
+        <v>0.34375</v>
+      </c>
+      <c r="C26" s="24">
+        <f t="shared" si="0"/>
+        <v>1.34375</v>
+      </c>
+      <c r="D26" s="24">
+        <f>2-B26</f>
+        <v>1.65625</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26">
+        <f>(D26*C26)/3 + (D26*C27)/6 + (D27*C26)/6 + (D27*C27)/3</f>
+        <v>2.2301432291666665</v>
+      </c>
+      <c r="G26" s="11">
+        <f>C26*D26  + M26</f>
+        <v>2.2301432375000001</v>
+      </c>
+      <c r="H26" s="18">
+        <f>F26-G26</f>
+        <v>-8.3333335787472151E-9</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="M26" s="3">
+        <v>4.5573000000000002E-3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-4.2945999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C27" s="14">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+      <c r="D27" s="14">
+        <f>2-B27</f>
+        <v>1.625</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16">
+        <f>-(D26*C26)/3 - (D26*C27)/6 - (D27*C26)/6 - (D27*C27)/3 + D27*C27</f>
+        <v>4.2317708333334814E-3</v>
+      </c>
+      <c r="G27" s="16">
+        <f>M27</f>
+        <v>4.2318E-3</v>
+      </c>
+      <c r="H27" s="19">
+        <f>F27-G27</f>
+        <v>-2.9166666518608275E-8</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="M27" s="3">
+        <v>4.2318E-3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-4.3570999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>13</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+      <c r="D28" s="9">
+        <f>2-B28</f>
+        <v>1.625</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11">
+        <f>(D28*C28)/3 + (D28*C29)/6 + (D29*C28)/6 + (D29*C29)/3</f>
+        <v>2.2379557291666665</v>
+      </c>
+      <c r="G28" s="11">
+        <f>C28*D28  + M28</f>
+        <v>2.2379557000000001</v>
+      </c>
+      <c r="H28" s="18">
+        <f>F28-G28</f>
+        <v>2.9166666415392228E-8</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="M28" s="3">
+        <v>3.5807E-3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>-4.4791999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="13">
+        <v>0.40625</v>
+      </c>
+      <c r="C29" s="14">
+        <f t="shared" si="0"/>
+        <v>1.40625</v>
+      </c>
+      <c r="D29" s="14">
+        <f>2-B29</f>
+        <v>1.59375</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16">
+        <f>-(D28*C28)/3 - (D28*C29)/6 - (D29*C28)/6 - (D29*C29)/3 + D29*C29</f>
+        <v>3.2552083333334814E-3</v>
+      </c>
+      <c r="G29" s="16">
+        <f>M29</f>
+        <v>3.2552000000000002E-3</v>
+      </c>
+      <c r="H29" s="19">
+        <f>F29-G29</f>
+        <v>8.3333334811690196E-9</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="M29" s="3">
+        <v>3.2552000000000002E-3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-4.5386999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>14</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.40625</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="0"/>
+        <v>1.40625</v>
+      </c>
+      <c r="D30" s="9">
+        <f>2-B30</f>
+        <v>1.59375</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11">
+        <f>(D30*C30)/3 + (D30*C31)/6 + (D31*C30)/6 + (D31*C31)/3</f>
+        <v>2.2438151041666665</v>
+      </c>
+      <c r="G30" s="11">
+        <f>C30*D30  + M30</f>
+        <v>2.2438151374999999</v>
+      </c>
+      <c r="H30" s="18">
+        <f>F30-G30</f>
+        <v>-3.3333333426810441E-8</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="M30" s="3">
+        <v>2.6042000000000001E-3</v>
+      </c>
+      <c r="N30" s="3">
+        <v>-4.6546999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="C31" s="14">
+        <f t="shared" si="0"/>
+        <v>1.4375</v>
+      </c>
+      <c r="D31" s="14">
+        <f>2-B31</f>
+        <v>1.5625</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16">
+        <f>-(D30*C30)/3 - (D30*C31)/6 - (D31*C30)/6 - (D31*C31)/3 + D31*C31</f>
+        <v>2.2786458333334814E-3</v>
+      </c>
+      <c r="G31" s="16">
+        <f>M31</f>
+        <v>2.2786E-3</v>
+      </c>
+      <c r="H31" s="19">
+        <f>F31-G31</f>
+        <v>4.5833333481379995E-8</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="M31" s="3">
+        <v>2.2786E-3</v>
+      </c>
+      <c r="N31" s="3">
+        <v>-4.7112000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="20">
+        <v>15</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4375</v>
+      </c>
+      <c r="D32" s="9">
+        <f>2-B32</f>
+        <v>1.5625</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11">
+        <f>(D32*C32)/3 + (D32*C33)/6 + (D33*C32)/6 + (D33*C33)/3</f>
+        <v>2.2477213541666665</v>
+      </c>
+      <c r="G32" s="11">
+        <f>C32*D32  + M32</f>
+        <v>2.24772135</v>
+      </c>
+      <c r="H32" s="18">
+        <f>F32-G32</f>
+        <v>4.1666665673290026E-9</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="M32" s="3">
+        <v>1.6276000000000001E-3</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-4.8210000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="13">
+        <v>0.46875</v>
+      </c>
+      <c r="C33" s="14">
+        <f t="shared" si="0"/>
+        <v>1.46875</v>
+      </c>
+      <c r="D33" s="14">
+        <f>2-B33</f>
+        <v>1.53125</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16">
+        <f>-(D32*C32)/3 - (D32*C33)/6 - (D33*C32)/6 - (D33*C33)/3 + D33*C33</f>
+        <v>1.3020833333334814E-3</v>
+      </c>
+      <c r="G33" s="16">
+        <f>M33</f>
+        <v>1.3021E-3</v>
+      </c>
+      <c r="H33" s="19">
+        <f>F33-G33</f>
+        <v>-1.666666651868251E-8</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="M33" s="3">
+        <v>1.3021E-3</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-4.8744000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="20">
+        <v>16</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="0"/>
+        <v>1.46875</v>
+      </c>
+      <c r="D34" s="9">
+        <f>2-B34</f>
+        <v>1.53125</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11">
+        <f>(D34*C34)/3 + (D34*C35)/6 + (D35*C34)/6 + (D35*C35)/3</f>
+        <v>2.2496744791666665</v>
+      </c>
+      <c r="G34" s="11">
+        <f>C34*D34  + M34</f>
+        <v>2.2496744775000002</v>
+      </c>
+      <c r="H34" s="18">
+        <f>F34-G34</f>
+        <v>1.6666663604780751E-9</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="M34" s="3">
+        <v>6.5103999999999997E-4</v>
+      </c>
+      <c r="N34" s="3">
+        <v>-4.9782E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="14">
+        <f>2-B35</f>
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16">
+        <f>-(D34*C34)/3 - (D34*C35)/6 - (D35*C34)/6 - (D35*C35)/3 + D35*C35</f>
+        <v>3.2552083333348136E-4</v>
+      </c>
+      <c r="G35" s="16">
+        <f>M35</f>
+        <v>3.2551999999999999E-4</v>
+      </c>
+      <c r="H35" s="19">
+        <f>F35-G35</f>
+        <v>8.3333348137619098E-10</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="M35" s="3">
+        <v>3.2551999999999999E-4</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-5.0285000000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
+        <v>17</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D36" s="9">
+        <f>2-B36</f>
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11">
+        <f>(D36*C36)/3 + (D36*C37)/6 + (D37*C36)/6 + (D37*C37)/3</f>
+        <v>2.2496744791666665</v>
+      </c>
+      <c r="G36" s="11">
+        <f>C36*D36  + M36</f>
+        <v>2.2496744799999999</v>
+      </c>
+      <c r="H36" s="18">
+        <f>F36-G36</f>
+        <v>-8.333334022836425E-10</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="M36" s="3">
+        <v>-3.2551999999999999E-4</v>
+      </c>
+      <c r="N36" s="3">
+        <v>-5.1262000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="13">
+        <v>0.53125</v>
+      </c>
+      <c r="C37" s="14">
+        <f t="shared" si="0"/>
+        <v>1.53125</v>
+      </c>
+      <c r="D37" s="14">
+        <f>2-B37</f>
+        <v>1.46875</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16">
+        <f>-(D36*C36)/3 - (D36*C37)/6 - (D37*C36)/6 - (D37*C37)/3 + D37*C37</f>
+        <v>-6.5104166666651864E-4</v>
+      </c>
+      <c r="G37" s="16">
+        <f>M37</f>
+        <v>-6.5103999999999997E-4</v>
+      </c>
+      <c r="H37" s="19">
+        <f>F37-G37</f>
+        <v>-1.6666665186631721E-9</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="M37" s="3">
+        <v>-6.5103999999999997E-4</v>
+      </c>
+      <c r="N37" s="3">
+        <v>-5.1735000000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
+        <v>18</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0.53125</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="0"/>
+        <v>1.53125</v>
+      </c>
+      <c r="D38" s="9">
+        <f>2-B38</f>
+        <v>1.46875</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11">
+        <f>(D38*C38)/3 + (D38*C39)/6 + (D39*C38)/6 + (D39*C39)/3</f>
+        <v>2.2477213541666665</v>
+      </c>
+      <c r="G38" s="11">
+        <f>C38*D38  + M38</f>
+        <v>2.2477213374999998</v>
+      </c>
+      <c r="H38" s="18">
+        <f>F38-G38</f>
+        <v>1.666666671340522E-8</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="M38" s="3">
+        <v>-1.3021E-3</v>
+      </c>
+      <c r="N38" s="3">
+        <v>-5.2650000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="C39" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5625</v>
+      </c>
+      <c r="D39" s="14">
+        <f>2-B39</f>
+        <v>1.4375</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16">
+        <f>-(D38*C38)/3 - (D38*C39)/6 - (D39*C38)/6 - (D39*C39)/3 + D39*C39</f>
+        <v>-1.6276041666665186E-3</v>
+      </c>
+      <c r="G39" s="16">
+        <f>M39</f>
+        <v>-1.6276000000000001E-3</v>
+      </c>
+      <c r="H39" s="19">
+        <f>F39-G39</f>
+        <v>-4.1666665185399049E-9</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="M39" s="3">
+        <v>-1.6276000000000001E-3</v>
+      </c>
+      <c r="N39" s="3">
+        <v>-5.3093000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="20">
+        <v>19</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="C40" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5625</v>
+      </c>
+      <c r="D40" s="9">
+        <f>2-B40</f>
+        <v>1.4375</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11">
+        <f>(D40*C40)/3 + (D40*C41)/6 + (D41*C40)/6 + (D41*C41)/3</f>
+        <v>2.2438151041666665</v>
+      </c>
+      <c r="G40" s="11">
+        <f>C40*D40  + M40</f>
+        <v>2.2438151500000001</v>
+      </c>
+      <c r="H40" s="18">
+        <f>F40-G40</f>
+        <v>-4.5833333572886659E-8</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="M40" s="3">
+        <v>-2.2786E-3</v>
+      </c>
+      <c r="N40" s="3">
+        <v>-5.3947000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="13">
+        <v>0.59375</v>
+      </c>
+      <c r="C41" s="14">
+        <f t="shared" si="0"/>
+        <v>1.59375</v>
+      </c>
+      <c r="D41" s="14">
+        <f>2-B41</f>
+        <v>1.40625</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16">
+        <f>-(D40*C40)/3 - (D40*C41)/6 - (D41*C40)/6 - (D41*C41)/3 + D41*C41</f>
+        <v>-2.6041666666665186E-3</v>
+      </c>
+      <c r="G41" s="16">
+        <f>M41</f>
+        <v>-2.6042000000000001E-3</v>
+      </c>
+      <c r="H41" s="19">
+        <f>F41-G41</f>
+        <v>3.333333348145423E-8</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="M41" s="3">
+        <v>-2.6042000000000001E-3</v>
+      </c>
+      <c r="N41" s="3">
+        <v>-5.4358999999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="20">
+        <v>20</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0.59375</v>
+      </c>
+      <c r="C42" s="9">
+        <f t="shared" si="0"/>
+        <v>1.59375</v>
+      </c>
+      <c r="D42" s="9">
+        <f>2-B42</f>
+        <v>1.40625</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11">
+        <f>(D42*C42)/3 + (D42*C43)/6 + (D43*C42)/6 + (D43*C43)/3</f>
+        <v>2.2379557291666665</v>
+      </c>
+      <c r="G42" s="11">
+        <f>C42*D42  + M42</f>
+        <v>2.2379557375000001</v>
+      </c>
+      <c r="H42" s="18">
+        <f>F42-G42</f>
+        <v>-8.3333335787472151E-9</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="M42" s="3">
+        <v>-3.2552000000000002E-3</v>
+      </c>
+      <c r="N42" s="3">
+        <v>-5.5153000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="C43" s="14">
+        <f t="shared" si="0"/>
+        <v>1.625</v>
+      </c>
+      <c r="D43" s="14">
+        <f>2-B43</f>
+        <v>1.375</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16">
+        <f>-(D42*C42)/3 - (D42*C43)/6 - (D43*C42)/6 - (D43*C43)/3 + D43*C43</f>
+        <v>-3.5807291666665186E-3</v>
+      </c>
+      <c r="G43" s="16">
+        <f>M43</f>
+        <v>-3.5807E-3</v>
+      </c>
+      <c r="H43" s="19">
+        <f>F43-G43</f>
+        <v>-2.9166666518608275E-8</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="M43" s="3">
+        <v>-3.5807E-3</v>
+      </c>
+      <c r="N43" s="3">
+        <v>-5.5534E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="20">
+        <v>21</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="C44" s="9">
+        <f t="shared" si="0"/>
+        <v>1.625</v>
+      </c>
+      <c r="D44" s="9">
+        <f>2-B44</f>
+        <v>1.375</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11">
+        <f>(D44*C44)/3 + (D44*C45)/6 + (D45*C44)/6 + (D45*C45)/3</f>
+        <v>2.2301432291666665</v>
+      </c>
+      <c r="G44" s="11">
+        <f>C44*D44  + M44</f>
+        <v>2.2301432000000001</v>
+      </c>
+      <c r="H44" s="18">
+        <f>F44-G44</f>
+        <v>2.9166666415392228E-8</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="M44" s="3">
+        <v>-4.2318E-3</v>
+      </c>
+      <c r="N44" s="3">
+        <v>-5.6266999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="13">
+        <v>0.65625</v>
+      </c>
+      <c r="C45" s="14">
+        <f t="shared" si="0"/>
+        <v>1.65625</v>
+      </c>
+      <c r="D45" s="14">
+        <f>2-B45</f>
+        <v>1.34375</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16">
+        <f>-(D44*C44)/3 - (D44*C45)/6 - (D45*C44)/6 - (D45*C45)/3 + D45*C45</f>
+        <v>-4.5572916666665186E-3</v>
+      </c>
+      <c r="G45" s="16">
+        <f>M45</f>
+        <v>-4.5573000000000002E-3</v>
+      </c>
+      <c r="H45" s="19">
+        <f>F45-G45</f>
+        <v>8.3333334816027005E-9</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="M45" s="3">
+        <v>-4.5573000000000002E-3</v>
+      </c>
+      <c r="N45" s="3">
+        <v>-5.6618000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="20">
+        <v>22</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.65625</v>
+      </c>
+      <c r="C46" s="9">
+        <f t="shared" si="0"/>
+        <v>1.65625</v>
+      </c>
+      <c r="D46" s="9">
+        <f>2-B46</f>
+        <v>1.34375</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11">
+        <f>(D46*C46)/3 + (D46*C47)/6 + (D47*C46)/6 + (D47*C47)/3</f>
+        <v>2.2203776041666665</v>
+      </c>
+      <c r="G46" s="11">
+        <f>C46*D46  + M46</f>
+        <v>2.2203776374999999</v>
+      </c>
+      <c r="H46" s="18">
+        <f>F46-G46</f>
+        <v>-3.3333333426810441E-8</v>
+      </c>
+      <c r="I46" s="18"/>
+      <c r="M46" s="3">
+        <v>-5.2082999999999999E-3</v>
+      </c>
+      <c r="N46" s="3">
+        <v>-5.7289E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="C47" s="14">
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
+      </c>
+      <c r="D47" s="14">
+        <f>2-B47</f>
+        <v>1.3125</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16">
+        <f>-(D46*C46)/3 - (D46*C47)/6 - (D47*C46)/6 - (D47*C47)/3 + D47*C47</f>
+        <v>-5.5338541666665186E-3</v>
+      </c>
+      <c r="G47" s="16">
+        <f>M47</f>
+        <v>-5.5338999999999996E-3</v>
+      </c>
+      <c r="H47" s="19">
+        <f>F47-G47</f>
+        <v>4.5833333480946314E-8</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="M47" s="3">
+        <v>-5.5338999999999996E-3</v>
+      </c>
+      <c r="N47" s="3">
+        <v>-5.7610000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
+        <v>23</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="C48" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
+      </c>
+      <c r="D48" s="9">
+        <f>2-B48</f>
+        <v>1.3125</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11">
+        <f>(D48*C48)/3 + (D48*C49)/6 + (D49*C48)/6 + (D49*C49)/3</f>
+        <v>2.2086588541666665</v>
+      </c>
+      <c r="G48" s="11">
+        <f>C48*D48  + M48</f>
+        <v>2.20865885</v>
+      </c>
+      <c r="H48" s="18">
+        <f>F48-G48</f>
+        <v>4.1666665673290026E-9</v>
+      </c>
+      <c r="I48" s="18"/>
+      <c r="M48" s="3">
+        <v>-6.1849000000000001E-3</v>
+      </c>
+      <c r="N48" s="3">
+        <v>-5.8220000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="13">
+        <v>0.71875</v>
+      </c>
+      <c r="C49" s="14">
+        <f t="shared" si="0"/>
+        <v>1.71875</v>
+      </c>
+      <c r="D49" s="14">
+        <f>2-B49</f>
+        <v>1.28125</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16">
+        <f>-(D48*C48)/3 - (D48*C49)/6 - (D49*C48)/6 - (D49*C49)/3 + D49*C49</f>
+        <v>-6.5104166666665186E-3</v>
+      </c>
+      <c r="G49" s="16">
+        <f>M49</f>
+        <v>-6.5104000000000004E-3</v>
+      </c>
+      <c r="H49" s="19">
+        <f>F49-G49</f>
+        <v>-1.6666666518248829E-8</v>
+      </c>
+      <c r="I49" s="18"/>
+      <c r="M49" s="3">
+        <v>-6.5104000000000004E-3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>-5.851E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="20">
+        <v>24</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.71875</v>
+      </c>
+      <c r="C50" s="9">
+        <f t="shared" si="0"/>
+        <v>1.71875</v>
+      </c>
+      <c r="D50" s="9">
+        <f>2-B50</f>
+        <v>1.28125</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11">
+        <f>(D50*C50)/3 + (D50*C51)/6 + (D51*C50)/6 + (D51*C51)/3</f>
+        <v>2.1949869791666665</v>
+      </c>
+      <c r="G50" s="11">
+        <f>C50*D50  + M50</f>
+        <v>2.1949869375</v>
+      </c>
+      <c r="H50" s="18">
+        <f>F50-G50</f>
+        <v>4.1666666561468446E-8</v>
+      </c>
+      <c r="I50" s="18"/>
+      <c r="M50" s="3">
+        <v>-7.1615000000000003E-3</v>
+      </c>
+      <c r="N50" s="3">
+        <v>-5.9059E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="C51" s="14">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="D51" s="14">
+        <f>2-B51</f>
+        <v>1.25</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16">
+        <f>-(D50*C50)/3 - (D50*C51)/6 - (D51*C50)/6 - (D51*C51)/3 + D51*C51</f>
+        <v>-7.4869791666665186E-3</v>
+      </c>
+      <c r="G51" s="16">
+        <f>M51</f>
+        <v>-7.4869999999999997E-3</v>
+      </c>
+      <c r="H51" s="19">
+        <f>F51-G51</f>
+        <v>2.0833333481094785E-8</v>
+      </c>
+      <c r="I51" s="18"/>
+      <c r="M51" s="3">
+        <v>-7.4869999999999997E-3</v>
+      </c>
+      <c r="N51" s="3">
+        <v>-5.9318999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="20">
+        <v>25</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="C52" s="9">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="D52" s="9">
+        <f>2-B52</f>
+        <v>1.25</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11">
+        <f>(D52*C52)/3 + (D52*C53)/6 + (D53*C52)/6 + (D53*C53)/3</f>
+        <v>2.1793619791666665</v>
+      </c>
+      <c r="G52" s="11">
+        <f>C52*D52  + M52</f>
+        <v>2.1793619999999998</v>
+      </c>
+      <c r="H52" s="18">
+        <f>F52-G52</f>
+        <v>-2.0833333280734223E-8</v>
+      </c>
+      <c r="I52" s="18"/>
+      <c r="M52" s="3">
+        <v>-8.1379999999999994E-3</v>
+      </c>
+      <c r="N52" s="3">
+        <v>-5.9806999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="13">
+        <v>0.78125</v>
+      </c>
+      <c r="C53" s="14">
+        <f t="shared" si="0"/>
+        <v>1.78125</v>
+      </c>
+      <c r="D53" s="14">
+        <f>2-B53</f>
+        <v>1.21875</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="16">
+        <f>-(D52*C52)/3 - (D52*C53)/6 - (D53*C52)/6 - (D53*C53)/3 + D53*C53</f>
+        <v>-8.4635416666665186E-3</v>
+      </c>
+      <c r="G53" s="16">
+        <f>M53</f>
+        <v>-8.4635000000000005E-3</v>
+      </c>
+      <c r="H53" s="19">
+        <f>F53-G53</f>
+        <v>-4.1666666518100359E-8</v>
+      </c>
+      <c r="I53" s="18"/>
+      <c r="M53" s="3">
+        <v>-8.4635000000000005E-3</v>
+      </c>
+      <c r="N53" s="3">
+        <v>-6.0035999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="20">
+        <v>26</v>
+      </c>
+      <c r="B54" s="8">
+        <v>0.78125</v>
+      </c>
+      <c r="C54" s="9">
+        <f t="shared" si="0"/>
+        <v>1.78125</v>
+      </c>
+      <c r="D54" s="9">
+        <f>2-B54</f>
+        <v>1.21875</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11">
+        <f>(D54*C54)/3 + (D54*C55)/6 + (D55*C54)/6 + (D55*C55)/3</f>
+        <v>2.1617838541666665</v>
+      </c>
+      <c r="G54" s="11">
+        <f>C54*D54  + M54</f>
+        <v>2.1617838374999998</v>
+      </c>
+      <c r="H54" s="18">
+        <f>F54-G54</f>
+        <v>1.666666671340522E-8</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="M54" s="3">
+        <v>-9.1146000000000005E-3</v>
+      </c>
+      <c r="N54" s="3">
+        <v>-6.0463000000000003E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="C55" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8125</v>
+      </c>
+      <c r="D55" s="14">
+        <f>2-B55</f>
+        <v>1.1875</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16">
+        <f>-(D54*C54)/3 - (D54*C55)/6 - (D55*C54)/6 - (D55*C55)/3 + D55*C55</f>
+        <v>-9.4401041666665186E-3</v>
+      </c>
+      <c r="G55" s="16">
+        <f>M55</f>
+        <v>-9.4400999999999999E-3</v>
+      </c>
+      <c r="H55" s="19">
+        <f>F55-G55</f>
+        <v>-4.1666665187567453E-9</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="M55" s="3">
+        <v>-9.4400999999999999E-3</v>
+      </c>
+      <c r="N55" s="3">
+        <v>-6.0661E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="20">
+        <v>27</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="C56" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8125</v>
+      </c>
+      <c r="D56" s="9">
+        <f>2-B56</f>
+        <v>1.1875</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11">
+        <f>(D56*C56)/3 + (D56*C57)/6 + (D57*C56)/6 + (D57*C57)/3</f>
+        <v>2.1422526041666665</v>
+      </c>
+      <c r="G56" s="11">
+        <f>C56*D56  + M56</f>
+        <v>2.1422527499999999</v>
+      </c>
+      <c r="H56" s="18">
+        <f>F56-G56</f>
+        <v>-1.4583333340922877E-7</v>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="M56" s="3">
+        <v>-1.0090999999999999E-2</v>
+      </c>
+      <c r="N56" s="3">
+        <v>-6.1027999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="13">
+        <v>0.84375</v>
+      </c>
+      <c r="C57" s="14">
+        <f t="shared" si="0"/>
+        <v>1.84375</v>
+      </c>
+      <c r="D57" s="14">
+        <f>2-B57</f>
+        <v>1.15625</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="16">
+        <f>-(D56*C56)/3 - (D56*C57)/6 - (D57*C56)/6 - (D57*C57)/3 + D57*C57</f>
+        <v>-1.0416666666666519E-2</v>
+      </c>
+      <c r="G57" s="16">
+        <f>M57</f>
+        <v>-1.0416999999999999E-2</v>
+      </c>
+      <c r="H57" s="19">
+        <f>F57-G57</f>
+        <v>3.3333333348053995E-7</v>
+      </c>
+      <c r="I57" s="18"/>
+      <c r="M57" s="3">
+        <v>-1.0416999999999999E-2</v>
+      </c>
+      <c r="N57" s="3">
+        <v>-6.1194999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="20">
+        <v>28</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="C58" s="9">
+        <f t="shared" si="0"/>
+        <v>1.84375</v>
+      </c>
+      <c r="D58" s="9">
+        <f>2-B58</f>
+        <v>1.15625</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11">
+        <f>(D58*C58)/3 + (D58*C59)/6 + (D59*C58)/6 + (D59*C59)/3</f>
+        <v>2.1207682291666665</v>
+      </c>
+      <c r="G58" s="11">
+        <f>C58*D58  + M58</f>
+        <v>2.1207679375000001</v>
+      </c>
+      <c r="H58" s="18">
+        <f>F58-G58</f>
+        <v>2.9166666637436833E-7</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="M58" s="3">
+        <v>-1.1068E-2</v>
+      </c>
+      <c r="N58" s="3">
+        <v>-6.1501E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="C59" s="14">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="D59" s="14">
+        <f>2-B59</f>
+        <v>1.125</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="16">
+        <f>-(D58*C58)/3 - (D58*C59)/6 - (D59*C58)/6 - (D59*C59)/3 + D59*C59</f>
+        <v>-1.1393229166666519E-2</v>
+      </c>
+      <c r="G59" s="16">
+        <f>M59</f>
+        <v>-1.1393E-2</v>
+      </c>
+      <c r="H59" s="19">
+        <f>F59-G59</f>
+        <v>-2.2916666651828788E-7</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="M59" s="3">
+        <v>-1.1393E-2</v>
+      </c>
+      <c r="N59" s="3">
+        <v>-6.1637999999999998E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="20">
+        <v>29</v>
+      </c>
+      <c r="B60" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C60" s="9">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="D60" s="9">
+        <f>2-B60</f>
+        <v>1.125</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11">
+        <f>(D60*C60)/3 + (D60*C61)/6 + (D61*C60)/6 + (D61*C61)/3</f>
+        <v>2.0973307291666665</v>
+      </c>
+      <c r="G60" s="11">
+        <f>C60*D60  + M60</f>
+        <v>2.0973310000000001</v>
+      </c>
+      <c r="H60" s="18">
+        <f>F60-G60</f>
+        <v>-2.7083333353772332E-7</v>
+      </c>
+      <c r="I60" s="18"/>
+      <c r="M60" s="3">
+        <v>-1.2043999999999999E-2</v>
+      </c>
+      <c r="N60" s="3">
+        <v>-6.1882E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="13">
+        <v>0.90625</v>
+      </c>
+      <c r="C61" s="14">
+        <f t="shared" si="0"/>
+        <v>1.90625</v>
+      </c>
+      <c r="D61" s="14">
+        <f>2-B61</f>
+        <v>1.09375</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="16">
+        <f>-(D60*C60)/3 - (D60*C61)/6 - (D61*C60)/6 - (D61*C61)/3 + D61*C61</f>
+        <v>-1.2369791666666519E-2</v>
+      </c>
+      <c r="G61" s="16">
+        <f>M61</f>
+        <v>-1.2370000000000001E-2</v>
+      </c>
+      <c r="H61" s="19">
+        <f>F61-G61</f>
+        <v>2.0833333348214966E-7</v>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="M61" s="3">
+        <v>-1.2370000000000001E-2</v>
+      </c>
+      <c r="N61" s="3">
+        <v>-6.1989000000000002E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="22">
+        <v>30</v>
+      </c>
+      <c r="B62" s="23">
+        <v>0.90625</v>
+      </c>
+      <c r="C62" s="24">
+        <f t="shared" si="0"/>
+        <v>1.90625</v>
+      </c>
+      <c r="D62" s="24">
+        <f>2-B62</f>
+        <v>1.09375</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26">
+        <f>(D62*C62)/3 + (D62*C63)/6 + (D63*C62)/6 + (D63*C63)/3</f>
+        <v>2.0719401041666665</v>
+      </c>
+      <c r="G62" s="26">
+        <f>C62*D62  + M62</f>
+        <v>2.0719399374999998</v>
+      </c>
+      <c r="H62" s="18">
+        <f>F62-G62</f>
+        <v>1.6666666668996299E-7</v>
+      </c>
+      <c r="I62" s="18"/>
+      <c r="M62" s="3">
+        <v>-1.3021E-2</v>
+      </c>
+      <c r="N62" s="3">
+        <v>-6.2171999999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="13">
+        <v>0.9375</v>
+      </c>
+      <c r="C63" s="14">
+        <f t="shared" si="0"/>
+        <v>1.9375</v>
+      </c>
+      <c r="D63" s="14">
+        <f>2-B63</f>
+        <v>1.0625</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="16">
+        <f>-(D62*C62)/3 - (D62*C63)/6 - (D63*C62)/6 - (D63*C63)/3 + D63*C63</f>
+        <v>-1.3346354166666519E-2</v>
+      </c>
+      <c r="G63" s="16">
+        <f>M63</f>
+        <v>-1.3346E-2</v>
+      </c>
+      <c r="H63" s="19">
+        <f>F63-G63</f>
+        <v>-3.5416666651841289E-7</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="M63" s="3">
+        <v>-1.3346E-2</v>
+      </c>
+      <c r="N63" s="3">
+        <v>-6.2247999999999998E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="20">
+        <v>31</v>
+      </c>
+      <c r="B64" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="C64" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9375</v>
+      </c>
+      <c r="D64" s="9">
+        <f>2-B64</f>
+        <v>1.0625</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="11">
+        <f>(D64*C64)/3 + (D64*C65)/6 + (D65*C64)/6 + (D65*C65)/3</f>
+        <v>2.0445963541666665</v>
+      </c>
+      <c r="G64" s="11">
+        <f>C64*D64  + M64</f>
+        <v>2.0445967500000002</v>
+      </c>
+      <c r="H64" s="18">
+        <f>F64-G64</f>
+        <v>-3.9583333366621787E-7</v>
+      </c>
+      <c r="I64" s="18"/>
+      <c r="M64" s="3">
+        <v>-1.3997000000000001E-2</v>
+      </c>
+      <c r="N64" s="3">
+        <v>-6.2370000000000002E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="13">
+        <v>0.96875</v>
+      </c>
+      <c r="C65" s="14">
+        <f t="shared" si="0"/>
+        <v>1.96875</v>
+      </c>
+      <c r="D65" s="14">
+        <f>2-B65</f>
+        <v>1.03125</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="16">
+        <f>-(D64*C64)/3 - (D64*C65)/6 - (D65*C64)/6 - (D65*C65)/3 + D65*C65</f>
+        <v>-1.4322916666666519E-2</v>
+      </c>
+      <c r="G65" s="16">
+        <f>M65</f>
+        <v>-1.4323000000000001E-2</v>
+      </c>
+      <c r="H65" s="19">
+        <f>F65-G65</f>
+        <v>8.3333333482024652E-8</v>
+      </c>
+      <c r="I65" s="18"/>
+      <c r="M65" s="3">
+        <v>-1.4323000000000001E-2</v>
+      </c>
+      <c r="N65" s="3">
+        <v>-6.2415999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="22">
+        <v>32</v>
+      </c>
+      <c r="B66" s="23">
+        <v>0.96875</v>
+      </c>
+      <c r="C66" s="24">
+        <f t="shared" si="0"/>
+        <v>1.96875</v>
+      </c>
+      <c r="D66" s="24">
+        <f>2-B66</f>
+        <v>1.03125</v>
+      </c>
+      <c r="E66" s="25"/>
+      <c r="F66" s="26">
+        <f>(D66*C66)/3 + (D66*C67)/6 + (D67*C66)/6 + (D67*C67)/3</f>
+        <v>2.0152994791666665</v>
+      </c>
+      <c r="G66" s="11">
+        <f>C66*D66  + M66</f>
+        <v>2.0152994375</v>
+      </c>
+      <c r="H66" s="18">
+        <f>F66-G66</f>
+        <v>4.1666666561468446E-8</v>
+      </c>
+      <c r="I66" s="18"/>
+      <c r="M66" s="3">
+        <v>-1.4973999999999999E-2</v>
+      </c>
+      <c r="N66" s="3">
+        <v>-6.2476999999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="13">
+        <v>1</v>
+      </c>
+      <c r="C67" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D67" s="14">
+        <f>2-B67</f>
+        <v>1</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="16">
+        <f>-(D66*C66)/3 - (D66*C67)/6 - (D67*C66)/6 - (D67*C67)/3 + D67*C67</f>
+        <v>-1.5299479166666519E-2</v>
+      </c>
+      <c r="G67" s="16">
+        <f>M67</f>
+        <v>-1.5299E-2</v>
+      </c>
+      <c r="H67" s="19">
+        <f>F67-G67</f>
+        <v>-4.791666665185379E-7</v>
+      </c>
+      <c r="I67" s="18"/>
+      <c r="M67" s="3">
+        <v>-1.5299E-2</v>
+      </c>
+      <c r="N67" s="3">
+        <v>-6.2491999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8029C4AE-DF97-AD45-A5C1-A5DB9DD34D9D}">
   <dimension ref="A2:J67"/>
   <sheetViews>
@@ -6702,14 +9431,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -6726,7 +9455,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>0</v>
       </c>
       <c r="B4" s="1">
@@ -6746,7 +9475,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -6767,7 +9496,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="1">
@@ -6790,7 +9519,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1">
         <v>6.25E-2</v>
       </c>
@@ -6811,7 +9540,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
       <c r="B8" s="1">
@@ -6834,7 +9563,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1">
         <v>9.375E-2</v>
       </c>
@@ -6855,7 +9584,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="B10" s="1">
@@ -6878,7 +9607,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1">
         <v>0.125</v>
       </c>
@@ -6899,7 +9628,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
       <c r="B12" s="1">
@@ -6922,7 +9651,7 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1">
         <v>0.15625</v>
       </c>
@@ -6943,7 +9672,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>5</v>
       </c>
       <c r="B14" s="1">
@@ -6966,7 +9695,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1">
         <v>0.1875</v>
       </c>
@@ -6987,7 +9716,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>6</v>
       </c>
       <c r="B16" s="1">
@@ -7010,7 +9739,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1">
         <v>0.21875</v>
       </c>
@@ -7031,7 +9760,7 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>7</v>
       </c>
       <c r="B18" s="1">
@@ -7054,7 +9783,7 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1">
         <v>0.25</v>
       </c>
@@ -7075,7 +9804,7 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>8</v>
       </c>
       <c r="B20" s="1">
@@ -7098,7 +9827,7 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1">
         <v>0.28125</v>
       </c>
@@ -7119,7 +9848,7 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>9</v>
       </c>
       <c r="B22" s="1">
@@ -7142,7 +9871,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1">
         <v>0.3125</v>
       </c>
@@ -7163,7 +9892,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>10</v>
       </c>
       <c r="B24" s="1">
@@ -7186,7 +9915,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1">
         <v>0.34375</v>
       </c>
@@ -7207,7 +9936,7 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>11</v>
       </c>
       <c r="B26" s="1">
@@ -7230,7 +9959,7 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="1">
         <v>0.375</v>
       </c>
@@ -7251,7 +9980,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>12</v>
       </c>
       <c r="B28" s="1">
@@ -7274,7 +10003,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="1">
         <v>0.40625</v>
       </c>
@@ -7295,7 +10024,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>13</v>
       </c>
       <c r="B30" s="1">
@@ -7318,7 +10047,7 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1">
         <v>0.4375</v>
       </c>
@@ -7339,7 +10068,7 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>14</v>
       </c>
       <c r="B32" s="1">
@@ -7362,7 +10091,7 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="1">
         <v>0.46875</v>
       </c>
@@ -7383,7 +10112,7 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>15</v>
       </c>
       <c r="B34" s="1">
@@ -7406,7 +10135,7 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="1">
         <v>0.5</v>
       </c>
@@ -7427,7 +10156,7 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>16</v>
       </c>
       <c r="B36" s="1">
@@ -7447,7 +10176,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="1">
         <v>0.53125</v>
       </c>
@@ -7465,7 +10194,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>17</v>
       </c>
       <c r="B38" s="1">
@@ -7485,7 +10214,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="1">
         <v>0.5625</v>
       </c>
@@ -7503,7 +10232,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>18</v>
       </c>
       <c r="B40" s="1">
@@ -7523,7 +10252,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="1">
         <v>0.59375</v>
       </c>
@@ -7541,7 +10270,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>19</v>
       </c>
       <c r="B42" s="1">
@@ -7561,7 +10290,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="1">
         <v>0.625</v>
       </c>
@@ -7579,7 +10308,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>20</v>
       </c>
       <c r="B44" s="1">
@@ -7599,7 +10328,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="1">
         <v>0.65625</v>
       </c>
@@ -7617,7 +10346,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>21</v>
       </c>
       <c r="B46" s="1">
@@ -7637,7 +10366,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="1">
         <v>0.6875</v>
       </c>
@@ -7655,7 +10384,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>22</v>
       </c>
       <c r="B48" s="1">
@@ -7675,7 +10404,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="1">
         <v>0.71875</v>
       </c>
@@ -7693,7 +10422,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>23</v>
       </c>
       <c r="B50" s="1">
@@ -7713,7 +10442,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="1">
         <v>0.75</v>
       </c>
@@ -7731,7 +10460,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>24</v>
       </c>
       <c r="B52" s="1">
@@ -7751,7 +10480,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="1">
         <v>0.78125</v>
       </c>
@@ -7769,7 +10498,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>25</v>
       </c>
       <c r="B54" s="1">
@@ -7789,7 +10518,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="1">
         <v>0.8125</v>
       </c>
@@ -7807,7 +10536,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>26</v>
       </c>
       <c r="B56" s="1">
@@ -7827,7 +10556,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="1">
         <v>0.84375</v>
       </c>
@@ -7845,7 +10574,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>27</v>
       </c>
       <c r="B58" s="1">
@@ -7865,7 +10594,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="1">
         <v>0.875</v>
       </c>
@@ -7883,7 +10612,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>28</v>
       </c>
       <c r="B60" s="1">
@@ -7903,7 +10632,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="1">
         <v>0.90625</v>
       </c>
@@ -7921,7 +10650,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>29</v>
       </c>
       <c r="B62" s="1">
@@ -7941,7 +10670,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="1">
         <v>0.9375</v>
       </c>
@@ -7959,7 +10688,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>30</v>
       </c>
       <c r="B64" s="1">
@@ -7979,7 +10708,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
+      <c r="A65" s="5"/>
       <c r="B65" s="1">
         <v>0.96875</v>
       </c>
@@ -7997,7 +10726,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>31</v>
       </c>
       <c r="B66" s="1">
@@ -8017,7 +10746,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="1">
         <v>1</v>
       </c>
@@ -8036,31 +10765,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
@@ -8070,2938 +10774,34 @@
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7874731F-479F-FA41-8DCA-A0579B6D12DC}">
-  <dimension ref="B2:R67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="6" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>2.2204E-16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.9999250900000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.99989378200000001</v>
-      </c>
-      <c r="E4" s="8">
-        <f>(B5-B5^2)-(B4-B4^2)</f>
-        <v>3.0273437499999778E-2</v>
-      </c>
-      <c r="F4" s="8">
-        <f>(B5^3 - 3*B5^2 - B5) - (B4^3 - 3*B4^2 - B4)</f>
-        <v>-3.4149169921874778E-2</v>
-      </c>
-      <c r="H4" s="3">
-        <f>-(2*1) + (C4*D4)/3 + (C4*D5)/6 + (C5*D4)/6 + (C5*D5)/3</f>
-        <v>1.5299476662221423E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <f>-(1*2^2) + (D4*C4^2)/4 + (D5*C4^2)/12 + (D4*C4*C5)/6 + (D5*C5*C4)/6 + (D4*C5^2)/12 + (D5*C5^2)/4</f>
-        <v>-1.6593932765531116E-2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1.5299E-2</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-1.6594000000000001E-2</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" ref="N4:O7" si="0">(H4-K4)/K4</f>
-        <v>3.1156429925013766E-5</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.0517336919795216E-6</v>
-      </c>
-      <c r="Q4" s="8">
-        <f>SUM(H4:H5)</f>
-        <v>3.02734337478201E-2</v>
-      </c>
-      <c r="R4" s="8">
-        <f>SUM(I4:I5)</f>
-        <v>-3.4149166303960143E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>3.125E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.95335799</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.03937601</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="H5" s="3">
-        <f>(C5*D5) - (C4*D4)/3 - (C4*D5)/6 - (C5*D4)/6 - (C5*D5)/3</f>
-        <v>1.4973957085598677E-2</v>
-      </c>
-      <c r="I5" s="3">
-        <f>(D5*C5^2) - (D4*C4^2)/4 - (D5*C4^2)/12 - (D4*C4*C5)/6 - (D5*C5*C4)/6 - (D4*C5^2)/12 - (D5*C5^2)/4</f>
-        <v>-1.7555233538429027E-2</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1.4973999999999999E-2</v>
-      </c>
-      <c r="L5" s="4">
-        <v>-1.7555000000000001E-2</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.8659276961711219E-6</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="0"/>
-        <v>1.330324289523486E-5</v>
-      </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>3.125E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.95329347</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.03926074</v>
-      </c>
-      <c r="E6" s="8">
-        <f>(B7-B7^2)-(B6-B6^2)</f>
-        <v>2.83203125E-2</v>
-      </c>
-      <c r="F6" s="8">
-        <f>(B7^3 - 3*B7^2 - B7) - (B6^3 - 3*B6^2 - B6)</f>
-        <v>-3.9825439453125E-2</v>
-      </c>
-      <c r="H6" s="3">
-        <f>-(C5*D5) + (C6*D6)/3 + (C6*D7)/6 + (C7*D6)/6 + (C7*D7)/3</f>
-        <v>1.4322924649459279E-2</v>
-      </c>
-      <c r="I6" s="3">
-        <f>-(C5^2*D5) + (D6*C6^2)/4 + (D7*C6^2)/12 + (D6*C6*C7)/6 + (D7*C7*C6)/6 + (D6*C7^2)/12 + (D7*C7^2)/4</f>
-        <v>-1.9447316784119373E-2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1.4323000000000001E-2</v>
-      </c>
-      <c r="L6" s="4">
-        <v>-1.9446999999999999E-2</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="0"/>
-        <v>-5.2608071438854889E-6</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6289613789983187E-5</v>
-      </c>
-      <c r="Q6" s="8">
-        <f>SUM(H6:H7)</f>
-        <v>2.832031576436389E-2</v>
-      </c>
-      <c r="R6" s="8">
-        <f>SUM(I6:I7)</f>
-        <v>-3.9825441306060583E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.9071394699999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.0794143700000001</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="H7" s="3">
-        <f>(C7*D7) - (C6*D6)/3 - (C6*D7)/6 - (C7*D6)/6 - (C7*D7)/3</f>
-        <v>1.3997391114904612E-2</v>
-      </c>
-      <c r="I7" s="3">
-        <f>(D7*C7^2) - (D6*C6^2)/4 - (D7*C6^2)/12 - (D6*C6*C7)/6 - (D7*C7*C6)/6 - (D6*C7^2)/12 - (D7*C7^2)/4</f>
-        <v>-2.037812452194121E-2</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1.3997000000000001E-2</v>
-      </c>
-      <c r="L7" s="4">
-        <v>-2.0378E-2</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7942766636476335E-5</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="0"/>
-        <v>6.1106065958216862E-6</v>
-      </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.9070844199999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.0792889400000001</v>
-      </c>
-      <c r="E8" s="8">
-        <f>(B9-B9^2)-(B8-B8^2)</f>
-        <v>2.63671875E-2</v>
-      </c>
-      <c r="F8" s="8">
-        <f>(B9^3 - 3*B9^2 - B9) - (B8^3 - 3*B8^2 - B8)</f>
-        <v>-4.5318603515625E-2</v>
-      </c>
-      <c r="H8" s="3">
-        <f>-(C7*D7) + (C8*D8)/3 + (C8*D9)/6 + (C9*D8)/6 + (C9*D9)/3</f>
-        <v>1.3346355927099762E-2</v>
-      </c>
-      <c r="I8" s="3">
-        <f>-(C7^2*D7) + (D8*C8^2)/4 + (D9*C8^2)/12 + (D8*C8*C9)/6 + (D9*C9*C8)/6 + (D8*C9^2)/12 + (D9*C9^2)/4</f>
-        <v>-2.2209163963841316E-2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1.3346E-2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>-2.2209E-2</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" ref="N8:N32" si="1">(H8-K8)/K8</f>
-        <v>2.6669196745244857E-5</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" ref="O8:O32" si="2">(I8-L8)/L8</f>
-        <v>7.382765604787595E-6</v>
-      </c>
-      <c r="Q8" s="8">
-        <f>SUM(H8:H9)</f>
-        <v>2.6367188932577612E-2</v>
-      </c>
-      <c r="R8" s="8">
-        <f>SUM(I8:I9)</f>
-        <v>-4.5318601031899775E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>9.375E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.86128513</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.1201727800000001</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="H9" s="3">
-        <f>(C9*D9) - (C8*D8)/3 - (C8*D9)/6 - (C9*D8)/6 - (C9*D9)/3</f>
-        <v>1.302083300547785E-2</v>
-      </c>
-      <c r="I9" s="3">
-        <f>(D9*C9^2) - (D8*C8^2)/4 - (D9*C8^2)/12 - (D8*C8*C9)/6 - (D9*C9*C8)/6 - (D8*C9^2)/12 - (D9*C9^2)/4</f>
-        <v>-2.3109437068058458E-2</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1.3021E-2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>-2.3109000000000001E-2</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.2825015140907583E-5</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="2"/>
-        <v>1.8913326342859521E-5</v>
-      </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>9.375E-2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.8612387699999999</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.1200359499999999</v>
-      </c>
-      <c r="E10" s="8">
-        <f>(B11-B11^2)-(B10-B10^2)</f>
-        <v>2.44140625E-2</v>
-      </c>
-      <c r="F10" s="8">
-        <f>(B11^3 - 3*B11^2 - B11) - (B10^3 - 3*B10^2 - B10)</f>
-        <v>-5.0628662109375E-2</v>
-      </c>
-      <c r="H10" s="3">
-        <f>-(C9*D9) + (C10*D10)/3 + (C10*D11)/6 + (C11*D10)/6 + (C11*D11)/3</f>
-        <v>1.2369786686464379E-2</v>
-      </c>
-      <c r="I10" s="3">
-        <f>-(C9^2*D9) + (D10*C10^2)/4 + (D11*C10^2)/12 + (D10*C10*C11)/6 + (D11*C11*C10)/6 + (D10*C11^2)/12 + (D11*C11^2)/4</f>
-        <v>-2.4879468812962768E-2</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1.2370000000000001E-2</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-2.4878999999999998E-2</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.7244424868368656E-5</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="2"/>
-        <v>1.8843722125889927E-5</v>
-      </c>
-      <c r="Q10" s="8">
-        <f>SUM(H10:H11)</f>
-        <v>2.4414058435449082E-2</v>
-      </c>
-      <c r="R10" s="8">
-        <f>SUM(I10:I11)</f>
-        <v>-5.0628673585308093E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.8157407400000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.16171596</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="H11" s="3">
-        <f>(C11*D11) - (C10*D10)/3 - (C10*D11)/6 - (C11*D10)/6 - (C11*D11)/3</f>
-        <v>1.2044271748984703E-2</v>
-      </c>
-      <c r="I11" s="3">
-        <f>(D11*C11^2) - (D10*C10^2)/4 - (D11*C10^2)/12 - (D10*C10*C11)/6 - (D11*C11*C10)/6 - (D10*C11^2)/12 - (D11*C11^2)/4</f>
-        <v>-2.5749204772345324E-2</v>
-      </c>
-      <c r="K11" s="4">
-        <v>1.2043999999999999E-2</v>
-      </c>
-      <c r="L11" s="4">
-        <v>-2.5749000000000001E-2</v>
-      </c>
-      <c r="N11" s="5">
-        <f t="shared" si="1"/>
-        <v>2.2563017660554931E-5</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="shared" si="2"/>
-        <v>7.9526329303386409E-6</v>
-      </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.81570242</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.1615663199999999</v>
-      </c>
-      <c r="E12" s="8">
-        <f>(B13-B13^2)-(B12-B12^2)</f>
-        <v>2.24609375E-2</v>
-      </c>
-      <c r="F12" s="8">
-        <f>(B13^3 - 3*B13^2 - B13) - (B12^3 - 3*B12^2 - B12)</f>
-        <v>-5.5755615234375E-2</v>
-      </c>
-      <c r="H12" s="3">
-        <f>-(C11*D11) + (C12*D12)/3 + (C12*D13)/6 + (C13*D12)/6 + (C13*D13)/3</f>
-        <v>1.1393228495190866E-2</v>
-      </c>
-      <c r="I12" s="3">
-        <f>-(C11^2*D11) + (D12*C12^2)/4 + (D13*C12^2)/12 + (D12*C12*C13)/6 + (D13*C13*C12)/6 + (D12*C13^2)/12 + (D13*C13^2)/4</f>
-        <v>-2.7458203242644252E-2</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1.1393E-2</v>
-      </c>
-      <c r="L12" s="4">
-        <v>-2.7458E-2</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" si="1"/>
-        <v>2.0055752731100656E-5</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" si="2"/>
-        <v>7.401946400051564E-6</v>
-      </c>
-      <c r="Q12" s="8">
-        <f>SUM(H12:H13)</f>
-        <v>2.2460931180492416E-2</v>
-      </c>
-      <c r="R12" s="8">
-        <f>SUM(I12:I13)</f>
-        <v>-5.5755640461196521E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>0.15625</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.7704563600000001</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.20411662</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="H13" s="3">
-        <f>(C13*D13) - (C12*D12)/3 - (C12*D13)/6 - (C13*D12)/6 - (C13*D13)/3</f>
-        <v>1.106770268530155E-2</v>
-      </c>
-      <c r="I13" s="3">
-        <f>(D13*C13^2) - (D12*C12^2)/4 - (D13*C12^2)/12 - (D12*C12*C13)/6 - (D13*C13*C12)/6 - (D12*C13^2)/12 - (D13*C13^2)/4</f>
-        <v>-2.8297437218552268E-2</v>
-      </c>
-      <c r="K13" s="4">
-        <v>1.1068E-2</v>
-      </c>
-      <c r="L13" s="4">
-        <v>-2.8296999999999999E-2</v>
-      </c>
-      <c r="N13" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.6862549552709479E-5</v>
-      </c>
-      <c r="O13" s="5">
-        <f t="shared" si="2"/>
-        <v>1.5451056729299838E-5</v>
-      </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>0.15625</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.7704255499999999</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.20395253</v>
-      </c>
-      <c r="E14" s="8">
-        <f>(B15-B15^2)-(B14-B14^2)</f>
-        <v>2.05078125E-2</v>
-      </c>
-      <c r="F14" s="8">
-        <f>(B15^3 - 3*B15^2 - B15) - (B14^3 - 3*B14^2 - B14)</f>
-        <v>-6.0699462890625E-2</v>
-      </c>
-      <c r="H14" s="3">
-        <f>-(C13*D13) + (C14*D14)/3 + (C14*D15)/6 + (C15*D14)/6 + (C15*D15)/3</f>
-        <v>1.0416675001599374E-2</v>
-      </c>
-      <c r="I14" s="3">
-        <f>-(C13^2*D13) + (D14*C14^2)/4 + (D15*C14^2)/12 + (D14*C14*C15)/6 + (D15*C15*C14)/6 + (D14*C15^2)/12 + (D15*C15^2)/4</f>
-        <v>-2.9945347202067651E-2</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1.0416999999999999E-2</v>
-      </c>
-      <c r="L14" s="4">
-        <v>-2.9944999999999999E-2</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.1198848096911372E-5</v>
-      </c>
-      <c r="O14" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1594659130139975E-5</v>
-      </c>
-      <c r="Q14" s="8">
-        <f>SUM(H14:H15)</f>
-        <v>2.0507818305509407E-2</v>
-      </c>
-      <c r="R14" s="8">
-        <f>SUM(I14:I15)</f>
-        <v>-6.0699441940634813E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.7253856599999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.24745661</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="H15" s="3">
-        <f>(C15*D15) - (C14*D14)/3 - (C14*D15)/6 - (C15*D14)/6 - (C15*D15)/3</f>
-        <v>1.0091143303910033E-2</v>
-      </c>
-      <c r="I15" s="3">
-        <f>(D15*C15^2) - (D14*C14^2)/4 - (D15*C14^2)/12 - (D14*C14*C15)/6 - (D15*C15*C14)/6 - (D14*C15^2)/12 - (D15*C15^2)/4</f>
-        <v>-3.0754094738567161E-2</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1.0090999999999999E-2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>-3.0754E-2</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4201160443327254E-5</v>
-      </c>
-      <c r="O15" s="5">
-        <f t="shared" si="2"/>
-        <v>3.0805282942506433E-6</v>
-      </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.7253619</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.24727619</v>
-      </c>
-      <c r="E16" s="8">
-        <f>(B17-B17^2)-(B16-B16^2)</f>
-        <v>1.85546875E-2</v>
-      </c>
-      <c r="F16" s="8">
-        <f>(B17^3 - 3*B17^2 - B17) - (B16^3 - 3*B16^2 - B16)</f>
-        <v>-6.5460205078125E-2</v>
-      </c>
-      <c r="H16" s="3">
-        <f>-(C15*D15) + (C16*D16)/3 + (C16*D17)/6 + (C17*D16)/6 + (C17*D17)/3</f>
-        <v>9.4401037466361748E-3</v>
-      </c>
-      <c r="I16" s="3">
-        <f>-(C15^2*D15) + (D16*C16^2)/4 + (D17*C16^2)/12 + (D16*C16*C17)/6 + (D17*C17*C16)/6 + (D16*C17^2)/12 + (D17*C17^2)/4</f>
-        <v>-3.2341006465157141E-2</v>
-      </c>
-      <c r="K16" s="4">
-        <v>9.4400999999999999E-3</v>
-      </c>
-      <c r="L16" s="4">
-        <v>-3.2341000000000002E-2</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" si="1"/>
-        <v>3.9688522101643173E-7</v>
-      </c>
-      <c r="O16" s="5">
-        <f t="shared" si="2"/>
-        <v>1.9990591320036534E-7</v>
-      </c>
-      <c r="Q16" s="8">
-        <f>SUM(H16:H17)</f>
-        <v>1.8554687039498141E-2</v>
-      </c>
-      <c r="R16" s="8">
-        <f>SUM(I16:I17)</f>
-        <v>-6.5460217075551608E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>0.21875</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.68048526</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.2918283100000001</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="H17" s="3">
-        <f>(C17*D17) - (C16*D16)/3 - (C16*D17)/6 - (C17*D16)/6 - (C17*D17)/3</f>
-        <v>9.1145832928619663E-3</v>
-      </c>
-      <c r="I17" s="3">
-        <f>(D17*C17^2) - (D16*C16^2)/4 - (D17*C16^2)/12 - (D16*C16*C17)/6 - (D17*C17*C16)/6 - (D16*C17^2)/12 - (D17*C17^2)/4</f>
-        <v>-3.3119210610394467E-2</v>
-      </c>
-      <c r="K17" s="4">
-        <v>9.1146000000000005E-3</v>
-      </c>
-      <c r="L17" s="4">
-        <v>-3.3119000000000003E-2</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.8330083639594018E-6</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" si="2"/>
-        <v>6.3592014995811337E-6</v>
-      </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>0.21875</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.68046819</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.29162939</v>
-      </c>
-      <c r="E18" s="8">
-        <f>(B19-B19^2)-(B18-B18^2)</f>
-        <v>1.66015625E-2</v>
-      </c>
-      <c r="F18" s="8">
-        <f>(B19^3 - 3*B19^2 - B19) - (B18^3 - 3*B18^2 - B18)</f>
-        <v>-7.0037841796875E-2</v>
-      </c>
-      <c r="H18" s="3">
-        <f>-(C17*D17) + (C18*D18)/3 + (C18*D19)/6 + (C19*D18)/6 + (C19*D19)/3</f>
-        <v>8.4635373496423361E-3</v>
-      </c>
-      <c r="I18" s="3">
-        <f>-(C17^2*D17) + (D18*C18^2)/4 + (D19*C18^2)/12 + (D18*C18*C19)/6 + (D19*C19*C18)/6 + (D18*C19^2)/12 + (D19*C19^2)/4</f>
-        <v>-3.4645080986471122E-2</v>
-      </c>
-      <c r="K18" s="4">
-        <v>8.4635000000000005E-3</v>
-      </c>
-      <c r="L18" s="4">
-        <v>-3.4645000000000002E-2</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="shared" si="1"/>
-        <v>4.4130256200772809E-6</v>
-      </c>
-      <c r="O18" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3376092111298281E-6</v>
-      </c>
-      <c r="Q18" s="8">
-        <f>SUM(H18:H19)</f>
-        <v>1.6601551523796498E-2</v>
-      </c>
-      <c r="R18" s="8">
-        <f>SUM(I18:I19)</f>
-        <v>-7.0037855446409392E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.63571428</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.33733624</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="H19" s="3">
-        <f>(C19*D19) - (C18*D18)/3 - (C18*D19)/6 - (C19*D18)/6 - (C19*D19)/3</f>
-        <v>8.1380141741541623E-3</v>
-      </c>
-      <c r="I19" s="3">
-        <f>(D19*C19^2) - (D18*C18^2)/4 - (D19*C18^2)/12 - (D18*C18*C19)/6 - (D19*C19*C18)/6 - (D18*C19^2)/12 - (D19*C19^2)/4</f>
-        <v>-3.539277445993827E-2</v>
-      </c>
-      <c r="K19" s="4">
-        <v>8.1379999999999994E-3</v>
-      </c>
-      <c r="L19" s="4">
-        <v>-3.5393000000000001E-2</v>
-      </c>
-      <c r="N19" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7417245223497901E-6</v>
-      </c>
-      <c r="O19" s="5">
-        <f t="shared" si="2"/>
-        <v>-6.3724482731324762E-6</v>
-      </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.6357036</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.33711629</v>
-      </c>
-      <c r="E20" s="8">
-        <f>(B21-B21^2)-(B20-B20^2)</f>
-        <v>1.46484375E-2</v>
-      </c>
-      <c r="F20" s="8">
-        <f>(B21^3 - 3*B21^2 - B21) - (B20^3 - 3*B20^2 - B20)</f>
-        <v>-7.4432373046875E-2</v>
-      </c>
-      <c r="H20" s="3">
-        <f>-(C19*D19) + (C20*D20)/3 + (C20*D21)/6 + (C21*D20)/6 + (C21*D21)/3</f>
-        <v>7.4869812184147344E-3</v>
-      </c>
-      <c r="I20" s="3">
-        <f>-(C19^2*D19) + (D20*C20^2)/4 + (D21*C20^2)/12 + (D20*C20*C21)/6 + (D21*C21*C20)/6 + (D20*C21^2)/12 + (D21*C21^2)/4</f>
-        <v>-3.6857604789406029E-2</v>
-      </c>
-      <c r="K20" s="4">
-        <v>7.4869999999999997E-3</v>
-      </c>
-      <c r="L20" s="4">
-        <v>-3.6858000000000002E-2</v>
-      </c>
-      <c r="N20" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.5085595385768336E-6</v>
-      </c>
-      <c r="O20" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.0722518692633136E-5</v>
-      </c>
-      <c r="Q20" s="8">
-        <f>SUM(H20:H21)</f>
-        <v>1.4648447740387649E-2</v>
-      </c>
-      <c r="R20" s="8">
-        <f>SUM(I20:I21)</f>
-        <v>-7.443235183266772E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.5910338100000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.3840990799999999</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="H21" s="3">
-        <f>(C21*D21) - (C20*D20)/3 - (C20*D21)/6 - (C21*D20)/6 - (C21*D21)/3</f>
-        <v>7.1614665219729146E-3</v>
-      </c>
-      <c r="I21" s="3">
-        <f>(D21*C21^2) - (D20*C20^2)/4 - (D21*C20^2)/12 - (D20*C20*C21)/6 - (D21*C21*C20)/6 - (D20*C21^2)/12 - (D21*C21^2)/4</f>
-        <v>-3.7574747043261691E-2</v>
-      </c>
-      <c r="K21" s="4">
-        <v>7.1615000000000003E-3</v>
-      </c>
-      <c r="L21" s="4">
-        <v>-3.7574999999999997E-2</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="1"/>
-        <v>-4.6747227655902496E-6</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="2"/>
-        <v>-6.7320489236415646E-6</v>
-      </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.5910293099999999</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.3838551400000001</v>
-      </c>
-      <c r="E22" s="8">
-        <f>(B23-B23^2)-(B22-B22^2)</f>
-        <v>1.26953125E-2</v>
-      </c>
-      <c r="F22" s="8">
-        <f>(B23^3 - 3*B23^2 - B23) - (B22^3 - 3*B22^2 - B22)</f>
-        <v>-7.8643798828125E-2</v>
-      </c>
-      <c r="H22" s="3">
-        <f>-(C21*D21) + (C22*D22)/3 + (C22*D23)/6 + (C23*D22)/6 + (C23*D23)/3</f>
-        <v>6.5104141203514709E-3</v>
-      </c>
-      <c r="I22" s="3">
-        <f>-(C21^2*D21) + (D22*C22^2)/4 + (D23*C22^2)/12 + (D22*C22*C23)/6 + (D23*C23*C22)/6 + (D22*C23^2)/12 + (D23*C23^2)/4</f>
-        <v>-3.8978584657596294E-2</v>
-      </c>
-      <c r="K22" s="4">
-        <v>6.5104000000000004E-3</v>
-      </c>
-      <c r="L22" s="4">
-        <v>-3.8979E-2</v>
-      </c>
-      <c r="N22" s="5">
-        <f t="shared" si="1"/>
-        <v>2.1688915382382836E-6</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.0655542823218152E-5</v>
-      </c>
-      <c r="Q22" s="8">
-        <f>SUM(H22:H23)</f>
-        <v>1.2695305628753761E-2</v>
-      </c>
-      <c r="R22" s="8">
-        <f>SUM(I22:I23)</f>
-        <v>-7.8643813330107726E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.5464065199999999</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.43225194</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="H23" s="3">
-        <f>(C23*D23) - (C22*D22)/3 - (C22*D23)/6 - (C23*D22)/6 - (C23*D23)/3</f>
-        <v>6.1848915084022904E-3</v>
-      </c>
-      <c r="I23" s="3">
-        <f>(D23*C23^2) - (D22*C22^2)/4 - (D23*C22^2)/12 - (D22*C22*C23)/6 - (D23*C23*C22)/6 - (D22*C23^2)/12 - (D23*C23^2)/4</f>
-        <v>-3.9665228672511432E-2</v>
-      </c>
-      <c r="K23" s="4">
-        <v>6.1849000000000001E-3</v>
-      </c>
-      <c r="L23" s="4">
-        <v>-3.9664999999999999E-2</v>
-      </c>
-      <c r="N23" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.372956346863234E-6</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" si="2"/>
-        <v>5.7650954603146593E-6</v>
-      </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.54640804</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.4319805299999999</v>
-      </c>
-      <c r="E24" s="8">
-        <f>(B25-B25^2)-(B24-B24^2)</f>
-        <v>1.07421875E-2</v>
-      </c>
-      <c r="F24" s="8">
-        <f>(B25^3 - 3*B25^2 - B25) - (B24^3 - 3*B24^2 - B24)</f>
-        <v>-8.2672119140625E-2</v>
-      </c>
-      <c r="H24" s="3">
-        <f>-(C23*D23) + (C24*D24)/3 + (C24*D25)/6 + (C25*D24)/6 + (C25*D25)/3</f>
-        <v>5.5338616256365158E-3</v>
-      </c>
-      <c r="I24" s="3">
-        <f>-(C23^2*D23) + (D24*C24^2)/4 + (D25*C24^2)/12 + (D24*C24*C25)/6 + (D25*C25*C24)/6 + (D24*C25^2)/12 + (D25*C25^2)/4</f>
-        <v>-4.1007978432801351E-2</v>
-      </c>
-      <c r="K24" s="4">
-        <v>5.5338999999999996E-3</v>
-      </c>
-      <c r="L24" s="4">
-        <v>-4.1008000000000003E-2</v>
-      </c>
-      <c r="N24" s="5">
-        <f t="shared" si="1"/>
-        <v>-6.9344157797822347E-6</v>
-      </c>
-      <c r="O24" s="5">
-        <f t="shared" si="2"/>
-        <v>-5.2592661558680897E-7</v>
-      </c>
-      <c r="Q24" s="8">
-        <f>SUM(H24:H25)</f>
-        <v>1.0742192373522474E-2</v>
-      </c>
-      <c r="R24" s="8">
-        <f>SUM(I24:I25)</f>
-        <v>-8.2672103926539453E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
-        <v>0.34375</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.5017962899999999</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.48194928</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="H25" s="3">
-        <f>(C25*D25) - (C24*D24)/3 - (C24*D25)/6 - (C25*D24)/6 - (C25*D25)/3</f>
-        <v>5.2083307478859586E-3</v>
-      </c>
-      <c r="I25" s="3">
-        <f>(D25*C25^2) - (D24*C24^2)/4 - (D25*C24^2)/12 - (D24*C24*C25)/6 - (D25*C25*C24)/6 - (D24*C25^2)/12 - (D25*C25^2)/4</f>
-        <v>-4.1664125493738102E-2</v>
-      </c>
-      <c r="K25" s="4">
-        <v>5.2082999999999999E-3</v>
-      </c>
-      <c r="L25" s="4">
-        <v>-4.1664E-2</v>
-      </c>
-      <c r="N25" s="5">
-        <f t="shared" si="1"/>
-        <v>5.9036318873171188E-6</v>
-      </c>
-      <c r="O25" s="5">
-        <f t="shared" si="2"/>
-        <v>3.0120424851817182E-6</v>
-      </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="1">
-        <v>0.34375</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.5018037200000001</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.4816462800000001</v>
-      </c>
-      <c r="E26" s="8">
-        <f>(B27-B27^2)-(B26-B26^2)</f>
-        <v>8.7890625E-3</v>
-      </c>
-      <c r="F26" s="8">
-        <f>(B27^3 - 3*B27^2 - B27) - (B26^3 - 3*B26^2 - B26)</f>
-        <v>-8.6517333984375E-2</v>
-      </c>
-      <c r="H26" s="3">
-        <f>-(C25*D25) + (C26*D26)/3 + (C26*D27)/6 + (C27*D26)/6 + (C27*D27)/3</f>
-        <v>4.5572944727177989E-3</v>
-      </c>
-      <c r="I26" s="3">
-        <f>-(C25^2*D25) + (D26*C26^2)/4 + (D27*C26^2)/12 + (D26*C26*C27)/6 + (D27*C27*C26)/6 + (D26*C27^2)/12 + (D27*C27^2)/4</f>
-        <v>-4.2945859940837661E-2</v>
-      </c>
-      <c r="K26" s="4">
-        <v>4.5573000000000002E-3</v>
-      </c>
-      <c r="L26" s="4">
-        <v>-4.2945999999999998E-2</v>
-      </c>
-      <c r="N26" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.2128414195638968E-6</v>
-      </c>
-      <c r="O26" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.2612853894982411E-6</v>
-      </c>
-      <c r="Q26" s="8">
-        <f>SUM(H26:H27)</f>
-        <v>8.78907134465301E-3</v>
-      </c>
-      <c r="R26" s="8">
-        <f>SUM(I26:I27)</f>
-        <v>-8.6517320664563524E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1.4571678299999999</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.5333683300000001</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="H27" s="3">
-        <f>(C27*D27) - (C26*D26)/3 - (C26*D27)/6 - (C27*D26)/6 - (C27*D27)/3</f>
-        <v>4.2317768719352111E-3</v>
-      </c>
-      <c r="I27" s="3">
-        <f>(D27*C27^2) - (D26*C26^2)/4 - (D27*C26^2)/12 - (D26*C26*C27)/6 - (D27*C27*C26)/6 - (D26*C27^2)/12 - (D27*C27^2)/4</f>
-        <v>-4.3571460723725863E-2</v>
-      </c>
-      <c r="K27" s="4">
-        <v>4.2318E-3</v>
-      </c>
-      <c r="L27" s="4">
-        <v>-4.3570999999999999E-2</v>
-      </c>
-      <c r="N27" s="5">
-        <f t="shared" si="1"/>
-        <v>-5.4653019492521289E-6</v>
-      </c>
-      <c r="O27" s="5">
-        <f t="shared" si="2"/>
-        <v>1.0574091158447084E-5</v>
-      </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.4571811299999999</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1.53302885</v>
-      </c>
-      <c r="E28" s="8">
-        <f>(B29-B29^2)-(B28-B28^2)</f>
-        <v>6.8359375E-3</v>
-      </c>
-      <c r="F28" s="8">
-        <f>(B29^3 - 3*B29^2 - B29) - (B28^3 - 3*B28^2 - B28)</f>
-        <v>-9.0179443359375E-2</v>
-      </c>
-      <c r="H28" s="3">
-        <f>-(C27*D27) + (C28*D28)/3 + (C28*D29)/6 + (C29*D28)/6 + (C29*D29)/3</f>
-        <v>3.5807258889326565E-3</v>
-      </c>
-      <c r="I28" s="3">
-        <f>-(C27^2*D27) + (D28*C28^2)/4 + (D29*C28^2)/12 + (D28*C28*C29)/6 + (D29*C29*C28)/6 + (D28*C29^2)/12 + (D29*C29^2)/4</f>
-        <v>-4.4792179899069362E-2</v>
-      </c>
-      <c r="K28" s="4">
-        <v>3.5807E-3</v>
-      </c>
-      <c r="L28" s="4">
-        <v>-4.4791999999999998E-2</v>
-      </c>
-      <c r="N28" s="5">
-        <f t="shared" si="1"/>
-        <v>7.2301317218706751E-6</v>
-      </c>
-      <c r="O28" s="5">
-        <f t="shared" si="2"/>
-        <v>4.0163214271198839E-6</v>
-      </c>
-      <c r="Q28" s="8">
-        <f>SUM(H28:H29)</f>
-        <v>6.8359373228936704E-3</v>
-      </c>
-      <c r="R28" s="8">
-        <f>SUM(I28:I29)</f>
-        <v>-9.017944657074306E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1.41248638</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1.5867133099999999</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="H29" s="3">
-        <f>(C29*D29) - (C28*D28)/3 - (C28*D29)/6 - (C29*D28)/6 - (C29*D29)/3</f>
-        <v>3.2552114339610139E-3</v>
-      </c>
-      <c r="I29" s="3">
-        <f>(D29*C29^2) - (D28*C28^2)/4 - (D29*C28^2)/12 - (D28*C28*C29)/6 - (D29*C29*C28)/6 - (D28*C29^2)/12 - (D29*C29^2)/4</f>
-        <v>-4.5387266671673698E-2</v>
-      </c>
-      <c r="K29" s="4">
-        <v>3.2552000000000002E-3</v>
-      </c>
-      <c r="L29" s="4">
-        <v>-4.5386999999999997E-2</v>
-      </c>
-      <c r="N29" s="5">
-        <f t="shared" si="1"/>
-        <v>3.5125218154562186E-6</v>
-      </c>
-      <c r="O29" s="5">
-        <f t="shared" si="2"/>
-        <v>5.8755078260633031E-6</v>
-      </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.4125055500000001</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1.5863315099999999</v>
-      </c>
-      <c r="E30" s="8">
-        <f>(B31-B31^2)-(B30-B30^2)</f>
-        <v>4.8828125E-3</v>
-      </c>
-      <c r="F30" s="8">
-        <f>(B31^3 - 3*B31^2 - B31) - (B30^3 - 3*B30^2 - B30)</f>
-        <v>-9.3658447265625E-2</v>
-      </c>
-      <c r="H30" s="3">
-        <f>-(C29*D29) + (C30*D30)/3 + (C30*D31)/6 + (C31*D30)/6 + (C31*D31)/3</f>
-        <v>2.604164482772009E-3</v>
-      </c>
-      <c r="I30" s="3">
-        <f>-(C29^2*D29) + (D30*C30^2)/4 + (D31*C30^2)/12 + (D30*C30*C31)/6 + (D31*C31*C30)/6 + (D30*C31^2)/12 + (D31*C31^2)/4</f>
-        <v>-4.654693780843866E-2</v>
-      </c>
-      <c r="K30" s="4">
-        <v>2.6042000000000001E-3</v>
-      </c>
-      <c r="L30" s="4">
-        <v>-4.6546999999999998E-2</v>
-      </c>
-      <c r="N30" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.3638440976550079E-5</v>
-      </c>
-      <c r="O30" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.3361024628504177E-6</v>
-      </c>
-      <c r="Q30" s="8">
-        <f>SUM(H30:H31)</f>
-        <v>4.8828155595597167E-3</v>
-      </c>
-      <c r="R30" s="8">
-        <f>SUM(I30:I31)</f>
-        <v>-9.3658438378218634E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.3677173899999999</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1.64222066</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="H31" s="3">
-        <f>(C31*D31) - (C30*D30)/3 - (C30*D31)/6 - (C31*D30)/6 - (C31*D31)/3</f>
-        <v>2.2786510767877077E-3</v>
-      </c>
-      <c r="I31" s="3">
-        <f>(D31*C31^2) - (D30*C30^2)/4 - (D31*C30^2)/12 - (D30*C30*C31)/6 - (D31*C31*C30)/6 - (D30*C31^2)/12 - (D31*C31^2)/4</f>
-        <v>-4.7111500569779974E-2</v>
-      </c>
-      <c r="K31" s="4">
-        <v>2.2786E-3</v>
-      </c>
-      <c r="L31" s="4">
-        <v>-4.7112000000000001E-2</v>
-      </c>
-      <c r="N31" s="5">
-        <f t="shared" si="1"/>
-        <v>2.2415863998835623E-5</v>
-      </c>
-      <c r="O31" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.060091314372765E-5</v>
-      </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.3677424899999999</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.6417895</v>
-      </c>
-      <c r="E32" s="8">
-        <f>(B33-B33^2)-(B32-B32^2)</f>
-        <v>2.9296875E-3</v>
-      </c>
-      <c r="F32" s="8">
-        <f>(B33^3 - 3*B33^2 - B33) - (B32^3 - 3*B32^2 - B32)</f>
-        <v>-9.6954345703125E-2</v>
-      </c>
-      <c r="H32" s="3">
-        <f>-(C31*D31) + (C32*D32)/3 + (C32*D33)/6 + (C33*D32)/6 + (C33*D33)/3</f>
-        <v>1.627593852232101E-3</v>
-      </c>
-      <c r="I32" s="3">
-        <f>-(C31^2*D31) + (D32*C32^2)/4 + (D33*C32^2)/12 + (D32*C32*C33)/6 + (D33*C33*C32)/6 + (D32*C33^2)/12 + (D33*C33^2)/4</f>
-        <v>-4.8210164620064222E-2</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1.6276000000000001E-3</v>
-      </c>
-      <c r="L32" s="4">
-        <v>-4.8210000000000003E-2</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.777198266859092E-6</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" si="2"/>
-        <v>3.414645596746198E-6</v>
-      </c>
-      <c r="Q32" s="8">
-        <f>SUM(H32:H33)</f>
-        <v>2.929673152036294E-3</v>
-      </c>
-      <c r="R32" s="8">
-        <f>SUM(I32:I33)</f>
-        <v>-9.6954373106046376E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="1">
-        <v>0.46875</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1.3228262</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.70016547</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="H33" s="3">
-        <f>(C33*D33) - (C32*D32)/3 - (C32*D33)/6 - (C33*D32)/6 - (C33*D33)/3</f>
-        <v>1.302079299804193E-3</v>
-      </c>
-      <c r="I33" s="3">
-        <f>(D33*C33^2) - (D32*C32^2)/4 - (D33*C32^2)/12 - (D32*C32*C33)/6 - (D33*C33*C32)/6 - (D32*C33^2)/12 - (D33*C33^2)/4</f>
-        <v>-4.8744208485982154E-2</v>
-      </c>
-      <c r="K33" s="4">
-        <v>1.3021E-3</v>
-      </c>
-      <c r="L33" s="4">
-        <v>-4.8744000000000003E-2</v>
-      </c>
-      <c r="N33" s="5">
-        <f t="shared" ref="N33:N67" si="3">(H33-K33)/K33</f>
-        <v>-1.5897546891200583E-5</v>
-      </c>
-      <c r="O33" s="5">
-        <f t="shared" ref="O33:O67" si="4">(I33-L33)/L33</f>
-        <v>4.2771619512534018E-6</v>
-      </c>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="1">
-        <v>0.46875</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1.32285735</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1.6996764099999999</v>
-      </c>
-      <c r="E34" s="8">
-        <f>(B35-B35^2)-(B34-B34^2)</f>
-        <v>9.765625E-4</v>
-      </c>
-      <c r="F34" s="8">
-        <f>(B35^3 - 3*B35^2 - B35) - (B34^3 - 3*B34^2 - B34)</f>
-        <v>-0.100067138671875</v>
-      </c>
-      <c r="H34" s="3">
-        <f>-(C33*D33) + (C34*D34)/3 + (C34*D35)/6 + (C35*D34)/6 + (C35*D35)/3</f>
-        <v>6.5104427675111154E-4</v>
-      </c>
-      <c r="I34" s="3">
-        <f>-(C33^2*D33) + (D34*C34^2)/4 + (D35*C34^2)/12 + (D34*C34*C35)/6 + (D35*C35*C34)/6 + (D34*C35^2)/12 + (D35*C35^2)/4</f>
-        <v>-4.9781794406706936E-2</v>
-      </c>
-      <c r="K34" s="4">
-        <v>6.5103999999999997E-4</v>
-      </c>
-      <c r="L34" s="4">
-        <v>-4.9782E-2</v>
-      </c>
-      <c r="N34" s="5">
-        <f t="shared" si="3"/>
-        <v>6.5691065242771753E-6</v>
-      </c>
-      <c r="O34" s="5">
-        <f t="shared" si="4"/>
-        <v>-4.1298721036445465E-6</v>
-      </c>
-      <c r="Q34" s="8">
-        <f>SUM(H34:H35)</f>
-        <v>9.7656436414528258E-4</v>
-      </c>
-      <c r="R34" s="8">
-        <f>SUM(I34:I35)</f>
-        <v>-0.10006714223145075</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1.2777777699999999</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1.7608695700000001</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="H35" s="3">
-        <f>(C35*D35) - (C34*D34)/3 - (C34*D35)/6 - (C35*D34)/6 - (C35*D35)/3</f>
-        <v>3.2552008739417104E-4</v>
-      </c>
-      <c r="I35" s="3">
-        <f>(D35*C35^2) - (D34*C34^2)/4 - (D35*C34^2)/12 - (D34*C34*C35)/6 - (D35*C35*C34)/6 - (D34*C35^2)/12 - (D35*C35^2)/4</f>
-        <v>-5.0285347824743809E-2</v>
-      </c>
-      <c r="K35" s="4">
-        <v>3.2551999999999999E-4</v>
-      </c>
-      <c r="L35" s="4">
-        <v>-5.0285000000000003E-2</v>
-      </c>
-      <c r="N35" s="5">
-        <f t="shared" si="3"/>
-        <v>2.6847558078084821E-7</v>
-      </c>
-      <c r="O35" s="5">
-        <f t="shared" si="4"/>
-        <v>6.9170675908468887E-6</v>
-      </c>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.27781513</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.7603121799999999</v>
-      </c>
-      <c r="E36" s="8">
-        <f>(B37-B37^2)-(B36-B36^2)</f>
-        <v>-9.765625E-4</v>
-      </c>
-      <c r="F36" s="8">
-        <f>(B37^3 - 3*B37^2 - B37) - (B36^3 - 3*B36^2 - B36)</f>
-        <v>-0.102996826171875</v>
-      </c>
-      <c r="H36" s="3">
-        <f>-(C35*D35) + (C36*D36)/3 + (C36*D37)/6 + (C37*D36)/6 + (C37*D37)/3</f>
-        <v>-3.2552062610458066E-4</v>
-      </c>
-      <c r="I36" s="3">
-        <f>-(C35^2*D35) + (D36*C36^2)/4 + (D37*C36^2)/12 + (D36*C36*C37)/6 + (D37*C37*C36)/6 + (D36*C37^2)/12 + (D37*C37^2)/4</f>
-        <v>-5.1261896104414895E-2</v>
-      </c>
-      <c r="K36" s="4">
-        <v>-3.2551999999999999E-4</v>
-      </c>
-      <c r="L36" s="4">
-        <v>-5.1262000000000002E-2</v>
-      </c>
-      <c r="N36" s="5">
-        <f t="shared" si="3"/>
-        <v>1.9233981957181662E-6</v>
-      </c>
-      <c r="O36" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.0267563713349452E-6</v>
-      </c>
-      <c r="Q36" s="8">
-        <f>SUM(H36:H37)</f>
-        <v>-9.7656192559192334E-4</v>
-      </c>
-      <c r="R36" s="8">
-        <f>SUM(I36:I37)</f>
-        <v>-0.10299682023794832</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.2325363600000001</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.8247116299999999</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="H37" s="3">
-        <f>(C37*D37) - (C36*D36)/3 - (C36*D37)/6 - (C37*D36)/6 - (C37*D37)/3</f>
-        <v>-6.5104129948734268E-4</v>
-      </c>
-      <c r="I37" s="3">
-        <f>(D37*C37^2) - (D36*C36^2)/4 - (D37*C36^2)/12 - (D36*C36*C37)/6 - (D37*C37*C36)/6 - (D36*C37^2)/12 - (D37*C37^2)/4</f>
-        <v>-5.1734924133533422E-2</v>
-      </c>
-      <c r="K37" s="4">
-        <v>-6.5103999999999997E-4</v>
-      </c>
-      <c r="L37" s="4">
-        <v>-5.1735000000000003E-2</v>
-      </c>
-      <c r="N37" s="5">
-        <f t="shared" si="3"/>
-        <v>1.9960176682081018E-6</v>
-      </c>
-      <c r="O37" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.4664437340523457E-6</v>
-      </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.2325801599999999</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.8240730599999999</v>
-      </c>
-      <c r="E38" s="8">
-        <f>(B39-B39^2)-(B38-B38^2)</f>
-        <v>-2.9296875E-3</v>
-      </c>
-      <c r="F38" s="8">
-        <f>(B39^3 - 3*B39^2 - B39) - (B38^3 - 3*B38^2 - B38)</f>
-        <v>-0.105743408203125</v>
-      </c>
-      <c r="H38" s="3">
-        <f>-(C37*D37) + (C38*D38)/3 + (C38*D39)/6 + (C39*D38)/6 + (C39*D39)/3</f>
-        <v>-1.3020871402166234E-3</v>
-      </c>
-      <c r="I38" s="3">
-        <f>-(C37^2*D37) + (D38*C38^2)/4 + (D39*C38^2)/12 + (D38*C38*C39)/6 + (D39*C39*C38)/6 + (D38*C39^2)/12 + (D39*C39^2)/4</f>
-        <v>-5.2650451960074229E-2</v>
-      </c>
-      <c r="K38" s="4">
-        <v>-1.3021E-3</v>
-      </c>
-      <c r="L38" s="4">
-        <v>-5.2650000000000002E-2</v>
-      </c>
-      <c r="N38" s="5">
-        <f t="shared" si="3"/>
-        <v>-9.8761872180538632E-6</v>
-      </c>
-      <c r="O38" s="5">
-        <f t="shared" si="4"/>
-        <v>8.5842369273881644E-6</v>
-      </c>
-      <c r="Q38" s="8">
-        <f>SUM(H38:H39)</f>
-        <v>-2.9296978513375649E-3</v>
-      </c>
-      <c r="R38" s="8">
-        <f>SUM(I38:I39)</f>
-        <v>-0.10574342415645388</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1.1870652100000001</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.89214014</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="H39" s="3">
-        <f>(C39*D39) - (C38*D38)/3 - (C38*D39)/6 - (C39*D38)/6 - (C39*D39)/3</f>
-        <v>-1.6276107111209415E-3</v>
-      </c>
-      <c r="I39" s="3">
-        <f>(D39*C39^2) - (D38*C38^2)/4 - (D39*C38^2)/12 - (D38*C38*C39)/6 - (D39*C39*C38)/6 - (D38*C39^2)/12 - (D39*C39^2)/4</f>
-        <v>-5.3092972196379651E-2</v>
-      </c>
-      <c r="K39" s="4">
-        <v>-1.6276000000000001E-3</v>
-      </c>
-      <c r="L39" s="4">
-        <v>-5.3093000000000001E-2</v>
-      </c>
-      <c r="N39" s="5">
-        <f t="shared" si="3"/>
-        <v>6.5809295535572739E-6</v>
-      </c>
-      <c r="O39" s="5">
-        <f t="shared" si="4"/>
-        <v>-5.2367770422628429E-7</v>
-      </c>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1.1871157299999999</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1.8914044299999999</v>
-      </c>
-      <c r="E40" s="8">
-        <f>(B41-B41^2)-(B40-B40^2)</f>
-        <v>-4.8828125E-3</v>
-      </c>
-      <c r="F40" s="8">
-        <f>(B41^3 - 3*B41^2 - B41) - (B40^3 - 3*B40^2 - B40)</f>
-        <v>-0.108306884765625</v>
-      </c>
-      <c r="H40" s="3">
-        <f>-(C39*D39) + (C40*D40)/3 + (C40*D41)/6 + (C41*D40)/6 + (C41*D41)/3</f>
-        <v>-2.2786380575841036E-3</v>
-      </c>
-      <c r="I40" s="3">
-        <f>-(C39^2*D39) + (D40*C40^2)/4 + (D41*C40^2)/12 + (D40*C40*C41)/6 + (D41*C41*C40)/6 + (D40*C41^2)/12 + (D41*C41^2)/4</f>
-        <v>-5.3947433736887707E-2</v>
-      </c>
-      <c r="K40" s="4">
-        <v>-2.2786E-3</v>
-      </c>
-      <c r="L40" s="4">
-        <v>-5.3947000000000002E-2</v>
-      </c>
-      <c r="N40" s="5">
-        <f t="shared" si="3"/>
-        <v>1.6702178576172127E-5</v>
-      </c>
-      <c r="O40" s="5">
-        <f t="shared" si="4"/>
-        <v>8.0400557529557792E-6</v>
-      </c>
-      <c r="Q40" s="8">
-        <f>SUM(H40:H41)</f>
-        <v>-4.8828001892919914E-3</v>
-      </c>
-      <c r="R40" s="8">
-        <f>SUM(I40:I41)</f>
-        <v>-0.10830685942294771</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="1">
-        <v>0.59375</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1.1413262500000001</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1.96368999</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="H41" s="3">
-        <f>(C41*D41) - (C40*D40)/3 - (C40*D41)/6 - (C41*D40)/6 - (C41*D41)/3</f>
-        <v>-2.6041621317078878E-3</v>
-      </c>
-      <c r="I41" s="3">
-        <f>(D41*C41^2) - (D40*C40^2)/4 - (D41*C40^2)/12 - (D40*C40*C41)/6 - (D41*C41*C40)/6 - (D40*C41^2)/12 - (D41*C41^2)/4</f>
-        <v>-5.4359425686060003E-2</v>
-      </c>
-      <c r="K41" s="4">
-        <v>-2.6042000000000001E-3</v>
-      </c>
-      <c r="L41" s="4">
-        <v>-5.4358999999999998E-2</v>
-      </c>
-      <c r="N41" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.4541238043274743E-5</v>
-      </c>
-      <c r="O41" s="5">
-        <f t="shared" si="4"/>
-        <v>7.8310134477411066E-6</v>
-      </c>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="1">
-        <v>0.59375</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1.14138385</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1.9628370900000001</v>
-      </c>
-      <c r="E42" s="8">
-        <f>(B43-B43^2)-(B42-B42^2)</f>
-        <v>-6.8359375E-3</v>
-      </c>
-      <c r="F42" s="8">
-        <f>(B43^3 - 3*B43^2 - B43) - (B42^3 - 3*B42^2 - B42)</f>
-        <v>-0.110687255859375</v>
-      </c>
-      <c r="H42" s="3">
-        <f>-(C41*D41) + (C42*D42)/3 + (C42*D43)/6 + (C43*D42)/6 + (C43*D43)/3</f>
-        <v>-3.2552034811480501E-3</v>
-      </c>
-      <c r="I42" s="3">
-        <f>-(C41^2*D41) + (D42*C42^2)/4 + (D43*C42^2)/12 + (D42*C42*C43)/6 + (D43*C43*C42)/6 + (D42*C43^2)/12 + (D43*C43^2)/4</f>
-        <v>-5.51528857135406E-2</v>
-      </c>
-      <c r="K42" s="4">
-        <v>-3.2552000000000002E-3</v>
-      </c>
-      <c r="L42" s="4">
-        <v>-5.5153000000000001E-2</v>
-      </c>
-      <c r="N42" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0694114186358611E-6</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.0721712218794001E-6</v>
-      </c>
-      <c r="Q42" s="8">
-        <f>SUM(H42:H43)</f>
-        <v>-6.8359334831544771E-3</v>
-      </c>
-      <c r="R42" s="8">
-        <f>SUM(I42:I43)</f>
-        <v>-0.11068724574872046</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1.09527972</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2.0400039900000002</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="H43" s="3">
-        <f>(C43*D43) - (C42*D42)/3 - (C42*D43)/6 - (C43*D42)/6 - (C43*D43)/3</f>
-        <v>-3.580730002006427E-3</v>
-      </c>
-      <c r="I43" s="3">
-        <f>(D43*C43^2) - (D42*C42^2)/4 - (D43*C42^2)/12 - (D42*C42*C43)/6 - (D43*C43*C42)/6 - (D42*C43^2)/12 - (D43*C43^2)/4</f>
-        <v>-5.5534360035179864E-2</v>
-      </c>
-      <c r="K43" s="4">
-        <v>-3.5807E-3</v>
-      </c>
-      <c r="L43" s="4">
-        <v>-5.5534E-2</v>
-      </c>
-      <c r="N43" s="5">
-        <f t="shared" si="3"/>
-        <v>8.3788104077315395E-6</v>
-      </c>
-      <c r="O43" s="5">
-        <f t="shared" si="4"/>
-        <v>6.4831486992441898E-6</v>
-      </c>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1.0953448299999999</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2.0390084599999998</v>
-      </c>
-      <c r="E44" s="8">
-        <f>(B45-B45^2)-(B44-B44^2)</f>
-        <v>-8.7890625E-3</v>
-      </c>
-      <c r="F44" s="8">
-        <f>(B45^3 - 3*B45^2 - B45) - (B44^3 - 3*B44^2 - B44)</f>
-        <v>-0.112884521484375</v>
-      </c>
-      <c r="H44" s="3">
-        <f>-(C43*D43) + (C44*D44)/3 + (C44*D45)/6 + (C45*D44)/6 + (C45*D45)/3</f>
-        <v>-4.2317689006475812E-3</v>
-      </c>
-      <c r="I44" s="3">
-        <f>-(C43^2*D43) + (D44*C44^2)/4 + (D45*C44^2)/12 + (D44*C44*C45)/6 + (D45*C45*C44)/6 + (D44*C45^2)/12 + (D45*C45^2)/4</f>
-        <v>-5.626678699454768E-2</v>
-      </c>
-      <c r="K44" s="4">
-        <v>-4.2318E-3</v>
-      </c>
-      <c r="L44" s="4">
-        <v>-5.6266999999999998E-2</v>
-      </c>
-      <c r="N44" s="5">
-        <f t="shared" si="3"/>
-        <v>-7.3489655510222748E-6</v>
-      </c>
-      <c r="O44" s="5">
-        <f t="shared" si="4"/>
-        <v>-3.7856194984282124E-6</v>
-      </c>
-      <c r="Q44" s="8">
-        <f>SUM(H44:H45)</f>
-        <v>-8.789054826333853E-3</v>
-      </c>
-      <c r="R44" s="8">
-        <f>SUM(I44:I45)</f>
-        <v>-0.11288451415910483</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="1">
-        <v>0.65625</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1.0488838300000001</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2.1218612399999999</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="H45" s="3">
-        <f>(C45*D45) - (C44*D44)/3 - (C44*D45)/6 - (C45*D44)/6 - (C45*D45)/3</f>
-        <v>-4.5572859256862719E-3</v>
-      </c>
-      <c r="I45" s="3">
-        <f>(D45*C45^2) - (D44*C44^2)/4 - (D45*C44^2)/12 - (D44*C44*C45)/6 - (D45*C45*C44)/6 - (D44*C45^2)/12 - (D45*C45^2)/4</f>
-        <v>-5.6617727164557152E-2</v>
-      </c>
-      <c r="K45" s="4">
-        <v>-4.5573000000000002E-3</v>
-      </c>
-      <c r="L45" s="4">
-        <v>-5.6618000000000002E-2</v>
-      </c>
-      <c r="N45" s="5">
-        <f t="shared" si="3"/>
-        <v>-3.0883009080709327E-6</v>
-      </c>
-      <c r="O45" s="5">
-        <f t="shared" si="4"/>
-        <v>-4.8188816780775564E-6</v>
-      </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="1">
-        <v>0.65625</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1.0489569700000001</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2.1206904299999998</v>
-      </c>
-      <c r="E46" s="8">
-        <f>(B47-B47^2)-(B46-B46^2)</f>
-        <v>-1.07421875E-2</v>
-      </c>
-      <c r="F46" s="8">
-        <f>(B47^3 - 3*B47^2 - B47) - (B46^3 - 3*B46^2 - B46)</f>
-        <v>-0.114898681640625</v>
-      </c>
-      <c r="H46" s="3">
-        <f>-(C45*D45) + (C46*D46)/3 + (C46*D47)/6 + (C47*D46)/6 + (C47*D47)/3</f>
-        <v>-5.2083443313045708E-3</v>
-      </c>
-      <c r="I46" s="3">
-        <f>-(C45^2*D45) + (D46*C46^2)/4 + (D47*C46^2)/12 + (D46*C46*C47)/6 + (D47*C47*C46)/6 + (D46*C47^2)/12 + (D47*C47^2)/4</f>
-        <v>-5.7289145001949593E-2</v>
-      </c>
-      <c r="K46" s="4">
-        <v>-5.2082999999999999E-3</v>
-      </c>
-      <c r="L46" s="4">
-        <v>-5.7289E-2</v>
-      </c>
-      <c r="N46" s="5">
-        <f t="shared" si="3"/>
-        <v>8.5116649522574329E-6</v>
-      </c>
-      <c r="O46" s="5">
-        <f t="shared" si="4"/>
-        <v>2.531060929554903E-6</v>
-      </c>
-      <c r="Q46" s="8">
-        <f>SUM(H46:H47)</f>
-        <v>-1.0742200815256453E-2</v>
-      </c>
-      <c r="R46" s="8">
-        <f>SUM(I46:I47)</f>
-        <v>-0.11489870776514266</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1.0020943499999999</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2.2102147799999998</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="H47" s="3">
-        <f>(C47*D47) - (C46*D46)/3 - (C46*D47)/6 - (C47*D46)/6 - (C47*D47)/3</f>
-        <v>-5.5338564839518822E-3</v>
-      </c>
-      <c r="I47" s="3">
-        <f>(D47*C47^2) - (D46*C46^2)/4 - (D47*C46^2)/12 - (D46*C46*C47)/6 - (D47*C47*C46)/6 - (D46*C47^2)/12 - (D47*C47^2)/4</f>
-        <v>-5.7609562763193067E-2</v>
-      </c>
-      <c r="K47" s="4">
-        <v>-5.5338999999999996E-3</v>
-      </c>
-      <c r="L47" s="4">
-        <v>-5.7610000000000001E-2</v>
-      </c>
-      <c r="N47" s="5">
-        <f t="shared" si="3"/>
-        <v>-7.8635407429391164E-6</v>
-      </c>
-      <c r="O47" s="5">
-        <f t="shared" si="4"/>
-        <v>-7.5895991483099827E-6</v>
-      </c>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1.00217614</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2.2088262300000001</v>
-      </c>
-      <c r="E48" s="8">
-        <f>(B49-B49^2)-(B48-B48^2)</f>
-        <v>-1.26953125E-2</v>
-      </c>
-      <c r="F48" s="8">
-        <f>(B49^3 - 3*B49^2 - B49) - (B48^3 - 3*B48^2 - B48)</f>
-        <v>-0.116729736328125</v>
-      </c>
-      <c r="H48" s="3">
-        <f>-(C47*D47) + (C48*D48)/3 + (C48*D49)/6 + (C49*D48)/6 + (C49*D49)/3</f>
-        <v>-6.1848940414630516E-3</v>
-      </c>
-      <c r="I48" s="3">
-        <f>-(C47^2*D47) + (D48*C48^2)/4 + (D49*C48^2)/12 + (D48*C48*C49)/6 + (D49*C49*C48)/6 + (D48*C49^2)/12 + (D49*C49^2)/4</f>
-        <v>-5.8219904552648027E-2</v>
-      </c>
-      <c r="K48" s="4">
-        <v>-6.1849000000000001E-3</v>
-      </c>
-      <c r="L48" s="4">
-        <v>-5.8220000000000001E-2</v>
-      </c>
-      <c r="N48" s="5">
-        <f t="shared" si="3"/>
-        <v>-9.6340069339347331E-7</v>
-      </c>
-      <c r="O48" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.6394254890669297E-6</v>
-      </c>
-      <c r="Q48" s="8">
-        <f>SUM(H48:H49)</f>
-        <v>-1.2695309002894728E-2</v>
-      </c>
-      <c r="R48" s="8">
-        <f>SUM(I48:I49)</f>
-        <v>-0.11672972912865687</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="1">
-        <v>0.71875</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.954864186</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2.3062425700000002</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="H49" s="3">
-        <f>(C49*D49) - (C48*D48)/3 - (C48*D49)/6 - (C49*D48)/6 - (C49*D49)/3</f>
-        <v>-6.5104149614316764E-3</v>
-      </c>
-      <c r="I49" s="3">
-        <f>(D49*C49^2) - (D48*C48^2)/4 - (D49*C48^2)/12 - (D48*C48*C49)/6 - (D49*C49*C48)/6 - (D48*C49^2)/12 - (D49*C49^2)/4</f>
-        <v>-5.850982457600884E-2</v>
-      </c>
-      <c r="K49" s="4">
-        <v>-6.5104000000000004E-3</v>
-      </c>
-      <c r="L49" s="4">
-        <v>-5.851E-2</v>
-      </c>
-      <c r="N49" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2980817885274471E-6</v>
-      </c>
-      <c r="O49" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.9981881927827337E-6</v>
-      </c>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="1">
-        <v>0.71875</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.95495534999999998</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2.3045802499999999</v>
-      </c>
-      <c r="E50" s="8">
-        <f>(B51-B51^2)-(B50-B50^2)</f>
-        <v>-1.46484375E-2</v>
-      </c>
-      <c r="F50" s="8">
-        <f>(B51^3 - 3*B51^2 - B51) - (B50^3 - 3*B50^2 - B50)</f>
-        <v>-0.118377685546875</v>
-      </c>
-      <c r="H50" s="3">
-        <f>-(C49*D49) + (C50*D50)/3 + (C50*D51)/6 + (C51*D50)/6 + (C51*D51)/3</f>
-        <v>-7.1614597058292651E-3</v>
-      </c>
-      <c r="I50" s="3">
-        <f>-(C49^2*D49) + (D50*C50^2)/4 + (D51*C50^2)/12 + (D50*C50*C51)/6 + (D51*C51*C50)/6 + (D50*C51^2)/12 + (D51*C51^2)/4</f>
-        <v>-5.9059145151789283E-2</v>
-      </c>
-      <c r="K50" s="4">
-        <v>-7.1615000000000003E-3</v>
-      </c>
-      <c r="L50" s="4">
-        <v>-5.9059E-2</v>
-      </c>
-      <c r="N50" s="5">
-        <f t="shared" si="3"/>
-        <v>-5.6264987412240951E-6</v>
-      </c>
-      <c r="O50" s="5">
-        <f t="shared" si="4"/>
-        <v>2.457742076271834E-6</v>
-      </c>
-      <c r="Q50" s="8">
-        <f>SUM(H50:H51)</f>
-        <v>-1.4648440223172798E-2</v>
-      </c>
-      <c r="R50" s="8">
-        <f>SUM(I50:I51)</f>
-        <v>-0.11837768879323862</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.907142852</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2.4114173299999999</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="H51" s="3">
-        <f>(C51*D51) - (C50*D50)/3 - (C50*D51)/6 - (C51*D50)/6 - (C51*D51)/3</f>
-        <v>-7.4869805173435333E-3</v>
-      </c>
-      <c r="I51" s="3">
-        <f>(D51*C51^2) - (D50*C50^2)/4 - (D51*C50^2)/12 - (D50*C50*C51)/6 - (D51*C51*C50)/6 - (D50*C51^2)/12 - (D51*C51^2)/4</f>
-        <v>-5.9318543641449339E-2</v>
-      </c>
-      <c r="K51" s="4">
-        <v>-7.4869999999999997E-3</v>
-      </c>
-      <c r="L51" s="4">
-        <v>-5.9318999999999997E-2</v>
-      </c>
-      <c r="N51" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.6021980053983131E-6</v>
-      </c>
-      <c r="O51" s="5">
-        <f t="shared" si="4"/>
-        <v>-7.6932947395823862E-6</v>
-      </c>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.90724426000000002</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2.4094060800000001</v>
-      </c>
-      <c r="E52" s="8">
-        <f>(B53-B53^2)-(B52-B52^2)</f>
-        <v>-1.66015625E-2</v>
-      </c>
-      <c r="F52" s="8">
-        <f>(B53^3 - 3*B53^2 - B53) - (B52^3 - 3*B52^2 - B52)</f>
-        <v>-0.119842529296875</v>
-      </c>
-      <c r="H52" s="3">
-        <f>-(C51*D51) + (C52*D52)/3 + (C52*D53)/6 + (C53*D52)/6 + (C53*D53)/3</f>
-        <v>-8.138018133662106E-3</v>
-      </c>
-      <c r="I52" s="3">
-        <f>-(C51^2*D51) + (D52*C52^2)/4 + (D53*C52^2)/12 + (D52*C52*C53)/6 + (D53*C53*C52)/6 + (D52*C53^2)/12 + (D53*C53^2)/4</f>
-        <v>-5.9806820331887722E-2</v>
-      </c>
-      <c r="K52" s="4">
-        <v>-8.1379999999999994E-3</v>
-      </c>
-      <c r="L52" s="4">
-        <v>-5.9806999999999999E-2</v>
-      </c>
-      <c r="N52" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2282701040333056E-6</v>
-      </c>
-      <c r="O52" s="5">
-        <f t="shared" si="4"/>
-        <v>-3.0041318286616141E-6</v>
-      </c>
-      <c r="Q52" s="8">
-        <f>SUM(H52:H53)</f>
-        <v>-1.6601558838109653E-2</v>
-      </c>
-      <c r="R52" s="8">
-        <f>SUM(I52:I53)</f>
-        <v>-0.11984252528781264</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.85887595100000003</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2.52760417</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="H53" s="3">
-        <f>(C53*D53) - (C52*D52)/3 - (C52*D53)/6 - (C53*D52)/6 - (C53*D53)/3</f>
-        <v>-8.4635407044475475E-3</v>
-      </c>
-      <c r="I53" s="3">
-        <f>(D53*C53^2) - (D52*C52^2)/4 - (D53*C52^2)/12 - (D52*C52*C53)/6 - (D53*C53*C52)/6 - (D52*C53^2)/12 - (D53*C53^2)/4</f>
-        <v>-6.0035704955924918E-2</v>
-      </c>
-      <c r="K53" s="4">
-        <v>-8.4635000000000005E-3</v>
-      </c>
-      <c r="L53" s="4">
-        <v>-6.0035999999999999E-2</v>
-      </c>
-      <c r="N53" s="5">
-        <f t="shared" si="3"/>
-        <v>4.8094107103364544E-6</v>
-      </c>
-      <c r="O53" s="5">
-        <f t="shared" si="4"/>
-        <v>-4.9144525798061341E-6</v>
-      </c>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.85898863400000003</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2.5251413299999999</v>
-      </c>
-      <c r="E54" s="8">
-        <f>(B55-B55^2)-(B54-B54^2)</f>
-        <v>-1.85546875E-2</v>
-      </c>
-      <c r="F54" s="8">
-        <f>(B55^3 - 3*B55^2 - B55) - (B54^3 - 3*B54^2 - B54)</f>
-        <v>-0.121124267578125</v>
-      </c>
-      <c r="H54" s="3">
-        <f>-(C53*D53) + (C54*D54)/3 + (C54*D55)/6 + (C55*D54)/6 + (C55*D55)/3</f>
-        <v>-9.1145870448338107E-3</v>
-      </c>
-      <c r="I54" s="3">
-        <f>-(C53^2*D53) + (D54*C54^2)/4 + (D55*C54^2)/12 + (D54*C54*C55)/6 + (D55*C55*C54)/6 + (D54*C55^2)/12 + (D55*C55^2)/4</f>
-        <v>-6.0462953006456266E-2</v>
-      </c>
-      <c r="K54" s="4">
-        <v>-9.1146000000000005E-3</v>
-      </c>
-      <c r="L54" s="4">
-        <v>-6.0463000000000003E-2</v>
-      </c>
-      <c r="N54" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.421364205760082E-6</v>
-      </c>
-      <c r="O54" s="5">
-        <f t="shared" si="4"/>
-        <v>-7.7722811863353679E-7</v>
-      </c>
-      <c r="Q54" s="8">
-        <f>SUM(H54:H55)</f>
-        <v>-1.8554692660038619E-2</v>
-      </c>
-      <c r="R54" s="8">
-        <f>SUM(I54:I55)</f>
-        <v>-0.12112426572351875</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.81000453500000003</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2.6571996200000001</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="H55" s="3">
-        <f>(C55*D55) - (C54*D54)/3 - (C54*D55)/6 - (C55*D54)/6 - (C55*D55)/3</f>
-        <v>-9.440105615204808E-3</v>
-      </c>
-      <c r="I55" s="3">
-        <f>(D55*C55^2) - (D54*C54^2)/4 - (D55*C54^2)/12 - (D54*C54*C55)/6 - (D55*C55*C54)/6 - (D54*C55^2)/12 - (D55*C55^2)/4</f>
-        <v>-6.0661312717062488E-2</v>
-      </c>
-      <c r="K55" s="4">
-        <v>-9.4400999999999999E-3</v>
-      </c>
-      <c r="L55" s="4">
-        <v>-6.0661E-2</v>
-      </c>
-      <c r="N55" s="5">
-        <f t="shared" si="3"/>
-        <v>5.9482471669513663E-7</v>
-      </c>
-      <c r="O55" s="5">
-        <f t="shared" si="4"/>
-        <v>5.155158379982001E-6</v>
-      </c>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.81012973600000004</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2.6541420100000002</v>
-      </c>
-      <c r="E56" s="8">
-        <f>(B57-B57^2)-(B56-B56^2)</f>
-        <v>-2.05078125E-2</v>
-      </c>
-      <c r="F56" s="8">
-        <f>(B57^3 - 3*B57^2 - B57) - (B56^3 - 3*B56^2 - B56)</f>
-        <v>-0.122222900390625</v>
-      </c>
-      <c r="H56" s="3">
-        <f>-(C55*D55) + (C56*D56)/3 + (C56*D57)/6 + (C57*D56)/6 + (C57*D57)/3</f>
-        <v>-1.0091146755317637E-2</v>
-      </c>
-      <c r="I56" s="3">
-        <f>-(C55^2*D55) + (D56*C56^2)/4 + (D57*C56^2)/12 + (D56*C56*C57)/6 + (D57*C57*C56)/6 + (D56*C57^2)/12 + (D57*C57^2)/4</f>
-        <v>-6.1027528085700444E-2</v>
-      </c>
-      <c r="K56" s="4">
-        <v>-1.0090999999999999E-2</v>
-      </c>
-      <c r="L56" s="4">
-        <v>-6.1027999999999999E-2</v>
-      </c>
-      <c r="N56" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4543188746187258E-5</v>
-      </c>
-      <c r="O56" s="5">
-        <f t="shared" si="4"/>
-        <v>-7.7327505334374552E-6</v>
-      </c>
-      <c r="Q56" s="8">
-        <f>SUM(H56:H57)</f>
-        <v>-2.0507813786845741E-2</v>
-      </c>
-      <c r="R56" s="8">
-        <f>SUM(I56:I57)</f>
-        <v>-0.12222290238643096</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.76046438100000002</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2.80333436</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="H57" s="3">
-        <f>(C57*D57) - (C56*D56)/3 - (C56*D57)/6 - (C57*D56)/6 - (C57*D57)/3</f>
-        <v>-1.0416667031528104E-2</v>
-      </c>
-      <c r="I57" s="3">
-        <f>(D57*C57^2) - (D56*C56^2)/4 - (D57*C56^2)/12 - (D56*C56*C57)/6 - (D57*C57*C56)/6 - (D56*C57^2)/12 - (D57*C57^2)/4</f>
-        <v>-6.1195374300730521E-2</v>
-      </c>
-      <c r="K57" s="4">
-        <v>-1.0416999999999999E-2</v>
-      </c>
-      <c r="L57" s="4">
-        <v>-6.1194999999999999E-2</v>
-      </c>
-      <c r="N57" s="5">
-        <f t="shared" si="3"/>
-        <v>-3.196395045551991E-5</v>
-      </c>
-      <c r="O57" s="5">
-        <f t="shared" si="4"/>
-        <v>6.1165247245894055E-6</v>
-      </c>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.76060360199999999</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2.7994775000000001</v>
-      </c>
-      <c r="E58" s="8">
-        <f>(B59-B59^2)-(B58-B58^2)</f>
-        <v>-2.24609375E-2</v>
-      </c>
-      <c r="F58" s="8">
-        <f>(B59^3 - 3*B59^2 - B59) - (B58^3 - 3*B58^2 - B58)</f>
-        <v>-0.123138427734375</v>
-      </c>
-      <c r="H58" s="3">
-        <f>-(C57*D57) + (C58*D58)/3 + (C58*D59)/6 + (C59*D58)/6 + (C59*D59)/3</f>
-        <v>-1.1067707059085996E-2</v>
-      </c>
-      <c r="I58" s="3">
-        <f>-(C57^2*D57) + (D58*C58^2)/4 + (D59*C58^2)/12 + (D58*C58*C59)/6 + (D59*C59*C58)/6 + (D58*C59^2)/12 + (D59*C59^2)/4</f>
-        <v>-6.1500548159136248E-2</v>
-      </c>
-      <c r="K58" s="4">
-        <v>-1.1068E-2</v>
-      </c>
-      <c r="L58" s="4">
-        <v>-6.1501E-2</v>
-      </c>
-      <c r="N58" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.6467375677959521E-5</v>
-      </c>
-      <c r="O58" s="5">
-        <f t="shared" si="4"/>
-        <v>-7.3468864531009585E-6</v>
-      </c>
-      <c r="Q58" s="8">
-        <f>SUM(H58:H59)</f>
-        <v>-2.2460938579547562E-2</v>
-      </c>
-      <c r="R58" s="8">
-        <f>SUM(I58:I59)</f>
-        <v>-0.12313842865316688</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.71018518200000003</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2.9701760099999999</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="H59" s="3">
-        <f>(C59*D59) - (C58*D58)/3 - (C58*D59)/6 - (C59*D58)/6 - (C59*D59)/3</f>
-        <v>-1.1393231520461566E-2</v>
-      </c>
-      <c r="I59" s="3">
-        <f>(D59*C59^2) - (D58*C58^2)/4 - (D59*C58^2)/12 - (D58*C58*C59)/6 - (D59*C59*C58)/6 - (D58*C59^2)/12 - (D59*C59^2)/4</f>
-        <v>-6.1637880494030628E-2</v>
-      </c>
-      <c r="K59" s="4">
-        <v>-1.1393E-2</v>
-      </c>
-      <c r="L59" s="4">
-        <v>-6.1637999999999998E-2</v>
-      </c>
-      <c r="N59" s="5">
-        <f t="shared" si="3"/>
-        <v>2.0321290403409833E-5</v>
-      </c>
-      <c r="O59" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.9388359351436047E-6</v>
-      </c>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.71034027099999997</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2.9652197</v>
-      </c>
-      <c r="E60" s="8">
-        <f>(B61-B61^2)-(B60-B60^2)</f>
-        <v>-2.44140625E-2</v>
-      </c>
-      <c r="F60" s="8">
-        <f>(B61^3 - 3*B61^2 - B61) - (B60^3 - 3*B60^2 - B60)</f>
-        <v>-0.123870849609375</v>
-      </c>
-      <c r="H60" s="3">
-        <f>-(C59*D59) + (C60*D60)/3 + (C60*D61)/6 + (C61*D60)/6 + (C61*D61)/3</f>
-        <v>-1.2044268966922234E-2</v>
-      </c>
-      <c r="I60" s="3">
-        <f>-(C59^2*D59) + (D60*C60^2)/4 + (D61*C60^2)/12 + (D60*C60*C61)/6 + (D61*C61*C60)/6 + (D60*C61^2)/12 + (D61*C61^2)/4</f>
-        <v>-6.1882017262382072E-2</v>
-      </c>
-      <c r="K60" s="4">
-        <v>-1.2043999999999999E-2</v>
-      </c>
-      <c r="L60" s="4">
-        <v>-6.1882E-2</v>
-      </c>
-      <c r="N60" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2332026090537787E-5</v>
-      </c>
-      <c r="O60" s="5">
-        <f t="shared" si="4"/>
-        <v>2.789564343814294E-7</v>
-      </c>
-      <c r="Q60" s="8">
-        <f>SUM(H60:H61)</f>
-        <v>-2.4414060490928424E-2</v>
-      </c>
-      <c r="R60" s="8">
-        <f>SUM(I60:I61)</f>
-        <v>-0.12387084826961003</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="1">
-        <v>0.90625</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.65908957499999998</v>
-      </c>
-      <c r="D61" s="1">
-        <v>3.1633954000000002</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="H61" s="3">
-        <f>(C61*D61) - (C60*D60)/3 - (C60*D61)/6 - (C61*D60)/6 - (C61*D61)/3</f>
-        <v>-1.2369791524006191E-2</v>
-      </c>
-      <c r="I61" s="3">
-        <f>(D61*C61^2) - (D60*C60^2)/4 - (D61*C60^2)/12 - (D60*C60*C61)/6 - (D61*C61*C60)/6 - (D60*C61^2)/12 - (D61*C61^2)/4</f>
-        <v>-6.1988831007227962E-2</v>
-      </c>
-      <c r="K61" s="4">
-        <v>-1.2370000000000001E-2</v>
-      </c>
-      <c r="L61" s="4">
-        <v>-6.1989000000000002E-2</v>
-      </c>
-      <c r="N61" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.6853354390472507E-5</v>
-      </c>
-      <c r="O61" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.726173547564349E-6</v>
-      </c>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="1">
-        <v>0.90625</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.65926284899999998</v>
-      </c>
-      <c r="D62" s="1">
-        <v>3.15688455</v>
-      </c>
-      <c r="E62" s="8">
-        <f>(B63-B63^2)-(B62-B62^2)</f>
-        <v>-2.63671875E-2</v>
-      </c>
-      <c r="F62" s="8">
-        <f>(B63^3 - 3*B63^2 - B63) - (B62^3 - 3*B62^2 - B62)</f>
-        <v>-0.124420166015625</v>
-      </c>
-      <c r="H62" s="3">
-        <f>-(C61*D61) + (C62*D62)/3 + (C62*D63)/6 + (C63*D62)/6 + (C63*D63)/3</f>
-        <v>-1.3020835390392227E-2</v>
-      </c>
-      <c r="I62" s="3">
-        <f>-(C61^2*D61) + (D62*C62^2)/4 + (D63*C62^2)/12 + (D62*C62*C63)/6 + (D63*C63*C62)/6 + (D62*C63^2)/12 + (D63*C63^2)/4</f>
-        <v>-6.2171937562346014E-2</v>
-      </c>
-      <c r="K62" s="4">
-        <v>-1.3021E-2</v>
-      </c>
-      <c r="L62" s="4">
-        <v>-6.2171999999999998E-2</v>
-      </c>
-      <c r="N62" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.2641856061182831E-5</v>
-      </c>
-      <c r="O62" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.0042728878684854E-6</v>
-      </c>
-      <c r="Q62" s="8">
-        <f>SUM(H62:H63)</f>
-        <v>-2.636719048237568E-2</v>
-      </c>
-      <c r="R62" s="8">
-        <f>SUM(I62:I63)</f>
-        <v>-0.12442016713867432</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.60709202699999998</v>
-      </c>
-      <c r="D63" s="1">
-        <v>3.3909088700000001</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="H63" s="3">
-        <f>(C63*D63) - (C62*D62)/3 - (C62*D63)/6 - (C63*D62)/6 - (C63*D63)/3</f>
-        <v>-1.3346355091983453E-2</v>
-      </c>
-      <c r="I63" s="3">
-        <f>(D63*C63^2) - (D62*C62^2)/4 - (D63*C62^2)/12 - (D62*C62*C63)/6 - (D63*C63*C62)/6 - (D62*C63^2)/12 - (D63*C63^2)/4</f>
-        <v>-6.2248229576328307E-2</v>
-      </c>
-      <c r="K63" s="4">
-        <v>-1.3346E-2</v>
-      </c>
-      <c r="L63" s="4">
-        <v>-6.2247999999999998E-2</v>
-      </c>
-      <c r="N63" s="5">
-        <f t="shared" si="3"/>
-        <v>2.66066224676007E-5</v>
-      </c>
-      <c r="O63" s="5">
-        <f t="shared" si="4"/>
-        <v>3.6880916384283702E-6</v>
-      </c>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.60728647599999996</v>
-      </c>
-      <c r="D64" s="1">
-        <v>3.38212673</v>
-      </c>
-      <c r="E64" s="8">
-        <f>(B65-B65^2)-(B64-B64^2)</f>
-        <v>-2.83203125E-2</v>
-      </c>
-      <c r="F64" s="8">
-        <f>(B65^3 - 3*B65^2 - B65) - (B64^3 - 3*B64^2 - B64)</f>
-        <v>-0.124786376953125</v>
-      </c>
-      <c r="H64" s="3">
-        <f>-(C63*D63) + (C64*D64)/3 + (C64*D65)/6 + (C65*D64)/6 + (C65*D65)/3</f>
-        <v>-1.3997393665403091E-2</v>
-      </c>
-      <c r="I64" s="3">
-        <f>-(C63^2*D63) + (D64*C64^2)/4 + (D65*C64^2)/12 + (D64*C64*C65)/6 + (D65*C65*C64)/6 + (D64*C65^2)/12 + (D65*C65^2)/4</f>
-        <v>-6.2370299345989089E-2</v>
-      </c>
-      <c r="K64" s="4">
-        <v>-1.3997000000000001E-2</v>
-      </c>
-      <c r="L64" s="4">
-        <v>-6.2370000000000002E-2</v>
-      </c>
-      <c r="N64" s="5">
-        <f t="shared" si="3"/>
-        <v>2.8124984145877019E-5</v>
-      </c>
-      <c r="O64" s="5">
-        <f t="shared" si="4"/>
-        <v>4.7995188245441535E-6</v>
-      </c>
-      <c r="Q64" s="8">
-        <f>SUM(H64:H65)</f>
-        <v>-2.8320310063767895E-2</v>
-      </c>
-      <c r="R64" s="8">
-        <f>SUM(I64:I65)</f>
-        <v>-0.12478637592763908</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="1">
-        <v>0.96875</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.55409751900000004</v>
-      </c>
-      <c r="D65" s="1">
-        <v>3.6641085000000002</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="H65" s="3">
-        <f>(C65*D65) - (C64*D64)/3 - (C64*D65)/6 - (C65*D64)/6 - (C65*D65)/3</f>
-        <v>-1.4322916398364804E-2</v>
-      </c>
-      <c r="I65" s="3">
-        <f>(D65*C65^2) - (D64*C64^2)/4 - (D65*C64^2)/12 - (D64*C64*C65)/6 - (D65*C65*C64)/6 - (D64*C65^2)/12 - (D65*C65^2)/4</f>
-        <v>-6.2416076581649993E-2</v>
-      </c>
-      <c r="K65" s="4">
-        <v>-1.4323000000000001E-2</v>
-      </c>
-      <c r="L65" s="4">
-        <v>-6.2415999999999999E-2</v>
-      </c>
-      <c r="N65" s="5">
-        <f t="shared" si="3"/>
-        <v>-5.8368802063955724E-6</v>
-      </c>
-      <c r="O65" s="5">
-        <f t="shared" si="4"/>
-        <v>1.2269554279942643E-6</v>
-      </c>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="1">
-        <v>0.96875</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.55431714099999996</v>
-      </c>
-      <c r="D66" s="1">
-        <v>3.6518731099999999</v>
-      </c>
-      <c r="E66" s="8">
-        <f>(B67-B67^2)-(B66-B66^2)</f>
-        <v>-3.02734375E-2</v>
-      </c>
-      <c r="F66" s="8">
-        <f>(B67^3 - 3*B67^2 - B67) - (B66^3 - 3*B66^2 - B66)</f>
-        <v>-0.124969482421875</v>
-      </c>
-      <c r="H66" s="3">
-        <f>-(C65*D65) + (C66*D66)/3 + (C66*D67)/6 + (C67*D66)/6 + (C67*D67)/3</f>
-        <v>-1.4973958073677074E-2</v>
-      </c>
-      <c r="I66" s="3">
-        <f>-(C65^2*D65) + (D66*C66^2)/4 + (D67*C66^2)/12 + (D66*C66*C67)/6 + (D67*C67*C66)/6 + (D66*C67^2)/12 + (D67*C67^2)/4</f>
-        <v>-6.2477112199750384E-2</v>
-      </c>
-      <c r="K66" s="4">
-        <v>-1.4973999999999999E-2</v>
-      </c>
-      <c r="L66" s="4">
-        <v>-6.2476999999999998E-2</v>
-      </c>
-      <c r="N66" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.7999414268456483E-6</v>
-      </c>
-      <c r="O66" s="5">
-        <f t="shared" si="4"/>
-        <v>1.7958568815147843E-6</v>
-      </c>
-      <c r="Q66" s="8">
-        <f>SUM(H66:H67)</f>
-        <v>-3.0273435196811693E-2</v>
-      </c>
-      <c r="R66" s="8">
-        <f>SUM(I66:I67)</f>
-        <v>-0.12496948100957558</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="1">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.499999996</v>
-      </c>
-      <c r="D67" s="1">
-        <v>4.0000000199999999</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="H67" s="3">
-        <f>(C67*D67) - (C66*D66)/3 - (C66*D67)/6 - (C67*D66)/6 - (C67*D67)/3</f>
-        <v>-1.5299477123134619E-2</v>
-      </c>
-      <c r="I67" s="3">
-        <f>(D67*C67^2) - (D66*C66^2)/4 - (D67*C66^2)/12 - (D66*C66*C67)/6 - (D67*C67*C66)/6 - (D66*C67^2)/12 - (D67*C67^2)/4</f>
-        <v>-6.2492368809825199E-2</v>
-      </c>
-      <c r="K67" s="4">
-        <v>-1.5299E-2</v>
-      </c>
-      <c r="L67" s="4">
-        <v>-6.2491999999999999E-2</v>
-      </c>
-      <c r="N67" s="5">
-        <f t="shared" si="3"/>
-        <v>3.1186556939622454E-5</v>
-      </c>
-      <c r="O67" s="5">
-        <f t="shared" si="4"/>
-        <v>5.9017126224243822E-6</v>
-      </c>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R60:R61"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11009,24 +10809,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3BAD6-1EBF-4942-8C07-DFDAF2B33640}">
   <dimension ref="B1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
@@ -12128,7 +11928,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I3" sqref="I3:I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12137,10 +11937,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -12154,1826 +11954,1973 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>2.2204E-16</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <f>(B4-B4^2)-(B3-B3^2)</f>
         <v>3.0273437499999778E-2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <f>(B4^3 - 3*B4^2 - B4) - (B3^3 - 3*B3^2 - B3)</f>
         <v>-3.4149169921874778E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <f>SUM(H3:H4)</f>
         <v>3.0273000000000001E-2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <f>SUM(I3:I4)</f>
         <v>-3.4148999999999999E-2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1.5299E-2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>-1.6594000000000001E-2</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <f>(F3-C3)/F3</f>
         <v>-1.445182174798197E-5</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="7">
         <f>(G3-D3)/G3</f>
         <v>-4.9758960666243615E-6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="4">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3">
         <v>1.4973999999999999E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>-1.7555000000000001E-2</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <f>(B6-B6^2)-(B5-B5^2)</f>
         <v>2.83203125E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <f>(B6^3 - 3*B6^2 - B6) - (B5^3 - 3*B5^2 - B5)</f>
         <v>-3.9825439453125E-2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <f>SUM(H5:H6)</f>
         <v>2.8320000000000001E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <f>SUM(I5:I6)</f>
         <v>-3.9824999999999999E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>1.4323000000000001E-2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>-1.9446999999999999E-2</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f>(F5-C5)/F5</f>
         <v>-1.1034604519723792E-5</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <f>(G5-D5)/G5</f>
         <v>-1.1034604519791853E-5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="3">
         <v>1.3997000000000001E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>-2.0378E-2</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <f>(B8-B8^2)-(B7-B7^2)</f>
         <v>2.63671875E-2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <f>(B8^3 - 3*B8^2 - B8) - (B7^3 - 3*B7^2 - B7)</f>
         <v>-4.5318603515625E-2</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <f>SUM(H7:H8)</f>
         <v>2.6367000000000002E-2</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
         <f>SUM(I7:I8)</f>
         <v>-4.5317999999999997E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>1.3346E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>-2.2209E-2</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <f>(F7-C7)/F7</f>
         <v>-7.1111616793132618E-6</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <f>(G7-D7)/G7</f>
         <v>-1.3317349066658419E-5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1">
         <v>9.375E-2</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="3">
         <v>1.3021E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>-2.3109000000000001E-2</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="1">
         <v>9.375E-2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <f>(B10-B10^2)-(B9-B9^2)</f>
         <v>2.44140625E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <f>(B10^3 - 3*B10^2 - B10) - (B9^3 - 3*B9^2 - B9)</f>
         <v>-5.0628662109375E-2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <f>SUM(H9:H10)</f>
         <v>2.4413999999999998E-2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <f>SUM(I9:I10)</f>
         <v>-5.0627999999999999E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>1.2370000000000001E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>-2.4878999999999998E-2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
         <f>(F9-C9)/F9</f>
         <v>-2.560006553690392E-6</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="7">
         <f>(G9-D9)/G9</f>
         <v>-1.3077928715347397E-5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1">
         <v>0.125</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3">
         <v>1.2043999999999999E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>-2.5749000000000001E-2</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1">
         <v>0.125</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <f>(B12-B12^2)-(B11-B11^2)</f>
         <v>2.24609375E-2</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <f>(B12^3 - 3*B12^2 - B12) - (B11^3 - 3*B11^2 - B11)</f>
         <v>-5.5755615234375E-2</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <f>SUM(H11:H12)</f>
         <v>2.2461000000000002E-2</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="6">
         <f>SUM(I11:I12)</f>
         <v>-5.5754999999999999E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1.1393E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>-2.7458E-2</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <f>(F11-C11)/F11</f>
         <v>2.7826009528425817E-6</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <f>(G11-D11)/G11</f>
         <v>-1.1034604519791853E-5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1">
         <v>0.15625</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3">
         <v>1.1068E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>-2.8296999999999999E-2</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>0.15625</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <f>(B14-B14^2)-(B13-B13^2)</f>
         <v>2.05078125E-2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <f>(B14^3 - 3*B14^2 - B14) - (B13^3 - 3*B13^2 - B13)</f>
         <v>-6.0699462890625E-2</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <f>SUM(H13:H14)</f>
         <v>2.0507999999999998E-2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="6">
         <f>SUM(I13:I14)</f>
         <v>-6.0699000000000003E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>1.0416999999999999E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>-2.9944999999999999E-2</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
         <f>(F13-C13)/F13</f>
         <v>9.142773551709226E-6</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="7">
         <f>(G13-D13)/G13</f>
         <v>-7.6260008401628971E-6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1">
         <v>0.1875</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="3">
         <v>1.0090999999999999E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>-3.0754E-2</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1">
         <v>0.1875</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <f>(B16-B16^2)-(B15-B15^2)</f>
         <v>1.85546875E-2</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <f>(B16^3 - 3*B16^2 - B16) - (B15^3 - 3*B15^2 - B15)</f>
         <v>-6.5460205078125E-2</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <f>SUM(H15:H16)</f>
         <v>1.85547E-2</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <f>SUM(I15:I16)</f>
         <v>-6.5460000000000004E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>9.4400999999999999E-3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>-3.2341000000000002E-2</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <f>(F15-C15)/F15</f>
         <v>6.7368375669557822E-7</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="7">
         <f>(G15-D15)/G15</f>
         <v>-3.1328769476887509E-6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1">
         <v>0.21875</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="4">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="3">
         <v>9.1146000000000005E-3</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>-3.3119000000000003E-2</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>0.21875</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <f>(B18-B18^2)-(B17-B17^2)</f>
         <v>1.66015625E-2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <f>(B18^3 - 3*B18^2 - B18) - (B17^3 - 3*B17^2 - B17)</f>
         <v>-7.0037841796875E-2</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <f>SUM(H17:H18)</f>
         <v>1.6601499999999998E-2</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="6">
         <f>SUM(I17:I18)</f>
         <v>-7.0038000000000003E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>8.4635000000000005E-3</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>-3.4645000000000002E-2</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <f>(F17-C17)/F17</f>
         <v>-3.7647200555249365E-6</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="7">
         <f>(G17-D17)/G17</f>
         <v>2.2588184271828341E-6</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1">
         <v>0.25</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="4">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="3">
         <v>8.1379999999999994E-3</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>-3.5393000000000001E-2</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>0.25</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="6">
         <f>(B20-B20^2)-(B19-B19^2)</f>
         <v>1.46484375E-2</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
         <f>(B20^3 - 3*B20^2 - B20) - (B19^3 - 3*B19^2 - B19)</f>
         <v>-7.4432373046875E-2</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="6">
         <f>SUM(H19:H20)</f>
         <v>1.46485E-2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="6">
         <f>SUM(I19:I20)</f>
         <v>-7.4432999999999999E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>7.4869999999999997E-3</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>-3.6858000000000002E-2</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <f>(F19-C19)/F19</f>
         <v>4.2666484623041608E-6</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <f>(G19-D19)/G19</f>
         <v>8.4230532828068645E-6</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1">
         <v>0.28125</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="4">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="3">
         <v>7.1615000000000003E-3</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>-3.7574999999999997E-2</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>0.28125</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <f>(B22-B22^2)-(B21-B21^2)</f>
         <v>1.26953125E-2</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <f>(B22^3 - 3*B22^2 - B22) - (B21^3 - 3*B21^2 - B21)</f>
         <v>-7.8643798828125E-2</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="6">
         <f>SUM(H21:H22)</f>
         <v>1.26953E-2</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="6">
         <f>SUM(I21:I22)</f>
         <v>-7.8643999999999992E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>6.5104000000000004E-3</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>-3.8979E-2</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="7">
         <f>(F21-C21)/F21</f>
         <v>-9.8461635411210809E-7</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="7">
         <f>(G21-D21)/G21</f>
         <v>2.5580066501155871E-6</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1">
         <v>0.3125</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="4">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="3">
         <v>6.1849000000000001E-3</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>-3.9664999999999999E-2</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>0.3125</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="6">
         <f>(B24-B24^2)-(B23-B23^2)</f>
         <v>1.07421875E-2</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <f>(B24^3 - 3*B24^2 - B24) - (B23^3 - 3*B23^2 - B23)</f>
         <v>-8.2672119140625E-2</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="6">
         <f>SUM(H23:H24)</f>
         <v>1.07422E-2</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="6">
         <f>SUM(I23:I24)</f>
         <v>-8.2671999999999995E-2</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>5.5338999999999996E-3</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>-4.1008000000000003E-2</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="7">
         <f>(F23-C23)/F23</f>
         <v>1.1636350096218135E-6</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="7">
         <f>(G23-D23)/G23</f>
         <v>-1.4411242621989329E-6</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1">
         <v>0.34375</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="4">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="3">
         <v>5.2082999999999999E-3</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>-4.1664E-2</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>0.34375</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="6">
         <f>(B26-B26^2)-(B25-B25^2)</f>
         <v>8.7890625E-3</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
         <f>(B26^3 - 3*B26^2 - B26) - (B25^3 - 3*B25^2 - B25)</f>
         <v>-8.6517333984375E-2</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="6">
         <f>SUM(H25:H26)</f>
         <v>8.7891000000000011E-3</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="6">
         <f>SUM(I25:I26)</f>
         <v>-8.6516999999999997E-2</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>4.5573000000000002E-3</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>-4.2945999999999998E-2</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="7">
         <f>(F25-C25)/F25</f>
         <v>4.2666484624225837E-6</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="7">
         <f>(G25-D25)/G25</f>
         <v>-3.8603323624642041E-6</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="1">
         <v>0.375</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="4">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="3">
         <v>4.2318E-3</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>-4.3570999999999999E-2</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="1">
         <v>0.375</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="6">
         <f>(B28-B28^2)-(B27-B27^2)</f>
         <v>6.8359375E-3</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <f>(B28^3 - 3*B28^2 - B28) - (B27^3 - 3*B27^2 - B27)</f>
         <v>-9.0179443359375E-2</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="6">
         <f>SUM(H27:H28)</f>
         <v>6.8359000000000007E-3</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="6">
         <f>SUM(I27:I28)</f>
         <v>-9.0178999999999995E-2</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>3.5807E-3</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>-4.4791999999999998E-2</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="7">
         <f>(F27-C27)/F27</f>
         <v>-5.485744378844572E-6</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="7">
         <f>(G27-D27)/G27</f>
         <v>-4.9164370308467161E-6</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="1">
         <v>0.40625</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="4">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="3">
         <v>3.2552000000000002E-3</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>-4.5386999999999997E-2</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>0.40625</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="6">
         <f>(B30-B30^2)-(B29-B29^2)</f>
         <v>4.8828125E-3</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <f>(B30^3 - 3*B30^2 - B30) - (B29^3 - 3*B29^2 - B29)</f>
         <v>-9.3658447265625E-2</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <f>SUM(H29:H30)</f>
         <v>4.8827999999999996E-3</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="6">
         <f>SUM(I29:I30)</f>
         <v>-9.3658999999999992E-2</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>2.6042000000000001E-3</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>-4.6546999999999998E-2</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="7">
         <f>(F29-C29)/F29</f>
         <v>-2.560006553690392E-6</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="7">
         <f>(G29-D29)/G29</f>
         <v>5.9015617825543585E-6</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="1">
         <v>0.4375</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="4">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="3">
         <v>2.2786E-3</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>-4.7112000000000001E-2</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="1">
         <v>0.4375</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="6">
         <f>(B32-B32^2)-(B31-B31^2)</f>
         <v>2.9296875E-3</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="6">
         <f>(B32^3 - 3*B32^2 - B32) - (B31^3 - 3*B31^2 - B31)</f>
         <v>-9.6954345703125E-2</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="6">
         <f>SUM(H31:H32)</f>
         <v>2.9297000000000004E-3</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="6">
         <f>SUM(I31:I32)</f>
         <v>-9.6954000000000012E-2</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>1.6276000000000001E-3</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>-4.8210000000000003E-2</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="7">
         <f>(F31-C31)/F31</f>
         <v>4.2666484624225837E-6</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="7">
         <f>(G31-D31)/G31</f>
         <v>-3.5656406645172588E-6</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="1">
         <v>0.46875</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="4">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="3">
         <v>1.3021E-3</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>-4.8744000000000003E-2</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="1">
         <v>0.46875</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="6">
         <f>(B34-B34^2)-(B33-B33^2)</f>
         <v>9.765625E-4</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="6">
         <f>(B34^3 - 3*B34^2 - B34) - (B33^3 - 3*B33^2 - B33)</f>
         <v>-0.100067138671875</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="6">
         <f>SUM(H33:H34)</f>
         <v>9.7656000000000001E-4</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="6">
         <f>SUM(I33:I34)</f>
         <v>-0.100067</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>6.5103999999999997E-4</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>-4.9782E-2</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="7">
         <f>(F33-C33)/F33</f>
         <v>-2.5600065536015738E-6</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="7">
         <f>(G33-D33)/G33</f>
         <v>-1.3857902704870922E-6</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="1">
         <v>0.5</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="4">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="3">
         <v>3.2551999999999999E-4</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>-5.0285000000000003E-2</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="1">
         <v>0.5</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="6">
         <f>(B36-B36^2)-(B35-B35^2)</f>
         <v>-9.765625E-4</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="6">
         <f>(B36^3 - 3*B36^2 - B36) - (B35^3 - 3*B35^2 - B35)</f>
         <v>-0.102996826171875</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="6">
         <f>SUM(H35:H36)</f>
         <v>-9.7656000000000001E-4</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="6">
         <f>SUM(I35:I36)</f>
         <v>-0.10299700000000001</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>-3.2551999999999999E-4</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>-5.1262000000000002E-2</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="7">
         <f>(F35-C35)/F35</f>
         <v>-2.5600065536015738E-6</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="7">
         <f>(G35-D35)/G35</f>
         <v>1.6877008554153555E-6</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="1">
         <v>0.53125</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="4">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="3">
         <v>-6.5103999999999997E-4</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>-5.1735000000000003E-2</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="1">
         <v>0.53125</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="6">
         <f>(B38-B38^2)-(B37-B37^2)</f>
         <v>-2.9296875E-3</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="6">
         <f>(B38^3 - 3*B38^2 - B38) - (B37^3 - 3*B37^2 - B37)</f>
         <v>-0.105743408203125</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="6">
         <f>SUM(H37:H38)</f>
         <v>-2.9297000000000004E-3</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="6">
         <f>SUM(I37:I38)</f>
         <v>-0.105743</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>-1.3021E-3</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>-5.2650000000000002E-2</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="7">
         <f>(F37-C37)/F37</f>
         <v>4.2666484624225837E-6</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="7">
         <f>(G37-D37)/G37</f>
         <v>-3.8603323623912924E-6</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="1">
         <v>0.5625</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="4">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="3">
         <v>-1.6276000000000001E-3</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>-5.3093000000000001E-2</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="1">
         <v>0.5625</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="6">
         <f>(B40-B40^2)-(B39-B39^2)</f>
         <v>-4.8828125E-3</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="6">
         <f>(B40^3 - 3*B40^2 - B40) - (B39^3 - 3*B39^2 - B39)</f>
         <v>-0.108306884765625</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="6">
         <f>SUM(H39:H40)</f>
         <v>-4.8827999999999996E-3</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="6">
         <f>SUM(I39:I40)</f>
         <v>-0.108306</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <v>-2.2786E-3</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>-5.3947000000000002E-2</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="7">
         <f>(F39-C39)/F39</f>
         <v>-2.560006553690392E-6</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="7">
         <f>(G39-D39)/G39</f>
         <v>-8.1691284416422479E-6</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="1">
         <v>0.59375</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="4">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="3">
         <v>-2.6042000000000001E-3</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>-5.4358999999999998E-2</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="1">
         <v>0.59375</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="6">
         <f>(B42-B42^2)-(B41-B41^2)</f>
         <v>-6.8359375E-3</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="6">
         <f>(B42^3 - 3*B42^2 - B42) - (B41^3 - 3*B41^2 - B41)</f>
         <v>-0.110687255859375</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="6">
         <f>SUM(H41:H42)</f>
         <v>-6.8359000000000007E-3</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="6">
         <f>SUM(I41:I42)</f>
         <v>-0.11068700000000001</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <v>-3.2552000000000002E-3</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>-5.5153000000000001E-2</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="7">
         <f>(F41-C41)/F41</f>
         <v>-5.485744378844572E-6</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="7">
         <f>(G41-D41)/G41</f>
         <v>-2.3115575902535565E-6</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="1">
         <v>0.625</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="4">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="3">
         <v>-3.5807E-3</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>-5.5534E-2</v>
       </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="1">
         <v>0.625</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="6">
         <f>(B44-B44^2)-(B43-B43^2)</f>
         <v>-8.7890625E-3</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="6">
         <f>(B44^3 - 3*B44^2 - B44) - (B43^3 - 3*B43^2 - B43)</f>
         <v>-0.112884521484375</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="6">
         <f>SUM(H43:H44)</f>
         <v>-8.7891000000000011E-3</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="6">
         <f>SUM(I43:I44)</f>
         <v>-0.112885</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <v>-4.2318E-3</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>-5.6266999999999998E-2</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="7">
         <f>(F43-C43)/F43</f>
         <v>4.2666484624225837E-6</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="7">
         <f>(G43-D43)/G43</f>
         <v>4.2389655401446761E-6</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1">
         <v>0.65625</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="4">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="3">
         <v>-4.5573000000000002E-3</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>-5.6618000000000002E-2</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="1">
         <v>0.65625</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="6">
         <f>(B46-B46^2)-(B45-B45^2)</f>
         <v>-1.07421875E-2</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="6">
         <f>(B46^3 - 3*B46^2 - B46) - (B45^3 - 3*B45^2 - B45)</f>
         <v>-0.114898681640625</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="6">
         <f>SUM(H45:H46)</f>
         <v>-1.07422E-2</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="6">
         <f>SUM(I45:I46)</f>
         <v>-0.114899</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3">
         <v>-5.2082999999999999E-3</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>-5.7289E-2</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="7">
         <f>(F45-C45)/F45</f>
         <v>1.1636350096218135E-6</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="7">
         <f>(G45-D45)/G45</f>
         <v>2.7707758553262563E-6</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="1">
         <v>0.6875</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="4">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="3">
         <v>-5.5338999999999996E-3</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="3">
         <v>-5.7610000000000001E-2</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="1">
         <v>0.6875</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="6">
         <f>(B48-B48^2)-(B47-B47^2)</f>
         <v>-1.26953125E-2</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="6">
         <f>(B48^3 - 3*B48^2 - B48) - (B47^3 - 3*B47^2 - B47)</f>
         <v>-0.116729736328125</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="6">
         <f>SUM(H47:H48)</f>
         <v>-1.26953E-2</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="6">
         <f>SUM(I47:I48)</f>
         <v>-0.11673</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <v>-6.1849000000000001E-3</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="3">
         <v>-5.8220000000000001E-2</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="7">
         <f>(F47-C47)/F47</f>
         <v>-9.8461635411210809E-7</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="7">
         <f>(G47-D47)/G47</f>
         <v>2.2588184271432052E-6</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="1">
         <v>0.71875</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="4">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="3">
         <v>-6.5104000000000004E-3</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="3">
         <v>-5.851E-2</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="1">
         <v>0.71875</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="6">
         <f>(B50-B50^2)-(B49-B49^2)</f>
         <v>-1.46484375E-2</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="6">
         <f>(B50^3 - 3*B50^2 - B50) - (B49^3 - 3*B49^2 - B49)</f>
         <v>-0.118377685546875</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="6">
         <f>SUM(H49:H50)</f>
         <v>-1.46485E-2</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="6">
         <f>SUM(I49:I50)</f>
         <v>-0.118378</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <v>-7.1615000000000003E-3</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>-5.9059E-2</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="7">
         <f>(F49-C49)/F49</f>
         <v>4.2666484623041608E-6</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="7">
         <f>(G49-D49)/G49</f>
         <v>2.6563476743745976E-6</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="1">
         <v>0.75</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="4">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="3">
         <v>-7.4869999999999997E-3</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="3">
         <v>-5.9318999999999997E-2</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="1">
         <v>0.75</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="6">
         <f>(B52-B52^2)-(B51-B51^2)</f>
         <v>-1.66015625E-2</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="6">
         <f>(B52^3 - 3*B52^2 - B52) - (B51^3 - 3*B51^2 - B51)</f>
         <v>-0.119842529296875</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="6">
         <f>SUM(H51:H52)</f>
         <v>-1.6601499999999998E-2</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="6">
         <f>SUM(I51:I52)</f>
         <v>-0.11984300000000001</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <v>-8.1379999999999994E-3</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="3">
         <v>-5.9806999999999999E-2</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="7">
         <f>(F51-C51)/F51</f>
         <v>-3.7647200555249365E-6</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="7">
         <f>(G51-D51)/G51</f>
         <v>3.927664736405786E-6</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="1">
         <v>0.78125</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="4">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="3">
         <v>-8.4635000000000005E-3</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="3">
         <v>-6.0035999999999999E-2</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="1">
         <v>0.78125</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="6">
         <f>(B54-B54^2)-(B53-B53^2)</f>
         <v>-1.85546875E-2</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="6">
         <f>(B54^3 - 3*B54^2 - B54) - (B53^3 - 3*B53^2 - B53)</f>
         <v>-0.121124267578125</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="6">
         <f>SUM(H53:H54)</f>
         <v>-1.85547E-2</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="6">
         <f>SUM(I53:I54)</f>
         <v>-0.12112400000000001</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <v>-9.1146000000000005E-3</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="3">
         <v>-6.0463000000000003E-2</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="7">
         <f>(F53-C53)/F53</f>
         <v>6.7368375669557822E-7</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="7">
         <f>(G53-D53)/G53</f>
         <v>-2.2091255654582411E-6</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="1">
         <v>0.8125</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="4">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="3">
         <v>-9.4400999999999999E-3</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="3">
         <v>-6.0661E-2</v>
       </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="1">
         <v>0.8125</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="6">
         <f>(B56-B56^2)-(B55-B55^2)</f>
         <v>-2.05078125E-2</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="6">
         <f>(B56^3 - 3*B56^2 - B56) - (B55^3 - 3*B55^2 - B55)</f>
         <v>-0.122222900390625</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="6">
         <f>SUM(H55:H56)</f>
         <v>-2.0507999999999998E-2</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="6">
         <f>SUM(I55:I56)</f>
         <v>-0.122223</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <v>-1.0090999999999999E-2</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="3">
         <v>-6.1027999999999999E-2</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="7">
         <f>(F55-C55)/F55</f>
         <v>9.142773551709226E-6</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L55" s="7">
         <f>(G55-D55)/G55</f>
         <v>8.1498060920048338E-7</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="1">
         <v>0.84375</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="4">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="3">
         <v>-1.0416999999999999E-2</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="3">
         <v>-6.1194999999999999E-2</v>
       </c>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="1">
         <v>0.84375</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="6">
         <f>(B58-B58^2)-(B57-B57^2)</f>
         <v>-2.24609375E-2</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="6">
         <f>(B58^3 - 3*B58^2 - B58) - (B57^3 - 3*B57^2 - B57)</f>
         <v>-0.123138427734375</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="6">
         <f>SUM(H57:H58)</f>
         <v>-2.2461000000000002E-2</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="6">
         <f>SUM(I57:I58)</f>
         <v>-0.123139</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="3">
         <v>-1.1068E-2</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="3">
         <v>-6.1501E-2</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="7">
         <f>(F57-C57)/F57</f>
         <v>2.7826009528425817E-6</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L57" s="7">
         <f>(G57-D57)/G57</f>
         <v>4.6473142140057832E-6</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="1">
         <v>0.875</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="4">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="3">
         <v>-1.1393E-2</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="3">
         <v>-6.1637999999999998E-2</v>
       </c>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="1">
         <v>0.875</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="6">
         <f>(B60-B60^2)-(B59-B59^2)</f>
         <v>-2.44140625E-2</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="6">
         <f>(B60^3 - 3*B60^2 - B60) - (B59^3 - 3*B59^2 - B59)</f>
         <v>-0.123870849609375</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="6">
         <f>SUM(H59:H60)</f>
         <v>-2.4413999999999998E-2</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="6">
         <f>SUM(I59:I60)</f>
         <v>-0.12387100000000001</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="3">
         <v>-1.2043999999999999E-2</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="3">
         <v>-6.1882E-2</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59" s="7">
         <f>(F59-C59)/F59</f>
         <v>-2.560006553690392E-6</v>
       </c>
-      <c r="L59" s="9">
+      <c r="L59" s="7">
         <f>(G59-D59)/G59</f>
         <v>1.2140906669751454E-6</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="1">
         <v>0.90625</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="4">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="3">
         <v>-1.2370000000000001E-2</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="3">
         <v>-6.1989000000000002E-2</v>
       </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="1">
         <v>0.90625</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="6">
         <f>(B62-B62^2)-(B61-B61^2)</f>
         <v>-2.63671875E-2</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="6">
         <f>(B62^3 - 3*B62^2 - B62) - (B61^3 - 3*B61^2 - B61)</f>
         <v>-0.124420166015625</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="6">
         <f>SUM(H61:H62)</f>
         <v>-2.6367000000000002E-2</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="6">
         <f>SUM(I61:I62)</f>
         <v>-0.12442</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="3">
         <v>-1.3021E-2</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="3">
         <v>-6.2171999999999998E-2</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="7">
         <f>(F61-C61)/F61</f>
         <v>-7.1111616793132618E-6</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L61" s="7">
         <f>(G61-D61)/G61</f>
         <v>-1.3343162272720178E-6</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="1">
         <v>0.9375</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="4">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="3">
         <v>-1.3346E-2</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="3">
         <v>-6.2247999999999998E-2</v>
       </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="1">
         <v>0.9375</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="6">
         <f>(B64-B64^2)-(B63-B63^2)</f>
         <v>-2.83203125E-2</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="6">
         <f>(B64^3 - 3*B64^2 - B64) - (B63^3 - 3*B63^2 - B63)</f>
         <v>-0.124786376953125</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="6">
         <f>SUM(H63:H64)</f>
         <v>-2.8320000000000001E-2</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="6">
         <f>SUM(I63:I64)</f>
         <v>-0.12478600000000001</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="3">
         <v>-1.3997000000000001E-2</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="3">
         <v>-6.2370000000000002E-2</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="7">
         <f>(F63-C63)/F63</f>
         <v>-1.1034604519723792E-5</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L63" s="7">
         <f>(G63-D63)/G63</f>
         <v>-3.0207966037213663E-6</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
+      <c r="A64" s="5"/>
       <c r="B64" s="1">
         <v>0.96875</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="4">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="3">
         <v>-1.4323000000000001E-2</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="3">
         <v>-6.2415999999999999E-2</v>
       </c>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="1">
         <v>0.96875</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="6">
         <f>(B66-B66^2)-(B65-B65^2)</f>
         <v>-3.02734375E-2</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="6">
         <f>(B66^3 - 3*B66^2 - B66) - (B65^3 - 3*B65^2 - B65)</f>
         <v>-0.124969482421875</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="6">
         <f>SUM(H65:H66)</f>
         <v>-3.0273000000000001E-2</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="6">
         <f>SUM(I65:I66)</f>
         <v>-0.124969</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <v>-1.4973999999999999E-2</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="3">
         <v>-6.2476999999999998E-2</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="7">
         <f>(F65-C65)/F65</f>
         <v>-1.4451821755316711E-5</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L65" s="7">
         <f>(G65-D65)/G65</f>
         <v>-3.8603323624518654E-6</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
+      <c r="A66" s="5"/>
       <c r="B66" s="1">
         <v>1</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="4">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="3">
         <v>-1.5299E-2</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="3">
         <v>-6.2491999999999999E-2</v>
       </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="225">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A61:A62"/>
@@ -13998,180 +13945,33 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/c++/PETSc_Tests/NonLinear-Verification.xlsx
+++ b/c++/PETSc_Tests/NonLinear-Verification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyalberti/Documents/projects/Fctn_Src/c++/PETSc_Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78705516-9BEF-0440-AC54-5764E727EF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E93C48B-7AB8-3547-AA1E-3F3B0BED9E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="460" windowWidth="26620" windowHeight="17540" xr2:uid="{A64FA9E8-8B1C-4A42-B432-8621287DF68E}"/>
   </bookViews>
@@ -8975,8 +8975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C1D7F-C241-6C4B-A1E9-89DBFAC3176A}">
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/c++/PETSc_Tests/NonLinear-Verification.xlsx
+++ b/c++/PETSc_Tests/NonLinear-Verification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyalberti/Documents/projects/Fctn_Src/c++/PETSc_Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E93C48B-7AB8-3547-AA1E-3F3B0BED9E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D474C3-CF61-CB45-AF1C-E0C2896790F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="460" windowWidth="26620" windowHeight="17540" xr2:uid="{A64FA9E8-8B1C-4A42-B432-8621287DF68E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Velocity</t>
   </si>
@@ -204,6 +204,9 @@
   <si>
     <t>Conservation of Mass</t>
   </si>
+  <si>
+    <t>Conservation of Momentum</t>
+  </si>
 </sst>
 </file>
 
@@ -349,22 +352,26 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -373,14 +380,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1279,7 +1282,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1650,10 +1653,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Discretization Residual Check'!$W$3:$W$25</c:f>
+              <c:f>'Discretization Residual Check'!$W$3:$W$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0" formatCode="0.0000E+00">
                   <c:v>1.4973958333333481E-2</c:v>
                 </c:pt>
@@ -1722,6 +1725,33 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-6.5104166666665186E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.4869791666665186E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.4635416666665186E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9.4401041666665186E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.0416666666666519E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1393229166666519E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2369791666666519E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3346354166666519E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.4322916666666519E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.5299479166666519E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,10 +1876,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Discretization Residual Check'!$X$3:$X$25</c:f>
+              <c:f>'Discretization Residual Check'!$X$3:$X$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.4973999999999999E-2</c:v>
                 </c:pt>
@@ -1918,6 +1948,33 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-6.5104000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.4869999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.4635000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9.4400999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.0416999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1393E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2370000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3346E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.4323000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.5299E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,10 +2113,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Discretization Residual Check'!$Y$3:$Y$25</c:f>
+              <c:f>'Discretization Residual Check'!$Y$3:$Y$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>4.1666666518100359E-8</c:v>
                 </c:pt>
@@ -2128,6 +2185,33 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.6666666518248829E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0833333481094785E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1666666518100359E-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1666665187567453E-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3333333348053995E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2916666651828788E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0833333348214966E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5416666651841289E-7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.3333333482024652E-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.791666665185379E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,7 +2311,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="291876927"/>
-        <c:crossesAt val="-1.0000000000000002E-2"/>
+        <c:crossesAt val="-2.0000000000000004E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -2269,7 +2353,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2457,6 +2541,2170 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Momentum - Left Node</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LHS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AA$3:$AA$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2.2204E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AB$3:$AB$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.9990310668945312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9824701944986982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9709930419921875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9541244506835938</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.932047526041667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9049453735351562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8730010986328125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8363978068033857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.795318603515625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7499465942382812</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7004648844401045</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6470565795898438</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.58990478515625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5291926066080732</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4651031494140625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3978195190429688</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.327524820963542</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2544021606445312</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1786346435546875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1004053751627607</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0198974609375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9372940063476562</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.852778116861979</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7665328979492188</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.678741455078125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5895868937174478</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4992523193359375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4079208374023438</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3157755533854165</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2229995727539062</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1297760009765625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0362879435221353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2795-6647-B494-053FCBF709A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RHS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AA$3:$AA$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2.2204E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AC$3:$AC$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.983406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.977653830078125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9663163906249999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9495777871093751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9276201249999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9006275097656249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8687820468749998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8322678417968752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7912669999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7459636269531251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6965408281249998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6431807089843748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5860673749999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5253829316406251</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4613114843749999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.394035138671875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3237380000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2506031738281251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.174812765625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0965498808593752</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0159986249999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9333421035156251</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8487624218750001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.762443685546875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6745679999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5853194707031251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4948802031250001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4034343027343752</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3111648749999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2182540253906251</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.124885859375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0312424824218751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2795-6647-B494-053FCBF709A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="331859295"/>
+        <c:axId val="291876927"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Abs. Diff.</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AA$3:$AA$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2.2204E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AD$3:$AD$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.5625066894531248E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8163644205732048E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6766513671876453E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5466635742186234E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4274010416671672E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3178637695313604E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2190517578126752E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1299650065105276E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0516035156250574E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9829672851561249E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9240563151046182E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8758706054689007E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.837410156250165E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8096749674481067E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7916650390625861E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7843803710937429E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7868209635418815E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7989868164061136E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8218779296874672E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8554943033854983E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.898835937500067E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9519028320311733E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0156949869789571E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0892124023437226E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1734550781251656E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2674230143227021E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3721162109373601E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4865346679685558E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6106783854167332E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.745547363281144E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8901416015625365E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0454611002601624E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2795-6647-B494-053FCBF709A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="333549327"/>
+        <c:axId val="330165391"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="331859295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> position</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291876927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="291876927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>LHS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> &amp; RHS Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331859295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="330165391"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Absolute</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Difference</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333549327"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="333549327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="330165391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7164245022573078"/>
+          <c:y val="0.14309309621257763"/>
+          <c:w val="0.11987384456095217"/>
+          <c:h val="0.16229717657324497"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Momentum - Right Node</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LHS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AF$3:$AF$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AG$3:$AG$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-1.93023681640625E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0551961263017873E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4637451171875E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5367431640625E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4750162760419627E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.82232666015625E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.0882568359375E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.2728068033857127E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.03759765625E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.239776611328125E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.4338175455729463E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.619720458984375E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7974853515625E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.9671122233073213E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.12860107421875E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.281951904296875E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4271647135416963E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.564239501953125E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.69317626953125E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.8139750162760713E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.9266357421875E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.031158447265625E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.1275431315104019E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.215789794921875E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.2958984375E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.3678690592447769E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.43170166015625E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.487396240234375E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.5349527994791519E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.574371337890625E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.60565185546875E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.6287943522135269E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2795-6647-B494-053FCBF709A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RHS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AF$3:$AF$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AH$3:$AH$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-1.7555000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0378E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.3109000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.5749000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8296999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.0754E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.3119000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.5393000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.7574999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.9664999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.1664E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.3570999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.5386999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.7112000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.8744000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.0285000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.1735000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.3093000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.4358999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.5534E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.6618000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.7610000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.851E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.9318999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.0035999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-6.0661E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.1194999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.1637999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.1989000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.2247999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6.2415999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.2491999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2795-6647-B494-053FCBF709A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="331859295"/>
+        <c:axId val="291876927"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Abs. Diff.</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AF$3:$AF$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Discretization Residual Check'!$AI$3:$AI$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.5624763183593751E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6433196126301788E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6572745117187501E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6702674316406251E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6821983723958037E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.693167333984375E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7030743164062503E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7120193196614288E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7199023437499997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7267233886718749E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7325824544270537E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7373795410156249E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7412146484374997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7440877766926788E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7457989257812503E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7465480957031253E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.746335286458304E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7450604980468751E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7427237304687498E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7394249837239287E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7351642578125002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7298415527343751E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7234568684895981E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7161102050781247E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.7077015624999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6982309407552231E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6877983398437499E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6764037597656248E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6639472005208484E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6504286621093748E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6359481445312499E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.620405647786473E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2795-6647-B494-053FCBF709A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="333549327"/>
+        <c:axId val="330165391"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="331859295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> position</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291876927"/>
+        <c:crossesAt val="-1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="291876927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>LHS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> &amp; RHS Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331859295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="330165391"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Absolute</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Difference</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333549327"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="333549327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="330165391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7164245022573078"/>
+          <c:y val="0.14309309621257763"/>
+          <c:w val="0.11987384456095217"/>
+          <c:h val="0.16229717657324497"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4535,7 +6783,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5675,7 +7923,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8482,15 +10730,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>279399</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>465666</xdr:colOff>
+      <xdr:colOff>414866</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8520,15 +10768,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>622299</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>808566</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8550,6 +10798,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05203532-0183-3642-9793-3A3237D50F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECE09B6-A249-8C4E-B713-B39303EF00F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8975,8 +11299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C1D7F-C241-6C4B-A1E9-89DBFAC3176A}">
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="V20" workbookViewId="0">
+      <selection activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8996,16 +11320,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="13"/>
       <c r="F1" s="25" t="s">
         <v>52</v>
@@ -9023,34 +11347,34 @@
         <v>50</v>
       </c>
       <c r="O1" s="25"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="34" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
     </row>
     <row r="2" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
@@ -9084,61 +11408,61 @@
       <c r="O2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="X2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33" t="s">
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AD2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33" t="s">
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AH2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -9214,14 +11538,30 @@
       <c r="AA3" s="12">
         <v>2.2204E-16</v>
       </c>
-      <c r="AB3" s="11"/>
+      <c r="AB3">
+        <v>3.9990310668945312</v>
+      </c>
+      <c r="AC3">
+        <v>3.983406</v>
+      </c>
+      <c r="AD3">
+        <v>1.5625066894531248E-2</v>
+      </c>
       <c r="AF3" s="21">
         <v>3.125E-2</v>
       </c>
-      <c r="AG3" s="22"/>
+      <c r="AG3">
+        <v>-1.93023681640625E-3</v>
+      </c>
+      <c r="AH3">
+        <v>-1.7555000000000001E-2</v>
+      </c>
+      <c r="AI3">
+        <v>1.5624763183593751E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="18">
         <v>3.125E-2</v>
       </c>
@@ -9295,13 +11635,30 @@
       <c r="AA4" s="21">
         <v>3.125E-2</v>
       </c>
-      <c r="AB4" s="11"/>
+      <c r="AB4">
+        <v>3.9824701944986982</v>
+      </c>
+      <c r="AC4">
+        <v>3.977653830078125</v>
+      </c>
+      <c r="AD4">
+        <v>4.8163644205732048E-3</v>
+      </c>
       <c r="AF4" s="12">
         <v>6.25E-2</v>
       </c>
+      <c r="AG4">
+        <v>6.0551961263017873E-3</v>
+      </c>
+      <c r="AH4">
+        <v>-2.0378E-2</v>
+      </c>
+      <c r="AI4">
+        <v>2.6433196126301788E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
       <c r="B5" s="21">
@@ -9377,12 +11734,30 @@
       <c r="AA5" s="12">
         <v>6.25E-2</v>
       </c>
+      <c r="AB5">
+        <v>3.9709930419921875</v>
+      </c>
+      <c r="AC5">
+        <v>3.9663163906249999</v>
+      </c>
+      <c r="AD5">
+        <v>4.6766513671876453E-3</v>
+      </c>
       <c r="AF5" s="12">
         <v>9.375E-2</v>
       </c>
+      <c r="AG5">
+        <v>3.4637451171875E-3</v>
+      </c>
+      <c r="AH5">
+        <v>-2.3109000000000001E-2</v>
+      </c>
+      <c r="AI5">
+        <v>2.6572745117187501E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="18">
         <v>6.25E-2</v>
       </c>
@@ -9456,12 +11831,30 @@
       <c r="AA6" s="12">
         <v>9.375E-2</v>
       </c>
+      <c r="AB6">
+        <v>3.9541244506835938</v>
+      </c>
+      <c r="AC6">
+        <v>3.9495777871093751</v>
+      </c>
+      <c r="AD6">
+        <v>4.5466635742186234E-3</v>
+      </c>
       <c r="AF6" s="12">
         <v>0.125</v>
       </c>
+      <c r="AG6">
+        <v>9.5367431640625E-4</v>
+      </c>
+      <c r="AH6">
+        <v>-2.5749000000000001E-2</v>
+      </c>
+      <c r="AI6">
+        <v>2.6702674316406251E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
       <c r="B7" s="8">
@@ -9537,12 +11930,30 @@
       <c r="AA7" s="12">
         <v>0.125</v>
       </c>
+      <c r="AB7">
+        <v>3.932047526041667</v>
+      </c>
+      <c r="AC7">
+        <v>3.9276201249999998</v>
+      </c>
+      <c r="AD7">
+        <v>4.4274010416671672E-3</v>
+      </c>
       <c r="AF7" s="12">
         <v>0.15625</v>
       </c>
+      <c r="AG7">
+        <v>-1.4750162760419627E-3</v>
+      </c>
+      <c r="AH7">
+        <v>-2.8296999999999999E-2</v>
+      </c>
+      <c r="AI7">
+        <v>2.6821983723958037E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="18">
         <v>9.375E-2</v>
       </c>
@@ -9616,12 +12027,30 @@
       <c r="AA8" s="12">
         <v>0.15625</v>
       </c>
+      <c r="AB8">
+        <v>3.9049453735351562</v>
+      </c>
+      <c r="AC8">
+        <v>3.9006275097656249</v>
+      </c>
+      <c r="AD8">
+        <v>4.3178637695313604E-3</v>
+      </c>
       <c r="AF8" s="12">
         <v>0.1875</v>
       </c>
+      <c r="AG8">
+        <v>-3.82232666015625E-3</v>
+      </c>
+      <c r="AH8">
+        <v>-3.0754E-2</v>
+      </c>
+      <c r="AI8">
+        <v>2.693167333984375E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>4</v>
       </c>
       <c r="B9" s="8">
@@ -9697,12 +12126,30 @@
       <c r="AA9" s="12">
         <v>0.1875</v>
       </c>
+      <c r="AB9">
+        <v>3.8730010986328125</v>
+      </c>
+      <c r="AC9">
+        <v>3.8687820468749998</v>
+      </c>
+      <c r="AD9">
+        <v>4.2190517578126752E-3</v>
+      </c>
       <c r="AF9" s="12">
         <v>0.21875</v>
       </c>
+      <c r="AG9">
+        <v>-6.0882568359375E-3</v>
+      </c>
+      <c r="AH9">
+        <v>-3.3119000000000003E-2</v>
+      </c>
+      <c r="AI9">
+        <v>2.7030743164062503E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="18">
         <v>0.125</v>
       </c>
@@ -9776,12 +12223,30 @@
       <c r="AA10" s="12">
         <v>0.21875</v>
       </c>
+      <c r="AB10">
+        <v>3.8363978068033857</v>
+      </c>
+      <c r="AC10">
+        <v>3.8322678417968752</v>
+      </c>
+      <c r="AD10">
+        <v>4.1299650065105276E-3</v>
+      </c>
       <c r="AF10" s="12">
         <v>0.25</v>
       </c>
+      <c r="AG10">
+        <v>-8.2728068033857127E-3</v>
+      </c>
+      <c r="AH10">
+        <v>-3.5393000000000001E-2</v>
+      </c>
+      <c r="AI10">
+        <v>2.7120193196614288E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="26">
         <v>5</v>
       </c>
       <c r="B11" s="8">
@@ -9857,12 +12322,30 @@
       <c r="AA11" s="12">
         <v>0.25</v>
       </c>
+      <c r="AB11">
+        <v>3.795318603515625</v>
+      </c>
+      <c r="AC11">
+        <v>3.7912669999999999</v>
+      </c>
+      <c r="AD11">
+        <v>4.0516035156250574E-3</v>
+      </c>
       <c r="AF11" s="12">
         <v>0.28125</v>
       </c>
+      <c r="AG11">
+        <v>-1.03759765625E-2</v>
+      </c>
+      <c r="AH11">
+        <v>-3.7574999999999997E-2</v>
+      </c>
+      <c r="AI11">
+        <v>2.7199023437499997E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="18">
         <v>0.15625</v>
       </c>
@@ -9936,12 +12419,30 @@
       <c r="AA12" s="12">
         <v>0.28125</v>
       </c>
+      <c r="AB12">
+        <v>3.7499465942382812</v>
+      </c>
+      <c r="AC12">
+        <v>3.7459636269531251</v>
+      </c>
+      <c r="AD12">
+        <v>3.9829672851561249E-3</v>
+      </c>
       <c r="AF12" s="12">
         <v>0.3125</v>
       </c>
+      <c r="AG12">
+        <v>-1.239776611328125E-2</v>
+      </c>
+      <c r="AH12">
+        <v>-3.9664999999999999E-2</v>
+      </c>
+      <c r="AI12">
+        <v>2.7267233886718749E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>6</v>
       </c>
       <c r="B13" s="8">
@@ -10017,12 +12518,30 @@
       <c r="AA13" s="12">
         <v>0.3125</v>
       </c>
+      <c r="AB13">
+        <v>3.7004648844401045</v>
+      </c>
+      <c r="AC13">
+        <v>3.6965408281249998</v>
+      </c>
+      <c r="AD13">
+        <v>3.9240563151046182E-3</v>
+      </c>
       <c r="AF13" s="21">
         <v>0.34375</v>
       </c>
+      <c r="AG13">
+        <v>-1.4338175455729463E-2</v>
+      </c>
+      <c r="AH13">
+        <v>-4.1664E-2</v>
+      </c>
+      <c r="AI13">
+        <v>2.7325824544270537E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="18">
         <v>0.1875</v>
       </c>
@@ -10096,12 +12615,30 @@
       <c r="AA14" s="21">
         <v>0.34375</v>
       </c>
+      <c r="AB14">
+        <v>3.6470565795898438</v>
+      </c>
+      <c r="AC14">
+        <v>3.6431807089843748</v>
+      </c>
+      <c r="AD14">
+        <v>3.8758706054689007E-3</v>
+      </c>
       <c r="AF14" s="12">
         <v>0.375</v>
       </c>
+      <c r="AG14">
+        <v>-1.619720458984375E-2</v>
+      </c>
+      <c r="AH14">
+        <v>-4.3570999999999999E-2</v>
+      </c>
+      <c r="AI14">
+        <v>2.7373795410156249E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="26">
         <v>7</v>
       </c>
       <c r="B15" s="8">
@@ -10177,12 +12714,30 @@
       <c r="AA15" s="12">
         <v>0.375</v>
       </c>
+      <c r="AB15">
+        <v>3.58990478515625</v>
+      </c>
+      <c r="AC15">
+        <v>3.5860673749999998</v>
+      </c>
+      <c r="AD15">
+        <v>3.837410156250165E-3</v>
+      </c>
       <c r="AF15" s="12">
         <v>0.40625</v>
       </c>
+      <c r="AG15">
+        <v>-1.7974853515625E-2</v>
+      </c>
+      <c r="AH15">
+        <v>-4.5386999999999997E-2</v>
+      </c>
+      <c r="AI15">
+        <v>2.7412146484374997E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="18">
         <v>0.21875</v>
       </c>
@@ -10256,12 +12811,30 @@
       <c r="AA16" s="12">
         <v>0.40625</v>
       </c>
+      <c r="AB16">
+        <v>3.5291926066080732</v>
+      </c>
+      <c r="AC16">
+        <v>3.5253829316406251</v>
+      </c>
+      <c r="AD16">
+        <v>3.8096749674481067E-3</v>
+      </c>
       <c r="AF16" s="12">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="AG16">
+        <v>-1.9671122233073213E-2</v>
+      </c>
+      <c r="AH16">
+        <v>-4.7112000000000001E-2</v>
+      </c>
+      <c r="AI16">
+        <v>2.7440877766926788E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
         <v>8</v>
       </c>
       <c r="B17" s="8">
@@ -10337,12 +12910,30 @@
       <c r="AA17" s="12">
         <v>0.4375</v>
       </c>
+      <c r="AB17">
+        <v>3.4651031494140625</v>
+      </c>
+      <c r="AC17">
+        <v>3.4613114843749999</v>
+      </c>
+      <c r="AD17">
+        <v>3.7916650390625861E-3</v>
+      </c>
       <c r="AF17" s="12">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="AG17">
+        <v>-2.12860107421875E-2</v>
+      </c>
+      <c r="AH17">
+        <v>-4.8744000000000003E-2</v>
+      </c>
+      <c r="AI17">
+        <v>2.7457989257812503E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" s="18">
         <v>0.25</v>
       </c>
@@ -10416,12 +13007,30 @@
       <c r="AA18" s="12">
         <v>0.46875</v>
       </c>
+      <c r="AB18">
+        <v>3.3978195190429688</v>
+      </c>
+      <c r="AC18">
+        <v>3.394035138671875</v>
+      </c>
+      <c r="AD18">
+        <v>3.7843803710937429E-3</v>
+      </c>
       <c r="AF18" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+      <c r="AG18">
+        <v>-2.281951904296875E-2</v>
+      </c>
+      <c r="AH18">
+        <v>-5.0285000000000003E-2</v>
+      </c>
+      <c r="AI18">
+        <v>2.7465480957031253E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
         <v>9</v>
       </c>
       <c r="B19" s="8">
@@ -10497,12 +13106,30 @@
       <c r="AA19" s="12">
         <v>0.5</v>
       </c>
+      <c r="AB19">
+        <v>3.327524820963542</v>
+      </c>
+      <c r="AC19">
+        <v>3.3237380000000001</v>
+      </c>
+      <c r="AD19">
+        <v>3.7868209635418815E-3</v>
+      </c>
       <c r="AF19" s="12">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="AG19">
+        <v>-2.4271647135416963E-2</v>
+      </c>
+      <c r="AH19">
+        <v>-5.1735000000000003E-2</v>
+      </c>
+      <c r="AI19">
+        <v>2.746335286458304E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" s="18">
         <v>0.28125</v>
       </c>
@@ -10576,12 +13203,30 @@
       <c r="AA20" s="12">
         <v>0.53125</v>
       </c>
+      <c r="AB20">
+        <v>3.2544021606445312</v>
+      </c>
+      <c r="AC20">
+        <v>3.2506031738281251</v>
+      </c>
+      <c r="AD20">
+        <v>3.7989868164061136E-3</v>
+      </c>
       <c r="AF20" s="12">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+      <c r="AG20">
+        <v>-2.564239501953125E-2</v>
+      </c>
+      <c r="AH20">
+        <v>-5.3093000000000001E-2</v>
+      </c>
+      <c r="AI20">
+        <v>2.7450604980468751E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21" s="26">
         <v>10</v>
       </c>
       <c r="B21" s="8">
@@ -10657,12 +13302,30 @@
       <c r="AA21" s="12">
         <v>0.5625</v>
       </c>
+      <c r="AB21">
+        <v>3.1786346435546875</v>
+      </c>
+      <c r="AC21">
+        <v>3.174812765625</v>
+      </c>
+      <c r="AD21">
+        <v>3.8218779296874672E-3</v>
+      </c>
       <c r="AF21" s="12">
         <v>0.59375</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="AG21">
+        <v>-2.69317626953125E-2</v>
+      </c>
+      <c r="AH21">
+        <v>-5.4358999999999998E-2</v>
+      </c>
+      <c r="AI21">
+        <v>2.7427237304687498E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
       <c r="B22" s="18">
         <v>0.3125</v>
       </c>
@@ -10736,12 +13399,30 @@
       <c r="AA22" s="12">
         <v>0.59375</v>
       </c>
+      <c r="AB22">
+        <v>3.1004053751627607</v>
+      </c>
+      <c r="AC22">
+        <v>3.0965498808593752</v>
+      </c>
+      <c r="AD22">
+        <v>3.8554943033854983E-3</v>
+      </c>
       <c r="AF22" s="12">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="AG22">
+        <v>-2.8139750162760713E-2</v>
+      </c>
+      <c r="AH22">
+        <v>-5.5534E-2</v>
+      </c>
+      <c r="AI22">
+        <v>2.7394249837239287E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
         <v>11</v>
       </c>
       <c r="B23" s="8">
@@ -10817,12 +13498,30 @@
       <c r="AA23" s="12">
         <v>0.625</v>
       </c>
+      <c r="AB23">
+        <v>3.0198974609375</v>
+      </c>
+      <c r="AC23">
+        <v>3.0159986249999999</v>
+      </c>
+      <c r="AD23">
+        <v>3.898835937500067E-3</v>
+      </c>
       <c r="AF23" s="12">
         <v>0.65625</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="AG23">
+        <v>-2.9266357421875E-2</v>
+      </c>
+      <c r="AH23">
+        <v>-5.6618000000000002E-2</v>
+      </c>
+      <c r="AI23">
+        <v>2.7351642578125002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
       <c r="B24" s="18">
         <v>0.34375</v>
       </c>
@@ -10896,12 +13595,30 @@
       <c r="AA24" s="12">
         <v>0.65625</v>
       </c>
+      <c r="AB24">
+        <v>2.9372940063476562</v>
+      </c>
+      <c r="AC24">
+        <v>2.9333421035156251</v>
+      </c>
+      <c r="AD24">
+        <v>3.9519028320311733E-3</v>
+      </c>
       <c r="AF24" s="12">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
+      <c r="AG24">
+        <v>-3.031158447265625E-2</v>
+      </c>
+      <c r="AH24">
+        <v>-5.7610000000000001E-2</v>
+      </c>
+      <c r="AI24">
+        <v>2.7298415527343751E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25" s="29">
         <v>12</v>
       </c>
       <c r="B25" s="21">
@@ -10977,12 +13694,30 @@
       <c r="AA25" s="12">
         <v>0.6875</v>
       </c>
+      <c r="AB25">
+        <v>2.852778116861979</v>
+      </c>
+      <c r="AC25">
+        <v>2.8487624218750001</v>
+      </c>
+      <c r="AD25">
+        <v>4.0156949869789571E-3</v>
+      </c>
       <c r="AF25" s="12">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
+      <c r="AG25">
+        <v>-3.1275431315104019E-2</v>
+      </c>
+      <c r="AH25">
+        <v>-5.851E-2</v>
+      </c>
+      <c r="AI25">
+        <v>2.7234568684895981E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
       <c r="B26" s="18">
         <v>0.375</v>
       </c>
@@ -11056,12 +13791,30 @@
       <c r="AA26" s="12">
         <v>0.71875</v>
       </c>
+      <c r="AB26">
+        <v>2.7665328979492188</v>
+      </c>
+      <c r="AC26">
+        <v>2.762443685546875</v>
+      </c>
+      <c r="AD26">
+        <v>4.0892124023437226E-3</v>
+      </c>
       <c r="AF26" s="12">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
+      <c r="AG26">
+        <v>-3.215789794921875E-2</v>
+      </c>
+      <c r="AH26">
+        <v>-5.9318999999999997E-2</v>
+      </c>
+      <c r="AI26">
+        <v>2.7161102050781247E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
         <v>13</v>
       </c>
       <c r="B27" s="8">
@@ -11137,12 +13890,30 @@
       <c r="AA27" s="12">
         <v>0.75</v>
       </c>
+      <c r="AB27">
+        <v>2.678741455078125</v>
+      </c>
+      <c r="AC27">
+        <v>2.6745679999999998</v>
+      </c>
+      <c r="AD27">
+        <v>4.1734550781251656E-3</v>
+      </c>
       <c r="AF27" s="12">
         <v>0.78125</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
+      <c r="AG27">
+        <v>-3.2958984375E-2</v>
+      </c>
+      <c r="AH27">
+        <v>-6.0035999999999999E-2</v>
+      </c>
+      <c r="AI27">
+        <v>2.7077015624999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
       <c r="B28" s="18">
         <v>0.40625</v>
       </c>
@@ -11216,12 +13987,30 @@
       <c r="AA28" s="12">
         <v>0.78125</v>
       </c>
+      <c r="AB28">
+        <v>2.5895868937174478</v>
+      </c>
+      <c r="AC28">
+        <v>2.5853194707031251</v>
+      </c>
+      <c r="AD28">
+        <v>4.2674230143227021E-3</v>
+      </c>
       <c r="AF28" s="12">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+      <c r="AG28">
+        <v>-3.3678690592447769E-2</v>
+      </c>
+      <c r="AH28">
+        <v>-6.0661E-2</v>
+      </c>
+      <c r="AI28">
+        <v>2.6982309407552231E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
         <v>14</v>
       </c>
       <c r="B29" s="8">
@@ -11297,12 +14086,30 @@
       <c r="AA29" s="12">
         <v>0.8125</v>
       </c>
+      <c r="AB29">
+        <v>2.4992523193359375</v>
+      </c>
+      <c r="AC29">
+        <v>2.4948802031250001</v>
+      </c>
+      <c r="AD29">
+        <v>4.3721162109373601E-3</v>
+      </c>
       <c r="AF29" s="12">
         <v>0.84375</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
+      <c r="AG29">
+        <v>-3.43170166015625E-2</v>
+      </c>
+      <c r="AH29">
+        <v>-6.1194999999999999E-2</v>
+      </c>
+      <c r="AI29">
+        <v>2.6877983398437499E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
       <c r="B30" s="18">
         <v>0.4375</v>
       </c>
@@ -11376,12 +14183,30 @@
       <c r="AA30" s="12">
         <v>0.84375</v>
       </c>
+      <c r="AB30">
+        <v>2.4079208374023438</v>
+      </c>
+      <c r="AC30">
+        <v>2.4034343027343752</v>
+      </c>
+      <c r="AD30">
+        <v>4.4865346679685558E-3</v>
+      </c>
       <c r="AF30" s="12">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
+      <c r="AG30">
+        <v>-3.487396240234375E-2</v>
+      </c>
+      <c r="AH30">
+        <v>-6.1637999999999998E-2</v>
+      </c>
+      <c r="AI30">
+        <v>2.6764037597656248E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A31" s="26">
         <v>15</v>
       </c>
       <c r="B31" s="8">
@@ -11457,12 +14282,30 @@
       <c r="AA31" s="12">
         <v>0.875</v>
       </c>
+      <c r="AB31">
+        <v>2.3157755533854165</v>
+      </c>
+      <c r="AC31">
+        <v>2.3111648749999998</v>
+      </c>
+      <c r="AD31">
+        <v>4.6106783854167332E-3</v>
+      </c>
       <c r="AF31" s="21">
         <v>0.90625</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
+      <c r="AG31">
+        <v>-3.5349527994791519E-2</v>
+      </c>
+      <c r="AH31">
+        <v>-6.1989000000000002E-2</v>
+      </c>
+      <c r="AI31">
+        <v>2.6639472005208484E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
       <c r="B32" s="18">
         <v>0.46875</v>
       </c>
@@ -11536,12 +14379,30 @@
       <c r="AA32" s="21">
         <v>0.90625</v>
       </c>
+      <c r="AB32">
+        <v>2.2229995727539062</v>
+      </c>
+      <c r="AC32">
+        <v>2.2182540253906251</v>
+      </c>
+      <c r="AD32">
+        <v>4.745547363281144E-3</v>
+      </c>
       <c r="AF32" s="12">
         <v>0.9375</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
+      <c r="AG32">
+        <v>-3.574371337890625E-2</v>
+      </c>
+      <c r="AH32">
+        <v>-6.2247999999999998E-2</v>
+      </c>
+      <c r="AI32">
+        <v>2.6504286621093748E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A33" s="26">
         <v>16</v>
       </c>
       <c r="B33" s="8">
@@ -11617,12 +14478,30 @@
       <c r="AA33" s="12">
         <v>0.9375</v>
       </c>
+      <c r="AB33">
+        <v>2.1297760009765625</v>
+      </c>
+      <c r="AC33">
+        <v>2.124885859375</v>
+      </c>
+      <c r="AD33">
+        <v>4.8901416015625365E-3</v>
+      </c>
       <c r="AF33" s="21">
         <v>0.96875</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
+      <c r="AG33">
+        <v>-3.60565185546875E-2</v>
+      </c>
+      <c r="AH33">
+        <v>-6.2415999999999999E-2</v>
+      </c>
+      <c r="AI33">
+        <v>2.6359481445312499E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
       <c r="B34" s="18">
         <v>0.5</v>
       </c>
@@ -11696,12 +14575,30 @@
       <c r="AA34" s="21">
         <v>0.96875</v>
       </c>
+      <c r="AB34">
+        <v>2.0362879435221353</v>
+      </c>
+      <c r="AC34">
+        <v>2.0312424824218751</v>
+      </c>
+      <c r="AD34">
+        <v>5.0454611002601624E-3</v>
+      </c>
       <c r="AF34" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
+      <c r="AG34">
+        <v>-3.6287943522135269E-2</v>
+      </c>
+      <c r="AH34">
+        <v>-6.2491999999999999E-2</v>
+      </c>
+      <c r="AI34">
+        <v>2.620405647786473E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
         <v>17</v>
       </c>
       <c r="B35" s="8">
@@ -11749,8 +14646,8 @@
         <v>-5.1262000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
       <c r="B36" s="18">
         <v>0.53125</v>
       </c>
@@ -11796,8 +14693,8 @@
         <v>-5.1735000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A37" s="28">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A37" s="26">
         <v>18</v>
       </c>
       <c r="B37" s="8">
@@ -11845,8 +14742,8 @@
         <v>-5.2650000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
       <c r="B38" s="18">
         <v>0.5625</v>
       </c>
@@ -11892,8 +14789,8 @@
         <v>-5.3093000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A39" s="28">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A39" s="26">
         <v>19</v>
       </c>
       <c r="B39" s="8">
@@ -11941,8 +14838,8 @@
         <v>-5.3947000000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
       <c r="B40" s="18">
         <v>0.59375</v>
       </c>
@@ -11988,8 +14885,8 @@
         <v>-5.4358999999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A41" s="26">
         <v>20</v>
       </c>
       <c r="B41" s="8">
@@ -12037,8 +14934,8 @@
         <v>-5.5153000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
       <c r="B42" s="18">
         <v>0.625</v>
       </c>
@@ -12084,8 +14981,8 @@
         <v>-5.5534E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="28">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A43" s="26">
         <v>21</v>
       </c>
       <c r="B43" s="8">
@@ -12133,8 +15030,8 @@
         <v>-5.6266999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
       <c r="B44" s="18">
         <v>0.65625</v>
       </c>
@@ -12180,8 +15077,8 @@
         <v>-5.6618000000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A45" s="26">
         <v>22</v>
       </c>
       <c r="B45" s="8">
@@ -12229,8 +15126,8 @@
         <v>-5.7289E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
       <c r="B46" s="18">
         <v>0.6875</v>
       </c>
@@ -12276,8 +15173,8 @@
         <v>-5.7610000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A47" s="28">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A47" s="26">
         <v>23</v>
       </c>
       <c r="B47" s="8">
@@ -12325,8 +15222,8 @@
         <v>-5.8220000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
       <c r="B48" s="18">
         <v>0.71875</v>
       </c>
@@ -12373,7 +15270,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="28">
+      <c r="A49" s="26">
         <v>24</v>
       </c>
       <c r="B49" s="8">
@@ -12422,7 +15319,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="18">
         <v>0.75</v>
       </c>
@@ -12469,7 +15366,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="28">
+      <c r="A51" s="26">
         <v>25</v>
       </c>
       <c r="B51" s="8">
@@ -12518,7 +15415,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="18">
         <v>0.78125</v>
       </c>
@@ -12565,7 +15462,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="28">
+      <c r="A53" s="26">
         <v>26</v>
       </c>
       <c r="B53" s="8">
@@ -12614,7 +15511,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="18">
         <v>0.8125</v>
       </c>
@@ -12661,7 +15558,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="28">
+      <c r="A55" s="26">
         <v>27</v>
       </c>
       <c r="B55" s="8">
@@ -12710,7 +15607,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="18">
         <v>0.84375</v>
       </c>
@@ -12757,7 +15654,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="28">
+      <c r="A57" s="26">
         <v>28</v>
       </c>
       <c r="B57" s="8">
@@ -12806,7 +15703,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="18">
         <v>0.875</v>
       </c>
@@ -12853,7 +15750,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="28">
+      <c r="A59" s="26">
         <v>29</v>
       </c>
       <c r="B59" s="8">
@@ -12902,7 +15799,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="18">
         <v>0.90625</v>
       </c>
@@ -12949,7 +15846,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="23">
+      <c r="A61" s="29">
         <v>30</v>
       </c>
       <c r="B61" s="21">
@@ -12998,7 +15895,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="18">
         <v>0.9375</v>
       </c>
@@ -13045,7 +15942,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="28">
+      <c r="A63" s="26">
         <v>31</v>
       </c>
       <c r="B63" s="8">
@@ -13094,7 +15991,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="18">
         <v>0.96875</v>
       </c>
@@ -13141,7 +16038,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="23">
+      <c r="A65" s="29">
         <v>32</v>
       </c>
       <c r="B65" s="21">
@@ -13190,7 +16087,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
+      <c r="A66" s="27"/>
       <c r="B66" s="18">
         <v>1</v>
       </c>
@@ -13238,30 +16135,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="AA1:AI1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="J1:L1"/>
@@ -13278,6 +16151,30 @@
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="AA1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13295,14 +16192,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -13319,7 +16216,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>0</v>
       </c>
       <c r="B4" s="1">
@@ -13339,7 +16236,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -13360,7 +16257,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>1</v>
       </c>
       <c r="B6" s="1">
@@ -13383,7 +16280,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="1">
         <v>6.25E-2</v>
       </c>
@@ -13404,7 +16301,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>2</v>
       </c>
       <c r="B8" s="1">
@@ -13427,7 +16324,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="1">
         <v>9.375E-2</v>
       </c>
@@ -13448,7 +16345,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
       <c r="B10" s="1">
@@ -13471,7 +16368,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="1">
         <v>0.125</v>
       </c>
@@ -13492,7 +16389,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="26">
         <v>4</v>
       </c>
       <c r="B12" s="1">
@@ -13515,7 +16412,7 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="1">
         <v>0.15625</v>
       </c>
@@ -13536,7 +16433,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="26">
         <v>5</v>
       </c>
       <c r="B14" s="1">
@@ -13559,7 +16456,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="1">
         <v>0.1875</v>
       </c>
@@ -13580,7 +16477,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="26">
         <v>6</v>
       </c>
       <c r="B16" s="1">
@@ -13603,7 +16500,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="1">
         <v>0.21875</v>
       </c>
@@ -13624,7 +16521,7 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>7</v>
       </c>
       <c r="B18" s="1">
@@ -13647,7 +16544,7 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="1">
         <v>0.25</v>
       </c>
@@ -13668,7 +16565,7 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>8</v>
       </c>
       <c r="B20" s="1">
@@ -13691,7 +16588,7 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="1">
         <v>0.28125</v>
       </c>
@@ -13712,7 +16609,7 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <v>9</v>
       </c>
       <c r="B22" s="1">
@@ -13735,7 +16632,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="1">
         <v>0.3125</v>
       </c>
@@ -13756,7 +16653,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+      <c r="A24" s="26">
         <v>10</v>
       </c>
       <c r="B24" s="1">
@@ -13779,7 +16676,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="1">
         <v>0.34375</v>
       </c>
@@ -13800,7 +16697,7 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="A26" s="26">
         <v>11</v>
       </c>
       <c r="B26" s="1">
@@ -13823,7 +16720,7 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="1">
         <v>0.375</v>
       </c>
@@ -13844,7 +16741,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+      <c r="A28" s="26">
         <v>12</v>
       </c>
       <c r="B28" s="1">
@@ -13867,7 +16764,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="1">
         <v>0.40625</v>
       </c>
@@ -13888,7 +16785,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+      <c r="A30" s="26">
         <v>13</v>
       </c>
       <c r="B30" s="1">
@@ -13911,7 +16808,7 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="1">
         <v>0.4375</v>
       </c>
@@ -13932,7 +16829,7 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
+      <c r="A32" s="26">
         <v>14</v>
       </c>
       <c r="B32" s="1">
@@ -13955,7 +16852,7 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="1">
         <v>0.46875</v>
       </c>
@@ -13976,7 +16873,7 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
+      <c r="A34" s="26">
         <v>15</v>
       </c>
       <c r="B34" s="1">
@@ -13999,7 +16896,7 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="1">
         <v>0.5</v>
       </c>
@@ -14020,7 +16917,7 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="28">
+      <c r="A36" s="26">
         <v>16</v>
       </c>
       <c r="B36" s="1">
@@ -14040,7 +16937,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="1">
         <v>0.53125</v>
       </c>
@@ -14058,7 +16955,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
+      <c r="A38" s="26">
         <v>17</v>
       </c>
       <c r="B38" s="1">
@@ -14078,7 +16975,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="1">
         <v>0.5625</v>
       </c>
@@ -14096,7 +16993,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+      <c r="A40" s="26">
         <v>18</v>
       </c>
       <c r="B40" s="1">
@@ -14116,7 +17013,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="1">
         <v>0.59375</v>
       </c>
@@ -14134,7 +17031,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="A42" s="26">
         <v>19</v>
       </c>
       <c r="B42" s="1">
@@ -14154,7 +17051,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="1">
         <v>0.625</v>
       </c>
@@ -14172,7 +17069,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="28">
+      <c r="A44" s="26">
         <v>20</v>
       </c>
       <c r="B44" s="1">
@@ -14192,7 +17089,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="1">
         <v>0.65625</v>
       </c>
@@ -14210,7 +17107,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="28">
+      <c r="A46" s="26">
         <v>21</v>
       </c>
       <c r="B46" s="1">
@@ -14230,7 +17127,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="1">
         <v>0.6875</v>
       </c>
@@ -14248,7 +17145,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="28">
+      <c r="A48" s="26">
         <v>22</v>
       </c>
       <c r="B48" s="1">
@@ -14268,7 +17165,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="1">
         <v>0.71875</v>
       </c>
@@ -14286,7 +17183,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="28">
+      <c r="A50" s="26">
         <v>23</v>
       </c>
       <c r="B50" s="1">
@@ -14306,7 +17203,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="1">
         <v>0.75</v>
       </c>
@@ -14324,7 +17221,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="28">
+      <c r="A52" s="26">
         <v>24</v>
       </c>
       <c r="B52" s="1">
@@ -14344,7 +17241,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="1">
         <v>0.78125</v>
       </c>
@@ -14362,7 +17259,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="28">
+      <c r="A54" s="26">
         <v>25</v>
       </c>
       <c r="B54" s="1">
@@ -14382,7 +17279,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="1">
         <v>0.8125</v>
       </c>
@@ -14400,7 +17297,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="28">
+      <c r="A56" s="26">
         <v>26</v>
       </c>
       <c r="B56" s="1">
@@ -14420,7 +17317,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="1">
         <v>0.84375</v>
       </c>
@@ -14438,7 +17335,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="28">
+      <c r="A58" s="26">
         <v>27</v>
       </c>
       <c r="B58" s="1">
@@ -14458,7 +17355,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="1">
         <v>0.875</v>
       </c>
@@ -14476,7 +17373,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="28">
+      <c r="A60" s="26">
         <v>28</v>
       </c>
       <c r="B60" s="1">
@@ -14496,7 +17393,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="1">
         <v>0.90625</v>
       </c>
@@ -14514,7 +17411,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="28">
+      <c r="A62" s="26">
         <v>29</v>
       </c>
       <c r="B62" s="1">
@@ -14534,7 +17431,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="1">
         <v>0.9375</v>
       </c>
@@ -14552,7 +17449,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="28">
+      <c r="A64" s="26">
         <v>30</v>
       </c>
       <c r="B64" s="1">
@@ -14572,7 +17469,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="1">
         <v>0.96875</v>
       </c>
@@ -14590,7 +17487,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="28">
+      <c r="A66" s="26">
         <v>31</v>
       </c>
       <c r="B66" s="1">
@@ -14610,7 +17507,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="1">
         <v>1</v>
       </c>
@@ -14629,31 +17526,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
@@ -14663,6 +17535,31 @@
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15804,14 +18701,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -15837,11 +18734,11 @@
       <c r="D4" s="1">
         <v>0.99989378200000001</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="32">
         <f>(B5-B5^2)-(B4-B4^2)</f>
         <v>3.0273437499999778E-2</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="32">
         <f>(B5^3 - 3*B5^2 - B5) - (B4^3 - 3*B4^2 - B4)</f>
         <v>-3.4149169921874778E-2</v>
       </c>
@@ -15867,11 +18764,11 @@
         <f t="shared" si="0"/>
         <v>-4.0517336919795216E-6</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="32">
         <f>SUM(H4:H5)</f>
         <v>3.02734337478201E-2</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="32">
         <f>SUM(I4:I5)</f>
         <v>-3.4149166303960143E-2</v>
       </c>
@@ -15886,8 +18783,8 @@
       <c r="D5" s="1">
         <v>1.03937601</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="H5" s="3">
         <f>(C5*D5) - (C4*D4)/3 - (C4*D5)/6 - (C5*D4)/6 - (C5*D5)/3</f>
         <v>1.4973957085598677E-2</v>
@@ -15910,8 +18807,8 @@
         <f t="shared" si="0"/>
         <v>1.330324289523486E-5</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
@@ -15923,11 +18820,11 @@
       <c r="D6" s="1">
         <v>1.03926074</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="32">
         <f>(B7-B7^2)-(B6-B6^2)</f>
         <v>2.83203125E-2</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="32">
         <f>(B7^3 - 3*B7^2 - B7) - (B6^3 - 3*B6^2 - B6)</f>
         <v>-3.9825439453125E-2</v>
       </c>
@@ -15953,11 +18850,11 @@
         <f t="shared" si="0"/>
         <v>1.6289613789983187E-5</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="32">
         <f>SUM(H6:H7)</f>
         <v>2.832031576436389E-2</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="32">
         <f>SUM(I6:I7)</f>
         <v>-3.9825441306060583E-2</v>
       </c>
@@ -15972,8 +18869,8 @@
       <c r="D7" s="1">
         <v>1.0794143700000001</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="H7" s="3">
         <f>(C7*D7) - (C6*D6)/3 - (C6*D7)/6 - (C7*D6)/6 - (C7*D7)/3</f>
         <v>1.3997391114904612E-2</v>
@@ -15996,8 +18893,8 @@
         <f t="shared" si="0"/>
         <v>6.1106065958216862E-6</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
@@ -16009,11 +18906,11 @@
       <c r="D8" s="1">
         <v>1.0792889400000001</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="32">
         <f>(B9-B9^2)-(B8-B8^2)</f>
         <v>2.63671875E-2</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="32">
         <f>(B9^3 - 3*B9^2 - B9) - (B8^3 - 3*B8^2 - B8)</f>
         <v>-4.5318603515625E-2</v>
       </c>
@@ -16039,11 +18936,11 @@
         <f t="shared" ref="O8:O32" si="2">(I8-L8)/L8</f>
         <v>7.382765604787595E-6</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="32">
         <f>SUM(H8:H9)</f>
         <v>2.6367188932577612E-2</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="32">
         <f>SUM(I8:I9)</f>
         <v>-4.5318601031899775E-2</v>
       </c>
@@ -16058,8 +18955,8 @@
       <c r="D9" s="1">
         <v>1.1201727800000001</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="H9" s="3">
         <f>(C9*D9) - (C8*D8)/3 - (C8*D9)/6 - (C9*D8)/6 - (C9*D9)/3</f>
         <v>1.302083300547785E-2</v>
@@ -16082,8 +18979,8 @@
         <f t="shared" si="2"/>
         <v>1.8913326342859521E-5</v>
       </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
@@ -16095,11 +18992,11 @@
       <c r="D10" s="1">
         <v>1.1200359499999999</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="32">
         <f>(B11-B11^2)-(B10-B10^2)</f>
         <v>2.44140625E-2</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="32">
         <f>(B11^3 - 3*B11^2 - B11) - (B10^3 - 3*B10^2 - B10)</f>
         <v>-5.0628662109375E-2</v>
       </c>
@@ -16125,11 +19022,11 @@
         <f t="shared" si="2"/>
         <v>1.8843722125889927E-5</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="32">
         <f>SUM(H10:H11)</f>
         <v>2.4414058435449082E-2</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="32">
         <f>SUM(I10:I11)</f>
         <v>-5.0628673585308093E-2</v>
       </c>
@@ -16144,8 +19041,8 @@
       <c r="D11" s="1">
         <v>1.16171596</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="H11" s="3">
         <f>(C11*D11) - (C10*D10)/3 - (C10*D11)/6 - (C11*D10)/6 - (C11*D11)/3</f>
         <v>1.2044271748984703E-2</v>
@@ -16168,8 +19065,8 @@
         <f t="shared" si="2"/>
         <v>7.9526329303386409E-6</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
@@ -16181,11 +19078,11 @@
       <c r="D12" s="1">
         <v>1.1615663199999999</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="32">
         <f>(B13-B13^2)-(B12-B12^2)</f>
         <v>2.24609375E-2</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="32">
         <f>(B13^3 - 3*B13^2 - B13) - (B12^3 - 3*B12^2 - B12)</f>
         <v>-5.5755615234375E-2</v>
       </c>
@@ -16211,11 +19108,11 @@
         <f t="shared" si="2"/>
         <v>7.401946400051564E-6</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="32">
         <f>SUM(H12:H13)</f>
         <v>2.2460931180492416E-2</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="32">
         <f>SUM(I12:I13)</f>
         <v>-5.5755640461196521E-2</v>
       </c>
@@ -16230,8 +19127,8 @@
       <c r="D13" s="1">
         <v>1.20411662</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
       <c r="H13" s="3">
         <f>(C13*D13) - (C12*D12)/3 - (C12*D13)/6 - (C13*D12)/6 - (C13*D13)/3</f>
         <v>1.106770268530155E-2</v>
@@ -16254,8 +19151,8 @@
         <f t="shared" si="2"/>
         <v>1.5451056729299838E-5</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
@@ -16267,11 +19164,11 @@
       <c r="D14" s="1">
         <v>1.20395253</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="32">
         <f>(B15-B15^2)-(B14-B14^2)</f>
         <v>2.05078125E-2</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="32">
         <f>(B15^3 - 3*B15^2 - B15) - (B14^3 - 3*B14^2 - B14)</f>
         <v>-6.0699462890625E-2</v>
       </c>
@@ -16297,11 +19194,11 @@
         <f t="shared" si="2"/>
         <v>1.1594659130139975E-5</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="32">
         <f>SUM(H14:H15)</f>
         <v>2.0507818305509407E-2</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="32">
         <f>SUM(I14:I15)</f>
         <v>-6.0699441940634813E-2</v>
       </c>
@@ -16316,8 +19213,8 @@
       <c r="D15" s="1">
         <v>1.24745661</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
       <c r="H15" s="3">
         <f>(C15*D15) - (C14*D14)/3 - (C14*D15)/6 - (C15*D14)/6 - (C15*D15)/3</f>
         <v>1.0091143303910033E-2</v>
@@ -16340,8 +19237,8 @@
         <f t="shared" si="2"/>
         <v>3.0805282942506433E-6</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
@@ -16353,11 +19250,11 @@
       <c r="D16" s="1">
         <v>1.24727619</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="32">
         <f>(B17-B17^2)-(B16-B16^2)</f>
         <v>1.85546875E-2</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="32">
         <f>(B17^3 - 3*B17^2 - B17) - (B16^3 - 3*B16^2 - B16)</f>
         <v>-6.5460205078125E-2</v>
       </c>
@@ -16383,11 +19280,11 @@
         <f t="shared" si="2"/>
         <v>1.9990591320036534E-7</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="32">
         <f>SUM(H16:H17)</f>
         <v>1.8554687039498141E-2</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="32">
         <f>SUM(I16:I17)</f>
         <v>-6.5460217075551608E-2</v>
       </c>
@@ -16402,8 +19299,8 @@
       <c r="D17" s="1">
         <v>1.2918283100000001</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
       <c r="H17" s="3">
         <f>(C17*D17) - (C16*D16)/3 - (C16*D17)/6 - (C17*D16)/6 - (C17*D17)/3</f>
         <v>9.1145832928619663E-3</v>
@@ -16426,8 +19323,8 @@
         <f t="shared" si="2"/>
         <v>6.3592014995811337E-6</v>
       </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -16439,11 +19336,11 @@
       <c r="D18" s="1">
         <v>1.29162939</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="32">
         <f>(B19-B19^2)-(B18-B18^2)</f>
         <v>1.66015625E-2</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="32">
         <f>(B19^3 - 3*B19^2 - B19) - (B18^3 - 3*B18^2 - B18)</f>
         <v>-7.0037841796875E-2</v>
       </c>
@@ -16469,11 +19366,11 @@
         <f t="shared" si="2"/>
         <v>2.3376092111298281E-6</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="32">
         <f>SUM(H18:H19)</f>
         <v>1.6601551523796498E-2</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="32">
         <f>SUM(I18:I19)</f>
         <v>-7.0037855446409392E-2</v>
       </c>
@@ -16488,8 +19385,8 @@
       <c r="D19" s="1">
         <v>1.33733624</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="H19" s="3">
         <f>(C19*D19) - (C18*D18)/3 - (C18*D19)/6 - (C19*D18)/6 - (C19*D19)/3</f>
         <v>8.1380141741541623E-3</v>
@@ -16512,8 +19409,8 @@
         <f t="shared" si="2"/>
         <v>-6.3724482731324762E-6</v>
       </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
@@ -16525,11 +19422,11 @@
       <c r="D20" s="1">
         <v>1.33711629</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="32">
         <f>(B21-B21^2)-(B20-B20^2)</f>
         <v>1.46484375E-2</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="32">
         <f>(B21^3 - 3*B21^2 - B21) - (B20^3 - 3*B20^2 - B20)</f>
         <v>-7.4432373046875E-2</v>
       </c>
@@ -16555,11 +19452,11 @@
         <f t="shared" si="2"/>
         <v>-1.0722518692633136E-5</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="32">
         <f>SUM(H20:H21)</f>
         <v>1.4648447740387649E-2</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="32">
         <f>SUM(I20:I21)</f>
         <v>-7.443235183266772E-2</v>
       </c>
@@ -16574,8 +19471,8 @@
       <c r="D21" s="1">
         <v>1.3840990799999999</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
       <c r="H21" s="3">
         <f>(C21*D21) - (C20*D20)/3 - (C20*D21)/6 - (C21*D20)/6 - (C21*D21)/3</f>
         <v>7.1614665219729146E-3</v>
@@ -16598,8 +19495,8 @@
         <f t="shared" si="2"/>
         <v>-6.7320489236415646E-6</v>
       </c>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
@@ -16611,11 +19508,11 @@
       <c r="D22" s="1">
         <v>1.3838551400000001</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="32">
         <f>(B23-B23^2)-(B22-B22^2)</f>
         <v>1.26953125E-2</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="32">
         <f>(B23^3 - 3*B23^2 - B23) - (B22^3 - 3*B22^2 - B22)</f>
         <v>-7.8643798828125E-2</v>
       </c>
@@ -16641,11 +19538,11 @@
         <f t="shared" si="2"/>
         <v>-1.0655542823218152E-5</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="32">
         <f>SUM(H22:H23)</f>
         <v>1.2695305628753761E-2</v>
       </c>
-      <c r="R22" s="30">
+      <c r="R22" s="32">
         <f>SUM(I22:I23)</f>
         <v>-7.8643813330107726E-2</v>
       </c>
@@ -16660,8 +19557,8 @@
       <c r="D23" s="1">
         <v>1.43225194</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
       <c r="H23" s="3">
         <f>(C23*D23) - (C22*D22)/3 - (C22*D23)/6 - (C23*D22)/6 - (C23*D23)/3</f>
         <v>6.1848915084022904E-3</v>
@@ -16684,8 +19581,8 @@
         <f t="shared" si="2"/>
         <v>5.7650954603146593E-6</v>
       </c>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
@@ -16697,11 +19594,11 @@
       <c r="D24" s="1">
         <v>1.4319805299999999</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="32">
         <f>(B25-B25^2)-(B24-B24^2)</f>
         <v>1.07421875E-2</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="32">
         <f>(B25^3 - 3*B25^2 - B25) - (B24^3 - 3*B24^2 - B24)</f>
         <v>-8.2672119140625E-2</v>
       </c>
@@ -16727,11 +19624,11 @@
         <f t="shared" si="2"/>
         <v>-5.2592661558680897E-7</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="Q24" s="32">
         <f>SUM(H24:H25)</f>
         <v>1.0742192373522474E-2</v>
       </c>
-      <c r="R24" s="30">
+      <c r="R24" s="32">
         <f>SUM(I24:I25)</f>
         <v>-8.2672103926539453E-2</v>
       </c>
@@ -16746,8 +19643,8 @@
       <c r="D25" s="1">
         <v>1.48194928</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
       <c r="H25" s="3">
         <f>(C25*D25) - (C24*D24)/3 - (C24*D25)/6 - (C25*D24)/6 - (C25*D25)/3</f>
         <v>5.2083307478859586E-3</v>
@@ -16770,8 +19667,8 @@
         <f t="shared" si="2"/>
         <v>3.0120424851817182E-6</v>
       </c>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
@@ -16783,11 +19680,11 @@
       <c r="D26" s="1">
         <v>1.4816462800000001</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="32">
         <f>(B27-B27^2)-(B26-B26^2)</f>
         <v>8.7890625E-3</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="32">
         <f>(B27^3 - 3*B27^2 - B27) - (B26^3 - 3*B26^2 - B26)</f>
         <v>-8.6517333984375E-2</v>
       </c>
@@ -16813,11 +19710,11 @@
         <f t="shared" si="2"/>
         <v>-3.2612853894982411E-6</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="Q26" s="32">
         <f>SUM(H26:H27)</f>
         <v>8.78907134465301E-3</v>
       </c>
-      <c r="R26" s="30">
+      <c r="R26" s="32">
         <f>SUM(I26:I27)</f>
         <v>-8.6517320664563524E-2</v>
       </c>
@@ -16832,8 +19729,8 @@
       <c r="D27" s="1">
         <v>1.5333683300000001</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
       <c r="H27" s="3">
         <f>(C27*D27) - (C26*D26)/3 - (C26*D27)/6 - (C27*D26)/6 - (C27*D27)/3</f>
         <v>4.2317768719352111E-3</v>
@@ -16856,8 +19753,8 @@
         <f t="shared" si="2"/>
         <v>1.0574091158447084E-5</v>
       </c>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
@@ -16869,11 +19766,11 @@
       <c r="D28" s="1">
         <v>1.53302885</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="32">
         <f>(B29-B29^2)-(B28-B28^2)</f>
         <v>6.8359375E-3</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="32">
         <f>(B29^3 - 3*B29^2 - B29) - (B28^3 - 3*B28^2 - B28)</f>
         <v>-9.0179443359375E-2</v>
       </c>
@@ -16899,11 +19796,11 @@
         <f t="shared" si="2"/>
         <v>4.0163214271198839E-6</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="32">
         <f>SUM(H28:H29)</f>
         <v>6.8359373228936704E-3</v>
       </c>
-      <c r="R28" s="30">
+      <c r="R28" s="32">
         <f>SUM(I28:I29)</f>
         <v>-9.017944657074306E-2</v>
       </c>
@@ -16918,8 +19815,8 @@
       <c r="D29" s="1">
         <v>1.5867133099999999</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
       <c r="H29" s="3">
         <f>(C29*D29) - (C28*D28)/3 - (C28*D29)/6 - (C29*D28)/6 - (C29*D29)/3</f>
         <v>3.2552114339610139E-3</v>
@@ -16942,8 +19839,8 @@
         <f t="shared" si="2"/>
         <v>5.8755078260633031E-6</v>
       </c>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
@@ -16955,11 +19852,11 @@
       <c r="D30" s="1">
         <v>1.5863315099999999</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="32">
         <f>(B31-B31^2)-(B30-B30^2)</f>
         <v>4.8828125E-3</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="32">
         <f>(B31^3 - 3*B31^2 - B31) - (B30^3 - 3*B30^2 - B30)</f>
         <v>-9.3658447265625E-2</v>
       </c>
@@ -16985,11 +19882,11 @@
         <f t="shared" si="2"/>
         <v>-1.3361024628504177E-6</v>
       </c>
-      <c r="Q30" s="30">
+      <c r="Q30" s="32">
         <f>SUM(H30:H31)</f>
         <v>4.8828155595597167E-3</v>
       </c>
-      <c r="R30" s="30">
+      <c r="R30" s="32">
         <f>SUM(I30:I31)</f>
         <v>-9.3658438378218634E-2</v>
       </c>
@@ -17004,8 +19901,8 @@
       <c r="D31" s="1">
         <v>1.64222066</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
       <c r="H31" s="3">
         <f>(C31*D31) - (C30*D30)/3 - (C30*D31)/6 - (C31*D30)/6 - (C31*D31)/3</f>
         <v>2.2786510767877077E-3</v>
@@ -17028,8 +19925,8 @@
         <f t="shared" si="2"/>
         <v>-1.060091314372765E-5</v>
       </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
@@ -17041,11 +19938,11 @@
       <c r="D32" s="1">
         <v>1.6417895</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="32">
         <f>(B33-B33^2)-(B32-B32^2)</f>
         <v>2.9296875E-3</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="32">
         <f>(B33^3 - 3*B33^2 - B33) - (B32^3 - 3*B32^2 - B32)</f>
         <v>-9.6954345703125E-2</v>
       </c>
@@ -17071,11 +19968,11 @@
         <f t="shared" si="2"/>
         <v>3.414645596746198E-6</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="Q32" s="32">
         <f>SUM(H32:H33)</f>
         <v>2.929673152036294E-3</v>
       </c>
-      <c r="R32" s="30">
+      <c r="R32" s="32">
         <f>SUM(I32:I33)</f>
         <v>-9.6954373106046376E-2</v>
       </c>
@@ -17090,8 +19987,8 @@
       <c r="D33" s="1">
         <v>1.70016547</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
       <c r="H33" s="3">
         <f>(C33*D33) - (C32*D32)/3 - (C32*D33)/6 - (C33*D32)/6 - (C33*D33)/3</f>
         <v>1.302079299804193E-3</v>
@@ -17114,8 +20011,8 @@
         <f t="shared" ref="O33:O67" si="4">(I33-L33)/L33</f>
         <v>4.2771619512534018E-6</v>
       </c>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -17127,11 +20024,11 @@
       <c r="D34" s="1">
         <v>1.6996764099999999</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="32">
         <f>(B35-B35^2)-(B34-B34^2)</f>
         <v>9.765625E-4</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="32">
         <f>(B35^3 - 3*B35^2 - B35) - (B34^3 - 3*B34^2 - B34)</f>
         <v>-0.100067138671875</v>
       </c>
@@ -17157,11 +20054,11 @@
         <f t="shared" si="4"/>
         <v>-4.1298721036445465E-6</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="Q34" s="32">
         <f>SUM(H34:H35)</f>
         <v>9.7656436414528258E-4</v>
       </c>
-      <c r="R34" s="30">
+      <c r="R34" s="32">
         <f>SUM(I34:I35)</f>
         <v>-0.10006714223145075</v>
       </c>
@@ -17176,8 +20073,8 @@
       <c r="D35" s="1">
         <v>1.7608695700000001</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
       <c r="H35" s="3">
         <f>(C35*D35) - (C34*D34)/3 - (C34*D35)/6 - (C35*D34)/6 - (C35*D35)/3</f>
         <v>3.2552008739417104E-4</v>
@@ -17200,8 +20097,8 @@
         <f t="shared" si="4"/>
         <v>6.9170675908468887E-6</v>
       </c>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
@@ -17213,11 +20110,11 @@
       <c r="D36" s="1">
         <v>1.7603121799999999</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="32">
         <f>(B37-B37^2)-(B36-B36^2)</f>
         <v>-9.765625E-4</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="32">
         <f>(B37^3 - 3*B37^2 - B37) - (B36^3 - 3*B36^2 - B36)</f>
         <v>-0.102996826171875</v>
       </c>
@@ -17243,11 +20140,11 @@
         <f t="shared" si="4"/>
         <v>-2.0267563713349452E-6</v>
       </c>
-      <c r="Q36" s="30">
+      <c r="Q36" s="32">
         <f>SUM(H36:H37)</f>
         <v>-9.7656192559192334E-4</v>
       </c>
-      <c r="R36" s="30">
+      <c r="R36" s="32">
         <f>SUM(I36:I37)</f>
         <v>-0.10299682023794832</v>
       </c>
@@ -17262,8 +20159,8 @@
       <c r="D37" s="1">
         <v>1.8247116299999999</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
       <c r="H37" s="3">
         <f>(C37*D37) - (C36*D36)/3 - (C36*D37)/6 - (C37*D36)/6 - (C37*D37)/3</f>
         <v>-6.5104129948734268E-4</v>
@@ -17286,8 +20183,8 @@
         <f t="shared" si="4"/>
         <v>-1.4664437340523457E-6</v>
       </c>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
@@ -17299,11 +20196,11 @@
       <c r="D38" s="1">
         <v>1.8240730599999999</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="32">
         <f>(B39-B39^2)-(B38-B38^2)</f>
         <v>-2.9296875E-3</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="32">
         <f>(B39^3 - 3*B39^2 - B39) - (B38^3 - 3*B38^2 - B38)</f>
         <v>-0.105743408203125</v>
       </c>
@@ -17329,11 +20226,11 @@
         <f t="shared" si="4"/>
         <v>8.5842369273881644E-6</v>
       </c>
-      <c r="Q38" s="30">
+      <c r="Q38" s="32">
         <f>SUM(H38:H39)</f>
         <v>-2.9296978513375649E-3</v>
       </c>
-      <c r="R38" s="30">
+      <c r="R38" s="32">
         <f>SUM(I38:I39)</f>
         <v>-0.10574342415645388</v>
       </c>
@@ -17348,8 +20245,8 @@
       <c r="D39" s="1">
         <v>1.89214014</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
       <c r="H39" s="3">
         <f>(C39*D39) - (C38*D38)/3 - (C38*D39)/6 - (C39*D38)/6 - (C39*D39)/3</f>
         <v>-1.6276107111209415E-3</v>
@@ -17372,8 +20269,8 @@
         <f t="shared" si="4"/>
         <v>-5.2367770422628429E-7</v>
       </c>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
@@ -17385,11 +20282,11 @@
       <c r="D40" s="1">
         <v>1.8914044299999999</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="32">
         <f>(B41-B41^2)-(B40-B40^2)</f>
         <v>-4.8828125E-3</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="32">
         <f>(B41^3 - 3*B41^2 - B41) - (B40^3 - 3*B40^2 - B40)</f>
         <v>-0.108306884765625</v>
       </c>
@@ -17415,11 +20312,11 @@
         <f t="shared" si="4"/>
         <v>8.0400557529557792E-6</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="32">
         <f>SUM(H40:H41)</f>
         <v>-4.8828001892919914E-3</v>
       </c>
-      <c r="R40" s="30">
+      <c r="R40" s="32">
         <f>SUM(I40:I41)</f>
         <v>-0.10830685942294771</v>
       </c>
@@ -17434,8 +20331,8 @@
       <c r="D41" s="1">
         <v>1.96368999</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
       <c r="H41" s="3">
         <f>(C41*D41) - (C40*D40)/3 - (C40*D41)/6 - (C41*D40)/6 - (C41*D41)/3</f>
         <v>-2.6041621317078878E-3</v>
@@ -17458,8 +20355,8 @@
         <f t="shared" si="4"/>
         <v>7.8310134477411066E-6</v>
       </c>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
@@ -17471,11 +20368,11 @@
       <c r="D42" s="1">
         <v>1.9628370900000001</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="32">
         <f>(B43-B43^2)-(B42-B42^2)</f>
         <v>-6.8359375E-3</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="32">
         <f>(B43^3 - 3*B43^2 - B43) - (B42^3 - 3*B42^2 - B42)</f>
         <v>-0.110687255859375</v>
       </c>
@@ -17501,11 +20398,11 @@
         <f t="shared" si="4"/>
         <v>-2.0721712218794001E-6</v>
       </c>
-      <c r="Q42" s="30">
+      <c r="Q42" s="32">
         <f>SUM(H42:H43)</f>
         <v>-6.8359334831544771E-3</v>
       </c>
-      <c r="R42" s="30">
+      <c r="R42" s="32">
         <f>SUM(I42:I43)</f>
         <v>-0.11068724574872046</v>
       </c>
@@ -17520,8 +20417,8 @@
       <c r="D43" s="1">
         <v>2.0400039900000002</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
       <c r="H43" s="3">
         <f>(C43*D43) - (C42*D42)/3 - (C42*D43)/6 - (C43*D42)/6 - (C43*D43)/3</f>
         <v>-3.580730002006427E-3</v>
@@ -17544,8 +20441,8 @@
         <f t="shared" si="4"/>
         <v>6.4831486992441898E-6</v>
       </c>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
@@ -17557,11 +20454,11 @@
       <c r="D44" s="1">
         <v>2.0390084599999998</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="32">
         <f>(B45-B45^2)-(B44-B44^2)</f>
         <v>-8.7890625E-3</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="32">
         <f>(B45^3 - 3*B45^2 - B45) - (B44^3 - 3*B44^2 - B44)</f>
         <v>-0.112884521484375</v>
       </c>
@@ -17587,11 +20484,11 @@
         <f t="shared" si="4"/>
         <v>-3.7856194984282124E-6</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q44" s="32">
         <f>SUM(H44:H45)</f>
         <v>-8.789054826333853E-3</v>
       </c>
-      <c r="R44" s="30">
+      <c r="R44" s="32">
         <f>SUM(I44:I45)</f>
         <v>-0.11288451415910483</v>
       </c>
@@ -17606,8 +20503,8 @@
       <c r="D45" s="1">
         <v>2.1218612399999999</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
       <c r="H45" s="3">
         <f>(C45*D45) - (C44*D44)/3 - (C44*D45)/6 - (C45*D44)/6 - (C45*D45)/3</f>
         <v>-4.5572859256862719E-3</v>
@@ -17630,8 +20527,8 @@
         <f t="shared" si="4"/>
         <v>-4.8188816780775564E-6</v>
       </c>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
@@ -17643,11 +20540,11 @@
       <c r="D46" s="1">
         <v>2.1206904299999998</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="32">
         <f>(B47-B47^2)-(B46-B46^2)</f>
         <v>-1.07421875E-2</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="32">
         <f>(B47^3 - 3*B47^2 - B47) - (B46^3 - 3*B46^2 - B46)</f>
         <v>-0.114898681640625</v>
       </c>
@@ -17673,11 +20570,11 @@
         <f t="shared" si="4"/>
         <v>2.531060929554903E-6</v>
       </c>
-      <c r="Q46" s="30">
+      <c r="Q46" s="32">
         <f>SUM(H46:H47)</f>
         <v>-1.0742200815256453E-2</v>
       </c>
-      <c r="R46" s="30">
+      <c r="R46" s="32">
         <f>SUM(I46:I47)</f>
         <v>-0.11489870776514266</v>
       </c>
@@ -17692,8 +20589,8 @@
       <c r="D47" s="1">
         <v>2.2102147799999998</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
       <c r="H47" s="3">
         <f>(C47*D47) - (C46*D46)/3 - (C46*D47)/6 - (C47*D46)/6 - (C47*D47)/3</f>
         <v>-5.5338564839518822E-3</v>
@@ -17716,8 +20613,8 @@
         <f t="shared" si="4"/>
         <v>-7.5895991483099827E-6</v>
       </c>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
@@ -17729,11 +20626,11 @@
       <c r="D48" s="1">
         <v>2.2088262300000001</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="32">
         <f>(B49-B49^2)-(B48-B48^2)</f>
         <v>-1.26953125E-2</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="32">
         <f>(B49^3 - 3*B49^2 - B49) - (B48^3 - 3*B48^2 - B48)</f>
         <v>-0.116729736328125</v>
       </c>
@@ -17759,11 +20656,11 @@
         <f t="shared" si="4"/>
         <v>-1.6394254890669297E-6</v>
       </c>
-      <c r="Q48" s="30">
+      <c r="Q48" s="32">
         <f>SUM(H48:H49)</f>
         <v>-1.2695309002894728E-2</v>
       </c>
-      <c r="R48" s="30">
+      <c r="R48" s="32">
         <f>SUM(I48:I49)</f>
         <v>-0.11672972912865687</v>
       </c>
@@ -17778,8 +20675,8 @@
       <c r="D49" s="1">
         <v>2.3062425700000002</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
       <c r="H49" s="3">
         <f>(C49*D49) - (C48*D48)/3 - (C48*D49)/6 - (C49*D48)/6 - (C49*D49)/3</f>
         <v>-6.5104149614316764E-3</v>
@@ -17802,8 +20699,8 @@
         <f t="shared" si="4"/>
         <v>-2.9981881927827337E-6</v>
       </c>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
@@ -17815,11 +20712,11 @@
       <c r="D50" s="1">
         <v>2.3045802499999999</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="32">
         <f>(B51-B51^2)-(B50-B50^2)</f>
         <v>-1.46484375E-2</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="32">
         <f>(B51^3 - 3*B51^2 - B51) - (B50^3 - 3*B50^2 - B50)</f>
         <v>-0.118377685546875</v>
       </c>
@@ -17845,11 +20742,11 @@
         <f t="shared" si="4"/>
         <v>2.457742076271834E-6</v>
       </c>
-      <c r="Q50" s="30">
+      <c r="Q50" s="32">
         <f>SUM(H50:H51)</f>
         <v>-1.4648440223172798E-2</v>
       </c>
-      <c r="R50" s="30">
+      <c r="R50" s="32">
         <f>SUM(I50:I51)</f>
         <v>-0.11837768879323862</v>
       </c>
@@ -17864,8 +20761,8 @@
       <c r="D51" s="1">
         <v>2.4114173299999999</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
       <c r="H51" s="3">
         <f>(C51*D51) - (C50*D50)/3 - (C50*D51)/6 - (C51*D50)/6 - (C51*D51)/3</f>
         <v>-7.4869805173435333E-3</v>
@@ -17888,8 +20785,8 @@
         <f t="shared" si="4"/>
         <v>-7.6932947395823862E-6</v>
       </c>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
@@ -17901,11 +20798,11 @@
       <c r="D52" s="1">
         <v>2.4094060800000001</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="32">
         <f>(B53-B53^2)-(B52-B52^2)</f>
         <v>-1.66015625E-2</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="32">
         <f>(B53^3 - 3*B53^2 - B53) - (B52^3 - 3*B52^2 - B52)</f>
         <v>-0.119842529296875</v>
       </c>
@@ -17931,11 +20828,11 @@
         <f t="shared" si="4"/>
         <v>-3.0041318286616141E-6</v>
       </c>
-      <c r="Q52" s="30">
+      <c r="Q52" s="32">
         <f>SUM(H52:H53)</f>
         <v>-1.6601558838109653E-2</v>
       </c>
-      <c r="R52" s="30">
+      <c r="R52" s="32">
         <f>SUM(I52:I53)</f>
         <v>-0.11984252528781264</v>
       </c>
@@ -17950,8 +20847,8 @@
       <c r="D53" s="1">
         <v>2.52760417</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
       <c r="H53" s="3">
         <f>(C53*D53) - (C52*D52)/3 - (C52*D53)/6 - (C53*D52)/6 - (C53*D53)/3</f>
         <v>-8.4635407044475475E-3</v>
@@ -17974,8 +20871,8 @@
         <f t="shared" si="4"/>
         <v>-4.9144525798061341E-6</v>
       </c>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
@@ -17987,11 +20884,11 @@
       <c r="D54" s="1">
         <v>2.5251413299999999</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="32">
         <f>(B55-B55^2)-(B54-B54^2)</f>
         <v>-1.85546875E-2</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="32">
         <f>(B55^3 - 3*B55^2 - B55) - (B54^3 - 3*B54^2 - B54)</f>
         <v>-0.121124267578125</v>
       </c>
@@ -18017,11 +20914,11 @@
         <f t="shared" si="4"/>
         <v>-7.7722811863353679E-7</v>
       </c>
-      <c r="Q54" s="30">
+      <c r="Q54" s="32">
         <f>SUM(H54:H55)</f>
         <v>-1.8554692660038619E-2</v>
       </c>
-      <c r="R54" s="30">
+      <c r="R54" s="32">
         <f>SUM(I54:I55)</f>
         <v>-0.12112426572351875</v>
       </c>
@@ -18036,8 +20933,8 @@
       <c r="D55" s="1">
         <v>2.6571996200000001</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
       <c r="H55" s="3">
         <f>(C55*D55) - (C54*D54)/3 - (C54*D55)/6 - (C55*D54)/6 - (C55*D55)/3</f>
         <v>-9.440105615204808E-3</v>
@@ -18060,8 +20957,8 @@
         <f t="shared" si="4"/>
         <v>5.155158379982001E-6</v>
       </c>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
@@ -18073,11 +20970,11 @@
       <c r="D56" s="1">
         <v>2.6541420100000002</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="32">
         <f>(B57-B57^2)-(B56-B56^2)</f>
         <v>-2.05078125E-2</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="32">
         <f>(B57^3 - 3*B57^2 - B57) - (B56^3 - 3*B56^2 - B56)</f>
         <v>-0.122222900390625</v>
       </c>
@@ -18103,11 +21000,11 @@
         <f t="shared" si="4"/>
         <v>-7.7327505334374552E-6</v>
       </c>
-      <c r="Q56" s="30">
+      <c r="Q56" s="32">
         <f>SUM(H56:H57)</f>
         <v>-2.0507813786845741E-2</v>
       </c>
-      <c r="R56" s="30">
+      <c r="R56" s="32">
         <f>SUM(I56:I57)</f>
         <v>-0.12222290238643096</v>
       </c>
@@ -18122,8 +21019,8 @@
       <c r="D57" s="1">
         <v>2.80333436</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
       <c r="H57" s="3">
         <f>(C57*D57) - (C56*D56)/3 - (C56*D57)/6 - (C57*D56)/6 - (C57*D57)/3</f>
         <v>-1.0416667031528104E-2</v>
@@ -18146,8 +21043,8 @@
         <f t="shared" si="4"/>
         <v>6.1165247245894055E-6</v>
       </c>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
@@ -18159,11 +21056,11 @@
       <c r="D58" s="1">
         <v>2.7994775000000001</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="32">
         <f>(B59-B59^2)-(B58-B58^2)</f>
         <v>-2.24609375E-2</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="32">
         <f>(B59^3 - 3*B59^2 - B59) - (B58^3 - 3*B58^2 - B58)</f>
         <v>-0.123138427734375</v>
       </c>
@@ -18189,11 +21086,11 @@
         <f t="shared" si="4"/>
         <v>-7.3468864531009585E-6</v>
       </c>
-      <c r="Q58" s="30">
+      <c r="Q58" s="32">
         <f>SUM(H58:H59)</f>
         <v>-2.2460938579547562E-2</v>
       </c>
-      <c r="R58" s="30">
+      <c r="R58" s="32">
         <f>SUM(I58:I59)</f>
         <v>-0.12313842865316688</v>
       </c>
@@ -18208,8 +21105,8 @@
       <c r="D59" s="1">
         <v>2.9701760099999999</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
       <c r="H59" s="3">
         <f>(C59*D59) - (C58*D58)/3 - (C58*D59)/6 - (C59*D58)/6 - (C59*D59)/3</f>
         <v>-1.1393231520461566E-2</v>
@@ -18232,8 +21129,8 @@
         <f t="shared" si="4"/>
         <v>-1.9388359351436047E-6</v>
       </c>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
@@ -18245,11 +21142,11 @@
       <c r="D60" s="1">
         <v>2.9652197</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E60" s="32">
         <f>(B61-B61^2)-(B60-B60^2)</f>
         <v>-2.44140625E-2</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F60" s="32">
         <f>(B61^3 - 3*B61^2 - B61) - (B60^3 - 3*B60^2 - B60)</f>
         <v>-0.123870849609375</v>
       </c>
@@ -18275,11 +21172,11 @@
         <f t="shared" si="4"/>
         <v>2.789564343814294E-7</v>
       </c>
-      <c r="Q60" s="30">
+      <c r="Q60" s="32">
         <f>SUM(H60:H61)</f>
         <v>-2.4414060490928424E-2</v>
       </c>
-      <c r="R60" s="30">
+      <c r="R60" s="32">
         <f>SUM(I60:I61)</f>
         <v>-0.12387084826961003</v>
       </c>
@@ -18294,8 +21191,8 @@
       <c r="D61" s="1">
         <v>3.1633954000000002</v>
       </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
       <c r="H61" s="3">
         <f>(C61*D61) - (C60*D60)/3 - (C60*D61)/6 - (C61*D60)/6 - (C61*D61)/3</f>
         <v>-1.2369791524006191E-2</v>
@@ -18318,8 +21215,8 @@
         <f t="shared" si="4"/>
         <v>-2.726173547564349E-6</v>
       </c>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
@@ -18331,11 +21228,11 @@
       <c r="D62" s="1">
         <v>3.15688455</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="32">
         <f>(B63-B63^2)-(B62-B62^2)</f>
         <v>-2.63671875E-2</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F62" s="32">
         <f>(B63^3 - 3*B63^2 - B63) - (B62^3 - 3*B62^2 - B62)</f>
         <v>-0.124420166015625</v>
       </c>
@@ -18361,11 +21258,11 @@
         <f t="shared" si="4"/>
         <v>-1.0042728878684854E-6</v>
       </c>
-      <c r="Q62" s="30">
+      <c r="Q62" s="32">
         <f>SUM(H62:H63)</f>
         <v>-2.636719048237568E-2</v>
       </c>
-      <c r="R62" s="30">
+      <c r="R62" s="32">
         <f>SUM(I62:I63)</f>
         <v>-0.12442016713867432</v>
       </c>
@@ -18380,8 +21277,8 @@
       <c r="D63" s="1">
         <v>3.3909088700000001</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
       <c r="H63" s="3">
         <f>(C63*D63) - (C62*D62)/3 - (C62*D63)/6 - (C63*D62)/6 - (C63*D63)/3</f>
         <v>-1.3346355091983453E-2</v>
@@ -18404,8 +21301,8 @@
         <f t="shared" si="4"/>
         <v>3.6880916384283702E-6</v>
       </c>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
@@ -18417,11 +21314,11 @@
       <c r="D64" s="1">
         <v>3.38212673</v>
       </c>
-      <c r="E64" s="30">
+      <c r="E64" s="32">
         <f>(B65-B65^2)-(B64-B64^2)</f>
         <v>-2.83203125E-2</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="32">
         <f>(B65^3 - 3*B65^2 - B65) - (B64^3 - 3*B64^2 - B64)</f>
         <v>-0.124786376953125</v>
       </c>
@@ -18447,11 +21344,11 @@
         <f t="shared" si="4"/>
         <v>4.7995188245441535E-6</v>
       </c>
-      <c r="Q64" s="30">
+      <c r="Q64" s="32">
         <f>SUM(H64:H65)</f>
         <v>-2.8320310063767895E-2</v>
       </c>
-      <c r="R64" s="30">
+      <c r="R64" s="32">
         <f>SUM(I64:I65)</f>
         <v>-0.12478637592763908</v>
       </c>
@@ -18466,8 +21363,8 @@
       <c r="D65" s="1">
         <v>3.6641085000000002</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
       <c r="H65" s="3">
         <f>(C65*D65) - (C64*D64)/3 - (C64*D65)/6 - (C65*D64)/6 - (C65*D65)/3</f>
         <v>-1.4322916398364804E-2</v>
@@ -18490,8 +21387,8 @@
         <f t="shared" si="4"/>
         <v>1.2269554279942643E-6</v>
       </c>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
@@ -18503,11 +21400,11 @@
       <c r="D66" s="1">
         <v>3.6518731099999999</v>
       </c>
-      <c r="E66" s="30">
+      <c r="E66" s="32">
         <f>(B67-B67^2)-(B66-B66^2)</f>
         <v>-3.02734375E-2</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F66" s="32">
         <f>(B67^3 - 3*B67^2 - B67) - (B66^3 - 3*B66^2 - B66)</f>
         <v>-0.124969482421875</v>
       </c>
@@ -18533,11 +21430,11 @@
         <f t="shared" si="4"/>
         <v>1.7958568815147843E-6</v>
       </c>
-      <c r="Q66" s="30">
+      <c r="Q66" s="32">
         <f>SUM(H66:H67)</f>
         <v>-3.0273435196811693E-2</v>
       </c>
-      <c r="R66" s="30">
+      <c r="R66" s="32">
         <f>SUM(I66:I67)</f>
         <v>-0.12496948100957558</v>
       </c>
@@ -18552,8 +21449,8 @@
       <c r="D67" s="1">
         <v>4.0000000199999999</v>
       </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
       <c r="H67" s="3">
         <f>(C67*D67) - (C66*D66)/3 - (C66*D67)/6 - (C67*D66)/6 - (C67*D67)/3</f>
         <v>-1.5299477123134619E-2</v>
@@ -18576,35 +21473,93 @@
         <f t="shared" si="4"/>
         <v>5.9017126224243822E-6</v>
       </c>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R60:R61"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="Q64:Q65"/>
     <mergeCell ref="Q66:Q67"/>
     <mergeCell ref="R4:R5"/>
@@ -18629,88 +21584,30 @@
     <mergeCell ref="Q50:Q51"/>
     <mergeCell ref="Q28:Q29"/>
     <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R60:R61"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="R54:R55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18730,10 +21627,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -18747,25 +21644,25 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>2.2204E-16</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="33">
         <f>(B4-B4^2)-(B3-B3^2)</f>
         <v>3.0273437499999778E-2</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="33">
         <f>(B4^3 - 3*B4^2 - B4) - (B3^3 - 3*B3^2 - B3)</f>
         <v>-3.4149169921874778E-2</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="33">
         <f>SUM(H3:H4)</f>
         <v>3.0273000000000001E-2</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="33">
         <f>SUM(I3:I4)</f>
         <v>-3.4148999999999999E-2</v>
       </c>
@@ -18775,53 +21672,53 @@
       <c r="I3" s="4">
         <v>-1.6594000000000001E-2</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="34">
         <f>(F3-C3)/F3</f>
         <v>-1.445182174798197E-5</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="34">
         <f>(G3-D3)/G3</f>
         <v>-4.9758960666243615E-6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="4">
         <v>1.4973999999999999E-2</v>
       </c>
       <c r="I4" s="4">
         <v>-1.7555000000000001E-2</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="33">
         <f>(B6-B6^2)-(B5-B5^2)</f>
         <v>2.83203125E-2</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="33">
         <f>(B6^3 - 3*B6^2 - B6) - (B5^3 - 3*B5^2 - B5)</f>
         <v>-3.9825439453125E-2</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="33">
         <f>SUM(H5:H6)</f>
         <v>2.8320000000000001E-2</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="33">
         <f>SUM(I5:I6)</f>
         <v>-3.9824999999999999E-2</v>
       </c>
@@ -18831,53 +21728,53 @@
       <c r="I5" s="4">
         <v>-1.9446999999999999E-2</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="34">
         <f>(F5-C5)/F5</f>
         <v>-1.1034604519723792E-5</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="34">
         <f>(G5-D5)/G5</f>
         <v>-1.1034604519791853E-5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="4">
         <v>1.3997000000000001E-2</v>
       </c>
       <c r="I6" s="4">
         <v>-2.0378E-2</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="33">
         <f>(B8-B8^2)-(B7-B7^2)</f>
         <v>2.63671875E-2</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="33">
         <f>(B8^3 - 3*B8^2 - B8) - (B7^3 - 3*B7^2 - B7)</f>
         <v>-4.5318603515625E-2</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="33">
         <f>SUM(H7:H8)</f>
         <v>2.6367000000000002E-2</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="33">
         <f>SUM(I7:I8)</f>
         <v>-4.5317999999999997E-2</v>
       </c>
@@ -18887,53 +21784,53 @@
       <c r="I7" s="4">
         <v>-2.2209E-2</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="34">
         <f>(F7-C7)/F7</f>
         <v>-7.1111616793132618E-6</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="34">
         <f>(G7-D7)/G7</f>
         <v>-1.3317349066658419E-5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1">
         <v>9.375E-2</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="4">
         <v>1.3021E-2</v>
       </c>
       <c r="I8" s="4">
         <v>-2.3109000000000001E-2</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="1">
         <v>9.375E-2</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="33">
         <f>(B10-B10^2)-(B9-B9^2)</f>
         <v>2.44140625E-2</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="33">
         <f>(B10^3 - 3*B10^2 - B10) - (B9^3 - 3*B9^2 - B9)</f>
         <v>-5.0628662109375E-2</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="33">
         <f>SUM(H9:H10)</f>
         <v>2.4413999999999998E-2</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="33">
         <f>SUM(I9:I10)</f>
         <v>-5.0627999999999999E-2</v>
       </c>
@@ -18943,53 +21840,53 @@
       <c r="I9" s="4">
         <v>-2.4878999999999998E-2</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="34">
         <f>(F9-C9)/F9</f>
         <v>-2.560006553690392E-6</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="34">
         <f>(G9-D9)/G9</f>
         <v>-1.3077928715347397E-5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1">
         <v>0.125</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="4">
         <v>1.2043999999999999E-2</v>
       </c>
       <c r="I10" s="4">
         <v>-2.5749000000000001E-2</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1">
         <v>0.125</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="33">
         <f>(B12-B12^2)-(B11-B11^2)</f>
         <v>2.24609375E-2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="33">
         <f>(B12^3 - 3*B12^2 - B12) - (B11^3 - 3*B11^2 - B11)</f>
         <v>-5.5755615234375E-2</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="33">
         <f>SUM(H11:H12)</f>
         <v>2.2461000000000002E-2</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="33">
         <f>SUM(I11:I12)</f>
         <v>-5.5754999999999999E-2</v>
       </c>
@@ -18999,53 +21896,53 @@
       <c r="I11" s="4">
         <v>-2.7458E-2</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="34">
         <f>(F11-C11)/F11</f>
         <v>2.7826009528425817E-6</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="34">
         <f>(G11-D11)/G11</f>
         <v>-1.1034604519791853E-5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1">
         <v>0.15625</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="4">
         <v>1.1068E-2</v>
       </c>
       <c r="I12" s="4">
         <v>-2.8296999999999999E-2</v>
       </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>0.15625</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <f>(B14-B14^2)-(B13-B13^2)</f>
         <v>2.05078125E-2</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="33">
         <f>(B14^3 - 3*B14^2 - B14) - (B13^3 - 3*B13^2 - B13)</f>
         <v>-6.0699462890625E-2</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="33">
         <f>SUM(H13:H14)</f>
         <v>2.0507999999999998E-2</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="33">
         <f>SUM(I13:I14)</f>
         <v>-6.0699000000000003E-2</v>
       </c>
@@ -19055,53 +21952,53 @@
       <c r="I13" s="4">
         <v>-2.9944999999999999E-2</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="34">
         <f>(F13-C13)/F13</f>
         <v>9.142773551709226E-6</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="34">
         <f>(G13-D13)/G13</f>
         <v>-7.6260008401628971E-6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1">
         <v>0.1875</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="4">
         <v>1.0090999999999999E-2</v>
       </c>
       <c r="I14" s="4">
         <v>-3.0754E-2</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1">
         <v>0.1875</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="33">
         <f>(B16-B16^2)-(B15-B15^2)</f>
         <v>1.85546875E-2</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="33">
         <f>(B16^3 - 3*B16^2 - B16) - (B15^3 - 3*B15^2 - B15)</f>
         <v>-6.5460205078125E-2</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="33">
         <f>SUM(H15:H16)</f>
         <v>1.85547E-2</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="33">
         <f>SUM(I15:I16)</f>
         <v>-6.5460000000000004E-2</v>
       </c>
@@ -19111,53 +22008,53 @@
       <c r="I15" s="4">
         <v>-3.2341000000000002E-2</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="34">
         <f>(F15-C15)/F15</f>
         <v>6.7368375669557822E-7</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="34">
         <f>(G15-D15)/G15</f>
         <v>-3.1328769476887509E-6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="1">
         <v>0.21875</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="4">
         <v>9.1146000000000005E-3</v>
       </c>
       <c r="I16" s="4">
         <v>-3.3119000000000003E-2</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>0.21875</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="33">
         <f>(B18-B18^2)-(B17-B17^2)</f>
         <v>1.66015625E-2</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="33">
         <f>(B18^3 - 3*B18^2 - B18) - (B17^3 - 3*B17^2 - B17)</f>
         <v>-7.0037841796875E-2</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="33">
         <f>SUM(H17:H18)</f>
         <v>1.6601499999999998E-2</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="33">
         <f>SUM(I17:I18)</f>
         <v>-7.0038000000000003E-2</v>
       </c>
@@ -19167,53 +22064,53 @@
       <c r="I17" s="4">
         <v>-3.4645000000000002E-2</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="34">
         <f>(F17-C17)/F17</f>
         <v>-3.7647200555249365E-6</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="34">
         <f>(G17-D17)/G17</f>
         <v>2.2588184271828341E-6</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1">
         <v>0.25</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="4">
         <v>8.1379999999999994E-3</v>
       </c>
       <c r="I18" s="4">
         <v>-3.5393000000000001E-2</v>
       </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>0.25</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="33">
         <f>(B20-B20^2)-(B19-B19^2)</f>
         <v>1.46484375E-2</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="33">
         <f>(B20^3 - 3*B20^2 - B20) - (B19^3 - 3*B19^2 - B19)</f>
         <v>-7.4432373046875E-2</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="33">
         <f>SUM(H19:H20)</f>
         <v>1.46485E-2</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="33">
         <f>SUM(I19:I20)</f>
         <v>-7.4432999999999999E-2</v>
       </c>
@@ -19223,53 +22120,53 @@
       <c r="I19" s="4">
         <v>-3.6858000000000002E-2</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="34">
         <f>(F19-C19)/F19</f>
         <v>4.2666484623041608E-6</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="34">
         <f>(G19-D19)/G19</f>
         <v>8.4230532828068645E-6</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="1">
         <v>0.28125</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="4">
         <v>7.1615000000000003E-3</v>
       </c>
       <c r="I20" s="4">
         <v>-3.7574999999999997E-2</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>0.28125</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="33">
         <f>(B22-B22^2)-(B21-B21^2)</f>
         <v>1.26953125E-2</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="33">
         <f>(B22^3 - 3*B22^2 - B22) - (B21^3 - 3*B21^2 - B21)</f>
         <v>-7.8643798828125E-2</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="33">
         <f>SUM(H21:H22)</f>
         <v>1.26953E-2</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="33">
         <f>SUM(I21:I22)</f>
         <v>-7.8643999999999992E-2</v>
       </c>
@@ -19279,53 +22176,53 @@
       <c r="I21" s="4">
         <v>-3.8979E-2</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="34">
         <f>(F21-C21)/F21</f>
         <v>-9.8461635411210809E-7</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="34">
         <f>(G21-D21)/G21</f>
         <v>2.5580066501155871E-6</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="1">
         <v>0.3125</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="4">
         <v>6.1849000000000001E-3</v>
       </c>
       <c r="I22" s="4">
         <v>-3.9664999999999999E-2</v>
       </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>0.3125</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="33">
         <f>(B24-B24^2)-(B23-B23^2)</f>
         <v>1.07421875E-2</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="33">
         <f>(B24^3 - 3*B24^2 - B24) - (B23^3 - 3*B23^2 - B23)</f>
         <v>-8.2672119140625E-2</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="33">
         <f>SUM(H23:H24)</f>
         <v>1.07422E-2</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="33">
         <f>SUM(I23:I24)</f>
         <v>-8.2671999999999995E-2</v>
       </c>
@@ -19335,53 +22232,53 @@
       <c r="I23" s="4">
         <v>-4.1008000000000003E-2</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="34">
         <f>(F23-C23)/F23</f>
         <v>1.1636350096218135E-6</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="34">
         <f>(G23-D23)/G23</f>
         <v>-1.4411242621989329E-6</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="1">
         <v>0.34375</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="4">
         <v>5.2082999999999999E-3</v>
       </c>
       <c r="I24" s="4">
         <v>-4.1664E-2</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>0.34375</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="33">
         <f>(B26-B26^2)-(B25-B25^2)</f>
         <v>8.7890625E-3</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="33">
         <f>(B26^3 - 3*B26^2 - B26) - (B25^3 - 3*B25^2 - B25)</f>
         <v>-8.6517333984375E-2</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="33">
         <f>SUM(H25:H26)</f>
         <v>8.7891000000000011E-3</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="33">
         <f>SUM(I25:I26)</f>
         <v>-8.6516999999999997E-2</v>
       </c>
@@ -19391,53 +22288,53 @@
       <c r="I25" s="4">
         <v>-4.2945999999999998E-2</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="34">
         <f>(F25-C25)/F25</f>
         <v>4.2666484624225837E-6</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="34">
         <f>(G25-D25)/G25</f>
         <v>-3.8603323624642041E-6</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="1">
         <v>0.375</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="4">
         <v>4.2318E-3</v>
       </c>
       <c r="I26" s="4">
         <v>-4.3570999999999999E-2</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="1">
         <v>0.375</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="33">
         <f>(B28-B28^2)-(B27-B27^2)</f>
         <v>6.8359375E-3</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="33">
         <f>(B28^3 - 3*B28^2 - B28) - (B27^3 - 3*B27^2 - B27)</f>
         <v>-9.0179443359375E-2</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="33">
         <f>SUM(H27:H28)</f>
         <v>6.8359000000000007E-3</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="33">
         <f>SUM(I27:I28)</f>
         <v>-9.0178999999999995E-2</v>
       </c>
@@ -19447,53 +22344,53 @@
       <c r="I27" s="4">
         <v>-4.4791999999999998E-2</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="34">
         <f>(F27-C27)/F27</f>
         <v>-5.485744378844572E-6</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="34">
         <f>(G27-D27)/G27</f>
         <v>-4.9164370308467161E-6</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="1">
         <v>0.40625</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="4">
         <v>3.2552000000000002E-3</v>
       </c>
       <c r="I28" s="4">
         <v>-4.5386999999999997E-2</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>0.40625</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="33">
         <f>(B30-B30^2)-(B29-B29^2)</f>
         <v>4.8828125E-3</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="33">
         <f>(B30^3 - 3*B30^2 - B30) - (B29^3 - 3*B29^2 - B29)</f>
         <v>-9.3658447265625E-2</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="33">
         <f>SUM(H29:H30)</f>
         <v>4.8827999999999996E-3</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="33">
         <f>SUM(I29:I30)</f>
         <v>-9.3658999999999992E-2</v>
       </c>
@@ -19503,53 +22400,53 @@
       <c r="I29" s="4">
         <v>-4.6546999999999998E-2</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="34">
         <f>(F29-C29)/F29</f>
         <v>-2.560006553690392E-6</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="34">
         <f>(G29-D29)/G29</f>
         <v>5.9015617825543585E-6</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="1">
         <v>0.4375</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="4">
         <v>2.2786E-3</v>
       </c>
       <c r="I30" s="4">
         <v>-4.7112000000000001E-2</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="1">
         <v>0.4375</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="33">
         <f>(B32-B32^2)-(B31-B31^2)</f>
         <v>2.9296875E-3</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="33">
         <f>(B32^3 - 3*B32^2 - B32) - (B31^3 - 3*B31^2 - B31)</f>
         <v>-9.6954345703125E-2</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="33">
         <f>SUM(H31:H32)</f>
         <v>2.9297000000000004E-3</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="33">
         <f>SUM(I31:I32)</f>
         <v>-9.6954000000000012E-2</v>
       </c>
@@ -19559,53 +22456,53 @@
       <c r="I31" s="4">
         <v>-4.8210000000000003E-2</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="34">
         <f>(F31-C31)/F31</f>
         <v>4.2666484624225837E-6</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="34">
         <f>(G31-D31)/G31</f>
         <v>-3.5656406645172588E-6</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="1">
         <v>0.46875</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="4">
         <v>1.3021E-3</v>
       </c>
       <c r="I32" s="4">
         <v>-4.8744000000000003E-2</v>
       </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="1">
         <v>0.46875</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="33">
         <f>(B34-B34^2)-(B33-B33^2)</f>
         <v>9.765625E-4</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="33">
         <f>(B34^3 - 3*B34^2 - B34) - (B33^3 - 3*B33^2 - B33)</f>
         <v>-0.100067138671875</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="33">
         <f>SUM(H33:H34)</f>
         <v>9.7656000000000001E-4</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="33">
         <f>SUM(I33:I34)</f>
         <v>-0.100067</v>
       </c>
@@ -19615,53 +22512,53 @@
       <c r="I33" s="4">
         <v>-4.9782E-2</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="34">
         <f>(F33-C33)/F33</f>
         <v>-2.5600065536015738E-6</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="34">
         <f>(G33-D33)/G33</f>
         <v>-1.3857902704870922E-6</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="1">
         <v>0.5</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="4">
         <v>3.2551999999999999E-4</v>
       </c>
       <c r="I34" s="4">
         <v>-5.0285000000000003E-2</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="1">
         <v>0.5</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="33">
         <f>(B36-B36^2)-(B35-B35^2)</f>
         <v>-9.765625E-4</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="33">
         <f>(B36^3 - 3*B36^2 - B36) - (B35^3 - 3*B35^2 - B35)</f>
         <v>-0.102996826171875</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="33">
         <f>SUM(H35:H36)</f>
         <v>-9.7656000000000001E-4</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="33">
         <f>SUM(I35:I36)</f>
         <v>-0.10299700000000001</v>
       </c>
@@ -19671,53 +22568,53 @@
       <c r="I35" s="4">
         <v>-5.1262000000000002E-2</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="34">
         <f>(F35-C35)/F35</f>
         <v>-2.5600065536015738E-6</v>
       </c>
-      <c r="L35" s="31">
+      <c r="L35" s="34">
         <f>(G35-D35)/G35</f>
         <v>1.6877008554153555E-6</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="1">
         <v>0.53125</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
       <c r="H36" s="4">
         <v>-6.5103999999999997E-4</v>
       </c>
       <c r="I36" s="4">
         <v>-5.1735000000000003E-2</v>
       </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="1">
         <v>0.53125</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="33">
         <f>(B38-B38^2)-(B37-B37^2)</f>
         <v>-2.9296875E-3</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="33">
         <f>(B38^3 - 3*B38^2 - B38) - (B37^3 - 3*B37^2 - B37)</f>
         <v>-0.105743408203125</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="33">
         <f>SUM(H37:H38)</f>
         <v>-2.9297000000000004E-3</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="33">
         <f>SUM(I37:I38)</f>
         <v>-0.105743</v>
       </c>
@@ -19727,53 +22624,53 @@
       <c r="I37" s="4">
         <v>-5.2650000000000002E-2</v>
       </c>
-      <c r="K37" s="31">
+      <c r="K37" s="34">
         <f>(F37-C37)/F37</f>
         <v>4.2666484624225837E-6</v>
       </c>
-      <c r="L37" s="31">
+      <c r="L37" s="34">
         <f>(G37-D37)/G37</f>
         <v>-3.8603323623912924E-6</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="1">
         <v>0.5625</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
       <c r="H38" s="4">
         <v>-1.6276000000000001E-3</v>
       </c>
       <c r="I38" s="4">
         <v>-5.3093000000000001E-2</v>
       </c>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="1">
         <v>0.5625</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="33">
         <f>(B40-B40^2)-(B39-B39^2)</f>
         <v>-4.8828125E-3</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="33">
         <f>(B40^3 - 3*B40^2 - B40) - (B39^3 - 3*B39^2 - B39)</f>
         <v>-0.108306884765625</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="33">
         <f>SUM(H39:H40)</f>
         <v>-4.8827999999999996E-3</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="33">
         <f>SUM(I39:I40)</f>
         <v>-0.108306</v>
       </c>
@@ -19783,53 +22680,53 @@
       <c r="I39" s="4">
         <v>-5.3947000000000002E-2</v>
       </c>
-      <c r="K39" s="31">
+      <c r="K39" s="34">
         <f>(F39-C39)/F39</f>
         <v>-2.560006553690392E-6</v>
       </c>
-      <c r="L39" s="31">
+      <c r="L39" s="34">
         <f>(G39-D39)/G39</f>
         <v>-8.1691284416422479E-6</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="1">
         <v>0.59375</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
       <c r="H40" s="4">
         <v>-2.6042000000000001E-3</v>
       </c>
       <c r="I40" s="4">
         <v>-5.4358999999999998E-2</v>
       </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="1">
         <v>0.59375</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="33">
         <f>(B42-B42^2)-(B41-B41^2)</f>
         <v>-6.8359375E-3</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="33">
         <f>(B42^3 - 3*B42^2 - B42) - (B41^3 - 3*B41^2 - B41)</f>
         <v>-0.110687255859375</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="33">
         <f>SUM(H41:H42)</f>
         <v>-6.8359000000000007E-3</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="33">
         <f>SUM(I41:I42)</f>
         <v>-0.11068700000000001</v>
       </c>
@@ -19839,53 +22736,53 @@
       <c r="I41" s="4">
         <v>-5.5153000000000001E-2</v>
       </c>
-      <c r="K41" s="31">
+      <c r="K41" s="34">
         <f>(F41-C41)/F41</f>
         <v>-5.485744378844572E-6</v>
       </c>
-      <c r="L41" s="31">
+      <c r="L41" s="34">
         <f>(G41-D41)/G41</f>
         <v>-2.3115575902535565E-6</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="1">
         <v>0.625</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="4">
         <v>-3.5807E-3</v>
       </c>
       <c r="I42" s="4">
         <v>-5.5534E-2</v>
       </c>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="1">
         <v>0.625</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="33">
         <f>(B44-B44^2)-(B43-B43^2)</f>
         <v>-8.7890625E-3</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="33">
         <f>(B44^3 - 3*B44^2 - B44) - (B43^3 - 3*B43^2 - B43)</f>
         <v>-0.112884521484375</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="33">
         <f>SUM(H43:H44)</f>
         <v>-8.7891000000000011E-3</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="33">
         <f>SUM(I43:I44)</f>
         <v>-0.112885</v>
       </c>
@@ -19895,53 +22792,53 @@
       <c r="I43" s="4">
         <v>-5.6266999999999998E-2</v>
       </c>
-      <c r="K43" s="31">
+      <c r="K43" s="34">
         <f>(F43-C43)/F43</f>
         <v>4.2666484624225837E-6</v>
       </c>
-      <c r="L43" s="31">
+      <c r="L43" s="34">
         <f>(G43-D43)/G43</f>
         <v>4.2389655401446761E-6</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="1">
         <v>0.65625</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
       <c r="H44" s="4">
         <v>-4.5573000000000002E-3</v>
       </c>
       <c r="I44" s="4">
         <v>-5.6618000000000002E-2</v>
       </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="1">
         <v>0.65625</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="33">
         <f>(B46-B46^2)-(B45-B45^2)</f>
         <v>-1.07421875E-2</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="33">
         <f>(B46^3 - 3*B46^2 - B46) - (B45^3 - 3*B45^2 - B45)</f>
         <v>-0.114898681640625</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="33">
         <f>SUM(H45:H46)</f>
         <v>-1.07422E-2</v>
       </c>
-      <c r="G45" s="32">
+      <c r="G45" s="33">
         <f>SUM(I45:I46)</f>
         <v>-0.114899</v>
       </c>
@@ -19951,53 +22848,53 @@
       <c r="I45" s="4">
         <v>-5.7289E-2</v>
       </c>
-      <c r="K45" s="31">
+      <c r="K45" s="34">
         <f>(F45-C45)/F45</f>
         <v>1.1636350096218135E-6</v>
       </c>
-      <c r="L45" s="31">
+      <c r="L45" s="34">
         <f>(G45-D45)/G45</f>
         <v>2.7707758553262563E-6</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="1">
         <v>0.6875</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
       <c r="H46" s="4">
         <v>-5.5338999999999996E-3</v>
       </c>
       <c r="I46" s="4">
         <v>-5.7610000000000001E-2</v>
       </c>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="1">
         <v>0.6875</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="33">
         <f>(B48-B48^2)-(B47-B47^2)</f>
         <v>-1.26953125E-2</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="33">
         <f>(B48^3 - 3*B48^2 - B48) - (B47^3 - 3*B47^2 - B47)</f>
         <v>-0.116729736328125</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="33">
         <f>SUM(H47:H48)</f>
         <v>-1.26953E-2</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="33">
         <f>SUM(I47:I48)</f>
         <v>-0.11673</v>
       </c>
@@ -20007,53 +22904,53 @@
       <c r="I47" s="4">
         <v>-5.8220000000000001E-2</v>
       </c>
-      <c r="K47" s="31">
+      <c r="K47" s="34">
         <f>(F47-C47)/F47</f>
         <v>-9.8461635411210809E-7</v>
       </c>
-      <c r="L47" s="31">
+      <c r="L47" s="34">
         <f>(G47-D47)/G47</f>
         <v>2.2588184271432052E-6</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="1">
         <v>0.71875</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
       <c r="H48" s="4">
         <v>-6.5104000000000004E-3</v>
       </c>
       <c r="I48" s="4">
         <v>-5.851E-2</v>
       </c>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="1">
         <v>0.71875</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="33">
         <f>(B50-B50^2)-(B49-B49^2)</f>
         <v>-1.46484375E-2</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="33">
         <f>(B50^3 - 3*B50^2 - B50) - (B49^3 - 3*B49^2 - B49)</f>
         <v>-0.118377685546875</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="33">
         <f>SUM(H49:H50)</f>
         <v>-1.46485E-2</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="33">
         <f>SUM(I49:I50)</f>
         <v>-0.118378</v>
       </c>
@@ -20063,53 +22960,53 @@
       <c r="I49" s="4">
         <v>-5.9059E-2</v>
       </c>
-      <c r="K49" s="31">
+      <c r="K49" s="34">
         <f>(F49-C49)/F49</f>
         <v>4.2666484623041608E-6</v>
       </c>
-      <c r="L49" s="31">
+      <c r="L49" s="34">
         <f>(G49-D49)/G49</f>
         <v>2.6563476743745976E-6</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="1">
         <v>0.75</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
       <c r="H50" s="4">
         <v>-7.4869999999999997E-3</v>
       </c>
       <c r="I50" s="4">
         <v>-5.9318999999999997E-2</v>
       </c>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="1">
         <v>0.75</v>
       </c>
-      <c r="C51" s="32">
+      <c r="C51" s="33">
         <f>(B52-B52^2)-(B51-B51^2)</f>
         <v>-1.66015625E-2</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="33">
         <f>(B52^3 - 3*B52^2 - B52) - (B51^3 - 3*B51^2 - B51)</f>
         <v>-0.119842529296875</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="33">
         <f>SUM(H51:H52)</f>
         <v>-1.6601499999999998E-2</v>
       </c>
-      <c r="G51" s="32">
+      <c r="G51" s="33">
         <f>SUM(I51:I52)</f>
         <v>-0.11984300000000001</v>
       </c>
@@ -20119,53 +23016,53 @@
       <c r="I51" s="4">
         <v>-5.9806999999999999E-2</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="34">
         <f>(F51-C51)/F51</f>
         <v>-3.7647200555249365E-6</v>
       </c>
-      <c r="L51" s="31">
+      <c r="L51" s="34">
         <f>(G51-D51)/G51</f>
         <v>3.927664736405786E-6</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="1">
         <v>0.78125</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
       <c r="H52" s="4">
         <v>-8.4635000000000005E-3</v>
       </c>
       <c r="I52" s="4">
         <v>-6.0035999999999999E-2</v>
       </c>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="1">
         <v>0.78125</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="33">
         <f>(B54-B54^2)-(B53-B53^2)</f>
         <v>-1.85546875E-2</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="33">
         <f>(B54^3 - 3*B54^2 - B54) - (B53^3 - 3*B53^2 - B53)</f>
         <v>-0.121124267578125</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="33">
         <f>SUM(H53:H54)</f>
         <v>-1.85547E-2</v>
       </c>
-      <c r="G53" s="32">
+      <c r="G53" s="33">
         <f>SUM(I53:I54)</f>
         <v>-0.12112400000000001</v>
       </c>
@@ -20175,53 +23072,53 @@
       <c r="I53" s="4">
         <v>-6.0463000000000003E-2</v>
       </c>
-      <c r="K53" s="31">
+      <c r="K53" s="34">
         <f>(F53-C53)/F53</f>
         <v>6.7368375669557822E-7</v>
       </c>
-      <c r="L53" s="31">
+      <c r="L53" s="34">
         <f>(G53-D53)/G53</f>
         <v>-2.2091255654582411E-6</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="1">
         <v>0.8125</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
       <c r="H54" s="4">
         <v>-9.4400999999999999E-3</v>
       </c>
       <c r="I54" s="4">
         <v>-6.0661E-2</v>
       </c>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="1">
         <v>0.8125</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="33">
         <f>(B56-B56^2)-(B55-B55^2)</f>
         <v>-2.05078125E-2</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="33">
         <f>(B56^3 - 3*B56^2 - B56) - (B55^3 - 3*B55^2 - B55)</f>
         <v>-0.122222900390625</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="33">
         <f>SUM(H55:H56)</f>
         <v>-2.0507999999999998E-2</v>
       </c>
-      <c r="G55" s="32">
+      <c r="G55" s="33">
         <f>SUM(I55:I56)</f>
         <v>-0.122223</v>
       </c>
@@ -20231,53 +23128,53 @@
       <c r="I55" s="4">
         <v>-6.1027999999999999E-2</v>
       </c>
-      <c r="K55" s="31">
+      <c r="K55" s="34">
         <f>(F55-C55)/F55</f>
         <v>9.142773551709226E-6</v>
       </c>
-      <c r="L55" s="31">
+      <c r="L55" s="34">
         <f>(G55-D55)/G55</f>
         <v>8.1498060920048338E-7</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="1">
         <v>0.84375</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
       <c r="H56" s="4">
         <v>-1.0416999999999999E-2</v>
       </c>
       <c r="I56" s="4">
         <v>-6.1194999999999999E-2</v>
       </c>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="1">
         <v>0.84375</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="33">
         <f>(B58-B58^2)-(B57-B57^2)</f>
         <v>-2.24609375E-2</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D57" s="33">
         <f>(B58^3 - 3*B58^2 - B58) - (B57^3 - 3*B57^2 - B57)</f>
         <v>-0.123138427734375</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="33">
         <f>SUM(H57:H58)</f>
         <v>-2.2461000000000002E-2</v>
       </c>
-      <c r="G57" s="32">
+      <c r="G57" s="33">
         <f>SUM(I57:I58)</f>
         <v>-0.123139</v>
       </c>
@@ -20287,53 +23184,53 @@
       <c r="I57" s="4">
         <v>-6.1501E-2</v>
       </c>
-      <c r="K57" s="31">
+      <c r="K57" s="34">
         <f>(F57-C57)/F57</f>
         <v>2.7826009528425817E-6</v>
       </c>
-      <c r="L57" s="31">
+      <c r="L57" s="34">
         <f>(G57-D57)/G57</f>
         <v>4.6473142140057832E-6</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="1">
         <v>0.875</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
       <c r="H58" s="4">
         <v>-1.1393E-2</v>
       </c>
       <c r="I58" s="4">
         <v>-6.1637999999999998E-2</v>
       </c>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="1">
         <v>0.875</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C59" s="33">
         <f>(B60-B60^2)-(B59-B59^2)</f>
         <v>-2.44140625E-2</v>
       </c>
-      <c r="D59" s="32">
+      <c r="D59" s="33">
         <f>(B60^3 - 3*B60^2 - B60) - (B59^3 - 3*B59^2 - B59)</f>
         <v>-0.123870849609375</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="33">
         <f>SUM(H59:H60)</f>
         <v>-2.4413999999999998E-2</v>
       </c>
-      <c r="G59" s="32">
+      <c r="G59" s="33">
         <f>SUM(I59:I60)</f>
         <v>-0.12387100000000001</v>
       </c>
@@ -20343,53 +23240,53 @@
       <c r="I59" s="4">
         <v>-6.1882E-2</v>
       </c>
-      <c r="K59" s="31">
+      <c r="K59" s="34">
         <f>(F59-C59)/F59</f>
         <v>-2.560006553690392E-6</v>
       </c>
-      <c r="L59" s="31">
+      <c r="L59" s="34">
         <f>(G59-D59)/G59</f>
         <v>1.2140906669751454E-6</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="1">
         <v>0.90625</v>
       </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
       <c r="H60" s="4">
         <v>-1.2370000000000001E-2</v>
       </c>
       <c r="I60" s="4">
         <v>-6.1989000000000002E-2</v>
       </c>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="1">
         <v>0.90625</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="33">
         <f>(B62-B62^2)-(B61-B61^2)</f>
         <v>-2.63671875E-2</v>
       </c>
-      <c r="D61" s="32">
+      <c r="D61" s="33">
         <f>(B62^3 - 3*B62^2 - B62) - (B61^3 - 3*B61^2 - B61)</f>
         <v>-0.124420166015625</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="33">
         <f>SUM(H61:H62)</f>
         <v>-2.6367000000000002E-2</v>
       </c>
-      <c r="G61" s="32">
+      <c r="G61" s="33">
         <f>SUM(I61:I62)</f>
         <v>-0.12442</v>
       </c>
@@ -20399,53 +23296,53 @@
       <c r="I61" s="4">
         <v>-6.2171999999999998E-2</v>
       </c>
-      <c r="K61" s="31">
+      <c r="K61" s="34">
         <f>(F61-C61)/F61</f>
         <v>-7.1111616793132618E-6</v>
       </c>
-      <c r="L61" s="31">
+      <c r="L61" s="34">
         <f>(G61-D61)/G61</f>
         <v>-1.3343162272720178E-6</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="28"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="1">
         <v>0.9375</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
       <c r="H62" s="4">
         <v>-1.3346E-2</v>
       </c>
       <c r="I62" s="4">
         <v>-6.2247999999999998E-2</v>
       </c>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="1">
         <v>0.9375</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="33">
         <f>(B64-B64^2)-(B63-B63^2)</f>
         <v>-2.83203125E-2</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D63" s="33">
         <f>(B64^3 - 3*B64^2 - B64) - (B63^3 - 3*B63^2 - B63)</f>
         <v>-0.124786376953125</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="33">
         <f>SUM(H63:H64)</f>
         <v>-2.8320000000000001E-2</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="33">
         <f>SUM(I63:I64)</f>
         <v>-0.12478600000000001</v>
       </c>
@@ -20455,53 +23352,53 @@
       <c r="I63" s="4">
         <v>-6.2370000000000002E-2</v>
       </c>
-      <c r="K63" s="31">
+      <c r="K63" s="34">
         <f>(F63-C63)/F63</f>
         <v>-1.1034604519723792E-5</v>
       </c>
-      <c r="L63" s="31">
+      <c r="L63" s="34">
         <f>(G63-D63)/G63</f>
         <v>-3.0207966037213663E-6</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="1">
         <v>0.96875</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
       <c r="H64" s="4">
         <v>-1.4323000000000001E-2</v>
       </c>
       <c r="I64" s="4">
         <v>-6.2415999999999999E-2</v>
       </c>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="1">
         <v>0.96875</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="33">
         <f>(B66-B66^2)-(B65-B65^2)</f>
         <v>-3.02734375E-2</v>
       </c>
-      <c r="D65" s="32">
+      <c r="D65" s="33">
         <f>(B66^3 - 3*B66^2 - B66) - (B65^3 - 3*B65^2 - B65)</f>
         <v>-0.124969482421875</v>
       </c>
-      <c r="F65" s="32">
+      <c r="F65" s="33">
         <f>SUM(H65:H66)</f>
         <v>-3.0273000000000001E-2</v>
       </c>
-      <c r="G65" s="32">
+      <c r="G65" s="33">
         <f>SUM(I65:I66)</f>
         <v>-0.124969</v>
       </c>
@@ -20511,62 +23408,209 @@
       <c r="I65" s="4">
         <v>-6.2476999999999998E-2</v>
       </c>
-      <c r="K65" s="31">
+      <c r="K65" s="34">
         <f>(F65-C65)/F65</f>
         <v>-1.4451821755316711E-5</v>
       </c>
-      <c r="L65" s="31">
+      <c r="L65" s="34">
         <f>(G65-D65)/G65</f>
         <v>-3.8603323624518654E-6</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="1">
         <v>1</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
       <c r="H66" s="4">
         <v>-1.5299E-2</v>
       </c>
       <c r="I66" s="4">
         <v>-6.2491999999999999E-2</v>
       </c>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="225">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A61:A62"/>
@@ -20591,180 +23635,33 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
